--- a/apps.xlsx
+++ b/apps.xlsx
@@ -5631,7 +5631,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>探索并重塑遥远的世界！《Astroneer》的故事发生在 25 世纪星际发现时代，Astroneer 探索着外太空边境，并冒着生命危险在恶劣的环境中发掘稀世珍宝，解开宇宙的奥秘。&lt;br&gt;&lt;br&gt;在这次冒险中，玩家可以在地上或地下共同建造个性化基地，制造探索庞大太阳系的载具，以及利用地形创造他们能想象的任何东西。玩家的创造力和独创性，是在紧张刺激的行星冒险中探索和成功发展的关键！您可以在《Astroneer》内：&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/deform_(3).gif?t=1656698434" /&gt;&lt;br&gt;&lt;strong&gt;像玩黏土一样，重塑您脚下的土地。&lt;/strong&gt;&lt;br&gt;在《Astroneer》内，玩家可以使用变形工具挖掘、收集、塑造以及建造所想的任何事物。使用这种能力挖掘到行星的中心和建造一个通往星空的桥，或仅通过地形制作磐石！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/planets.gif?t=1656698434" /&gt;&lt;br&gt;&lt;strong&gt;在由精心制作、可以完全变形和遍历的行星上生存和探索。&lt;/strong&gt;&lt;br&gt;我们庞大的太阳系包括 7 颗奇妙的行星，玩家可以在它们之间穿梭，并探索每一寸土地：从星球的整个地表，穿越一层层危险的洞穴，直达神秘的核心。每一颗行星都有其独特而富有挑战性的地面和洞穴生物群落，让玩家们能在旅程中体验众多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/bases.gif?t=1656698434" /&gt;&lt;br&gt;&lt;strong&gt;将零部件和物体拼接在一起，建造基地和载具。&lt;/strong&gt;&lt;br&gt;Astroneer 在世界中制造和寻找到的物品可以拼接在一起，以创造出独特物品来应对任何情况。自定义和装饰您的基地和载具，还有装扮你的 Astroneer。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/multiplayer.gif?t=1656698434" /&gt;&lt;br&gt;&lt;strong&gt;与好友玩 4 名玩家在线加入/退出合作模式。 &lt;/strong&gt;&lt;br&gt;与好友同乐，使《Astroneer》更好玩。与其他玩家组队，共同创造大规模工业基地，或在具有丰富创造性的沙盒中创造有趣游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/chambers.gif?t=1656698434" /&gt;&lt;br&gt;&lt;strong&gt;发现并揭开太阳系的奥秘。 &lt;/strong&gt;&lt;br&gt;一旦 Astroneer 们准备好后，他们可以选择去尝试理解，甚至利用在世界中发现的神秘结构所蕴藏的力量。&lt;br&gt;&lt;br&gt;《Astroneer》一开始是以一款抢先体验版游戏在 Steam 上架的，而我们今天的成功缺少不了大家的支持，和给予我们的反馈与意见。现在 1.0 版本已经发行了，而我们将信守诺言，以《Astroneer》为基础，持续发布免费的内容更新。如果您对我们为《Astroneer》所计划的发展方向感到好奇，请记得查看我们的开发路线图，以及我们不断发布的开发视频日志 ！</t>
+          <t>探索并重塑遥远的世界！《Astroneer》的故事发生在 25 世纪星际发现时代，Astroneer 探索着外太空边境，并冒着生命危险在恶劣的环境中发掘稀世珍宝，解开宇宙的奥秘。&lt;br&gt;&lt;br&gt;在这次冒险中，玩家可以在地上或地下共同建造个性化基地，制造探索庞大太阳系的载具，以及利用地形创造他们能想象的任何东西。玩家的创造力和独创性，是在紧张刺激的行星冒险中探索和成功发展的关键！您可以在《Astroneer》内：&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/deform_(3).gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;像玩黏土一样，重塑您脚下的土地。&lt;/strong&gt;&lt;br&gt;在《Astroneer》内，玩家可以使用变形工具挖掘、收集、塑造以及建造所想的任何事物。使用这种能力挖掘到行星的中心和建造一个通往星空的桥，或仅通过地形制作磐石！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/planets.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;在由精心制作、可以完全变形和遍历的行星上生存和探索。&lt;/strong&gt;&lt;br&gt;我们庞大的太阳系包括 7 颗奇妙的行星，玩家可以在它们之间穿梭，并探索每一寸土地：从星球的整个地表，穿越一层层危险的洞穴，直达神秘的核心。每一颗行星都有其独特而富有挑战性的地面和洞穴生物群落，让玩家们能在旅程中体验众多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/bases.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;将零部件和物体拼接在一起，建造基地和载具。&lt;/strong&gt;&lt;br&gt;Astroneer 在世界中制造和寻找到的物品可以拼接在一起，以创造出独特物品来应对任何情况。自定义和装饰您的基地和载具，还有装扮你的 Astroneer。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/multiplayer.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;与好友玩 4 名玩家在线加入/退出合作模式。 &lt;/strong&gt;&lt;br&gt;与好友同乐，使《Astroneer》更好玩。与其他玩家组队，共同创造大规模工业基地，或在具有丰富创造性的沙盒中创造有趣游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/chambers.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;发现并揭开太阳系的奥秘。 &lt;/strong&gt;&lt;br&gt;一旦 Astroneer 们准备好后，他们可以选择去尝试理解，甚至利用在世界中发现的神秘结构所蕴藏的力量。&lt;br&gt;&lt;br&gt;《Astroneer》一开始是以一款抢先体验版游戏在 Steam 上架的，而我们今天的成功缺少不了大家的支持，和给予我们的反馈与意见。现在 1.0 版本已经发行了，而我们将信守诺言，以《Astroneer》为基础，持续发布免费的内容更新。如果您对我们为《Astroneer》所计划的发展方向感到好奇，请记得查看我们的开发路线图，以及我们不断发布的开发视频日志 ！</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;h2 class="bb_tag"&gt;一个微观尺度上的RTS&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1688575352" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;蚁族战争的艺术&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1688575352" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;一场疯狂的实验&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1688575352" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1688575352" /&gt;</t>
+          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;h2 class="bb_tag"&gt;一个微观尺度上的RTS&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1689344664" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;蚁族战争的艺术&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1689344664" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;一场疯狂的实验&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1689344664" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1689344664" /&gt;</t>
         </is>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>《theHunter: Call of the Wild》将为您带来前所未有的狩猎体验。让自己投身一望无际的广袤世界，与各类生机勃勃的动植物为伴：从栩栩如生、威风凛凛的飞禽走兽到枝繁叶茂、遮天蔽日的参天大树，游戏里应有尽有。您大可孤身一人开启冒险之旅，也可与朋友结伴踏上征程。您并非这个世界中的匆匆过客，您的一呼一吸、一举一动都与这里息息相关，请将这一点牢记在心。当您在经过长途跋涉后，终于透过灌木丛第一次得见赤鹿的雄伟身姿，在那一瞬间，您一定会感到血脉偾张。&lt;h2 class="bb_tag"&gt;在开放世界中狩猎的体验从未如此真实&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/tHCOTW_constantly_updating.png?t=1687251606" /&gt;&lt;br&gt;每一处保护区均由我们精心打造，只为引领您深入丰富多样的地域，领略当地富饶的生物群落所构筑的盛景。要不了多久，您就会了解各种动物的栖息地特征，并且能够分析它们的行为、习性和行动轨迹，从而更好地展开追踪。然后，您就需要评估所选定的目标的价值，无论是一头赤鹿的鹿角尺寸大小和对称性，还是一只黑额黑雁的羽毛纹饰，这些都将是决定您是否要扣下扳机的因素。&lt;h2 class="bb_tag"&gt;你的猎场你做主&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/Your_hunt_your_choice.gif?t=1687251606" /&gt;&lt;br&gt;打造专属于您自己的狩猎体验。我们为您准备了多种选择，从步枪到弓箭应有尽有，每种枪械还配备了多种不同的弹药，用来对付体型各异的猎物们。您可依照自己的偏好来进行选择，同时也别忘了经常练习，因为在狩猎过程中，辨别风向和枪法同样重要。除此之外，您还要学会运用各式各样的仿声哨甚至气味来引诱目标向自己靠近，寻找最佳的狩猎地点，以求一击致命。&lt;h2 class="bb_tag"&gt;团结力量大&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/Better_together.gif?t=1687251606" /&gt;&lt;br&gt;《theHunter:Call of the Wild》中还包含了多人游戏模式可供选择。您可以与他人合作，也可以互相比拼，游戏内设置了各种挑战，还有不定期举办的狩猎活动等着您的参与。此外，如果您想要前往付费DLC保护区游览和狩猎，只需加入拥有此DLC的玩家的游戏即可。&lt;h2 class="bb_tag"&gt;源源不断的更新和完善&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/tHCOTW_realistic_hunting_game.png?t=1687251606" /&gt;&lt;br&gt;《theHunter:Call of the Wild》始终都在不断地自我完善，与此同时，我们还定期推出各种免费和付费内容，希望能为玩家带来更加丰富的游戏体验。一直以来，游戏团队都在致力于向游戏中添加更多的元素，从全新的保护区、各式武器和装备礼包，到更加逼真的鹿角效果(TruRACs)等等无所不有。</t>
+          <t>在这个风光旖旎又栩栩如生的开放世界中，体验与众不同、身临其境的狩猎快感——我们与游戏社区携手合作，定期更新。可选择投身于单人狩猎模式，或与好友分享终极狩猎体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/CotW_Basegame_Descriptive_TheMostRealisticOpenWorldHuntingExperience.gif?t=1689324330" /&gt;&lt;br&gt;&lt;strong&gt;在开放世界中体验身临其境的狩猎快感&lt;/strong&gt;&lt;br&gt;&lt;br&gt;自由徜徉于精心制作的游戏环境中，探索不同地区和生物群落中的独特动植物。体验复杂的动物行为、变化无常的天气、日夜更迭交替、模拟弹道效果、栩栩如生的叫声及随风飘来的猎物气息。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/CotW_Basegame_Descriptive_YourHuntYourChoice.gif?t=1689324330" /&gt;&lt;br&gt;&lt;strong&gt;狩猎体验，由你做主&lt;/strong&gt;&lt;br&gt;&lt;br&gt;自主选择各种武器、弹药和装备，创造终极狩猎体验。游戏中有白尾兔、绿头鸭、黑熊、麋鹿和驼鹿等各种各样的野生动物，你需要制定策略，选择合适的武器，根据各种动物的独特行为和所处环境追踪、引诱和伏击它们。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/CotW_Basegame_Descriptive_EvolvingThroughPlayerCollaboration.gif?t=1689324330" /&gt;&lt;br&gt;&lt;strong&gt;通过玩家合作不断升级&lt;/strong&gt;&lt;br&gt;&lt;br&gt;theHunter: Call of the Wild与社区紧密合作，提供丰富的付费和免费内容，包括保护区、狩猎装备、武器包和战利品小屋。随着新内容的定期更新，玩家可收获不断升级的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/CotW_Basegame_Descriptive_HonorTheHunt.gif?t=1689324330" /&gt;&lt;br&gt;&lt;strong&gt;战利品荣耀&lt;/strong&gt;&lt;br&gt;&lt;br&gt;每次狩猎都蕴含是一个独一无二的故事。在宽敞的战利品小屋中展示最珍贵的收获，或者在壁炉边放松，计划下一次狩猎之旅，让自己在莱顿湖和赫希费尔登保护区的胜利故事永远流传。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/518790/extras/CotW_Basegame_Descriptive_BetterTogether.gif?t=1689324330" /&gt;&lt;br&gt;&lt;strong&gt;合作无间&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在精彩纷呈的狩猎区中体验最多8人的在线多人游戏。与好友通力合作制定狩猎策略，或奋力拼搏竞争，一举拿下最令人印象深刻的战利品。只要你的狩猎队伍中有一位成员拥有任一付费版DLC保护区权限，你就可以进入该保护区中游戏。</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Fd8RgPE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/Discord_2_v1__1_.png?t=1689143817" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;成为终极大厨！在样样俱全、装饰精美的逼真厨房里掌控一切！解锁并掌握超过80种食谱，使用数十种真实食材，烹饪出完美菜肴。全过程均采用真实物理效果！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif01.gif?t=1689143817" /&gt;&lt;br&gt;&lt;br&gt;扒炉、煤气炉、烤箱、搅拌机……你的厨房可谓应有尽有。游戏中还有大量厨具，锅碗瓢盆一应俱全！食材种类超过120种！包括鱼肉蔬果、奶制品及各类液体。你还能用种类丰富的香草与香料来调味！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif03.gif?t=1689143817" /&gt;&lt;br&gt;&lt;br&gt;真实的厨房体验！所有食材都会根据你的行为而改变气味、外观、口味。每次你切土豆片、翻牛排或煮汤时，都会采用真实的物理效果。在学会做菜的基本操作后，你将开始创造自己的菜肴，通过一道道菜不断成长。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif02.gif?t=1689143817" /&gt;&lt;br&gt;&lt;br&gt;在职业模式中，你将从头起家，通过努力成为传奇大厨，让你与你的餐厅名震四方。你将从基础开始循序渐进，不断解锁越来越复杂的菜肴。随着你不断积累名声与经验，你将有机会服务更多的客人。一旦你掌握了食谱及流程，就可以进一步解锁各类特殊技能及能力。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif04.gif?t=1689143817" /&gt;&lt;br&gt;&lt;br&gt;如果你不想墨守成规，不妨来试试沙盒模式。你可以随意使用所有食谱与食材，随心所欲地做自己想做的菜。你甚至都不用做任何菜！真实物理效果给予你无限的可能。你可以像投飞镖一样乱扔刀具，拿砧板当骨牌玩，给整个厨房点上火，让烤箱爆炸，最后再用灭火器给自己救场！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif06.gif?t=1689143817" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/Fd8RgPE" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/Discord_2_v1__1_.png?t=1689299256" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;成为终极大厨！在样样俱全、装饰精美的逼真厨房里掌控一切！解锁并掌握超过80种食谱，使用数十种真实食材，烹饪出完美菜肴。全过程均采用真实物理效果！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif01.gif?t=1689299256" /&gt;&lt;br&gt;&lt;br&gt;扒炉、煤气炉、烤箱、搅拌机……你的厨房可谓应有尽有。游戏中还有大量厨具，锅碗瓢盆一应俱全！食材种类超过120种！包括鱼肉蔬果、奶制品及各类液体。你还能用种类丰富的香草与香料来调味！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif03.gif?t=1689299256" /&gt;&lt;br&gt;&lt;br&gt;真实的厨房体验！所有食材都会根据你的行为而改变气味、外观、口味。每次你切土豆片、翻牛排或煮汤时，都会采用真实的物理效果。在学会做菜的基本操作后，你将开始创造自己的菜肴，通过一道道菜不断成长。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif02.gif?t=1689299256" /&gt;&lt;br&gt;&lt;br&gt;在职业模式中，你将从头起家，通过努力成为传奇大厨，让你与你的餐厅名震四方。你将从基础开始循序渐进，不断解锁越来越复杂的菜肴。随着你不断积累名声与经验，你将有机会服务更多的客人。一旦你掌握了食谱及流程，就可以进一步解锁各类特殊技能及能力。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif04.gif?t=1689299256" /&gt;&lt;br&gt;&lt;br&gt;如果你不想墨守成规，不妨来试试沙盒模式。你可以随意使用所有食谱与食材，随心所欲地做自己想做的菜。你甚至都不用做任何菜！真实物理效果给予你无限的可能。你可以像投飞镖一样乱扔刀具，拿砧板当骨牌玩，给整个厨房点上火，让烤箱爆炸，最后再用灭火器给自己救场！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/641320/extras/gif06.gif?t=1689299256" /&gt;</t>
         </is>
       </c>
     </row>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -18645,7 +18645,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -19938,7 +19938,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -29253,7 +29253,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -30112,7 +30112,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1688629981" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1688629981" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1688629981" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1688629981" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1688629981" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1688629981" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1688629981" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;探索传奇故事&lt;/h2&gt;循着这段旅程，你将前往世界之伤，直面一道连通深渊界的位面裂隙，感受席卷这片土地的恐惧。一个多世纪以来，周边国家为击退敌军而英勇奋战，但始终收效甚微。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__4_.gif?t=1689322009" /&gt;&lt;br&gt;&lt;br&gt;如今，你有机会结束这场纷争，但救世之路绝不会一帆风顺。你会成为受一众杰出圣武士支持的光辉天使？还是成为强大的死灵法师，掌控不死的亡灵大军？抑或全然不同的其他角色？率领你的军队，挑战强大的恶魔领主。你的远征将会引发一系列事件，彻底改变你和整个世界的命运。&lt;h2 class="bb_tag"&gt;随心搭配，玩转英雄&lt;/h2&gt;第一版《开拓者》的规则极具深度、灵活性及丰富性，你可以根据自己的想象，随心所欲地创建任何角色。共有25个职业、12个种族以及超过一千种法术、专长与能力，方便玩家根据自己的风格挑选。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__9_.gif?t=1689322009" /&gt;&lt;h2 class="bb_tag"&gt;不同选择，引向殊途&lt;/h2&gt;你的决定比以往任何时候都更加重要。你的目标已经明了，但通往目标的道路只能由你自行开辟。成王败寇，谁主沉浮？做出你的选择，看看世界会因此发生何等变化。  &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__6_.gif?t=1689322009" /&gt;&lt;h2 class="bb_tag"&gt;全新的战斗方式&lt;/h2&gt;我们提供可暂停的即时模式和回合制模式，两种战斗模式皆可供你横扫敌军。你可以在两种战斗模式中快速切换，或紧或慢，随你心意。通过《开拓者》的独特规则，你还可以体验包括骑乘战斗在内的进阶作战方式。发挥谋略，合理选用！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__7_.gif?t=1689322009" /&gt;&lt;h2 class="bb_tag"&gt;招贤纳士&lt;/h2&gt;10多位独特伙伴将与你携手同行，共谋伟业。只要赢得他们的信任和尊重，无论前方有何艰难险阻，他们都会鼎力相助。倘若理念相悖……或许也只能分道扬镳了。 &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__8_.gif?t=1689322009" /&gt;&lt;h2 class="bb_tag"&gt;领导圣教军&lt;/h2&gt;要想净化恶魔泛滥成灾的土地，仅靠一支冒险者小队远远不够。你还要掌握圣教军的指挥权，领导他们迈向胜利。在此过程中，你既是一名战略家，以纵观全局的视角运筹帷幄，同时也是一名前线指挥官，在全新的战术模式战斗中大显身手。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__3_.gif?t=1689322009" /&gt;&lt;h2 class="bb_tag"&gt;选择道途&lt;/h2&gt;探索9条各不相同的神话道途，获得非凡能力，让尔后种种都随之一变。你的决定可能会让你成为神圣的天使、狂暴的恶魔、强大的巫妖、狡诈的诡计大师、超然的御衡者、桀骜的灵使、睿智的金龙、吞噬一切的虫群行者，或是保留肉体凡身，披荆斩棘，成为当世传奇。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1184370/extras/PF2__1_.gif?t=1689322009" /&gt;</t>
         </is>
       </c>
     </row>
@@ -32662,7 +32662,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Definitive Edition 包含了备受好评的《勇者斗恶龙 XI》最初版本的全部内容，并增加了额外的特定角色场景，可以选择播放原版配乐或大型管弦乐版本的音乐，可以在 2D 和 3D 图形模式之间切换，也可以选择日语配音等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_A.jpg?t=1683878206" /&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;&lt;br&gt;《勇者斗恶龙XI S》是由创作者Yuji Horii、角色设计师Akira Toriyama和作曲家Koichi Sugiyama打造的传奇角色扮演游戏系列的最新一部作品。这第十一部主要作品是一个完全独立的体验，以全新的角色、美丽细腻的世界、精确调校的回合制战斗以及令人沉浸于其中的故事为特色，吸引了众多忠实粉丝和系列新手玩家。在日本发布后，《勇者斗恶龙XI》赢得了数项游戏大奖，包括 PlayStation 的白金赏，以及日本极有影响力的视频游戏出版物《法米通》的完美 40/40 分数。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_B.jpg?t=1683878206" /&gt;&lt;h2 class="bb_tag"&gt;剧情&lt;/h2&gt;&lt;br&gt;一个即将在村内参加成年仪式的年轻人和他的童年朋友一起前往神明岩。在一系列意想不到的事件后，这位勇敢的年轻人得知自己是一个来自被遗忘时代的传奇英雄的转世。&lt;br&gt;&lt;br&gt;这位年轻的英雄踏上了探索未知世界，揭开他过去奥秘的旅程……但他受到的却不是热烈欢迎。在向国王透露了自己的身份后，这位英雄被打上了“恶魔之子”的烙印，并惨遭一支无情军队的追捕。&lt;br&gt;&lt;br&gt;为了逃离追捕者，这位英雄召集了一群有趣的冒险家，他们相信他就是重生的勇者。当他们得知世界正面临不祥的威胁时，这位英雄和他新发现的同伴便将穿越广阔的大陆和浩瀚的海洋，开启一场冒险之旅。&lt;h2 class="bb_tag"&gt;主要特色&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_C.jpg?t=1683878206" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;跟随着引人入胜的剧情慢慢揭开一个史诗般的奥秘：&lt;/h2&gt;你就是勇者，一个来自被遗忘时代的英雄的转世。在被诋毁为恶魔，而且遭到邪恶君主的追杀之时，你必须展开一场探索之旅，以揭开你命运中的奥秘，并拯救一个濒临毁灭的世界。准备好进入这个充满曲折，令你身临其境并欲罢不能的沉浸式剧情之中。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;组建一支由忠诚伙伴构成的生动有趣的阵容：&lt;/h2&gt;与你结伴而行的是一伙有趣的冒险家，他们各有精彩纷呈的背景故事和独具特色的个性。著名的漫画家Akira Toriyama以其独一无二的风格将《勇者斗恶龙》中的人物描绘得栩栩如生。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;探索广阔、美丽而鲜活的世界：&lt;/h2&gt;每个角落里都潜藏着令人兴奋的惊喜，你可以观察非玩家角色的日常生活、怪物如何改变自己的行为以适应环境，也可以通过步行、骑马或怪物坐骑进入新的区域。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_D.jpg?t=1683878206" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;体验带有现代特色的经典回合制战斗：&lt;/h2&gt;《勇者斗恶龙XI》既拥有适合新手玩家的简单游戏机制，又具有可满足硬核玩家需求的深度。随着冒险的深入，你将学会不可思议的新能力，并联手强大的盟友，打倒最可怕的敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;欢乐消遣并拯救世界：&lt;/h2&gt;海量的支线任务和令人着迷的迷你游戏为你提供了足够的内容，让你轻轻松松就可玩上超过 100 个小时。你将面临难以逾越的困难和不可思议的邪恶力量……然而，尽管风险很高，仍有许多妙趣横生的消遣等你去探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;选择“游玩限制设定”挑战自己：&lt;/h2&gt;开始新游戏时，你可通过不同的设置，自定义游戏难度，从而接受更严苛的挑战。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>Definitive Edition 包含了备受好评的《勇者斗恶龙 XI》最初版本的全部内容，并增加了额外的特定角色场景，可以选择播放原版配乐或大型管弦乐版本的音乐，可以在 2D 和 3D 图形模式之间切换，也可以选择日语配音等等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_A.jpg?t=1689350505" /&gt;&lt;h2 class="bb_tag"&gt;概述&lt;/h2&gt;&lt;br&gt;《勇者斗恶龙XI S》是由创作者Yuji Horii、角色设计师Akira Toriyama和作曲家Koichi Sugiyama打造的传奇角色扮演游戏系列的最新一部作品。这第十一部主要作品是一个完全独立的体验，以全新的角色、美丽细腻的世界、精确调校的回合制战斗以及令人沉浸于其中的故事为特色，吸引了众多忠实粉丝和系列新手玩家。在日本发布后，《勇者斗恶龙XI》赢得了数项游戏大奖，包括 PlayStation 的白金赏，以及日本极有影响力的视频游戏出版物《法米通》的完美 40/40 分数。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_B.jpg?t=1689350505" /&gt;&lt;h2 class="bb_tag"&gt;剧情&lt;/h2&gt;&lt;br&gt;一个即将在村内参加成年仪式的年轻人和他的童年朋友一起前往神明岩。在一系列意想不到的事件后，这位勇敢的年轻人得知自己是一个来自被遗忘时代的传奇英雄的转世。&lt;br&gt;&lt;br&gt;这位年轻的英雄踏上了探索未知世界，揭开他过去奥秘的旅程……但他受到的却不是热烈欢迎。在向国王透露了自己的身份后，这位英雄被打上了“恶魔之子”的烙印，并惨遭一支无情军队的追捕。&lt;br&gt;&lt;br&gt;为了逃离追捕者，这位英雄召集了一群有趣的冒险家，他们相信他就是重生的勇者。当他们得知世界正面临不祥的威胁时，这位英雄和他新发现的同伴便将穿越广阔的大陆和浩瀚的海洋，开启一场冒险之旅。&lt;h2 class="bb_tag"&gt;主要特色&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_C.jpg?t=1689350505" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;跟随着引人入胜的剧情慢慢揭开一个史诗般的奥秘：&lt;/h2&gt;你就是勇者，一个来自被遗忘时代的英雄的转世。在被诋毁为恶魔，而且遭到邪恶君主的追杀之时，你必须展开一场探索之旅，以揭开你命运中的奥秘，并拯救一个濒临毁灭的世界。准备好进入这个充满曲折，令你身临其境并欲罢不能的沉浸式剧情之中。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;组建一支由忠诚伙伴构成的生动有趣的阵容：&lt;/h2&gt;与你结伴而行的是一伙有趣的冒险家，他们各有精彩纷呈的背景故事和独具特色的个性。著名的漫画家Akira Toriyama以其独一无二的风格将《勇者斗恶龙》中的人物描绘得栩栩如生。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;探索广阔、美丽而鲜活的世界：&lt;/h2&gt;每个角落里都潜藏着令人兴奋的惊喜，你可以观察非玩家角色的日常生活、怪物如何改变自己的行为以适应环境，也可以通过步行、骑马或怪物坐骑进入新的区域。&lt;/li&gt;&lt;/ul&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1295510/extras/DQ11S_details_D.jpg?t=1689350505" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;体验带有现代特色的经典回合制战斗：&lt;/h2&gt;《勇者斗恶龙XI》既拥有适合新手玩家的简单游戏机制，又具有可满足硬核玩家需求的深度。随着冒险的深入，你将学会不可思议的新能力，并联手强大的盟友，打倒最可怕的敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;欢乐消遣并拯救世界：&lt;/h2&gt;海量的支线任务和令人着迷的迷你游戏为你提供了足够的内容，让你轻轻松松就可玩上超过 100 个小时。你将面临难以逾越的困难和不可思议的邪恶力量……然而，尽管风险很高，仍有许多妙趣横生的消遣等你去探索。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;h2 class="bb_tag"&gt;选择“游玩限制设定”挑战自己：&lt;/h2&gt;开始新游戏时，你可通过不同的设置，自定义游戏难度，从而接受更严苛的挑战。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
@@ -35381,7 +35381,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/立绘展示-steam.jpg?t=1685099509" /&gt;&lt;br&gt;&lt;strong&gt;明代诗人归有光曾以山海经为题作诗称：昔年曾读《山海经》，&lt;br&gt;所称怪兽多异名。阴阳变幻靡不有，异物非异亦非神。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-1.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介1.gif?t=1685099509" /&gt;&lt;br&gt;鬼谷八荒, 除了财侣法地，还有诡秘莫测的妖兽，危机重重的秘境，难以逾越的天堑，彩光四射的秘宝，等着被人发现。&lt;br&gt;你将作为一个炼气期小修士从愚村出发，修炼，变强，危机中九死一生。每一次突破，你都能逆天改命，助你在旅途中披荆斩棘，跨越五大州，睥睨天下，再闯上天元山，向天道一问。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-2.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介2.gif?t=1685099509" /&gt;&lt;br&gt;我们构建了完整的NPC互动生态，他们“生活”在这里，有自己的朋友亲族关系网，自己的人生轨迹，不受玩家的进度限制，除非，你决定出手干涉。&lt;br&gt;你可兼济天下，携手红颜；你可独善其身，快意恩仇；你亦可逆天而行，与全世界为敌。&lt;br&gt;和NPC们切磋武艺，传授道心，拜师学艺，收徒授业。和NPC在拍卖场喊价厮杀，结束后拔刀相向或顺手牵羊。你将成为修仙界群像中的一部分，是大放异彩，还是默默修行，皆看你如何选择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-3.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.1.gif?t=1685099509" /&gt;&lt;br&gt;英雄救美？爱人为你争风吃醋？五十年之约？卷入神秘组织的明争暗斗？遗迹遇宝？又惨遭夺宝？&lt;br&gt;这些都有可能发生在你身上。&lt;br&gt;除NPC交互之外，这里还有丰富的随机事件以及支线任务，在你的旅途中给予惊喜。它们或许会让你烦恼，喂你刀子，也可能让你化险为夷，甚至破而后立。在一步又一步的选择的过程中，你将谱写只属于你的，独一无二的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-4.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.gif?t=1685099509" /&gt;&lt;br&gt;我们构建了宗门的经营玩法，身为弟子，长老以及宗主，将会有不同的体验。你可以加入大宗门，从最底层的弟子做起，一步步爬上权力的阶梯。也可以空降落魄的小宗门，力挽狂澜，带领宗门重振雄风。&lt;br&gt;弟子可以完成宗门任务，在宗门大比中出战，或随同门出征作战，为宗门积累资源，为宗门赢取荣誉，为宗门扩张土地。&lt;br&gt;长老可以管辖门下弟子，传道授业，分配任务职能，加速宗门成长，在宗门大战中指导弟子大杀四方。&lt;br&gt;宗主则需要统筹全宗的秩序，制定侵略和防守计划，攻防灵矿等资源点，甚至占领他人宗门，夺取专属逆天改命和秘籍。&lt;br&gt;一统八荒，只要你有宏图壮志和铁腕手段，不再只是幻想。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-5.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介4.gif?t=1685099509" /&gt;&lt;br&gt;闯荡这世界，需要有傍身之技。&lt;br&gt;心法筑根基，武技/灵技探深浅，身法创机会，绝技造优势，神通定乾坤。不同秘籍有不同的特性。&lt;br&gt;修仙者还有十二大灵根，对应不同的流派，你可以选择专精一路，或全面发展。十二种灵根都有对应的功法秘籍，排列组合可组成丰富的流派，孰强孰弱，皆由你评断。&lt;br&gt;城镇琅琊阁，宗门功法阁，秘境，各种任务，甚至路边一个土坑里，都可能发现珍奇秘籍，充满惊喜。&lt;br&gt;这个世界上还有上百种珍奇妖兽，无数修仙者，鬼怪，仙人供您检验自己的实力。挑战升仙擂台，冲击各大洲参玄榜，以此证明自己的实力。你能否踏破冥山的障碍一路向前？构筑的流派能否经历大浪淘沙的检验？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-6.png?t=1685099509" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介5.gif?t=1685099509" /&gt;&lt;br&gt;练好自身本领，也别忘了外力加持。&lt;br&gt;开局三大神器，每一个都会给你带来一种独一无二的系统。双鱼佩可以复活自己和选中之人，昊天眼可以偷学妖兽技能，洞察更多信息，而炼妖壶则可以让你捕获BOSS成为你的小跟班，替你战斗或派遣寻求宝物。&lt;br&gt;除了开局神器之外，你也能炼制你自己的法宝，并收服器灵与你一起战斗，此外器灵还会在探索中给予你陪伴，触发专属的奇遇等等。&lt;br&gt;在这里，你还可以学习炼丹画符，堪舆风水，制作帮助你探索世界，整蛊仇人，战斗杀敌的种种道具。至于如何发挥它们真正的作用，皆看各位道友如何抉择。&lt;br&gt;&lt;br&gt;----------------------------------------------------------------------&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/620x100-steam-开发者的话.png?t=1685099509" /&gt;&lt;br&gt;我们希望玩家在本游戏中，坚守本心，敢与困难做斗争；慎做抉择，把握自己的命运。天道酬勤，小菜鸡也可以通过奋斗，逆天改命。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/立绘展示-steam.jpg?t=1689322206" /&gt;&lt;br&gt;&lt;strong&gt;明代诗人归有光曾以山海经为题作诗称：昔年曾读《山海经》，&lt;br&gt;所称怪兽多异名。阴阳变幻靡不有，异物非异亦非神。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-1.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介1.gif?t=1689322206" /&gt;&lt;br&gt;鬼谷八荒, 除了财侣法地，还有诡秘莫测的妖兽，危机重重的秘境，难以逾越的天堑，彩光四射的秘宝，等着被人发现。&lt;br&gt;你将作为一个炼气期小修士从愚村出发，修炼，变强，危机中九死一生。每一次突破，你都能逆天改命，助你在旅途中披荆斩棘，跨越五大州，睥睨天下，再闯上天元山，向天道一问。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-2.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介2.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了完整的NPC互动生态，他们“生活”在这里，有自己的朋友亲族关系网，自己的人生轨迹，不受玩家的进度限制，除非，你决定出手干涉。&lt;br&gt;你可兼济天下，携手红颜；你可独善其身，快意恩仇；你亦可逆天而行，与全世界为敌。&lt;br&gt;和NPC们切磋武艺，传授道心，拜师学艺，收徒授业。和NPC在拍卖场喊价厮杀，结束后拔刀相向或顺手牵羊。你将成为修仙界群像中的一部分，是大放异彩，还是默默修行，皆看你如何选择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-3.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.1.gif?t=1689322206" /&gt;&lt;br&gt;英雄救美？爱人为你争风吃醋？五十年之约？卷入神秘组织的明争暗斗？遗迹遇宝？又惨遭夺宝？&lt;br&gt;这些都有可能发生在你身上。&lt;br&gt;除NPC交互之外，这里还有丰富的随机事件以及支线任务，在你的旅途中给予惊喜。它们或许会让你烦恼，喂你刀子，也可能让你化险为夷，甚至破而后立。在一步又一步的选择的过程中，你将谱写只属于你的，独一无二的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-4.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了宗门的经营玩法，身为弟子，长老以及宗主，将会有不同的体验。你可以加入大宗门，从最底层的弟子做起，一步步爬上权力的阶梯。也可以空降落魄的小宗门，力挽狂澜，带领宗门重振雄风。&lt;br&gt;弟子可以完成宗门任务，在宗门大比中出战，或随同门出征作战，为宗门积累资源，为宗门赢取荣誉，为宗门扩张土地。&lt;br&gt;长老可以管辖门下弟子，传道授业，分配任务职能，加速宗门成长，在宗门大战中指导弟子大杀四方。&lt;br&gt;宗主则需要统筹全宗的秩序，制定侵略和防守计划，攻防灵矿等资源点，甚至占领他人宗门，夺取专属逆天改命和秘籍。&lt;br&gt;一统八荒，只要你有宏图壮志和铁腕手段，不再只是幻想。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-5.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介4.gif?t=1689322206" /&gt;&lt;br&gt;闯荡这世界，需要有傍身之技。&lt;br&gt;心法筑根基，武技/灵技探深浅，身法创机会，绝技造优势，神通定乾坤。不同秘籍有不同的特性。&lt;br&gt;修仙者还有十二大灵根，对应不同的流派，你可以选择专精一路，或全面发展。十二种灵根都有对应的功法秘籍，排列组合可组成丰富的流派，孰强孰弱，皆由你评断。&lt;br&gt;城镇琅琊阁，宗门功法阁，秘境，各种任务，甚至路边一个土坑里，都可能发现珍奇秘籍，充满惊喜。&lt;br&gt;这个世界上还有上百种珍奇妖兽，无数修仙者，鬼怪，仙人供您检验自己的实力。挑战升仙擂台，冲击各大洲参玄榜，以此证明自己的实力。你能否踏破冥山的障碍一路向前？构筑的流派能否经历大浪淘沙的检验？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-6.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介5.gif?t=1689322206" /&gt;&lt;br&gt;练好自身本领，也别忘了外力加持。&lt;br&gt;开局三大神器，每一个都会给你带来一种独一无二的系统。双鱼佩可以复活自己和选中之人，昊天眼可以偷学妖兽技能，洞察更多信息，而炼妖壶则可以让你捕获BOSS成为你的小跟班，替你战斗或派遣寻求宝物。&lt;br&gt;除了开局神器之外，你也能炼制你自己的法宝，并收服器灵与你一起战斗，此外器灵还会在探索中给予你陪伴，触发专属的奇遇等等。&lt;br&gt;在这里，你还可以学习炼丹画符，堪舆风水，制作帮助你探索世界，整蛊仇人，战斗杀敌的种种道具。至于如何发挥它们真正的作用，皆看各位道友如何抉择。&lt;br&gt;&lt;br&gt;----------------------------------------------------------------------&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/620x100-steam-开发者的话.png?t=1689322206" /&gt;&lt;br&gt;我们希望玩家在本游戏中，坚守本心，敢与困难做斗争；慎做抉择，把握自己的命运。天道酬勤，小菜鸡也可以通过奋斗，逆天改命。</t>
         </is>
       </c>
     </row>
@@ -38698,7 +38698,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -5631,7 +5631,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>探索并重塑遥远的世界！《Astroneer》的故事发生在 25 世纪星际发现时代，Astroneer 探索着外太空边境，并冒着生命危险在恶劣的环境中发掘稀世珍宝，解开宇宙的奥秘。&lt;br&gt;&lt;br&gt;在这次冒险中，玩家可以在地上或地下共同建造个性化基地，制造探索庞大太阳系的载具，以及利用地形创造他们能想象的任何东西。玩家的创造力和独创性，是在紧张刺激的行星冒险中探索和成功发展的关键！您可以在《Astroneer》内：&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/deform_(3).gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;像玩黏土一样，重塑您脚下的土地。&lt;/strong&gt;&lt;br&gt;在《Astroneer》内，玩家可以使用变形工具挖掘、收集、塑造以及建造所想的任何事物。使用这种能力挖掘到行星的中心和建造一个通往星空的桥，或仅通过地形制作磐石！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/planets.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;在由精心制作、可以完全变形和遍历的行星上生存和探索。&lt;/strong&gt;&lt;br&gt;我们庞大的太阳系包括 7 颗奇妙的行星，玩家可以在它们之间穿梭，并探索每一寸土地：从星球的整个地表，穿越一层层危险的洞穴，直达神秘的核心。每一颗行星都有其独特而富有挑战性的地面和洞穴生物群落，让玩家们能在旅程中体验众多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/bases.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;将零部件和物体拼接在一起，建造基地和载具。&lt;/strong&gt;&lt;br&gt;Astroneer 在世界中制造和寻找到的物品可以拼接在一起，以创造出独特物品来应对任何情况。自定义和装饰您的基地和载具，还有装扮你的 Astroneer。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/multiplayer.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;与好友玩 4 名玩家在线加入/退出合作模式。 &lt;/strong&gt;&lt;br&gt;与好友同乐，使《Astroneer》更好玩。与其他玩家组队，共同创造大规模工业基地，或在具有丰富创造性的沙盒中创造有趣游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/chambers.gif?t=1689283289" /&gt;&lt;br&gt;&lt;strong&gt;发现并揭开太阳系的奥秘。 &lt;/strong&gt;&lt;br&gt;一旦 Astroneer 们准备好后，他们可以选择去尝试理解，甚至利用在世界中发现的神秘结构所蕴藏的力量。&lt;br&gt;&lt;br&gt;《Astroneer》一开始是以一款抢先体验版游戏在 Steam 上架的，而我们今天的成功缺少不了大家的支持，和给予我们的反馈与意见。现在 1.0 版本已经发行了，而我们将信守诺言，以《Astroneer》为基础，持续发布免费的内容更新。如果您对我们为《Astroneer》所计划的发展方向感到好奇，请记得查看我们的开发路线图，以及我们不断发布的开发视频日志 ！</t>
+          <t>探索并重塑遥远的世界！《Astroneer》的故事发生在 25 世纪星际发现时代，Astroneer 探索着外太空边境，并冒着生命危险在恶劣的环境中发掘稀世珍宝，解开宇宙的奥秘。&lt;br&gt;&lt;br&gt;在这次冒险中，玩家可以在地上或地下共同建造个性化基地，制造探索庞大太阳系的载具，以及利用地形创造他们能想象的任何东西。玩家的创造力和独创性，是在紧张刺激的行星冒险中探索和成功发展的关键！您可以在《Astroneer》内：&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/deform_(3).gif?t=1689355883" /&gt;&lt;br&gt;&lt;strong&gt;像玩黏土一样，重塑您脚下的土地。&lt;/strong&gt;&lt;br&gt;在《Astroneer》内，玩家可以使用变形工具挖掘、收集、塑造以及建造所想的任何事物。使用这种能力挖掘到行星的中心和建造一个通往星空的桥，或仅通过地形制作磐石！ &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/planets.gif?t=1689355883" /&gt;&lt;br&gt;&lt;strong&gt;在由精心制作、可以完全变形和遍历的行星上生存和探索。&lt;/strong&gt;&lt;br&gt;我们庞大的太阳系包括 7 颗奇妙的行星，玩家可以在它们之间穿梭，并探索每一寸土地：从星球的整个地表，穿越一层层危险的洞穴，直达神秘的核心。每一颗行星都有其独特而富有挑战性的地面和洞穴生物群落，让玩家们能在旅程中体验众多挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/bases.gif?t=1689355883" /&gt;&lt;br&gt;&lt;strong&gt;将零部件和物体拼接在一起，建造基地和载具。&lt;/strong&gt;&lt;br&gt;Astroneer 在世界中制造和寻找到的物品可以拼接在一起，以创造出独特物品来应对任何情况。自定义和装饰您的基地和载具，还有装扮你的 Astroneer。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/multiplayer.gif?t=1689355883" /&gt;&lt;br&gt;&lt;strong&gt;与好友玩 4 名玩家在线加入/退出合作模式。 &lt;/strong&gt;&lt;br&gt;与好友同乐，使《Astroneer》更好玩。与其他玩家组队，共同创造大规模工业基地，或在具有丰富创造性的沙盒中创造有趣游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/361420/extras/chambers.gif?t=1689355883" /&gt;&lt;br&gt;&lt;strong&gt;发现并揭开太阳系的奥秘。 &lt;/strong&gt;&lt;br&gt;一旦 Astroneer 们准备好后，他们可以选择去尝试理解，甚至利用在世界中发现的神秘结构所蕴藏的力量。&lt;br&gt;&lt;br&gt;《Astroneer》一开始是以一款抢先体验版游戏在 Steam 上架的，而我们今天的成功缺少不了大家的支持，和给予我们的反馈与意见。现在 1.0 版本已经发行了，而我们将信守诺言，以《Astroneer》为基础，持续发布免费的内容更新。如果您对我们为《Astroneer》所计划的发展方向感到好奇，请记得查看我们的开发路线图，以及我们不断发布的开发视频日志 ！</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
@@ -28417,7 +28417,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -31616,7 +31616,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn1.jpg?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z6.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn2.jpg?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;《不是地下城》里战斗的核心玩法、游戏机制依托在对不同部位的不同选择所造成的不同结果来体现。我们想把更多有趣的内容与我们的游戏相融合。角色的每个部位都有其独有功能性以及规避伤害的几率，每个部位根据角色设定的不同会有相应的护甲保护，而且护甲的类型有多种以应对不同的伤害类型。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/XUANBUWEIxuanbuwei.gif?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn3.jpg?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;比如：在战斗中若角色肢体（上肢或下肢）被斩断后，则无法释放有相应需求的技能。若身披护甲的角色护甲被破坏后，则会露出肉身（我们准备了两套相应的美术资源）。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/47j.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z4.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn4.jpg?t=1687959702" /&gt;&lt;h2 class="bb_tag"&gt;种族&lt;/h2&gt;&lt;br&gt;在《不是地下城》里存在着各种稀奇古怪的物种和奇葩，一些不常见的，又或者总是当配角，充当NPC的家伙在这里变成了玩家可以选择和控制的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/27.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/总1lan.gif?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/总2lan.gif?t=1687959702" /&gt;&lt;h2 class="bb_tag"&gt;等级与技能&lt;/h2&gt;&lt;br&gt;角色共有20级，1级的角色在初始会获得一个固定技能，每个角色在等级提升后将获得一次技能抽选的机会，在3个技能中选择1种作为此次等级提升的奖励。每个角色总共有20个左右的技能，可以通过某些随机事件再去获得之前未被选择的技能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/jineng_j.png?t=1687959702" /&gt;&lt;h2 class="bb_tag"&gt;属性&lt;/h2&gt;&lt;br&gt;角色的属性不会随着等级的提升而提升，但通过各种事件获得的属性选择将真正取决于玩家的意愿和天意，总之无论什么类型的角色，他的养成方向完全凭玩家任性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/35Z.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/组1.png?t=1687959702" /&gt;&lt;h2 class="bb_tag"&gt;饰品及特质&lt;/h2&gt;&lt;br&gt;百种不同的饰品，为玩家对角色的养成上提供更多的选择。百种不同的特质与不同角色的搭配将产生出更多的乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/ck_j.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/图层1拷贝.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z2.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn5.jpg?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;游戏中含有大量随机数的运用令玩家拥有丰富多变的战术与策略。玩家可以领略到不同风貌的地图、不同类型的敌人、不同的意外事件而产生的蝴蝶效应，不同的谜题、不同的随机迷你游戏、不同的难度、不同的装备和道具、不同的技能及特质等等，各种不同的玩法系统令玩家每次的战斗都能体验到不同的新鲜感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/16.0.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z5.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;近百种不同的随机事件在探索过程中纯凭良心触发，不同的事件有着各种不同的选择、各种不确定性的路数、完全不按套路出牌的结果，令人欲罢不能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/suji.gif?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z3.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/80j.png?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;探索时，会遇到随机事件、战斗、休息点、商店等“房间”，这些房间的位置以及路线在每一次探索中都将是随机生成的，每一次的体验和遭遇都会不同，3名角色组成的队伍需用掷骰子的方式来决定前进的步数以到达某个“房间”，其间主动选择可能出现的岔路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/zoutu_kuai.gif?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;玩家在探索时有几率随机触发其他玩家“入侵事件”，玩家可以遭遇其他玩家的角色，与其战斗胜利后获得额外奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/JGen.gif?t=1687959702" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn6.jpg?t=1687959702" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn1.jpg?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z6.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn2.jpg?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;《不是地下城》里战斗的核心玩法、游戏机制依托在对不同部位的不同选择所造成的不同结果来体现。我们想把更多有趣的内容与我们的游戏相融合。角色的每个部位都有其独有功能性以及规避伤害的几率，每个部位根据角色设定的不同会有相应的护甲保护，而且护甲的类型有多种以应对不同的伤害类型。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/XUANBUWEIxuanbuwei.gif?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn3.jpg?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;比如：在战斗中若角色肢体（上肢或下肢）被斩断后，则无法释放有相应需求的技能。若身披护甲的角色护甲被破坏后，则会露出肉身（我们准备了两套相应的美术资源）。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/47j.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z4.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn4.jpg?t=1689428209" /&gt;&lt;h2 class="bb_tag"&gt;种族&lt;/h2&gt;&lt;br&gt;在《不是地下城》里存在着各种稀奇古怪的物种和奇葩，一些不常见的，又或者总是当配角，充当NPC的家伙在这里变成了玩家可以选择和控制的角色。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/27.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/总1lan.gif?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/总2lan.gif?t=1689428209" /&gt;&lt;h2 class="bb_tag"&gt;等级与技能&lt;/h2&gt;&lt;br&gt;角色共有20级，1级的角色在初始会获得一个固定技能，每个角色在等级提升后将获得一次技能抽选的机会，在3个技能中选择1种作为此次等级提升的奖励。每个角色总共有20个左右的技能，可以通过某些随机事件再去获得之前未被选择的技能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/jineng_j.png?t=1689428209" /&gt;&lt;h2 class="bb_tag"&gt;属性&lt;/h2&gt;&lt;br&gt;角色的属性不会随着等级的提升而提升，但通过各种事件获得的属性选择将真正取决于玩家的意愿和天意，总之无论什么类型的角色，他的养成方向完全凭玩家任性。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/35Z.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/组1.png?t=1689428209" /&gt;&lt;h2 class="bb_tag"&gt;饰品及特质&lt;/h2&gt;&lt;br&gt;百种不同的饰品，为玩家对角色的养成上提供更多的选择。百种不同的特质与不同角色的搭配将产生出更多的乐趣。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/ck_j.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/图层1拷贝.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z2.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn5.jpg?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;游戏中含有大量随机数的运用令玩家拥有丰富多变的战术与策略。玩家可以领略到不同风貌的地图、不同类型的敌人、不同的意外事件而产生的蝴蝶效应，不同的谜题、不同的随机迷你游戏、不同的难度、不同的装备和道具、不同的技能及特质等等，各种不同的玩法系统令玩家每次的战斗都能体验到不同的新鲜感。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/16.0.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z5.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;近百种不同的随机事件在探索过程中纯凭良心触发，不同的事件有着各种不同的选择、各种不确定性的路数、完全不按套路出牌的结果，令人欲罢不能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/suji.gif?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/Z3.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/80j.png?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;探索时，会遇到随机事件、战斗、休息点、商店等“房间”，这些房间的位置以及路线在每一次探索中都将是随机生成的，每一次的体验和遭遇都会不同，3名角色组成的队伍需用掷骰子的方式来决定前进的步数以到达某个“房间”，其间主动选择可能出现的岔路。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/zoutu_kuai.gif?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;玩家在探索时有几率随机触发其他玩家“入侵事件”，玩家可以遭遇其他玩家的角色，与其战斗胜利后获得额外奖励。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/JGen.gif?t=1689428209" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1251210/extras/cn6.jpg?t=1689428209" /&gt;</t>
         </is>
       </c>
     </row>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -39623,7 +39623,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>休闲,像素图形,冒险,角色扮演,模拟</t>
+          <t>休闲,像素图形,冒险,模拟,角色扮演</t>
         </is>
       </c>
       <c r="E929" t="inlineStr">
@@ -40428,7 +40428,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">

--- a/apps.xlsx
+++ b/apps.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H954"/>
+  <dimension ref="A1:H955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;h2 class="bb_tag"&gt;一个微观尺度上的RTS&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1689344664" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;蚁族战争的艺术&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1689344664" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;一场疯狂的实验&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1689344664" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1689344664" /&gt;</t>
+          <t>欢迎大家关注我们的Bilibili账号“地下蚁国Official”以获取更多关于《地下蚁国》的游戏信息并与制作组官方进行互动，也可以加入发行商官方QQ群：421518132来了解《地下蚁国》以及更多Hooded Horse策略类游戏信息与福利。&lt;br&gt;&lt;br&gt;在蚂蚁的世界里建立你的帝国，设计复杂的巢穴并细致地管理蚁群等级，将实时战略的乐趣置于自然显微镜下。在激烈的战斗中控制多种多样的蚂蚁战士，指挥你的工蚁去建造并供应一个不断扩张的帝国。在不惜一切代价保护你的女王的同时，探索昆虫世界独特的威胁和机遇。&lt;h2 class="bb_tag"&gt;一个微观尺度上的RTS&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_01_loop.gif?t=1689444553" /&gt;&lt;br&gt;数百名战士在激烈的混战中拳脚相接，蚁酸大炮从头顶上掠过。夜幕已经降临，最后一批工蚁正赶着把食物运送回巢穴，一边还要躲避甲虫的攻击。食物库存已经见底，如果没有更多的物资补充，增援部队将无法为这场地下蚁国间的战争孵化。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;从女王的寝宫开始，命令你的工蚁挖掘并建造你的巢穴--一个由食物储藏室、孵化室和走廊组成的巨大网络。在基于六边形的土壤和基岩迷宫中挖掘，寻找食物并抵御其他地下生物的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;超越巢穴的限制，去看看地表的世界能提供什么吧--菜单上有种子、花蜜、真菌、其他昆虫，甚至两栖动物，但每种选择都需要你权衡其价值和需要付出的代价。你是否愿意饲养能生产蜜露的蚜虫，但为此需要击退那些专门捕食蚜虫的瓢虫呢？或者周围的夜行生物对你才刚刚起步的蚁群来说已经是不得不斩杀的风险了吗？你所做的每一个决定都会产生连锁反应，如果你不能快速应对持续变化的环境，那么你的蚁群将会在顷刻间灭亡。&lt;br&gt;&lt;/li&gt;&lt;li&gt;管理具有不同攻击模式、攻击手段和进化路线的不同种类蚂蚁，以应对来自当前自然环境的特殊危险。哪怕毫无戒心的蚂蚁可能会被日落后潜伏着的危险所吞噬，夜间出击有时也是必不可少的，因为你要确保食物供应。到了早上，你又要与其他蚁群竞争，进入敌方巢穴攻击它们的蚁后，同时保卫自己的族群。准备好要在多个地下与地上战场操作与协调，进行多线指挥，因为敌对威胁和机遇会随着时间的推移而变化—在这里，没有单一的统治之路。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;蚁族战争的艺术&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_02_loop.gif?t=1689444553" /&gt;&lt;br&gt;工蚁从洞口现身，它们中只有一少部分活着回来了，但它们带回了宝贵的食物，这将有助于补充前线兵源。新一批的战士将迅速孵化，信息素的气味将告诉它们目的地在哪，在途中要执行什么任务。它们是殖民地最后的堡垒，只为一个目的而生--守住防线！&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;设计和规划多个孵化室，并把它们分配到不同的信息素组，每个信息素组可通过放置信息素标记来进行指挥，并可调整每个小组的细节交战规则来执行不同的命令。了解蚂蚁的行为习惯以及每个物种的优势和弱点是确保成功的必要条件。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个信息素组的设置都可以随时进行调整，你可以让此组只进行食物收集，只参与战斗，或者两者都做--正确的决定可以扭转战局。在拉锯战的绝望低谷，当蚁群开始挨饿，新卵也无资源孵化时，你是否会让战士专注于搬运食物，无视在途中被侵略性敌人吞噬部分个体的损失？或者，战士们会专著战斗为你剩余的工蚁保驾护航，维持较低的战损但要牺牲收集食物的效率？不要忘记在巢穴组中留一些工蚁来进行挖掘、建造和蚁卵照料工作，以确保最基本的生产循环。&lt;br&gt;&lt;/li&gt;&lt;li&gt;每个物种的蚂蚁在战场上都有自己独特的优势和弱点。在特殊的游戏模式中，同一蚁群可以饲养多个物种，你决定孵化与升级谁将完全改变你的战斗指挥风格。大齿猛蚁以近战方式作战，偶尔会跳出战斗来回复血量。切叶蚁充当着天生的保护者形象，将敌人的攻击力吸引到自己身上，给己方蚂蚁提供侧翼攻击、重新编队或逃跑的机会。木蚁可以进化为发射蚁酸的远距离投射兵种或更快的直线速射兵种。在每个物种的众多优势和弱点之间找到合适搭配，抵御对手蚁群的攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的敌人也多种多样—除了其他蚂蚁，你还要与蛛形纲动物、两栖动物、甲壳类动物和各种各样的昆虫进行战斗。这些强大且通常（相对而言）更巨大的生物对毫无准备的蚁群构成了独特的威胁，只有卓越的战术才能战胜它们。包夹战术可以避开成年隐翅虫惊人的喷雾，而孤立一只寄居蟹并用兵海战术速战速决，比让它们有机会蜷缩起来疗伤更高效。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;一场疯狂的实验&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_03_loop.gif?t=1689444553" /&gt;&lt;br&gt;胜利肯定会到来! 增援部队在紧要关头赶到，面对眼前可怕的怪兽，他们无所畏惧。今天，疯狂的科学家将寄居蟹和蝎子混合在了一起，创造出了一个可怕的新威胁，但蚁群在之前对战过这种非自然的敌人之后，已经聪明地进化了。经过一场艰苦卓绝的战斗后，可怕的奇美拉已在崩溃的边缘徘徊，但一个新的敌人来到了战场--神秘生物的巨手从天空降临，压碎了一半的增援部队。在看不见的远方，科学家发出了邪恶的笑声。局势再次逆转...&lt;br&gt;&lt;br&gt;除了经典的RTS小规模对抗AI和独特的季节性关卡之外，《地下蚁国》还包括一个故事驱动的主线战役模式。主线讲述了以神秘的窃贼林蚁为中心的一场发生在实验室的邪恶阴谋，此模式还包括一系列探索各种蚂蚁在自然生物群落中的特性的纪录片风格关卡。完成纪录片关卡任务可赚取资源，用来升级你养殖箱里的窃贼林蚁，并根据你的喜好和判断为它们进行进化，以让你的蚂蚁活过这场打着“科学”名号进行的残酷生物实验—但不是所有的东西都像它最初看起来那样简单......&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/463530/extras/image_04_loop.gif?t=1689444553" /&gt;</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -30102,7 +30102,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -32568,7 +32568,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -32933,7 +32933,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>基地建设,角色自定义,动作类 Rogue,可爱,单人</t>
+          <t>基地建设,动作类 Rogue,角色自定义,可爱,单人</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -34252,7 +34252,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>动漫色情,成人,工作场所不宜,互动小说,角色扮演</t>
+          <t>动漫色情,成人,工作场所不宜,互动小说,恋爱模拟</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -34930,7 +34930,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>心理恐怖,视觉小说,动漫,可爱,像素图形</t>
+          <t>心理恐怖,动漫,视觉小说,可爱,像素图形</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
@@ -34940,7 +34940,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -35346,22 +35346,22 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>1468810</t>
+          <t>1468430</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>鬼谷八荒 Tale of Immortal</t>
+          <t>Freezer Pops</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>鬼谷八荒</t>
+          <t>Freezer Pops</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>战术角色扮演,管理,单人,神话,沙盒</t>
+          <t>休闲,单人,LGBTQ+,2D,冒险</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
@@ -35369,41 +35369,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F827" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>2023年05月26日</t>
+          <t>2021年10月22日</t>
         </is>
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/立绘展示-steam.jpg?t=1689322206" /&gt;&lt;br&gt;&lt;strong&gt;明代诗人归有光曾以山海经为题作诗称：昔年曾读《山海经》，&lt;br&gt;所称怪兽多异名。阴阳变幻靡不有，异物非异亦非神。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-1.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介1.gif?t=1689322206" /&gt;&lt;br&gt;鬼谷八荒, 除了财侣法地，还有诡秘莫测的妖兽，危机重重的秘境，难以逾越的天堑，彩光四射的秘宝，等着被人发现。&lt;br&gt;你将作为一个炼气期小修士从愚村出发，修炼，变强，危机中九死一生。每一次突破，你都能逆天改命，助你在旅途中披荆斩棘，跨越五大州，睥睨天下，再闯上天元山，向天道一问。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-2.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介2.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了完整的NPC互动生态，他们“生活”在这里，有自己的朋友亲族关系网，自己的人生轨迹，不受玩家的进度限制，除非，你决定出手干涉。&lt;br&gt;你可兼济天下，携手红颜；你可独善其身，快意恩仇；你亦可逆天而行，与全世界为敌。&lt;br&gt;和NPC们切磋武艺，传授道心，拜师学艺，收徒授业。和NPC在拍卖场喊价厮杀，结束后拔刀相向或顺手牵羊。你将成为修仙界群像中的一部分，是大放异彩，还是默默修行，皆看你如何选择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-3.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.1.gif?t=1689322206" /&gt;&lt;br&gt;英雄救美？爱人为你争风吃醋？五十年之约？卷入神秘组织的明争暗斗？遗迹遇宝？又惨遭夺宝？&lt;br&gt;这些都有可能发生在你身上。&lt;br&gt;除NPC交互之外，这里还有丰富的随机事件以及支线任务，在你的旅途中给予惊喜。它们或许会让你烦恼，喂你刀子，也可能让你化险为夷，甚至破而后立。在一步又一步的选择的过程中，你将谱写只属于你的，独一无二的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-4.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了宗门的经营玩法，身为弟子，长老以及宗主，将会有不同的体验。你可以加入大宗门，从最底层的弟子做起，一步步爬上权力的阶梯。也可以空降落魄的小宗门，力挽狂澜，带领宗门重振雄风。&lt;br&gt;弟子可以完成宗门任务，在宗门大比中出战，或随同门出征作战，为宗门积累资源，为宗门赢取荣誉，为宗门扩张土地。&lt;br&gt;长老可以管辖门下弟子，传道授业，分配任务职能，加速宗门成长，在宗门大战中指导弟子大杀四方。&lt;br&gt;宗主则需要统筹全宗的秩序，制定侵略和防守计划，攻防灵矿等资源点，甚至占领他人宗门，夺取专属逆天改命和秘籍。&lt;br&gt;一统八荒，只要你有宏图壮志和铁腕手段，不再只是幻想。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-5.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介4.gif?t=1689322206" /&gt;&lt;br&gt;闯荡这世界，需要有傍身之技。&lt;br&gt;心法筑根基，武技/灵技探深浅，身法创机会，绝技造优势，神通定乾坤。不同秘籍有不同的特性。&lt;br&gt;修仙者还有十二大灵根，对应不同的流派，你可以选择专精一路，或全面发展。十二种灵根都有对应的功法秘籍，排列组合可组成丰富的流派，孰强孰弱，皆由你评断。&lt;br&gt;城镇琅琊阁，宗门功法阁，秘境，各种任务，甚至路边一个土坑里，都可能发现珍奇秘籍，充满惊喜。&lt;br&gt;这个世界上还有上百种珍奇妖兽，无数修仙者，鬼怪，仙人供您检验自己的实力。挑战升仙擂台，冲击各大洲参玄榜，以此证明自己的实力。你能否踏破冥山的障碍一路向前？构筑的流派能否经历大浪淘沙的检验？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-6.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介5.gif?t=1689322206" /&gt;&lt;br&gt;练好自身本领，也别忘了外力加持。&lt;br&gt;开局三大神器，每一个都会给你带来一种独一无二的系统。双鱼佩可以复活自己和选中之人，昊天眼可以偷学妖兽技能，洞察更多信息，而炼妖壶则可以让你捕获BOSS成为你的小跟班，替你战斗或派遣寻求宝物。&lt;br&gt;除了开局神器之外，你也能炼制你自己的法宝，并收服器灵与你一起战斗，此外器灵还会在探索中给予你陪伴，触发专属的奇遇等等。&lt;br&gt;在这里，你还可以学习炼丹画符，堪舆风水，制作帮助你探索世界，整蛊仇人，战斗杀敌的种种道具。至于如何发挥它们真正的作用，皆看各位道友如何抉择。&lt;br&gt;&lt;br&gt;----------------------------------------------------------------------&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/620x100-steam-开发者的话.png?t=1689322206" /&gt;&lt;br&gt;我们希望玩家在本游戏中，坚守本心，敢与困难做斗争；慎做抉择，把握自己的命运。天道酬勤，小菜鸡也可以通过奋斗，逆天改命。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/divisor_genres.png?t=1688595194" /&gt;&lt;br&gt;Visual Novel, Dating Sim, Bara, B+B, Comedy&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/divisor_features.png?t=1688595194" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 100 unique CGs;&lt;br&gt;&lt;/li&gt;&lt;li&gt;2 Routes;&lt;br&gt;&lt;/li&gt;&lt;li&gt;4 Endings;&lt;br&gt;&lt;/li&gt;&lt;li&gt;Romantic/Erotic Scenes;&lt;br&gt;&lt;/li&gt;&lt;li&gt;A Unique Brazilian Adventure;&lt;br&gt;&lt;/li&gt;&lt;li&gt;Steam Achievements;&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/divisor_story.png?t=1688595194" /&gt;&lt;br&gt;After Alexandre loses his university scholarship and his roommate goes on a trip, he faces a big challenge: pay the rent for his apartment by himself. Without knowing what to do, he finds out through a TV show that selling gourmet freezer pops is a way to make extra money.&lt;br&gt;&lt;br&gt;Putting the idea into practice, the first day is a sales boom and the perfect opportunity to meet new guys. However, as much as the business started well, not all beach vendors are happy with a new person in the market. Will Alexandre be able to overcome his competition and still manage his love life?!&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/AlexandrePanel.png?t=1688595194" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/AndersonPanel.png?t=1688595194" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468430/extras/FernandoPanel.png?t=1688595194" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>1471200</t>
+          <t>1468810</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>YUME</t>
+          <t>鬼谷八荒 Tale of Immortal</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>YUME</t>
+          <t>鬼谷八荒</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>策略,解谜,视觉小说,探索,动漫</t>
+          <t>战术角色扮演,管理,单人,神话,沙盒</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
@@ -35413,39 +35408,39 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
         <is>
-          <t>2021年01月15日</t>
+          <t>2023年05月26日</t>
         </is>
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;h2 class="bb_tag"&gt;In "YUME", a girl went to the abandoned Dance Hall to record a program in a era of peace, but she became unwell and saw a girl in red who looked just like herself in a trance. Is this girl, who looks so similar to herself,maybe it’s the person from her past life?&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;In the game, you will not play as a warlord or a soldier, but as a tender girl just trying to survive in wartime. Through the deep reveal of some obsolete items that can drive the plot, and the multi-layered switching between characters allows players to experience the girl's past.&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;Whether it's the reincarnation of a past life or the warmth of the present, it's important to recognize which side is reality as soon as possible.&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;YUME, a new plot game from us.&lt;br/&gt;Satisfying the needs of players has always been our goal.More hidden dressup content waiting for you to discover&lt;/h2&gt;&lt;br/&gt;&lt;/body&gt;&lt;/html&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/立绘展示-steam.jpg?t=1689322206" /&gt;&lt;br&gt;&lt;strong&gt;明代诗人归有光曾以山海经为题作诗称：昔年曾读《山海经》，&lt;br&gt;所称怪兽多异名。阴阳变幻靡不有，异物非异亦非神。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-1.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介1.gif?t=1689322206" /&gt;&lt;br&gt;鬼谷八荒, 除了财侣法地，还有诡秘莫测的妖兽，危机重重的秘境，难以逾越的天堑，彩光四射的秘宝，等着被人发现。&lt;br&gt;你将作为一个炼气期小修士从愚村出发，修炼，变强，危机中九死一生。每一次突破，你都能逆天改命，助你在旅途中披荆斩棘，跨越五大州，睥睨天下，再闯上天元山，向天道一问。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-2.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介2.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了完整的NPC互动生态，他们“生活”在这里，有自己的朋友亲族关系网，自己的人生轨迹，不受玩家的进度限制，除非，你决定出手干涉。&lt;br&gt;你可兼济天下，携手红颜；你可独善其身，快意恩仇；你亦可逆天而行，与全世界为敌。&lt;br&gt;和NPC们切磋武艺，传授道心，拜师学艺，收徒授业。和NPC在拍卖场喊价厮杀，结束后拔刀相向或顺手牵羊。你将成为修仙界群像中的一部分，是大放异彩，还是默默修行，皆看你如何选择。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-3.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.1.gif?t=1689322206" /&gt;&lt;br&gt;英雄救美？爱人为你争风吃醋？五十年之约？卷入神秘组织的明争暗斗？遗迹遇宝？又惨遭夺宝？&lt;br&gt;这些都有可能发生在你身上。&lt;br&gt;除NPC交互之外，这里还有丰富的随机事件以及支线任务，在你的旅途中给予惊喜。它们或许会让你烦恼，喂你刀子，也可能让你化险为夷，甚至破而后立。在一步又一步的选择的过程中，你将谱写只属于你的，独一无二的故事。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-4.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介3.gif?t=1689322206" /&gt;&lt;br&gt;我们构建了宗门的经营玩法，身为弟子，长老以及宗主，将会有不同的体验。你可以加入大宗门，从最底层的弟子做起，一步步爬上权力的阶梯。也可以空降落魄的小宗门，力挽狂澜，带领宗门重振雄风。&lt;br&gt;弟子可以完成宗门任务，在宗门大比中出战，或随同门出征作战，为宗门积累资源，为宗门赢取荣誉，为宗门扩张土地。&lt;br&gt;长老可以管辖门下弟子，传道授业，分配任务职能，加速宗门成长，在宗门大战中指导弟子大杀四方。&lt;br&gt;宗主则需要统筹全宗的秩序，制定侵略和防守计划，攻防灵矿等资源点，甚至占领他人宗门，夺取专属逆天改命和秘籍。&lt;br&gt;一统八荒，只要你有宏图壮志和铁腕手段，不再只是幻想。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-5.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介4.gif?t=1689322206" /&gt;&lt;br&gt;闯荡这世界，需要有傍身之技。&lt;br&gt;心法筑根基，武技/灵技探深浅，身法创机会，绝技造优势，神通定乾坤。不同秘籍有不同的特性。&lt;br&gt;修仙者还有十二大灵根，对应不同的流派，你可以选择专精一路，或全面发展。十二种灵根都有对应的功法秘籍，排列组合可组成丰富的流派，孰强孰弱，皆由你评断。&lt;br&gt;城镇琅琊阁，宗门功法阁，秘境，各种任务，甚至路边一个土坑里，都可能发现珍奇秘籍，充满惊喜。&lt;br&gt;这个世界上还有上百种珍奇妖兽，无数修仙者，鬼怪，仙人供您检验自己的实力。挑战升仙擂台，冲击各大洲参玄榜，以此证明自己的实力。你能否踏破冥山的障碍一路向前？构筑的流派能否经历大浪淘沙的检验？&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/鬼谷-steam-文字标题CN-6.png?t=1689322206" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/简介5.gif?t=1689322206" /&gt;&lt;br&gt;练好自身本领，也别忘了外力加持。&lt;br&gt;开局三大神器，每一个都会给你带来一种独一无二的系统。双鱼佩可以复活自己和选中之人，昊天眼可以偷学妖兽技能，洞察更多信息，而炼妖壶则可以让你捕获BOSS成为你的小跟班，替你战斗或派遣寻求宝物。&lt;br&gt;除了开局神器之外，你也能炼制你自己的法宝，并收服器灵与你一起战斗，此外器灵还会在探索中给予你陪伴，触发专属的奇遇等等。&lt;br&gt;在这里，你还可以学习炼丹画符，堪舆风水，制作帮助你探索世界，整蛊仇人，战斗杀敌的种种道具。至于如何发挥它们真正的作用，皆看各位道友如何抉择。&lt;br&gt;&lt;br&gt;----------------------------------------------------------------------&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1468810/extras/620x100-steam-开发者的话.png?t=1689322206" /&gt;&lt;br&gt;我们希望玩家在本游戏中，坚守本心，敢与困难做斗争；慎做抉择，把握自己的命运。天道酬勤，小菜鸡也可以通过奋斗，逆天改命。</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>1472560</t>
+          <t>1471200</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>I Am Fish</t>
+          <t>YUME</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>我是小鱼儿</t>
+          <t>YUME</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>冒险,模拟,物理,3D 平台,卡通</t>
+          <t>策略,解谜,视觉小说,探索,动漫</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
@@ -35455,39 +35450,39 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>2021年09月16日</t>
+          <t>2021年01月15日</t>
         </is>
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Goldfish_GIF_9.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;《我是小鱼儿》是一款基于物理，考验操控，轻松又好玩的冒险游戏。作为主角的四条小鱼儿，一起在宠物店的鱼缸里长大，但现实却将他们分离，天各一方。在这场从伯纳德郡的遥远角落开始的历险中，你将跟随这几条可爱又无畏的小鱼儿一路游动、飞跃、翻滚和咬扯，为了在温暖的大海里重聚，努力前进。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Piranha_GIF_2.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无“鱼”伦比的朋友们&lt;/strong&gt;&lt;br&gt;来认识一下我们的四位英雄吧！金鱼：开朗、勇敢且勇于探险，天生就是游泳健将！河豚：热心肠的慢性子，可以鼓成一个球滚过陆地。食人鱼：狂野、混乱、吵闹、不按常理出牌，当然还喜欢...咬咬咬。飞鱼：偶尔有些高冷，但内心十分柔软，拥有空中滑翔的能力！这些勇敢的小英雄将不遗“鱼”力、尽“鱼”所能地投入到重逢的征途之中！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/All_Fish_GIF_8.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无需“鳍”思妙想&lt;/strong&gt;&lt;br&gt;通过游动、翻滚、滑翔、啃咬、翻转、鼓气、飞跃和咬扯来完成刺激的挑战。游戏的操作方式简单直观，所以如果缸毁鱼亡，你就没有理由不“鱼”心有愧了。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Flying_GIF_4.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;跳出鱼缸看问题&lt;/strong&gt;&lt;br&gt;美丽的海岸线和古朴的村落让伯纳德郡看上去似乎一片安宁，但对我们的各位水生冒险家来说，这里简直处处都是实打实的威胁，因为它们要横穿马路、越过屋顶、躲避炸锅，还要避开野生动物和脾气暴躁的当地人，同时也要考虑脆弱的鱼缸和鱼儿没了水就不能呼吸这样的现实问题。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Goldfish_GIF_3.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;一条鱼都不能少&lt;/strong&gt;&lt;br&gt;我们不会沉湎于小鱼的死亡，但如果身在临时鱼缸里的鱼掉落得太远、失去空气或是迷失方向，你就会被送回最近的存档点来重新开始游戏。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Puffer_GIF_1.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;自“游”之路&lt;/strong&gt;&lt;br&gt;我们这四位无“鱼”伦比的朋友会搭乘各类临时水上载具，例如玻璃罐、带轮子的拖地桶，或是玻璃酒杯。干杯！搭乘这些临时水上交通工具各有各的挑战，但不必担心，因为相对自由的开放水域绝不会离你太远，想想那诱人的喷泉、清澈的泳池还有，呃，充满放射物质的下水道吧。只要最后能到达波光粼粼的辽阔大海，再多的困难也值得！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Swim_to_freedom_2.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;小心别挣扎&lt;/strong&gt;&lt;br&gt;虽然游戏看上去人畜无害，实际操作难度可不只有一点点，如果意外激活了附加的”Bossa风格 &amp;quot;控制方案，即便是”游泳冠军“也怕是只能在深水区挣扎。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/WDC_IAMFISH.jpg?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;鲸豚保护协会&lt;/strong&gt;&lt;br&gt;WDC (鲸豚保护协会) 是主要的全球性慈善机构，致力于保护鲸鱼和海豚。WDC 的愿景是建立一个让每头鲸鱼和海豚都能享受安全和自由的世界。通过终止圈养、停止捕鲸、防止被渔网缠绕而死亡和创造健康的海洋，WDC 将为这些美丽生物的生存而奋斗。每在 Steam 上售出一份《我是小鱼儿》游戏，我们都会直接向 WDC 捐赠一笔款项。</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;h2 class="bb_tag"&gt;In "YUME", a girl went to the abandoned Dance Hall to record a program in a era of peace, but she became unwell and saw a girl in red who looked just like herself in a trance. Is this girl, who looks so similar to herself,maybe it’s the person from her past life?&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;In the game, you will not play as a warlord or a soldier, but as a tender girl just trying to survive in wartime. Through the deep reveal of some obsolete items that can drive the plot, and the multi-layered switching between characters allows players to experience the girl's past.&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;Whether it's the reincarnation of a past life or the warmth of the present, it's important to recognize which side is reality as soon as possible.&lt;/h2&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;YUME, a new plot game from us.&lt;br/&gt;Satisfying the needs of players has always been our goal.More hidden dressup content waiting for you to discover&lt;/h2&gt;&lt;br/&gt;&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>1475810</t>
+          <t>1472560</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ghostwire: Tokyo</t>
+          <t>I Am Fish</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>幽灵线：东京</t>
+          <t>我是小鱼儿</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>单人,灵异,开放世界,第一人称,动作冒险</t>
+          <t>冒险,模拟,物理,3D 平台,卡通</t>
         </is>
       </c>
       <c r="E830" t="inlineStr">
@@ -35497,39 +35492,39 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
         <is>
-          <t>2022年03月24日</t>
+          <t>2021年09月16日</t>
         </is>
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>直面未知，揭开真相，拯救东京 &lt;br&gt;&lt;br&gt;在一位险恶神秘学者的操纵下，致命的超自然之力入侵东京，令东京的人口瞬间消失。与强大灵体结成同盟，在他们的 复仇之路 上助一臂之力，掌握各类强力技能，解开消失事件背后的 黑暗 真相。在《Ghostwire: Tokyo》中直面未知。&lt;h2 class="bb_tag"&gt;鬼灵出没的美丽东京  &lt;/h2&gt;&lt;br&gt;探索为超自然之力所扭曲的不一样的东京。从超摩登城市景观，到黑暗的幽深巷道和古老雅致的寺院，穿行于别样的美感之间，发现城市中横行的妖怪——徘徊在街巷间的复仇之灵。  &lt;br&gt;&lt;br&gt;探索涩谷十字路口、东京铁塔等标志性的地标，发现在次世代技术渲染下的动人细节。体验民众消失后时间停止的街道，深入光怪陆离的地下世界，拯救你的家人。&lt;h2 class="bb_tag"&gt;毁天灭地的元素技能  &lt;/h2&gt;&lt;br&gt;可升级的元素能力，和鬼灵追猎技能融会贯通，与超自然威胁对峙。凭借空灵之力，飞越东京天际线，翱翔街巷之间，发现新的任务，甚至可以先发制敌。&lt;h2 class="bb_tag"&gt;在蜘蛛丝更新中探索全新内容&lt;/h2&gt;&lt;br&gt;供所有玩家免费游玩的蜘蛛丝更新包括了对主游戏的若干优化。例如添加一处可供探索的全新区域、加长的过场动画、新支线任务、新敌人、新增的游戏体验改善、额外战斗技能以及全新的roguelite类型“蜘蛛丝”游戏模式！</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Goldfish_GIF_9.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;《我是小鱼儿》是一款基于物理，考验操控，轻松又好玩的冒险游戏。作为主角的四条小鱼儿，一起在宠物店的鱼缸里长大，但现实却将他们分离，天各一方。在这场从伯纳德郡的遥远角落开始的历险中，你将跟随这几条可爱又无畏的小鱼儿一路游动、飞跃、翻滚和咬扯，为了在温暖的大海里重聚，努力前进。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Piranha_GIF_2.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无“鱼”伦比的朋友们&lt;/strong&gt;&lt;br&gt;来认识一下我们的四位英雄吧！金鱼：开朗、勇敢且勇于探险，天生就是游泳健将！河豚：热心肠的慢性子，可以鼓成一个球滚过陆地。食人鱼：狂野、混乱、吵闹、不按常理出牌，当然还喜欢...咬咬咬。飞鱼：偶尔有些高冷，但内心十分柔软，拥有空中滑翔的能力！这些勇敢的小英雄将不遗“鱼”力、尽“鱼”所能地投入到重逢的征途之中！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/All_Fish_GIF_8.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;无需“鳍”思妙想&lt;/strong&gt;&lt;br&gt;通过游动、翻滚、滑翔、啃咬、翻转、鼓气、飞跃和咬扯来完成刺激的挑战。游戏的操作方式简单直观，所以如果缸毁鱼亡，你就没有理由不“鱼”心有愧了。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Flying_GIF_4.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;跳出鱼缸看问题&lt;/strong&gt;&lt;br&gt;美丽的海岸线和古朴的村落让伯纳德郡看上去似乎一片安宁，但对我们的各位水生冒险家来说，这里简直处处都是实打实的威胁，因为它们要横穿马路、越过屋顶、躲避炸锅，还要避开野生动物和脾气暴躁的当地人，同时也要考虑脆弱的鱼缸和鱼儿没了水就不能呼吸这样的现实问题。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Goldfish_GIF_3.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;一条鱼都不能少&lt;/strong&gt;&lt;br&gt;我们不会沉湎于小鱼的死亡，但如果身在临时鱼缸里的鱼掉落得太远、失去空气或是迷失方向，你就会被送回最近的存档点来重新开始游戏。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Puffer_GIF_1.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;自“游”之路&lt;/strong&gt;&lt;br&gt;我们这四位无“鱼”伦比的朋友会搭乘各类临时水上载具，例如玻璃罐、带轮子的拖地桶，或是玻璃酒杯。干杯！搭乘这些临时水上交通工具各有各的挑战，但不必担心，因为相对自由的开放水域绝不会离你太远，想想那诱人的喷泉、清澈的泳池还有，呃，充满放射物质的下水道吧。只要最后能到达波光粼粼的辽阔大海，再多的困难也值得！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/Swim_to_freedom_2.gif?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;小心别挣扎&lt;/strong&gt;&lt;br&gt;虽然游戏看上去人畜无害，实际操作难度可不只有一点点，如果意外激活了附加的”Bossa风格 &amp;quot;控制方案，即便是”游泳冠军“也怕是只能在深水区挣扎。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1472560/extras/WDC_IAMFISH.jpg?t=1683890027" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;鲸豚保护协会&lt;/strong&gt;&lt;br&gt;WDC (鲸豚保护协会) 是主要的全球性慈善机构，致力于保护鲸鱼和海豚。WDC 的愿景是建立一个让每头鲸鱼和海豚都能享受安全和自由的世界。通过终止圈养、停止捕鲸、防止被渔网缠绕而死亡和创造健康的海洋，WDC 将为这些美丽生物的生存而奋斗。每在 Steam 上售出一份《我是小鱼儿》游戏，我们都会直接向 WDC 捐赠一笔款项。</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>1477810</t>
+          <t>1475810</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>RoboLife-Days with Aino</t>
+          <t>Ghostwire: Tokyo</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Robolife-Days with Aino</t>
+          <t>幽灵线：东京</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>模拟,视觉小说,动漫,恋爱模拟,时间管理</t>
+          <t>单人,灵异,开放世界,第一人称,动作冒险</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
@@ -35539,39 +35534,39 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t>2021年06月23日</t>
+          <t>2022年03月24日</t>
         </is>
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/eFwN5cW8eq" rel=" noopener" target="_blank"&gt;&lt;/a&gt;&lt;br/&gt;&lt;br/&gt;This is a romantic comedy about a robot girl's journey of self-discovery.&lt;br/&gt;&lt;br/&gt;In order to graduate from Ahroy Academy, famed for its prowess in AI, I need to program and train an android to function seamlessly in society.&lt;br/&gt;But...&lt;br/&gt;&lt;br/&gt;“Orders received, eliminating target."&lt;br/&gt;&lt;br/&gt;Aino, an android I dragged back from the dump, lunged at me with a blade the moment she opened her eyes. If she hadn't experienced a system error, I would've died a virgin! After learning about her inaccessible black box and her inability to recall her past, I saw an opportunity for co-operation.&lt;br/&gt;&lt;br/&gt;“This place is pretty run-down, but Aino accepts your proposal.”&lt;br/&gt;“Thanks for putting it delicately. Are you really an android?”&lt;br/&gt;&lt;br/&gt;I'll help her uncover her past and in exchange, she'll help me graduate!&lt;br/&gt;We'll be living together as man and android in an exciting, chaotic, heart-pounding co-habitation arrangement!&lt;br/&gt;&lt;br/&gt;Like I said, it's a romantic comedy about a robot girl's journey of self-discovery!&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Make-your-own-Aino! &lt;br/&gt;The changes and upgrades you make to Aino will appear throughout the game.&lt;br/&gt;A thrilling and titillating story with CGs&lt;br/&gt;8000+ lines of dialogue and multiple endings.&lt;br/&gt;Plenty of naughty &amp;amp; amusing H-events and H-CGs.&lt;br/&gt;Additional adorable mini-CGs and ALL the cute robo-girl hijinks.&lt;br/&gt;Partially voiced characters&lt;br/&gt;CG Gallery&lt;br/&gt;Original Soundtrack and audio&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Choose the tasks Aino will perform throughout the day.&lt;br/&gt;Allow her to work at her job or offer assistance to other citizens to collect rewards and unlock new events.&lt;br/&gt;Aino will work at three main jobs, each with three increasingly difficult stages.&lt;br/&gt;To optimize her and unlock more difficult tasks, swap out Aino's head, body and hands!&lt;br/&gt;Intimate moments and intimate endings are unlocked after completing different jobs.&lt;br/&gt;Aino's system will develop bugs as she works. Players will need to use *special* repair techniques to help her recover.&lt;br/&gt;At first, she just requires simple headpats, but as you share more intimate moments with Aino, things could get a lot more interesting...&lt;/body&gt;&lt;/html&gt;</t>
+          <t>直面未知，揭开真相，拯救东京 &lt;br&gt;&lt;br&gt;在一位险恶神秘学者的操纵下，致命的超自然之力入侵东京，令东京的人口瞬间消失。与强大灵体结成同盟，在他们的 复仇之路 上助一臂之力，掌握各类强力技能，解开消失事件背后的 黑暗 真相。在《Ghostwire: Tokyo》中直面未知。&lt;h2 class="bb_tag"&gt;鬼灵出没的美丽东京  &lt;/h2&gt;&lt;br&gt;探索为超自然之力所扭曲的不一样的东京。从超摩登城市景观，到黑暗的幽深巷道和古老雅致的寺院，穿行于别样的美感之间，发现城市中横行的妖怪——徘徊在街巷间的复仇之灵。  &lt;br&gt;&lt;br&gt;探索涩谷十字路口、东京铁塔等标志性的地标，发现在次世代技术渲染下的动人细节。体验民众消失后时间停止的街道，深入光怪陆离的地下世界，拯救你的家人。&lt;h2 class="bb_tag"&gt;毁天灭地的元素技能  &lt;/h2&gt;&lt;br&gt;可升级的元素能力，和鬼灵追猎技能融会贯通，与超自然威胁对峙。凭借空灵之力，飞越东京天际线，翱翔街巷之间，发现新的任务，甚至可以先发制敌。&lt;h2 class="bb_tag"&gt;在蜘蛛丝更新中探索全新内容&lt;/h2&gt;&lt;br&gt;供所有玩家免费游玩的蜘蛛丝更新包括了对主游戏的若干优化。例如添加一处可供探索的全新区域、加长的过场动画、新支线任务、新敌人、新增的游戏体验改善、额外战斗技能以及全新的roguelite类型“蜘蛛丝”游戏模式！</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>1483870</t>
+          <t>1477810</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Draw &amp; Guess</t>
+          <t>RoboLife-Days with Aino</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>你画我猜</t>
+          <t>Robolife-Days with Aino</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>休闲,多人,手绘,欢乐,孩童</t>
+          <t>模拟,视觉小说,动漫,恋爱模拟,时间管理</t>
         </is>
       </c>
       <c r="E832" t="inlineStr">
@@ -35581,39 +35576,39 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>2021年03月12日</t>
+          <t>2021年06月23日</t>
         </is>
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>你画我猜（Draw &amp;amp; Guess）是一款休闲型绘画游戏，有多种游戏模式，最多可供 16 位玩家参与。&lt;br&gt;&lt;br&gt;快来展现您的艺术天赋，同时开动脑筋，猜猜看其他玩家画的是什么吧！您还可以挑战我们训练有素的 AI（人工智能）哦。&lt;h2 class="bb_tag"&gt;游戏模式&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;传话游戏：&lt;/strong&gt;从选定的词语列表（或另一位玩家提议的词）中选择一个词，开始作画！所有玩家可以同时边画边猜，所以无需等轮到您再开始！所有玩家都能根据提交的图画猜出正确的词吗？或者，您画的兔子会不会被人以为是一幢三层楼房？猜对词可以获得奖杯，如果您的画赢得了最多玩家的喜欢，还可获得奖励。&lt;br&gt;&lt;br&gt;&lt;strong&gt;猜字游戏：&lt;/strong&gt;此经典模式下，在您作画的同时，其他玩家要同时猜您画的是什么。他们越快猜到，他们（和您）获得的点数就越多！画画和猜词获得的点数加在一起，谁的分数最高呢？“ 汽车”真的是最符合“6个字母”这条提示的单词吗？&lt;br&gt;&lt;br&gt;&lt;strong&gt;挑战人工智能：&lt;/strong&gt;想不想您来画画，然后让游戏来猜猜您画的是什么？此模式下，选择一个词作画，看看游戏是否能认得出您的图画。我们的 AI 匹配度越高，您获得的点数就越多！挑战自己的个人得分纪录，或者与其它玩家争夺第一。&lt;br&gt;&lt;br&gt;&lt;strong&gt;茶绘：&lt;/strong&gt;是不是只想自己一个人或者和一群玩家在画室里轻松悠闲地画画？完全没问题！在这里，您可以告诉其他玩家您正在游戏中磨练自己的技能，还可以邀请他们和您一起画画。&lt;h2 class="bb_tag"&gt;增加难度&lt;/h2&gt;您是否已经能驾轻就熟地画出一个令人满意的人物线条画了，并且其他玩家只需几秒就能看出那是什么？&lt;br&gt;试试新推出的&lt;strong&gt;像素艺术&lt;/strong&gt;模式吧！同时如果您想增加游戏难度，不如试试在作画的同时让您画出的&lt;strong&gt;线条消失&lt;/strong&gt;怎么样？或者还可以为线条添加&lt;strong&gt;重力作用&lt;/strong&gt;影响，并创建您自己的个人硬核模式！&lt;br&gt;&lt;br&gt;忙碌了一整天，只&lt;strong&gt;想好好放松&lt;/strong&gt;？选择慢速模式，不慌不忙，享受宁静的休闲乐趣。超快模式就留给那些想要紧张刺激的玩家吧。:)&lt;br&gt;&lt;br&gt;掌握了我们的默认词之后，您还可以浏览 Steam 创意工坊，那里有&lt;strong&gt;各式各样&lt;/strong&gt;由玩家创建的词语列表可供选择！如果在大量的已有主题中还是没有特别适合您口味的，欢迎创建（并提交）您自己的主题。&lt;br&gt;&lt;br&gt;&lt;strong&gt;新功能：现已实现 Twitch 集成！在线直播，让您聊天群组里的朋友们来猜一猜您的提示词是什么！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;欢迎加入我们的 Discord 社区，寻找玩家：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/JxVqhQRj8S" target="_blank" rel=" noopener"  &gt;https://discord.gg/JxVqhQRj8S&lt;/a&gt;&lt;br&gt;访问“你画我猜”游戏网站：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://drawandguess.com/press" target="_blank" rel=" noopener"  &gt;https://drawandguess.com/press&lt;/a&gt;</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=http://discord.gg/eFwN5cW8eq" rel=" noopener" target="_blank"&gt;&lt;/a&gt;&lt;br/&gt;&lt;br/&gt;This is a romantic comedy about a robot girl's journey of self-discovery.&lt;br/&gt;&lt;br/&gt;In order to graduate from Ahroy Academy, famed for its prowess in AI, I need to program and train an android to function seamlessly in society.&lt;br/&gt;But...&lt;br/&gt;&lt;br/&gt;“Orders received, eliminating target."&lt;br/&gt;&lt;br/&gt;Aino, an android I dragged back from the dump, lunged at me with a blade the moment she opened her eyes. If she hadn't experienced a system error, I would've died a virgin! After learning about her inaccessible black box and her inability to recall her past, I saw an opportunity for co-operation.&lt;br/&gt;&lt;br/&gt;“This place is pretty run-down, but Aino accepts your proposal.”&lt;br/&gt;“Thanks for putting it delicately. Are you really an android?”&lt;br/&gt;&lt;br/&gt;I'll help her uncover her past and in exchange, she'll help me graduate!&lt;br/&gt;We'll be living together as man and android in an exciting, chaotic, heart-pounding co-habitation arrangement!&lt;br/&gt;&lt;br/&gt;Like I said, it's a romantic comedy about a robot girl's journey of self-discovery!&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Make-your-own-Aino! &lt;br/&gt;The changes and upgrades you make to Aino will appear throughout the game.&lt;br/&gt;A thrilling and titillating story with CGs&lt;br/&gt;8000+ lines of dialogue and multiple endings.&lt;br/&gt;Plenty of naughty &amp;amp; amusing H-events and H-CGs.&lt;br/&gt;Additional adorable mini-CGs and ALL the cute robo-girl hijinks.&lt;br/&gt;Partially voiced characters&lt;br/&gt;CG Gallery&lt;br/&gt;Original Soundtrack and audio&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Choose the tasks Aino will perform throughout the day.&lt;br/&gt;Allow her to work at her job or offer assistance to other citizens to collect rewards and unlock new events.&lt;br/&gt;Aino will work at three main jobs, each with three increasingly difficult stages.&lt;br/&gt;To optimize her and unlock more difficult tasks, swap out Aino's head, body and hands!&lt;br/&gt;Intimate moments and intimate endings are unlocked after completing different jobs.&lt;br/&gt;Aino's system will develop bugs as she works. Players will need to use *special* repair techniques to help her recover.&lt;br/&gt;At first, she just requires simple headpats, but as you share more intimate moments with Aino, things could get a lot more interesting...&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>1490890</t>
+          <t>1483870</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles</t>
+          <t>Draw &amp; Guess</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles</t>
+          <t>你画我猜</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>动漫,动作,冒险,3D 格斗,动作冒险</t>
+          <t>休闲,多人,手绘,欢乐,孩童</t>
         </is>
       </c>
       <c r="E833" t="inlineStr">
@@ -35621,36 +35616,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>2021年10月15日</t>
+          <t>2021年03月12日</t>
         </is>
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Product Description&lt;/strong&gt;&lt;/h2&gt;Become the blade that destroys demons!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Adventure Mode&lt;/strong&gt;&lt;br&gt;In Adventure Mode, follow Tanjiro through the story from the Demon Slayer: Kimetsu no Yaiba anime as he faces demons in order to turn his sister Nezuko, who has become a demon, back into a human.&lt;br&gt; &lt;br&gt;&lt;strong&gt;Versus Mode&lt;/strong&gt;&lt;br&gt;In Versus Mode, characters from the anime, including Tanjiro and Nezuko, can be freely matched against each other in a 2 vs 2 setting with up to 2 players on or offline! Enjoy this simple but exhilarating battle system, and become the greatest demon slayer you can!&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Digital Deluxe Edition Content&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles Game&lt;br&gt;&lt;/li&gt;&lt;li&gt;Character Unlock – Kimetsu Academy Tanjiro Kamado, Kimetsu Academy Nezuko Kamado, Kimetsu Academy Zenitsu Agatsuma, Kimetsu Academy Inosuke Hashibira&lt;br&gt;&lt;/li&gt;&lt;li&gt;In-game Costumes – Butterfly Mansion Patient Wear for Tanjiro Kamado, Zenitsu Agatsuma, Inosuke Hashibira&lt;br&gt;&lt;/li&gt;&lt;li&gt;Avatars – Tanjiro Kamado Avatar, Nezuko Kamado Avatar, Zenitsu Agatsuma Avatar, Inosuke Hashibira Avatar, Giyu Tomioka Avatar, Shinobu Kocho Avatar, Kyojuro Rengoku Avatar, Sakonji Urokodaki Avatar, Sabito Avatar, Makomo Avatar, Murata Avatar, Tanjiro Kamado (Hinokami Kagura) Avatar&lt;br&gt;&lt;/li&gt;&lt;li&gt;Kimetsu Points (8,000 Points)&lt;br&gt;&lt;/li&gt;&lt;li&gt;High-Resolution PC Wallpaper&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Digital Standard Edition Content&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles Game&lt;br&gt;&lt;/li&gt;&lt;li&gt;Character Unlock – Kimetsu Academy Tanjiro Kamado&lt;br&gt;&lt;/li&gt;&lt;li&gt;Avatars – Tanjiro Kamado, Nezuko Kamado&lt;br&gt;&lt;/li&gt;&lt;li&gt;High-Resolution PC Wallpaper&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;*Kimetsu Points can be exchanged for in-game rewards.  (8,000 Points can unlock access to 2 characters.)&lt;br&gt;*The content/specs may change without warning.&lt;br&gt;*The bonuses may be offered at a later time.&lt;br&gt;*Some of the Items included in the Digital Deluxe Edition can be obtained through other products.  Please be careful about duplicate purchases (applies to the West only).&lt;br&gt;*Only Korean subtitles are included in this product purchased in Korea. Japanese, English, French, Italian, German, Spanish, Simplified Chinese, Traditional Chinese are included in this product purchased outside of Korea.&lt;br&gt;*Avatar illustrations are based on in-game 3D models created by CyberConnect2.&lt;br&gt;*The latest patch is required to access online play.&lt;br&gt;*Character Unlock allow immediate access to play as the indicated characters in Versus mode.&lt;br&gt;*In-game Costumes can be used in Versus mode</t>
+          <t>你画我猜（Draw &amp;amp; Guess）是一款休闲型绘画游戏，有多种游戏模式，最多可供 16 位玩家参与。&lt;br&gt;&lt;br&gt;快来展现您的艺术天赋，同时开动脑筋，猜猜看其他玩家画的是什么吧！您还可以挑战我们训练有素的 AI（人工智能）哦。&lt;h2 class="bb_tag"&gt;游戏模式&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;传话游戏：&lt;/strong&gt;从选定的词语列表（或另一位玩家提议的词）中选择一个词，开始作画！所有玩家可以同时边画边猜，所以无需等轮到您再开始！所有玩家都能根据提交的图画猜出正确的词吗？或者，您画的兔子会不会被人以为是一幢三层楼房？猜对词可以获得奖杯，如果您的画赢得了最多玩家的喜欢，还可获得奖励。&lt;br&gt;&lt;br&gt;&lt;strong&gt;猜字游戏：&lt;/strong&gt;此经典模式下，在您作画的同时，其他玩家要同时猜您画的是什么。他们越快猜到，他们（和您）获得的点数就越多！画画和猜词获得的点数加在一起，谁的分数最高呢？“ 汽车”真的是最符合“6个字母”这条提示的单词吗？&lt;br&gt;&lt;br&gt;&lt;strong&gt;挑战人工智能：&lt;/strong&gt;想不想您来画画，然后让游戏来猜猜您画的是什么？此模式下，选择一个词作画，看看游戏是否能认得出您的图画。我们的 AI 匹配度越高，您获得的点数就越多！挑战自己的个人得分纪录，或者与其它玩家争夺第一。&lt;br&gt;&lt;br&gt;&lt;strong&gt;茶绘：&lt;/strong&gt;是不是只想自己一个人或者和一群玩家在画室里轻松悠闲地画画？完全没问题！在这里，您可以告诉其他玩家您正在游戏中磨练自己的技能，还可以邀请他们和您一起画画。&lt;h2 class="bb_tag"&gt;增加难度&lt;/h2&gt;您是否已经能驾轻就熟地画出一个令人满意的人物线条画了，并且其他玩家只需几秒就能看出那是什么？&lt;br&gt;试试新推出的&lt;strong&gt;像素艺术&lt;/strong&gt;模式吧！同时如果您想增加游戏难度，不如试试在作画的同时让您画出的&lt;strong&gt;线条消失&lt;/strong&gt;怎么样？或者还可以为线条添加&lt;strong&gt;重力作用&lt;/strong&gt;影响，并创建您自己的个人硬核模式！&lt;br&gt;&lt;br&gt;忙碌了一整天，只&lt;strong&gt;想好好放松&lt;/strong&gt;？选择慢速模式，不慌不忙，享受宁静的休闲乐趣。超快模式就留给那些想要紧张刺激的玩家吧。:)&lt;br&gt;&lt;br&gt;掌握了我们的默认词之后，您还可以浏览 Steam 创意工坊，那里有&lt;strong&gt;各式各样&lt;/strong&gt;由玩家创建的词语列表可供选择！如果在大量的已有主题中还是没有特别适合您口味的，欢迎创建（并提交）您自己的主题。&lt;br&gt;&lt;br&gt;&lt;strong&gt;新功能：现已实现 Twitch 集成！在线直播，让您聊天群组里的朋友们来猜一猜您的提示词是什么！&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;欢迎加入我们的 Discord 社区，寻找玩家：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/JxVqhQRj8S" target="_blank" rel=" noopener"  &gt;https://discord.gg/JxVqhQRj8S&lt;/a&gt;&lt;br&gt;访问“你画我猜”游戏网站：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://drawandguess.com/press" target="_blank" rel=" noopener"  &gt;https://drawandguess.com/press&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>1491170</t>
+          <t>1490890</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>游戏开发的二三事</t>
+          <t>Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>游戏开发的二三事</t>
+          <t>Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>模拟,可爱,剧情丰富,单人,休闲</t>
+          <t>动漫,动作,冒险,3D 格斗,动作冒险</t>
         </is>
       </c>
       <c r="E834" t="inlineStr">
@@ -35660,34 +35660,34 @@
       </c>
       <c r="G834" t="inlineStr">
         <is>
-          <t>2021年06月24日</t>
+          <t>2021年10月15日</t>
         </is>
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;致各位亲爱的玩家：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;感谢大家对于《游戏开发的二三事》的支持与热爱，自《游戏开发的二三事》上线以来，各位玩家为游戏提供了许多宝贵的意见和建议。顺带插播一条小广告，若您对于游戏有任何意见或建议，可以进入&lt;strong&gt;游戏Q群：1138905629&lt;/strong&gt;，我们会在线为大家解答问题哦~&lt;br&gt;&lt;br&gt;在制作《游戏开发的二三事》之初，我便设想将做游戏的这段经历做成游戏，让各位玩家一起来体验，虽然听起来像是个套娃的过程，但我们确实想通过游戏为大家模拟出一个游戏开发者从个人一步步发展到团队制作游戏的全过程。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/01.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;《游戏开发的二三事》自EA以来我们进行了三个版本的更新，重点修复了游戏目前出现的大部分BUG并且优化了游戏流程的体验，期间大家为游戏提供了很多实用的建议以及未来发展的方向，为了不辜负大家的期望，我们仍在尽全力打磨游戏。相信在接下来的时间里，我们能够为大家带来一个更加优秀的《游戏开发二三事》，再次感谢大家对我们的游戏支持与喜爱。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以下是正经的游戏介绍:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在《游戏开发的二三事》中，玩家将扮演独立游戏开发者，通过通过每日的学习来提高制作能力，通过餐馆打工、接外包以及后续独立制作游戏发行上线来赚取现金。&lt;br&gt;&lt;br&gt;你会时刻面临着来自各方面的资金压力，如租住房屋、日常伙食、网络购物等生计问题，制作游戏、雇佣员工、美术音乐外包等同样需要花费大量金钱。&lt;br&gt;&lt;br&gt;当然在游戏的过程中有着大量的选择空间，从游戏类型、美术风格、游戏特点到游戏内容模块等均可自由搭配，最后为游戏命名，亲手打造出你心目中的游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/02.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;作为一个独立游戏开发者，你需要维持饱食、清洁、心情、健康等四个状态属性，通过点外卖饱食回复饱食、玩游戏改变心情、洗澡恢复清洁度，同时还需要出门通过跑步、打篮球来保持健康的身体。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/03.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;只有平衡各项身体指标，才能够有更好的状态去学习提升编程、策略、美术、音乐等各项能力。随着能力的解锁，能够开发的游戏作品类型也变将变得更加丰富，甚至打造一款广受好评的3A大作也成为可能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/04.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;在游戏开发之余的生活环节中，你将结交到来自各行业各的朋友，通过多种互动方式，提升对应角色的好感度，在未来的工作生活中或许将对你产生超乎想象的影响。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/05.png?t=1687440469" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Product Description&lt;/strong&gt;&lt;/h2&gt;Become the blade that destroys demons!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Adventure Mode&lt;/strong&gt;&lt;br&gt;In Adventure Mode, follow Tanjiro through the story from the Demon Slayer: Kimetsu no Yaiba anime as he faces demons in order to turn his sister Nezuko, who has become a demon, back into a human.&lt;br&gt; &lt;br&gt;&lt;strong&gt;Versus Mode&lt;/strong&gt;&lt;br&gt;In Versus Mode, characters from the anime, including Tanjiro and Nezuko, can be freely matched against each other in a 2 vs 2 setting with up to 2 players on or offline! Enjoy this simple but exhilarating battle system, and become the greatest demon slayer you can!&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Digital Deluxe Edition Content&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles Game&lt;br&gt;&lt;/li&gt;&lt;li&gt;Character Unlock – Kimetsu Academy Tanjiro Kamado, Kimetsu Academy Nezuko Kamado, Kimetsu Academy Zenitsu Agatsuma, Kimetsu Academy Inosuke Hashibira&lt;br&gt;&lt;/li&gt;&lt;li&gt;In-game Costumes – Butterfly Mansion Patient Wear for Tanjiro Kamado, Zenitsu Agatsuma, Inosuke Hashibira&lt;br&gt;&lt;/li&gt;&lt;li&gt;Avatars – Tanjiro Kamado Avatar, Nezuko Kamado Avatar, Zenitsu Agatsuma Avatar, Inosuke Hashibira Avatar, Giyu Tomioka Avatar, Shinobu Kocho Avatar, Kyojuro Rengoku Avatar, Sakonji Urokodaki Avatar, Sabito Avatar, Makomo Avatar, Murata Avatar, Tanjiro Kamado (Hinokami Kagura) Avatar&lt;br&gt;&lt;/li&gt;&lt;li&gt;Kimetsu Points (8,000 Points)&lt;br&gt;&lt;/li&gt;&lt;li&gt;High-Resolution PC Wallpaper&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;Digital Standard Edition Content&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Demon Slayer -Kimetsu no Yaiba- The Hinokami Chronicles Game&lt;br&gt;&lt;/li&gt;&lt;li&gt;Character Unlock – Kimetsu Academy Tanjiro Kamado&lt;br&gt;&lt;/li&gt;&lt;li&gt;Avatars – Tanjiro Kamado, Nezuko Kamado&lt;br&gt;&lt;/li&gt;&lt;li&gt;High-Resolution PC Wallpaper&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;*Kimetsu Points can be exchanged for in-game rewards.  (8,000 Points can unlock access to 2 characters.)&lt;br&gt;*The content/specs may change without warning.&lt;br&gt;*The bonuses may be offered at a later time.&lt;br&gt;*Some of the Items included in the Digital Deluxe Edition can be obtained through other products.  Please be careful about duplicate purchases (applies to the West only).&lt;br&gt;*Only Korean subtitles are included in this product purchased in Korea. Japanese, English, French, Italian, German, Spanish, Simplified Chinese, Traditional Chinese are included in this product purchased outside of Korea.&lt;br&gt;*Avatar illustrations are based on in-game 3D models created by CyberConnect2.&lt;br&gt;*The latest patch is required to access online play.&lt;br&gt;*Character Unlock allow immediate access to play as the indicated characters in Versus mode.&lt;br&gt;*In-game Costumes can be used in Versus mode</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>1502040</t>
+          <t>1491170</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>大衍江湖</t>
+          <t>游戏开发的二三事</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>大衍江湖</t>
+          <t>游戏开发的二三事</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>模拟,角色扮演,策略,独立,冒险</t>
+          <t>模拟,可爱,剧情丰富,单人,休闲</t>
         </is>
       </c>
       <c r="E835" t="inlineStr">
@@ -35697,47 +35697,84 @@
       </c>
       <c r="G835" t="inlineStr">
         <is>
-          <t>2023年02月11日</t>
+          <t>2021年06月24日</t>
         </is>
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>《大衍江湖》是一款武侠题材，结合经营养成，角色扮演的游戏。玩家将操控一个江湖门派；与江湖上的其他各色各样的门派打交道，或建立贸易或直接攻陷；与其他门派弟子交流，或结交或抢夺；江湖世界上各种随机事件，能获得具体好处同时也伴随着各种风险；门派传承，终有一日，将主宰江湖。&lt;br&gt;&lt;br&gt;&lt;strong&gt;弟子招募&lt;/strong&gt;&lt;br&gt;门派要生存自然少不了要招募弟子，招募的手段各式各样，可以通过门派发布消息，也可以派遣弟子到江湖四处寻找，甚至去掳掠关入监牢，强迫其加入；而且据说江湖上还有不少“人贩子”，有钱的话，说不定能买到资质不错的人哟。&lt;br&gt;&lt;br&gt;&lt;strong&gt;功法系统&lt;/strong&gt;&lt;br&gt;玩家门派弟子所学武技全由掌门自创而来，在门派设施“武楼”中，可以选择不同的招式与威力进行组合；如果有特殊能力的护法弟子，武技的威力还能得到额外提升！除了武技，内功、身法等基础功法也不能少，全靠玩家通过各种探索奇遇获得；积累优秀功法并修至圆满然后将其传承下去，门派将越来越强。&lt;br&gt;&lt;br&gt;&lt;strong&gt;炼器炼药&lt;/strong&gt;&lt;br&gt;玩家收集获取到各种类型的材料，可以为门下弟子打造各种装备，根据材料阴阳五行属性的合理搭配与优秀的炼制弟子，打造出的装备属性天差地别；炼制的丹药也会根据不同的药材，拥有不同的功效，是一瓶丹药拥有多种功效，还是专精一种功效，全靠玩家自己搭配。&lt;br&gt;&lt;br&gt;&lt;strong&gt;江湖历练&lt;/strong&gt;&lt;br&gt;门派中的亲传弟子可以被派遣到江湖世界进行历练，玩家需要控制历练弟子在江湖大地图上进行探索与形形色色的人接触；是功力大涨满载而归还是被人截杀于半路，江湖凶险，需要玩家自己选择。</t>
+          <t>&lt;strong&gt;致各位亲爱的玩家：&lt;/strong&gt;&lt;br&gt;&lt;br&gt;感谢大家对于《游戏开发的二三事》的支持与热爱，自《游戏开发的二三事》上线以来，各位玩家为游戏提供了许多宝贵的意见和建议。顺带插播一条小广告，若您对于游戏有任何意见或建议，可以进入&lt;strong&gt;游戏Q群：1138905629&lt;/strong&gt;，我们会在线为大家解答问题哦~&lt;br&gt;&lt;br&gt;在制作《游戏开发的二三事》之初，我便设想将做游戏的这段经历做成游戏，让各位玩家一起来体验，虽然听起来像是个套娃的过程，但我们确实想通过游戏为大家模拟出一个游戏开发者从个人一步步发展到团队制作游戏的全过程。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/01.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;《游戏开发的二三事》自EA以来我们进行了三个版本的更新，重点修复了游戏目前出现的大部分BUG并且优化了游戏流程的体验，期间大家为游戏提供了很多实用的建议以及未来发展的方向，为了不辜负大家的期望，我们仍在尽全力打磨游戏。相信在接下来的时间里，我们能够为大家带来一个更加优秀的《游戏开发二三事》，再次感谢大家对我们的游戏支持与喜爱。&lt;br&gt;&lt;br&gt;&lt;strong&gt;以下是正经的游戏介绍:&lt;/strong&gt;&lt;br&gt;&lt;br&gt;在《游戏开发的二三事》中，玩家将扮演独立游戏开发者，通过通过每日的学习来提高制作能力，通过餐馆打工、接外包以及后续独立制作游戏发行上线来赚取现金。&lt;br&gt;&lt;br&gt;你会时刻面临着来自各方面的资金压力，如租住房屋、日常伙食、网络购物等生计问题，制作游戏、雇佣员工、美术音乐外包等同样需要花费大量金钱。&lt;br&gt;&lt;br&gt;当然在游戏的过程中有着大量的选择空间，从游戏类型、美术风格、游戏特点到游戏内容模块等均可自由搭配，最后为游戏命名，亲手打造出你心目中的游戏。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/02.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;作为一个独立游戏开发者，你需要维持饱食、清洁、心情、健康等四个状态属性，通过点外卖饱食回复饱食、玩游戏改变心情、洗澡恢复清洁度，同时还需要出门通过跑步、打篮球来保持健康的身体。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/03.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;只有平衡各项身体指标，才能够有更好的状态去学习提升编程、策略、美术、音乐等各项能力。随着能力的解锁，能够开发的游戏作品类型也变将变得更加丰富，甚至打造一款广受好评的3A大作也成为可能。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/04.png?t=1687440469" /&gt;&lt;br&gt;&lt;br&gt;在游戏开发之余的生活环节中，你将结交到来自各行业各的朋友，通过多种互动方式，提升对应角色的好感度，在未来的工作生活中或许将对你产生超乎想象的影响。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1491170/extras/05.png?t=1687440469" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
+          <t>1502040</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>大衍江湖</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>大衍江湖</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>模拟,角色扮演,策略,独立,冒险</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>2023年02月11日</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>《大衍江湖》是一款武侠题材，结合经营养成，角色扮演的游戏。玩家将操控一个江湖门派；与江湖上的其他各色各样的门派打交道，或建立贸易或直接攻陷；与其他门派弟子交流，或结交或抢夺；江湖世界上各种随机事件，能获得具体好处同时也伴随着各种风险；门派传承，终有一日，将主宰江湖。&lt;br&gt;&lt;br&gt;&lt;strong&gt;弟子招募&lt;/strong&gt;&lt;br&gt;门派要生存自然少不了要招募弟子，招募的手段各式各样，可以通过门派发布消息，也可以派遣弟子到江湖四处寻找，甚至去掳掠关入监牢，强迫其加入；而且据说江湖上还有不少“人贩子”，有钱的话，说不定能买到资质不错的人哟。&lt;br&gt;&lt;br&gt;&lt;strong&gt;功法系统&lt;/strong&gt;&lt;br&gt;玩家门派弟子所学武技全由掌门自创而来，在门派设施“武楼”中，可以选择不同的招式与威力进行组合；如果有特殊能力的护法弟子，武技的威力还能得到额外提升！除了武技，内功、身法等基础功法也不能少，全靠玩家通过各种探索奇遇获得；积累优秀功法并修至圆满然后将其传承下去，门派将越来越强。&lt;br&gt;&lt;br&gt;&lt;strong&gt;炼器炼药&lt;/strong&gt;&lt;br&gt;玩家收集获取到各种类型的材料，可以为门下弟子打造各种装备，根据材料阴阳五行属性的合理搭配与优秀的炼制弟子，打造出的装备属性天差地别；炼制的丹药也会根据不同的药材，拥有不同的功效，是一瓶丹药拥有多种功效，还是专精一种功效，全靠玩家自己搭配。&lt;br&gt;&lt;br&gt;&lt;strong&gt;江湖历练&lt;/strong&gt;&lt;br&gt;门派中的亲传弟子可以被派遣到江湖世界进行历练，玩家需要控制历练弟子在江湖大地图上进行探索与形形色色的人接触；是功力大涨满载而归还是被人截杀于半路，江湖凶险，需要玩家自己选择。</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
           <t>1503210</t>
         </is>
       </c>
-      <c r="B836" t="inlineStr">
+      <c r="B837" t="inlineStr">
         <is>
           <t>Jedi siege</t>
         </is>
       </c>
-      <c r="C836" t="inlineStr">
+      <c r="C837" t="inlineStr">
         <is>
           <t>Jedi siege</t>
         </is>
       </c>
-      <c r="D836" t="inlineStr">
+      <c r="D837" t="inlineStr">
         <is>
           <t>冒险,休闲,大逃杀,刷宝射击游戏,2.5D</t>
         </is>
       </c>
-      <c r="E836" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr">
         <is>
           <t>2020年12月31日</t>
         </is>
       </c>
-      <c r="H836" t="inlineStr">
+      <c r="H837" t="inlineStr">
         <is>
           <t>This is a first person shooting game. The player acts as a soldier. The player is surrounded by the enemy. They can explore nearby. The player can avoid the attack of the enemy or kill the enemy to survive as much as possible.&lt;br /&gt;
 &lt;br /&gt;
@@ -35784,67 +35821,25 @@
         </is>
       </c>
     </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>1506830</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>FIFA 22</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr">
-        <is>
-          <t>FIFA 22</t>
-        </is>
-      </c>
-      <c r="D837" t="inlineStr">
-        <is>
-          <t>足球,体育,多人,控制器,竞技</t>
-        </is>
-      </c>
-      <c r="E837" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F837" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>2021年10月01日</t>
-        </is>
-      </c>
-      <c r="H837" t="inlineStr">
-        <is>
-          <t>Powered by Football™, EA SPORTS™ FIFA 22 brings the game even closer to the real thing with fundamental gameplay advances and a new season of innovation across every mode.&lt;br&gt;&lt;br&gt;&lt;strong&gt;What is FIFA? &lt;/strong&gt;&lt;br&gt;&lt;br&gt;Play The World’s Game with 17,000+ players, over 700 teams in 90+ stadiums and more than 30 leagues from all over the globe.&lt;br&gt;&lt;br&gt;&lt;strong&gt;GAME MODES&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Career Mode&lt;/strong&gt; – Live out your dreams as both a manager and a player in FIFA 22. Create the newest club in FIFA, design your kits, style your stadium, and choose whether to compete with the elite or rise up from the lower divisions as you manage your club to glory. Or test your skills as a player, with a more immersive Player Career mode that gives you more ways to progress, achieve, and immerse yourself in your Pro’s journey through the game. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;VOLTA FOOTBALL&lt;/strong&gt; – Take it back to the streets with VOLTA FOOTBALL. Build a player, pick your gear, and express your style on the streets alone or with your squad in football playgrounds all around the world. Get rewarded for your skill on the ball with restyled gameplay, and play unique events in special locations each season as you unlock new gear through a new seasonal progression system that lets you earn XP towards all of the rewards on offer in VOLTA FOOTBALL, whichever mode you play. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;FIFA Ultimate Team&lt;/strong&gt; – Get involved with the most popular mode in FIFA, FIFA Ultimate Team. Build your dream squad from thousands of players from across the world of football, make your club your own on and off the pitch with custom kits, badges, and a whole FUT Stadium to leave your mark on, and take your team into matches against the AI or other players in the FUT Community. Plus, welcome back some of the game’s most memorable players as new FUT Heroes, as some of football’s most memorable players return to the pitch. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Unrivaled Authenticity&lt;/strong&gt; – Play with the world’s biggest players in the world’s biggest competitions, including the iconic UEFA Champions League, UEFA Europa League, brand new UEFA Europa Conference League, CONMEBOL Libertadores, CONMEBOL Sudamericana, Premier League, Bundesliga, LaLiga Santander, and many more! &lt;br&gt;&lt;br&gt;When playing FIFA 22 on Steam, you can use your DUALSHOCK 4 and Xbox controllers to play your way.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1506830/extras/gamepad2_610_english.png?t=1684248957" /&gt;&lt;br&gt;&lt;br&gt;This game includes optional in-game purchases of virtual currency that can be used to acquire virtual in-game items, including a random selection of virtual in-game items.&lt;/li&gt;&lt;/ul&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>1509090</t>
+          <t>1506830</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Seek Girl Ⅷ</t>
+          <t>FIFA 22</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Seek Girl Ⅷ</t>
+          <t>FIFA 22</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>成人,工作场所不宜,独立,休闲,单人</t>
+          <t>足球,体育,多人,控制器,竞技</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
@@ -35852,49 +35847,91 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
       <c r="G838" t="inlineStr">
         <is>
-          <t>2021年04月30日</t>
+          <t>2021年10月01日</t>
         </is>
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/新总群群号.png?t=1678429291" /&gt;&lt;h2 class="bb_tag"&gt;加入Discord社區&lt;/h2&gt;我們現已開通discord社區，如果你有&lt;strong&gt;&lt;u&gt;任何問題&lt;/u&gt;&lt;/strong&gt;（￣y▽，￣）╭，請點擊&lt;u&gt;右側discord連結&lt;/u&gt;（即支持語言的下方）加入我們┏（゜ ω ゜）=☞&lt;br&gt;也可以discord內添加我們的頻道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;&lt;br&gt;&lt;br&gt;你有任何問題嗎？ 我猜你有！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/01.gif?t=1678429291" /&gt;&lt;h2 class="bb_tag"&gt;遊戲介紹&lt;/h2&gt;這是一個策略冒險遊戲。玩家需要控制男孩找到女孩，然後才能進入下一個關卡。在此過程中有許多障礙和陷阱。玩家需要根據進度進行及時的調整。遊戲地圖上有很多元素法球，每種元素發球都有獨特用法。正確收集並使用它們才能正確完成遊戲。請注意，拾取或使用元素法球也算作一個回合。&lt;br&gt;遊戲中，男孩的前進路線不是唯一的，可以通過阻擋當來改變前進路線。開動腦筋，抓住時機，解救妹子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/02.gif?t=1678429291" /&gt;&lt;br&gt;游戏采用回合制玩法，相比前作推箱子玩法難度降低很多，休閑簡單。14位不同風格角色，全裏live2d動畫，特色日文配音。&lt;br&gt;紳士們，快把妹子帶回家！&lt;br&gt;&lt;br&gt;开发商其他系列游戏推荐：&lt;br&gt;SeeKgirl FOG:Ⅰ，Lost，Taboos: Cracks，Rebirth:Mr Wan</t>
+          <t>Powered by Football™, EA SPORTS™ FIFA 22 brings the game even closer to the real thing with fundamental gameplay advances and a new season of innovation across every mode.&lt;br&gt;&lt;br&gt;&lt;strong&gt;What is FIFA? &lt;/strong&gt;&lt;br&gt;&lt;br&gt;Play The World’s Game with 17,000+ players, over 700 teams in 90+ stadiums and more than 30 leagues from all over the globe.&lt;br&gt;&lt;br&gt;&lt;strong&gt;GAME MODES&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Career Mode&lt;/strong&gt; – Live out your dreams as both a manager and a player in FIFA 22. Create the newest club in FIFA, design your kits, style your stadium, and choose whether to compete with the elite or rise up from the lower divisions as you manage your club to glory. Or test your skills as a player, with a more immersive Player Career mode that gives you more ways to progress, achieve, and immerse yourself in your Pro’s journey through the game. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;VOLTA FOOTBALL&lt;/strong&gt; – Take it back to the streets with VOLTA FOOTBALL. Build a player, pick your gear, and express your style on the streets alone or with your squad in football playgrounds all around the world. Get rewarded for your skill on the ball with restyled gameplay, and play unique events in special locations each season as you unlock new gear through a new seasonal progression system that lets you earn XP towards all of the rewards on offer in VOLTA FOOTBALL, whichever mode you play. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;FIFA Ultimate Team&lt;/strong&gt; – Get involved with the most popular mode in FIFA, FIFA Ultimate Team. Build your dream squad from thousands of players from across the world of football, make your club your own on and off the pitch with custom kits, badges, and a whole FUT Stadium to leave your mark on, and take your team into matches against the AI or other players in the FUT Community. Plus, welcome back some of the game’s most memorable players as new FUT Heroes, as some of football’s most memorable players return to the pitch. &lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Unrivaled Authenticity&lt;/strong&gt; – Play with the world’s biggest players in the world’s biggest competitions, including the iconic UEFA Champions League, UEFA Europa League, brand new UEFA Europa Conference League, CONMEBOL Libertadores, CONMEBOL Sudamericana, Premier League, Bundesliga, LaLiga Santander, and many more! &lt;br&gt;&lt;br&gt;When playing FIFA 22 on Steam, you can use your DUALSHOCK 4 and Xbox controllers to play your way.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1506830/extras/gamepad2_610_english.png?t=1684248957" /&gt;&lt;br&gt;&lt;br&gt;This game includes optional in-game purchases of virtual currency that can be used to acquire virtual in-game items, including a random selection of virtual in-game items.&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
+          <t>1509090</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Seek Girl Ⅷ</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Seek Girl Ⅷ</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>成人,工作场所不宜,独立,休闲,单人</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>2021年04月30日</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/新总群群号.png?t=1678429291" /&gt;&lt;h2 class="bb_tag"&gt;加入Discord社區&lt;/h2&gt;我們現已開通discord社區，如果你有&lt;strong&gt;&lt;u&gt;任何問題&lt;/u&gt;&lt;/strong&gt;（￣y▽，￣）╭，請點擊&lt;u&gt;右側discord連結&lt;/u&gt;（即支持語言的下方）加入我們┏（゜ ω ゜）=☞&lt;br&gt;也可以discord內添加我們的頻道：&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/t7FMzSwyDx" target="_blank" rel=" noopener"  &gt;https://discord.gg/t7FMzSwyDx&lt;/a&gt;&lt;br&gt;&lt;br&gt;你有任何問題嗎？ 我猜你有！！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/01.gif?t=1678429291" /&gt;&lt;h2 class="bb_tag"&gt;遊戲介紹&lt;/h2&gt;這是一個策略冒險遊戲。玩家需要控制男孩找到女孩，然後才能進入下一個關卡。在此過程中有許多障礙和陷阱。玩家需要根據進度進行及時的調整。遊戲地圖上有很多元素法球，每種元素發球都有獨特用法。正確收集並使用它們才能正確完成遊戲。請注意，拾取或使用元素法球也算作一個回合。&lt;br&gt;遊戲中，男孩的前進路線不是唯一的，可以通過阻擋當來改變前進路線。開動腦筋，抓住時機，解救妹子。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1509090/extras/02.gif?t=1678429291" /&gt;&lt;br&gt;游戏采用回合制玩法，相比前作推箱子玩法難度降低很多，休閑簡單。14位不同風格角色，全裏live2d動畫，特色日文配音。&lt;br&gt;紳士們，快把妹子帶回家！&lt;br&gt;&lt;br&gt;开发商其他系列游戏推荐：&lt;br&gt;SeeKgirl FOG:Ⅰ，Lost，Taboos: Cracks，Rebirth:Mr Wan</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
           <t>1510610</t>
         </is>
       </c>
-      <c r="B839" t="inlineStr">
+      <c r="B840" t="inlineStr">
         <is>
           <t>piyipi</t>
         </is>
       </c>
-      <c r="C839" t="inlineStr">
+      <c r="C840" t="inlineStr">
         <is>
           <t>piyipi</t>
         </is>
       </c>
-      <c r="D839" t="inlineStr">
+      <c r="D840" t="inlineStr">
         <is>
           <t>休闲,冒险,动作角色扮演,2D 平台,2D</t>
         </is>
       </c>
-      <c r="E839" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr">
         <is>
           <t>2021年1月20日</t>
         </is>
       </c>
-      <c r="H839" t="inlineStr">
+      <c r="H840" t="inlineStr">
         <is>
           <t>这是一个简单的RPG&lt;br /&gt;
 鲁班的父亲决心复仇。&lt;br /&gt;
@@ -35911,38 +35948,38 @@
         </is>
       </c>
     </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
+    <row r="841">
+      <c r="A841" t="inlineStr">
         <is>
           <t>1511620</t>
         </is>
       </c>
-      <c r="B840" t="inlineStr">
+      <c r="B841" t="inlineStr">
         <is>
           <t>Dark spot</t>
         </is>
       </c>
-      <c r="C840" t="inlineStr">
+      <c r="C841" t="inlineStr">
         <is>
           <t>Dark spot</t>
         </is>
       </c>
-      <c r="D840" t="inlineStr">
+      <c r="D841" t="inlineStr">
         <is>
           <t>休闲,独立,解谜,2D,单人</t>
         </is>
       </c>
-      <c r="E840" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
         <is>
           <t>2021年01月21日</t>
         </is>
       </c>
-      <c r="H840" t="inlineStr">
+      <c r="H841" t="inlineStr">
         <is>
           <t>Dark spot puzzle game with hand drawn graphics.&lt;br /&gt;
 Use the mouse to move the dark spot and try not to drop it.&lt;br /&gt;
@@ -35952,70 +35989,52 @@
         </is>
       </c>
     </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>1514690</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>Peekaboo Lite</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr">
-        <is>
-          <t>Peekaboo Lite</t>
-        </is>
-      </c>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>抢先体验,动作,休闲,多人,玩家对战</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>2021年03月05日</t>
-        </is>
-      </c>
-      <c r="H841" t="inlineStr">
-        <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://play.google.com/store/apps/details?id=com.Redaster.Peekaboo" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/google-play-badge.png?t=1654647377" /&gt;&lt;/a&gt;&lt;h2 class="bb_tag"&gt;Peekaboo — 跨平台捉迷藏在线&lt;/h2&gt;&lt;br&gt;玩家分为两支队伍：物品和猎人。&lt;br&gt;&lt;br&gt;对象的任务是在其他对象中隐藏，以使猎人无法找到它们。&lt;br&gt;项目可以采用任何对象的形式。控制使用逼真的物理学进行。&lt;br&gt;每个地图都充满了独特的对象，从小甜甜圈和水果到大型家具和酒桶。&lt;br&gt;&lt;br&gt;拥有特殊武器的玩家是猎人。&lt;br&gt;他们的任务是在有限的时间内找到所有隐藏的对象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/peekaboo_hunter.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;每个玩家都有独特的能力来帮助他们赢得比赛：&lt;br&gt;物品可能会变得不可见，并造成欺骗猎人的双打。&lt;br&gt;猎人使用特殊的雷达找到隐藏的玩家物品，还投掷炸弹并设置陷阱。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/peekaboo_customization.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;每回合，地图上的对象都会随机变化。&lt;br&gt;这使游戏玩法更加有趣！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/NXYoMaGFXj.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;该游戏为跨平台游戏，可让您通过不同设备在同一台游戏服务器上进行游戏：&lt;strong&gt;PC,&lt;a href="https://steamcommunity.com/linkfilter/?url=https://play.google.com/store/apps/details?id=com.Redaster.Peekaboo" target="_blank" rel=" noopener"  &gt;Android&lt;/a&gt;&lt;/strong&gt;（将来会提供iOS支持）！&lt;br&gt;&lt;br&gt;致电您的朋友，在线加入世界各地的玩家，一起玩捉迷藏吧！</t>
-        </is>
-      </c>
-    </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>1517960</t>
+          <t>1514690</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Rebirth2:Beware of Mr.Wang</t>
-        </is>
-      </c>
-      <c r="D842" t="inlineStr"/>
+          <t>Peekaboo Lite</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Peekaboo Lite</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>抢先体验,动作,休闲,多人,玩家对战</t>
+        </is>
+      </c>
       <c r="E842" t="inlineStr">
         <is>
           <t>Game</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>2021年03月05日</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://play.google.com/store/apps/details?id=com.Redaster.Peekaboo" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/google-play-badge.png?t=1654647377" /&gt;&lt;/a&gt;&lt;h2 class="bb_tag"&gt;Peekaboo — 跨平台捉迷藏在线&lt;/h2&gt;&lt;br&gt;玩家分为两支队伍：物品和猎人。&lt;br&gt;&lt;br&gt;对象的任务是在其他对象中隐藏，以使猎人无法找到它们。&lt;br&gt;项目可以采用任何对象的形式。控制使用逼真的物理学进行。&lt;br&gt;每个地图都充满了独特的对象，从小甜甜圈和水果到大型家具和酒桶。&lt;br&gt;&lt;br&gt;拥有特殊武器的玩家是猎人。&lt;br&gt;他们的任务是在有限的时间内找到所有隐藏的对象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/peekaboo_hunter.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;每个玩家都有独特的能力来帮助他们赢得比赛：&lt;br&gt;物品可能会变得不可见，并造成欺骗猎人的双打。&lt;br&gt;猎人使用特殊的雷达找到隐藏的玩家物品，还投掷炸弹并设置陷阱。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/peekaboo_customization.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;每回合，地图上的对象都会随机变化。&lt;br&gt;这使游戏玩法更加有趣！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1514690/extras/NXYoMaGFXj.gif?t=1654647377" /&gt;&lt;br&gt;&lt;br&gt;该游戏为跨平台游戏，可让您通过不同设备在同一台游戏服务器上进行游戏：&lt;strong&gt;PC,&lt;a href="https://steamcommunity.com/linkfilter/?url=https://play.google.com/store/apps/details?id=com.Redaster.Peekaboo" target="_blank" rel=" noopener"  &gt;Android&lt;/a&gt;&lt;/strong&gt;（将来会提供iOS支持）！&lt;br&gt;&lt;br&gt;致电您的朋友，在线加入世界各地的玩家，一起玩捉迷藏吧！</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>1520500</t>
+          <t>1517960</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Succubus Cafe</t>
+          <t>Rebirth2:Beware of Mr.Wang</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
@@ -36028,64 +36047,40 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>1523400</t>
+          <t>1520500</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Livestream: Escape from Hotel Izanami</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr">
-        <is>
-          <t>探灵直播</t>
-        </is>
-      </c>
-      <c r="D844" t="inlineStr">
-        <is>
-          <t>生存恐怖,动作,冒险,动漫,女性主角</t>
-        </is>
-      </c>
+          <t>Succubus Cafe</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr"/>
       <c r="E844" t="inlineStr">
         <is>
           <t>Game</t>
-        </is>
-      </c>
-      <c r="F844" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>2021年06月11日</t>
-        </is>
-      </c>
-      <c r="H844" t="inlineStr">
-        <is>
-          <t>※本作品中出现的所有人物均已超过18岁&lt;h2 class="bb_tag"&gt;&lt;strong&gt;概要&lt;/strong&gt;&lt;/h2&gt;本作为解谜脱逃之冒险游戏。&lt;br&gt;角色人物需逃离杀人玩偶的魔掌，并在废弃饭店里寻找相关逃脱之线索。&lt;br&gt;玩家的每个决定都将影响两个女孩的生死。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;STORY&lt;/strong&gt;&lt;/h2&gt;在樱井的提案下，身为实况主的生驹、樱井和白石三人前往知名恐怖景点「伊邪那美酒店」拍摄些鬼影幢幢的影片。&lt;br&gt;原本她们只是想渲染些特效，能够平安无事地结束拍摄就好，没想到...&lt;br&gt;　&lt;br&gt;在摄影期间，走散的生驹被突如其来的人偶给袭击，之后一直徘徊在酒店里的三人也不断地受到人偶的袭击，为何始终会走不出酒店呢？&lt;br&gt;究竟真能逃得出酒店呢？&lt;br&gt;&lt;br&gt;在废弃饭店里的直播即将开始...&lt;h2 class="bb_tag"&gt;&lt;strong&gt;系统&lt;/strong&gt;&lt;/h2&gt;■谜样般的人偶，外加上突如其来的追杀！赶紧逃离废弃的饭店！&lt;br&gt;&lt;br&gt;&lt;br&gt;在废弃饭店里到处探险时，一身血渍拿着斧头的人偶，开始追着直播的三人！&lt;br&gt;当遇到人偶时，必须要赶紧逃开、或是藏身避开人偶的追击。要是被一刀给劈下，必死无疑。 （游戏结束）&lt;br&gt;&lt;br&gt;&lt;br&gt;■善用提示和道具，这些将能协助找到逃脱的线索！&lt;br&gt;&lt;br&gt;在废弃饭店内寻找各项道具和提示。&lt;br&gt;搜索房间内的各个角落，以获得相关的提示。&lt;br&gt;这将大大改变这些女孩们的命运...&lt;br&gt;&lt;br&gt;&lt;br&gt;■这是诅咒！ ？直播的女孩们面临到危及生命的生存危机！&lt;br&gt;&lt;br&gt;在废弃的饭店中将面临各种危机。调查周遭以获得相关的线索，善用道具化解生存的危机。&lt;br&gt;你甚至可以在她们最危机的时刻，伸手触碰她们...这难道也是种诅咒！ ？&lt;h2 class="bb_tag"&gt;&lt;strong&gt;登场人物&lt;/strong&gt;&lt;/h2&gt;・生驹美樱　(CV:Haruka Yamazaki）&lt;br&gt;&lt;br&gt;・樱井奈奈　(CV:Asuka Nishi）&lt;br&gt;・白石梓　   (CV:Satsumi Matsuda）&lt;h2 class="bb_tag"&gt;&lt;strong&gt;STAFF&lt;/strong&gt;&lt;/h2&gt;・角色设计:Waon Inui&lt;br&gt;&lt;br&gt;・故事设计:C-Garden,Inc.&lt;br&gt;・企划/执行:Yujiro Usuda</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>1525700</t>
+          <t>1523400</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tavern Master</t>
+          <t>Livestream: Escape from Hotel Izanami</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>酒馆大师</t>
+          <t>探灵直播</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>管理,模拟,建造,中世纪,策略</t>
+          <t>生存恐怖,动作,冒险,动漫,女性主角</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
@@ -36095,52 +36090,94 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
         <is>
-          <t>2021年11月16日</t>
+          <t>2021年06月11日</t>
         </is>
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;设计并建造属于您自己的中世纪酒馆！&lt;/h2&gt;&lt;br&gt;《酒馆大师 (Tavern Master)》为您带来中世纪酒馆模拟、经营与建造的完美体验。&lt;br&gt;&lt;br&gt;您的生意要从只有几组桌椅的穷巷陋室做起，扩张并亲手设计厨房、客房与更多设施，雇佣并训练忠诚的员工队伍，满足顾客千奇百怪的需求，规划、建造、统筹、管理……一步步成为名震天下的酒馆大师！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/tavernMasterGif2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;建造厨房，招募大厨，烹饪各色美味佳肴。但要确保库存食材丰富，否则这也没有那也没有，顾客可能会愤而离开！&lt;br&gt;&lt;/li&gt;&lt;li&gt;举办特殊活动以吸引有着特定食物/饮料要求的顾客。他们将在早上入场，全天消费。&lt;br&gt;&lt;/li&gt;&lt;li&gt;雇佣乐队来吸引更多顾客到您的酒馆，并让顾客暂时忘记他们点的单已经很久没上的事实。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/gifBards2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;打造您的理想酒馆&lt;/strong&gt;&lt;br&gt;您将从零开始打造一座完美酒馆。各式墙体地面和装潢可供选择，让每座酒馆独一无二。一开始囊中羞涩或许只能安放三两桌椅，但随着酒馆发展，很快连王公贵族都会造访！&lt;br&gt;&lt;br&gt;&lt;strong&gt;优化工作流程&lt;/strong&gt;&lt;br&gt;要招呼更多客人，就得安排足够的桌椅。桌椅都需要照明，周边环境也需要装点。随着来访客人不断增多，您就需要手动调整布局与服务内容，才能让所有顾客满意而归。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/gifCustomers2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;喝多了就睡&lt;/strong&gt;&lt;br&gt;部分顾客会想要住店，这时您就可以展开住宿生意了！每个房间根据装潢会得到1到5星的评级，评级越高，收费自然也就越贵。是造便宜的大通铺还是奢华的单人间，都随您决定。&lt;br&gt;&lt;br&gt;&lt;strong&gt;不同玩法&lt;/strong&gt;&lt;br&gt;《酒馆大师》提供多种玩法。您可将酒馆装点得无比华丽，也可以通过优化调整赚取最大利润，甚至完全抛弃酒馆生意，专心经营旅店住宿。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/JS4EdHFbA7" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/discord.png?t=1677672790" /&gt;&lt;/a&gt;</t>
+          <t>※本作品中出现的所有人物均已超过18岁&lt;h2 class="bb_tag"&gt;&lt;strong&gt;概要&lt;/strong&gt;&lt;/h2&gt;本作为解谜脱逃之冒险游戏。&lt;br&gt;角色人物需逃离杀人玩偶的魔掌，并在废弃饭店里寻找相关逃脱之线索。&lt;br&gt;玩家的每个决定都将影响两个女孩的生死。&lt;h2 class="bb_tag"&gt;&lt;strong&gt;STORY&lt;/strong&gt;&lt;/h2&gt;在樱井的提案下，身为实况主的生驹、樱井和白石三人前往知名恐怖景点「伊邪那美酒店」拍摄些鬼影幢幢的影片。&lt;br&gt;原本她们只是想渲染些特效，能够平安无事地结束拍摄就好，没想到...&lt;br&gt;　&lt;br&gt;在摄影期间，走散的生驹被突如其来的人偶给袭击，之后一直徘徊在酒店里的三人也不断地受到人偶的袭击，为何始终会走不出酒店呢？&lt;br&gt;究竟真能逃得出酒店呢？&lt;br&gt;&lt;br&gt;在废弃饭店里的直播即将开始...&lt;h2 class="bb_tag"&gt;&lt;strong&gt;系统&lt;/strong&gt;&lt;/h2&gt;■谜样般的人偶，外加上突如其来的追杀！赶紧逃离废弃的饭店！&lt;br&gt;&lt;br&gt;&lt;br&gt;在废弃饭店里到处探险时，一身血渍拿着斧头的人偶，开始追着直播的三人！&lt;br&gt;当遇到人偶时，必须要赶紧逃开、或是藏身避开人偶的追击。要是被一刀给劈下，必死无疑。 （游戏结束）&lt;br&gt;&lt;br&gt;&lt;br&gt;■善用提示和道具，这些将能协助找到逃脱的线索！&lt;br&gt;&lt;br&gt;在废弃饭店内寻找各项道具和提示。&lt;br&gt;搜索房间内的各个角落，以获得相关的提示。&lt;br&gt;这将大大改变这些女孩们的命运...&lt;br&gt;&lt;br&gt;&lt;br&gt;■这是诅咒！ ？直播的女孩们面临到危及生命的生存危机！&lt;br&gt;&lt;br&gt;在废弃的饭店中将面临各种危机。调查周遭以获得相关的线索，善用道具化解生存的危机。&lt;br&gt;你甚至可以在她们最危机的时刻，伸手触碰她们...这难道也是种诅咒！ ？&lt;h2 class="bb_tag"&gt;&lt;strong&gt;登场人物&lt;/strong&gt;&lt;/h2&gt;・生驹美樱　(CV:Haruka Yamazaki）&lt;br&gt;&lt;br&gt;・樱井奈奈　(CV:Asuka Nishi）&lt;br&gt;・白石梓　   (CV:Satsumi Matsuda）&lt;h2 class="bb_tag"&gt;&lt;strong&gt;STAFF&lt;/strong&gt;&lt;/h2&gt;・角色设计:Waon Inui&lt;br&gt;&lt;br&gt;・故事设计:C-Garden,Inc.&lt;br&gt;・企划/执行:Yujiro Usuda</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
+          <t>1525700</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Tavern Master</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>酒馆大师</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>管理,模拟,建造,中世纪,策略</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>2021年11月16日</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;设计并建造属于您自己的中世纪酒馆！&lt;/h2&gt;&lt;br&gt;《酒馆大师 (Tavern Master)》为您带来中世纪酒馆模拟、经营与建造的完美体验。&lt;br&gt;&lt;br&gt;您的生意要从只有几组桌椅的穷巷陋室做起，扩张并亲手设计厨房、客房与更多设施，雇佣并训练忠诚的员工队伍，满足顾客千奇百怪的需求，规划、建造、统筹、管理……一步步成为名震天下的酒馆大师！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/tavernMasterGif2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;建造厨房，招募大厨，烹饪各色美味佳肴。但要确保库存食材丰富，否则这也没有那也没有，顾客可能会愤而离开！&lt;br&gt;&lt;/li&gt;&lt;li&gt;举办特殊活动以吸引有着特定食物/饮料要求的顾客。他们将在早上入场，全天消费。&lt;br&gt;&lt;/li&gt;&lt;li&gt;雇佣乐队来吸引更多顾客到您的酒馆，并让顾客暂时忘记他们点的单已经很久没上的事实。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/gifBards2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;打造您的理想酒馆&lt;/strong&gt;&lt;br&gt;您将从零开始打造一座完美酒馆。各式墙体地面和装潢可供选择，让每座酒馆独一无二。一开始囊中羞涩或许只能安放三两桌椅，但随着酒馆发展，很快连王公贵族都会造访！&lt;br&gt;&lt;br&gt;&lt;strong&gt;优化工作流程&lt;/strong&gt;&lt;br&gt;要招呼更多客人，就得安排足够的桌椅。桌椅都需要照明，周边环境也需要装点。随着来访客人不断增多，您就需要手动调整布局与服务内容，才能让所有顾客满意而归。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/gifCustomers2.gif?t=1677672790" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;喝多了就睡&lt;/strong&gt;&lt;br&gt;部分顾客会想要住店，这时您就可以展开住宿生意了！每个房间根据装潢会得到1到5星的评级，评级越高，收费自然也就越贵。是造便宜的大通铺还是奢华的单人间，都随您决定。&lt;br&gt;&lt;br&gt;&lt;strong&gt;不同玩法&lt;/strong&gt;&lt;br&gt;《酒馆大师》提供多种玩法。您可将酒馆装点得无比华丽，也可以通过优化调整赚取最大利润，甚至完全抛弃酒馆生意，专心经营旅店住宿。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/JS4EdHFbA7" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1525700/extras/discord.png?t=1677672790" /&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
           <t>1526480</t>
         </is>
       </c>
-      <c r="B846" t="inlineStr">
+      <c r="B847" t="inlineStr">
         <is>
           <t>battle Tank</t>
         </is>
       </c>
-      <c r="C846" t="inlineStr">
+      <c r="C847" t="inlineStr">
         <is>
           <t>battle Tank</t>
         </is>
       </c>
-      <c r="D846" t="inlineStr">
+      <c r="D847" t="inlineStr">
         <is>
           <t>休闲,模拟,即时战略,刷宝射击游戏,3D 视觉</t>
         </is>
       </c>
-      <c r="E846" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G846" t="inlineStr">
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G847" t="inlineStr">
         <is>
           <t>2021年02月04日</t>
         </is>
       </c>
-      <c r="H846" t="inlineStr">
+      <c r="H847" t="inlineStr">
         <is>
           <t>I'm a beginner.&lt;br /&gt;
 Recently, according to untiy's course,&lt;br /&gt;
@@ -36158,38 +36195,38 @@
         </is>
       </c>
     </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
+    <row r="848">
+      <c r="A848" t="inlineStr">
         <is>
           <t>1528780</t>
         </is>
       </c>
-      <c r="B847" t="inlineStr">
+      <c r="B848" t="inlineStr">
         <is>
           <t>ABERRATION TOWN</t>
         </is>
       </c>
-      <c r="C847" t="inlineStr">
+      <c r="C848" t="inlineStr">
         <is>
           <t>ABERRATION TOWN</t>
         </is>
       </c>
-      <c r="D847" t="inlineStr">
+      <c r="D848" t="inlineStr">
         <is>
           <t>动作,射击,3D 视觉,线性,单人</t>
         </is>
       </c>
-      <c r="E847" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G847" t="inlineStr">
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G848" t="inlineStr">
         <is>
           <t>2021年02月06日</t>
         </is>
       </c>
-      <c r="H847" t="inlineStr">
+      <c r="H848" t="inlineStr">
         <is>
           <t>The end of the world is coming soon! Survive among endless zombies!&lt;br /&gt;
 &lt;br /&gt;
@@ -36210,62 +36247,25 @@
         </is>
       </c>
     </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>1538570</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>Patron</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr">
-        <is>
-          <t>Patron</t>
-        </is>
-      </c>
-      <c r="D848" t="inlineStr">
-        <is>
-          <t>城市营造,殖民模拟,策略,生存,中世纪</t>
-        </is>
-      </c>
-      <c r="E848" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>2021年08月11日</t>
-        </is>
-      </c>
-      <c r="H848" t="inlineStr">
-        <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/v8zrP6usc6" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_JoinDiscord_03.png?t=1682777546" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;赞助者的游戏根基承袭了生存类城市建设游戏的特色，并通过庞大的的科技树以及将复杂的社会动态系统引入游戏中来增强游戏体验。 幸福指数，是所有此类游戏的标准功能，对于赞助者而言，这项功能本身就是一个完整的游戏系统。&lt;br&gt;&lt;br&gt;赞助人的开局与其他同类型的游戏相似，但随后便会转向对社会错综复杂的事物以及真正的经营一个社会意味着什么的探索，而不单单只是经营一个充满自动机制的城市。&lt;br&gt;&lt;br&gt;城镇中的每个公民都有他自己的需求，欲望和问题，这些事牵动着他们的喜怒哀乐。 一些公民会更加关注移民问题，而另一些公民则更加在意与税收相关的问题。 如果公民对此主题的看法与城镇政府（您，玩家）的政策所为相一致，他便会高兴。反之亦然。&lt;h2 class="bb_tag"&gt;建设与升级&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Construction.gif?t=1682777546" /&gt;&lt;br&gt;为了充分利用这块新土地上的机会，您将需要建造住宅，农场，作物，生产工厂，以及其他许多能够帮助您收获这块土地上的财富所需的建筑物。&lt;h2 class="bb_tag"&gt;平衡敏感的社会问题&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_SocialDynamics.gif?t=1682777546" /&gt;&lt;br&gt;您作为赞助者所做的每个决定都牵动着来自不同社会团体的不同反应。 您将会需要真正的政治才能来平衡敏感的社会问题，例如宗教，移民，忠诚度，贫困……无论您做什么，都可能会导致无法预料的后果并在数年之后显现。&lt;h2 class="bb_tag"&gt;适应天气和季节&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Weather.gif?t=1682777546" /&gt;&lt;br&gt;以及时有效地方法管理您的任务和公民，使您面对变化多端的外部因素时能有充足的准备和适应力，例如恶劣的气候条件抑或是不同季节的变迁。&lt;h2 class="bb_tag"&gt;为未来进行研究与开发&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Research.gif?t=1682777546" /&gt;&lt;br&gt;世界在变化，您必须确保以适当的步伐前进。 只有不断前进和研究，您的社会才能经受住时间的考验。&lt;h2 class="bb_tag"&gt;总会有潜藏的悲剧&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Disasters.gif?t=1682777546" /&gt;&lt;br&gt;无论您做什么，总会有意外的悲剧袭向你的民众。 届时他们将寻求您的保护和帮助。&lt;h2 class="bb_tag"&gt;享受生活的美好一面&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Beautification.gif?t=1682777546" /&gt;&lt;br&gt;人们同时还需要一些外在迹象来表彰他们的成就。 在城市中建立并排布各式各样的美化元素，确保每个人的辛勤工作都会得到回报。&lt;h2 class="bb_tag"&gt;主要特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;-拥有独特社会动态系统的生存城市建设游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;-收集并生产资源&lt;br&gt;&lt;/li&gt;&lt;li&gt;-在您建设与升级的同时，让小村庄一步步演变成繁荣的城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;-管理您的公民并引导他们从事所需的职业&lt;br&gt;&lt;/li&gt;&lt;li&gt;-平衡社会问题：阶级冲突，移民，宗教信仰，健康，安全，忠诚…&lt;br&gt;&lt;/li&gt;&lt;li&gt;-通过科技树来解锁科技，政策，升级以完善您的计划&lt;br&gt;&lt;/li&gt;&lt;li&gt;-计划通过产品及海外贸易来支撑您的经济已度过困难时期&lt;/li&gt;&lt;/ul&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>1539890</t>
+          <t>1538570</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Avoid!</t>
+          <t>Patron</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Avoid!</t>
+          <t>Patron</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>休闲,街机,解谜,2D,俯视</t>
+          <t>城市营造,殖民模拟,策略,生存,中世纪</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
@@ -36275,47 +36275,84 @@
       </c>
       <c r="G849" t="inlineStr">
         <is>
-          <t>2021年02月15日</t>
+          <t>2021年08月11日</t>
         </is>
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Avoid! This is an arcade game in which you have to dodge various obstacles and enemies that randomly appear on the playing field. And also you need to collect points that also appear randomly, setting new records.</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/v8zrP6usc6" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_JoinDiscord_03.png?t=1682777546" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;赞助者的游戏根基承袭了生存类城市建设游戏的特色，并通过庞大的的科技树以及将复杂的社会动态系统引入游戏中来增强游戏体验。 幸福指数，是所有此类游戏的标准功能，对于赞助者而言，这项功能本身就是一个完整的游戏系统。&lt;br&gt;&lt;br&gt;赞助人的开局与其他同类型的游戏相似，但随后便会转向对社会错综复杂的事物以及真正的经营一个社会意味着什么的探索，而不单单只是经营一个充满自动机制的城市。&lt;br&gt;&lt;br&gt;城镇中的每个公民都有他自己的需求，欲望和问题，这些事牵动着他们的喜怒哀乐。 一些公民会更加关注移民问题，而另一些公民则更加在意与税收相关的问题。 如果公民对此主题的看法与城镇政府（您，玩家）的政策所为相一致，他便会高兴。反之亦然。&lt;h2 class="bb_tag"&gt;建设与升级&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Construction.gif?t=1682777546" /&gt;&lt;br&gt;为了充分利用这块新土地上的机会，您将需要建造住宅，农场，作物，生产工厂，以及其他许多能够帮助您收获这块土地上的财富所需的建筑物。&lt;h2 class="bb_tag"&gt;平衡敏感的社会问题&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_SocialDynamics.gif?t=1682777546" /&gt;&lt;br&gt;您作为赞助者所做的每个决定都牵动着来自不同社会团体的不同反应。 您将会需要真正的政治才能来平衡敏感的社会问题，例如宗教，移民，忠诚度，贫困……无论您做什么，都可能会导致无法预料的后果并在数年之后显现。&lt;h2 class="bb_tag"&gt;适应天气和季节&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Weather.gif?t=1682777546" /&gt;&lt;br&gt;以及时有效地方法管理您的任务和公民，使您面对变化多端的外部因素时能有充足的准备和适应力，例如恶劣的气候条件抑或是不同季节的变迁。&lt;h2 class="bb_tag"&gt;为未来进行研究与开发&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Research.gif?t=1682777546" /&gt;&lt;br&gt;世界在变化，您必须确保以适当的步伐前进。 只有不断前进和研究，您的社会才能经受住时间的考验。&lt;h2 class="bb_tag"&gt;总会有潜藏的悲剧&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Disasters.gif?t=1682777546" /&gt;&lt;br&gt;无论您做什么，总会有意外的悲剧袭向你的民众。 届时他们将寻求您的保护和帮助。&lt;h2 class="bb_tag"&gt;享受生活的美好一面&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1538570/extras/Patron_Beautification.gif?t=1682777546" /&gt;&lt;br&gt;人们同时还需要一些外在迹象来表彰他们的成就。 在城市中建立并排布各式各样的美化元素，确保每个人的辛勤工作都会得到回报。&lt;h2 class="bb_tag"&gt;主要特征&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;-拥有独特社会动态系统的生存城市建设游戏&lt;br&gt;&lt;/li&gt;&lt;li&gt;-收集并生产资源&lt;br&gt;&lt;/li&gt;&lt;li&gt;-在您建设与升级的同时，让小村庄一步步演变成繁荣的城市&lt;br&gt;&lt;/li&gt;&lt;li&gt;-管理您的公民并引导他们从事所需的职业&lt;br&gt;&lt;/li&gt;&lt;li&gt;-平衡社会问题：阶级冲突，移民，宗教信仰，健康，安全，忠诚…&lt;br&gt;&lt;/li&gt;&lt;li&gt;-通过科技树来解锁科技，政策，升级以完善您的计划&lt;br&gt;&lt;/li&gt;&lt;li&gt;-计划通过产品及海外贸易来支撑您的经济已度过困难时期&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
+          <t>1539890</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Avoid!</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Avoid!</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>休闲,街机,解谜,2D,俯视</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G850" t="inlineStr">
+        <is>
+          <t>2021年02月15日</t>
+        </is>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>Avoid! This is an arcade game in which you have to dodge various obstacles and enemies that randomly appear on the playing field. And also you need to collect points that also appear randomly, setting new records.</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
           <t>1541390</t>
         </is>
       </c>
-      <c r="B850" t="inlineStr">
+      <c r="B851" t="inlineStr">
         <is>
           <t>Chinese mother in law</t>
         </is>
       </c>
-      <c r="C850" t="inlineStr">
+      <c r="C851" t="inlineStr">
         <is>
           <t>Chinese mother in law</t>
         </is>
       </c>
-      <c r="D850" t="inlineStr">
+      <c r="D851" t="inlineStr">
         <is>
           <t>动作,冒险,动作冒险,2D 平台,像素图形</t>
         </is>
       </c>
-      <c r="E850" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G851" t="inlineStr">
         <is>
           <t>2021年02月16日</t>
         </is>
       </c>
-      <c r="H850" t="inlineStr">
+      <c r="H851" t="inlineStr">
         <is>
           <t>这是一个rpg小游戏。&lt;br /&gt;
 你和女友十分相爱。&lt;br /&gt;
@@ -36328,67 +36365,25 @@
         </is>
       </c>
     </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>1543030</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>Sword and Fairy 7</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr">
-        <is>
-          <t>仙剑奇侠传七</t>
-        </is>
-      </c>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>角色扮演,单人,神话,动作角色扮演,武术</t>
-        </is>
-      </c>
-      <c r="E851" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F851" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>2021年10月22日</t>
-        </is>
-      </c>
-      <c r="H851" t="inlineStr">
-        <is>
-          <t>《仙剑奇侠传七》是由软星科技（北京）有限公司开发的动作角色扮演类游戏。&lt;br&gt;本作注重剧情和游戏性的双重体验。故事围绕人、神、魔三族展开，在保证精彩演绎的同时，战斗系统较系列前作也做出重大变革，采用第三人称的即时战斗模式，作战流程无缝衔接，为玩家带来爽快的战斗体验。&lt;br&gt; &lt;h2 class="bb_tag"&gt;即时战斗，可切换操控不同角色&lt;/h2&gt;本作战斗一改以往回合制模式，采用即时制模式并可随时进入战斗，可切换四名不同风格的主控角色进行作战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/battle240p.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;多种技能，令战斗更加华丽&lt;/h2&gt;每个角色可习得多种特性技能，巧妙使用这些技能将让玩家在战斗中势如破竹。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/skill240P.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;御灵养成，助你一臂之力&lt;/h2&gt;游戏中可获得多种御灵进行养成，不仅外表可爱，还可提升队伍属性及探索收益，使玩家的冒险旅程更加顺利，不要忘记喂它们哦~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/pet240P.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;卡牌游戏&lt;/h2&gt;游戏内置卡牌玩法，紧张的战斗之余，用小游戏放松一下吧~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/card240p.gif?t=1677654242" /&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>1543080</t>
+          <t>1543030</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Cute Honey 3</t>
+          <t>Sword and Fairy 7</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Cute Honey 3</t>
+          <t>仙剑奇侠传七</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>休闲,恋爱模拟,射击,平台解谜,探索</t>
+          <t>角色扮演,单人,神话,动作角色扮演,武术</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
@@ -36398,39 +36393,39 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
         <is>
-          <t>2021年04月06日</t>
+          <t>2021年10月22日</t>
         </is>
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Cute Honey 3 是一款休闲策略类的接水游戏，如何把液体接进水杯是这款游戏的核心玩法。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可爱性感的两位不同的女孩。&lt;br&gt;&lt;/li&gt;&lt;li&gt;有趣创意的画笔玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的关卡机制。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十个关卡。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;更有好看的成就与背景展示图等待您的获取。</t>
+          <t>《仙剑奇侠传七》是由软星科技（北京）有限公司开发的动作角色扮演类游戏。&lt;br&gt;本作注重剧情和游戏性的双重体验。故事围绕人、神、魔三族展开，在保证精彩演绎的同时，战斗系统较系列前作也做出重大变革，采用第三人称的即时战斗模式，作战流程无缝衔接，为玩家带来爽快的战斗体验。&lt;br&gt; &lt;h2 class="bb_tag"&gt;即时战斗，可切换操控不同角色&lt;/h2&gt;本作战斗一改以往回合制模式，采用即时制模式并可随时进入战斗，可切换四名不同风格的主控角色进行作战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/battle240p.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;多种技能，令战斗更加华丽&lt;/h2&gt;每个角色可习得多种特性技能，巧妙使用这些技能将让玩家在战斗中势如破竹。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/skill240P.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;御灵养成，助你一臂之力&lt;/h2&gt;游戏中可获得多种御灵进行养成，不仅外表可爱，还可提升队伍属性及探索收益，使玩家的冒险旅程更加顺利，不要忘记喂它们哦~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/pet240P.gif?t=1677654242" /&gt;&lt;br&gt; &lt;h2 class="bb_tag"&gt;卡牌游戏&lt;/h2&gt;游戏内置卡牌玩法，紧张的战斗之余，用小游戏放松一下吧~&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543030/extras/card240p.gif?t=1677654242" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>1543120</t>
+          <t>1543080</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Flying Angel</t>
+          <t>Cute Honey 3</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Flying Angel</t>
+          <t>Cute Honey 3</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>休闲,射击,俯视射击,2D,军事</t>
+          <t>休闲,恋爱模拟,射击,平台解谜,探索</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -36438,49 +36433,91 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
       <c r="G853" t="inlineStr">
         <is>
-          <t>2021年02月24日</t>
+          <t>2021年04月06日</t>
         </is>
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>[游戏简介]&lt;br&gt;《Flying Angel》是一款未来科技画面的纵向卷轴飞行射击类游戏。在游戏中，玩家将控制不同的飞机再城市上空战斗。游戏的难度会随着关卡逐渐加大，想要通关绝对不是一件容易的事。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543120/extras/1.jpg?t=1614154116" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;每一架飞机都有三种不同的攻击方式&lt;br&gt;1：基本射击&lt;br&gt;2：蓄力射击&lt;br&gt;3：释放炸弹&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543120/extras/2.jpg?t=1614154116" /&gt;&lt;br&gt;基本攻击和蓄力攻击的威力和玩家当前的火力值有关，在消灭特定的敌人之后，玩家可以吃到弹药箱，最多可以吃4次。炸弹的威力为恒定，玩家也可以通过消灭特定敌人获取额外的炸弹。</t>
+          <t>Cute Honey 3 是一款休闲策略类的接水游戏，如何把液体接进水杯是这款游戏的核心玩法。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可爱性感的两位不同的女孩。&lt;br&gt;&lt;/li&gt;&lt;li&gt;有趣创意的画笔玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的关卡机制。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十个关卡。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;更有好看的成就与背景展示图等待您的获取。</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
+          <t>1543120</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Flying Angel</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Flying Angel</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>休闲,射击,俯视射击,2D,军事</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>2021年02月24日</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>[游戏简介]&lt;br&gt;《Flying Angel》是一款未来科技画面的纵向卷轴飞行射击类游戏。在游戏中，玩家将控制不同的飞机再城市上空战斗。游戏的难度会随着关卡逐渐加大，想要通关绝对不是一件容易的事。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543120/extras/1.jpg?t=1614154116" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;每一架飞机都有三种不同的攻击方式&lt;br&gt;1：基本射击&lt;br&gt;2：蓄力射击&lt;br&gt;3：释放炸弹&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1543120/extras/2.jpg?t=1614154116" /&gt;&lt;br&gt;基本攻击和蓄力攻击的威力和玩家当前的火力值有关，在消灭特定的敌人之后，玩家可以吃到弹药箱，最多可以吃4次。炸弹的威力为恒定，玩家也可以通过消灭特定敌人获取额外的炸弹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
           <t>1543400</t>
         </is>
       </c>
-      <c r="B854" t="inlineStr">
+      <c r="B855" t="inlineStr">
         <is>
           <t>Yellow Brick Road</t>
         </is>
       </c>
-      <c r="C854" t="inlineStr">
+      <c r="C855" t="inlineStr">
         <is>
           <t>Yellow Brick Road</t>
         </is>
       </c>
-      <c r="D854" t="inlineStr">
+      <c r="D855" t="inlineStr">
         <is>
           <t>冒险,休闲,动作角色扮演,动作类 Rogue,3D 视觉</t>
         </is>
       </c>
-      <c r="E854" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G855" t="inlineStr">
         <is>
           <t>2021年02月20日</t>
         </is>
       </c>
-      <c r="H854" t="inlineStr">
+      <c r="H855" t="inlineStr">
         <is>
           <t>Story of the game:&lt;br /&gt;
 As a special forces soldier, you are thrown into a forest. You are the only one. You don't have any teammates. You need to clean up the enemy in the forest&lt;br /&gt;
@@ -36495,56 +36532,56 @@
         </is>
       </c>
     </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>1546010</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>堕落千金—黑蔷薇与欲望之火</t>
-        </is>
-      </c>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-    </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
+          <t>1546010</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>堕落千金—黑蔷薇与欲望之火</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
           <t>1547910</t>
         </is>
       </c>
-      <c r="B856" t="inlineStr">
+      <c r="B857" t="inlineStr">
         <is>
           <t>Plasma Attack</t>
         </is>
       </c>
-      <c r="C856" t="inlineStr">
+      <c r="C857" t="inlineStr">
         <is>
           <t>Plasma Attack</t>
         </is>
       </c>
-      <c r="D856" t="inlineStr">
+      <c r="D857" t="inlineStr">
         <is>
           <t>休闲,精确平台,模拟,飞行,2D</t>
         </is>
       </c>
-      <c r="E856" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G856" t="inlineStr">
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G857" t="inlineStr">
         <is>
           <t>2021年03月03日</t>
         </is>
       </c>
-      <c r="H856" t="inlineStr">
+      <c r="H857" t="inlineStr">
         <is>
           <t>The main idea Plasma Attack is to single-handedly cope with hundreds of different opponents who decisively approach you along different trajectories. We must not only actively destroy enemies, but also deftly dodge the projectiles flying at him. “Having completed all the opponents by the end of each level,” we meet with the boss, who is not so easy to defeat, since he is many times stronger. - the game has improvements and bonuses, picking them up you can upgrade your standard weapon from a simple laser to a plasma thrower.&lt;br /&gt;
 &lt;br /&gt;
@@ -36555,81 +36592,81 @@
         </is>
       </c>
     </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
+    <row r="858">
+      <c r="A858" t="inlineStr">
         <is>
           <t>1548510</t>
         </is>
       </c>
-      <c r="B857" t="inlineStr">
+      <c r="B858" t="inlineStr">
         <is>
           <t>Drawing</t>
         </is>
       </c>
-      <c r="C857" t="inlineStr">
+      <c r="C858" t="inlineStr">
         <is>
           <t>Drawing</t>
         </is>
       </c>
-      <c r="D857" t="inlineStr">
+      <c r="D858" t="inlineStr">
         <is>
           <t>独立,可爱,动漫,恋爱模拟,休闲</t>
         </is>
       </c>
-      <c r="E857" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G857" t="inlineStr">
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G858" t="inlineStr">
         <is>
           <t>2021年04月27日</t>
         </is>
       </c>
-      <c r="H857" t="inlineStr">
+      <c r="H858" t="inlineStr">
         <is>
           <t>The goal remains simple in appearance, but the more you advance in the levels and the more your brain will be strained!&lt;br /&gt;
 Will you be able to finish all levels?</t>
         </is>
       </c>
     </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
+    <row r="859">
+      <c r="A859" t="inlineStr">
         <is>
           <t>1551360</t>
         </is>
       </c>
-      <c r="B858" t="inlineStr">
+      <c r="B859" t="inlineStr">
         <is>
           <t>Forza Horizon 5</t>
         </is>
       </c>
-      <c r="C858" t="inlineStr">
+      <c r="C859" t="inlineStr">
         <is>
           <t>极限竞速：地平线 5</t>
         </is>
       </c>
-      <c r="D858" t="inlineStr">
+      <c r="D859" t="inlineStr">
         <is>
           <t>竞速,开放世界,驾驶,多人,汽车模拟</t>
         </is>
       </c>
-      <c r="E858" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F858" t="inlineStr">
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F859" t="inlineStr">
         <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="G858" t="inlineStr">
+      <c r="G859" t="inlineStr">
         <is>
           <t>2021年11月09日</t>
         </is>
       </c>
-      <c r="H858" t="inlineStr">
+      <c r="H859" t="inlineStr">
         <is>
           <t>您的终极地平线冒险正等着您展开！探索墨西哥充满活力且不断变化的开放世界景色，驾驶百辆世界级好车，享受无拘无束又有趣的驾驶体验。&lt;br /&gt;
 &lt;br /&gt;
@@ -36655,62 +36692,25 @@
         </is>
       </c>
     </row>
-    <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>1553680</t>
-        </is>
-      </c>
-      <c r="B859" t="inlineStr">
-        <is>
-          <t>Park Walk</t>
-        </is>
-      </c>
-      <c r="C859" t="inlineStr">
-        <is>
-          <t>Park Walk</t>
-        </is>
-      </c>
-      <c r="D859" t="inlineStr">
-        <is>
-          <t>冒险,动作,休闲,动作角色扮演,刷宝射击游戏</t>
-        </is>
-      </c>
-      <c r="E859" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G859" t="inlineStr">
-        <is>
-          <t>2021年03月01日</t>
-        </is>
-      </c>
-      <c r="H859" t="inlineStr">
-        <is>
-          <t>[introduction to the game]&lt;br&gt;&lt;br&gt;Park walk is a shooting first person game, which tells the story of adventure in the wild. When you are surrounded by zombies on the way to adventure, you need to pick up all kinds of guns and kill zombies!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;Features of the game:&lt;br&gt;&lt;br&gt;You can explore huge maps&lt;br&gt;&lt;br&gt;First person real and exciting game mode.&lt;br&gt;&lt;br&gt;The tense and terrifying atmosphere of the game.&lt;br&gt;&lt;br&gt;A small amount of ammunition, players need to cherish every bullet.&lt;br&gt;&lt;br&gt;Slow moving monster has high attack power. Please keep the distance between zombies!&lt;br&gt;&lt;br&gt;Explore in the wild, pick up guns, shoot zombies, looking forward to your way to the God of guns!</t>
-        </is>
-      </c>
-    </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>1559390</t>
+          <t>1553680</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>天命奇御二 Fate Seeker II</t>
+          <t>Park Walk</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>天命奇御二</t>
+          <t>Park Walk</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>角色扮演,武术,动作角色扮演,解谜,探索</t>
+          <t>冒险,动作,休闲,动作角色扮演,刷宝射击游戏</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
@@ -36718,41 +36718,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F860" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>2021年11月22日</t>
+          <t>2021年03月01日</t>
         </is>
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/WnaNd7Jgcg" target="_blank" rel=" noopener"  &gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/商店页dis.png?t=1669265365" /&gt; &lt;/a&gt;&lt;br&gt;《天命奇御二》是由甲山林娱乐开发的原创武侠单机游戏，游戏内容描写了不羁少年诸葛羽成长的故事。诸葛羽自小双亲早逝，长大后得知双亲对抗权臣亡故的事蹟后，便早早立下志向要让陷害双亲之人负起应得之罪，并继承双亲剷除贪官、奸臣的遗志。&lt;h2 class="bb_tag"&gt;墨染判官笔 仗剑少年行&lt;/h2&gt;在游戏中玩家将扮演诸葛羽，体验扣人心弦的主线剧情和众多引人入胜的支线任务同时，更需倚靠你悉心搜集线索，寻找出各种蛛丝马迹，通过缜密的思考推理出关键线索，破解一桩桩情节扑朔迷离的奇案。并于最终时刻与各路人马互动推敲辩论，揭开案件谜底，找出真正的幕后黑手。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/思考简体.gif?t=1669265365" /&gt;&lt;br&gt;除此之外，在江湖历险观察探索，善用「出示」、「运劲」、「点燃」、「破坏」，将可挖掘出大量的传闻任务，不同的方式都可能衍生出的不同结果，这些结果将带给你脑洞大开的无限惊奇，更加激发你隐匿的冒险精神与童趣之心。&lt;h2 class="bb_tag"&gt;招式任意搭 武学创巅峰&lt;/h2&gt;高灵活高自由度的武学与养成模式，20馀种心法，结合八卦加点养成独特天赋线，上百种招式技能自由搭配与切换，延伸出数千种武林绝学玩法，开拓出属于你的武学巅峰之路！即时战斗机制融合自由配招与武学套路切换，让你在面对敌人时有了更多的战术选择，酷炫的招式和良好的打击手感带来酣畅淋漓，爽快十足的战斗体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/01.gif?t=1669265365" /&gt;&lt;h2 class="bb_tag"&gt;恣意江湖游 快意解恩仇&lt;/h2&gt;高自由度的世界赋予更多探索的可能性，无接缝的地图设计，过场载入不费时，在开放的武侠世界自在遨游、自由探索、恣意解恩仇。行经古色古香的亭臺楼阁，人声鼎沸的市井小巷，景色壮丽的山河湖海，结交江湖豪杰红颜知己，勾勒出一个宏大自由的武侠世界。行走江湖时，还可以在野外钓鱼，同棋手对弈围棋，或是在炉火旁烹饪菜肴。甚至于还可以向商队购买建筑，过上安逸舒适的田园收租生活。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/10.gif?t=1669265365" /&gt;&lt;h2 class="bb_tag"&gt;关注与加入我们&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/2天二.png?t=1669265365" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御：归途》官方1群：721141794（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御》系列官方1群：775653305（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方4群：767896075（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方3群：248285298（已满）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方2群：793464907 (已满)&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>[introduction to the game]&lt;br&gt;&lt;br&gt;Park walk is a shooting first person game, which tells the story of adventure in the wild. When you are surrounded by zombies on the way to adventure, you need to pick up all kinds of guns and kill zombies!&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;Features of the game:&lt;br&gt;&lt;br&gt;You can explore huge maps&lt;br&gt;&lt;br&gt;First person real and exciting game mode.&lt;br&gt;&lt;br&gt;The tense and terrifying atmosphere of the game.&lt;br&gt;&lt;br&gt;A small amount of ammunition, players need to cherish every bullet.&lt;br&gt;&lt;br&gt;Slow moving monster has high attack power. Please keep the distance between zombies!&lt;br&gt;&lt;br&gt;Explore in the wild, pick up guns, shoot zombies, looking forward to your way to the God of guns!</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>1563180</t>
+          <t>1559390</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Internet Cafe Simulator 2</t>
+          <t>天命奇御二 Fate Seeker II</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>网吧模拟器2</t>
+          <t>天命奇御二</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>模拟,管理,探索,3D,网络梗</t>
+          <t>角色扮演,武术,动作角色扮演,解谜,探索</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
@@ -36762,39 +36757,39 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>2022年01月08日</t>
+          <t>2021年11月22日</t>
         </is>
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif1.gif?t=1688201539" /&gt;&lt;br&gt;该系列的第二款游戏包含更详细和不同的新机制。&lt;br&gt;建立一个伟大的网吧。不要让街头暴徒和暴徒拿走你的钱。他们甚至可以在你的咖啡馆里扔炸弹。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif2.gif?t=1688201539" /&gt;&lt;br&gt;您可以在下雨天吸引更多客户。增加你想从科技树发展的技能。您会成为商业神童还是擅长保护咖啡馆的斗士？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif3.gif?t=1688201539" /&gt;&lt;br&gt;你必须赚钱还你兄弟的债务！&lt;br&gt;留守卫。为您的客户准备餐点。安装发电机以备停电。&lt;br&gt;改进计算机。购买游戏授权。取悦客户。把废墟变成一个很棒的咖啡馆。&lt;br&gt;作为一个正派的人，他可以正常进行。或者您可能参与完全非法的业务。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif4.gif?t=1688201539" /&gt;&lt;br&gt;为您的咖啡馆雇用员工并善待他们。&lt;br&gt;&lt;strong&gt;记住，顾客永远是对的！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/follow2.gif?t=1688201539" /&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/WnaNd7Jgcg" target="_blank" rel=" noopener"  &gt; &lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/商店页dis.png?t=1669265365" /&gt; &lt;/a&gt;&lt;br&gt;《天命奇御二》是由甲山林娱乐开发的原创武侠单机游戏，游戏内容描写了不羁少年诸葛羽成长的故事。诸葛羽自小双亲早逝，长大后得知双亲对抗权臣亡故的事蹟后，便早早立下志向要让陷害双亲之人负起应得之罪，并继承双亲剷除贪官、奸臣的遗志。&lt;h2 class="bb_tag"&gt;墨染判官笔 仗剑少年行&lt;/h2&gt;在游戏中玩家将扮演诸葛羽，体验扣人心弦的主线剧情和众多引人入胜的支线任务同时，更需倚靠你悉心搜集线索，寻找出各种蛛丝马迹，通过缜密的思考推理出关键线索，破解一桩桩情节扑朔迷离的奇案。并于最终时刻与各路人马互动推敲辩论，揭开案件谜底，找出真正的幕后黑手。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/思考简体.gif?t=1669265365" /&gt;&lt;br&gt;除此之外，在江湖历险观察探索，善用「出示」、「运劲」、「点燃」、「破坏」，将可挖掘出大量的传闻任务，不同的方式都可能衍生出的不同结果，这些结果将带给你脑洞大开的无限惊奇，更加激发你隐匿的冒险精神与童趣之心。&lt;h2 class="bb_tag"&gt;招式任意搭 武学创巅峰&lt;/h2&gt;高灵活高自由度的武学与养成模式，20馀种心法，结合八卦加点养成独特天赋线，上百种招式技能自由搭配与切换，延伸出数千种武林绝学玩法，开拓出属于你的武学巅峰之路！即时战斗机制融合自由配招与武学套路切换，让你在面对敌人时有了更多的战术选择，酷炫的招式和良好的打击手感带来酣畅淋漓，爽快十足的战斗体验！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/01.gif?t=1669265365" /&gt;&lt;h2 class="bb_tag"&gt;恣意江湖游 快意解恩仇&lt;/h2&gt;高自由度的世界赋予更多探索的可能性，无接缝的地图设计，过场载入不费时，在开放的武侠世界自在遨游、自由探索、恣意解恩仇。行经古色古香的亭臺楼阁，人声鼎沸的市井小巷，景色壮丽的山河湖海，结交江湖豪杰红颜知己，勾勒出一个宏大自由的武侠世界。行走江湖时，还可以在野外钓鱼，同棋手对弈围棋，或是在炉火旁烹饪菜肴。甚至于还可以向商队购买建筑，过上安逸舒适的田园收租生活。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/10.gif?t=1669265365" /&gt;&lt;h2 class="bb_tag"&gt;关注与加入我们&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1559390/extras/2天二.png?t=1669265365" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御：归途》官方1群：721141794（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御》系列官方1群：775653305（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方4群：767896075（可加）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方3群：248285298（已满）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;《天命奇御二》官方2群：793464907 (已满)&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>1570070</t>
+          <t>1563180</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Beholder 3</t>
+          <t>Internet Cafe Simulator 2</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>旁观者3</t>
+          <t>网吧模拟器2</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>模拟,政治模拟,策略,反乌托邦,指向点击</t>
+          <t>模拟,管理,探索,3D,网络梗</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -36804,52 +36799,94 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
         <is>
-          <t>2022年03月04日</t>
+          <t>2022年01月08日</t>
         </is>
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;欢迎来到“最伟大的联盟”！&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/1_2.gif?t=1685701799" /&gt;&lt;br&gt;&lt;br&gt;一个控制一切事物和所有人的极权主义国家。&lt;br&gt;&lt;br&gt;压迫性的法律、全面监视、胆怯的民众。&lt;br&gt;&lt;br&gt;你是弗兰克·施瓦兹，一位想要重获生活的丈夫和父亲。你曾经在部委拥有一份舒适的办公室工作，但当有人陷害你时，一切都变了，你失去了工作。为了防止被送进监狱，你与一位高级安全官员做了交易。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/4_4.gif?t=1685701799" /&gt;&lt;br&gt;&lt;br&gt;从现在开始，你是一名政府的间谍，伪装成房东，听从老板的命令。闯入租户的公寓，搜索非法物品，并摆脱她想摆脱的所有人。&lt;br&gt;&lt;br&gt;回到部里，对同事和上级进行间谍和阴谋活动，并努力向上爬。不同的派别正在秘密地争夺部委和国家的权力。让他们相互竞争，为你带来好处。&lt;br&gt;&lt;br&gt;&lt;strong&gt;你能重新获得旧生活或创造一个更美好的生活吗？&lt;br&gt;你会为变革、真理而战，还是为保持一切现状而战？&lt;br&gt;为了得到所需的东西，你愿意牺牲谁？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/3_05.gif?t=1685701799" /&gt;&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;同时做两份工作：在公寓区和部委工作。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的政治派别正在为权力而战 - 明智地选择支持谁。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;完成部委的任务：传达极权主义国家的思想，操纵旗帜，并为所要宣传的思想进行鼓动。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;安装监控摄像头，搜查租户的公寓和官员的办公室。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;完成日常琐事：尽可能减少疑心。支付账单，修理公寓，满足租户的需求，而不是暴露自己。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/6_2.gif?t=1685701799" /&gt;</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif1.gif?t=1688201539" /&gt;&lt;br&gt;该系列的第二款游戏包含更详细和不同的新机制。&lt;br&gt;建立一个伟大的网吧。不要让街头暴徒和暴徒拿走你的钱。他们甚至可以在你的咖啡馆里扔炸弹。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif2.gif?t=1688201539" /&gt;&lt;br&gt;您可以在下雨天吸引更多客户。增加你想从科技树发展的技能。您会成为商业神童还是擅长保护咖啡馆的斗士？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif3.gif?t=1688201539" /&gt;&lt;br&gt;你必须赚钱还你兄弟的债务！&lt;br&gt;留守卫。为您的客户准备餐点。安装发电机以备停电。&lt;br&gt;改进计算机。购买游戏授权。取悦客户。把废墟变成一个很棒的咖啡馆。&lt;br&gt;作为一个正派的人，他可以正常进行。或者您可能参与完全非法的业务。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/steamgif4.gif?t=1688201539" /&gt;&lt;br&gt;为您的咖啡馆雇用员工并善待他们。&lt;br&gt;&lt;strong&gt;记住，顾客永远是对的！&lt;/strong&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1563180/extras/follow2.gif?t=1688201539" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
+          <t>1570070</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Beholder 3</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>旁观者3</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>模拟,政治模拟,策略,反乌托邦,指向点击</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F863" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>2022年03月04日</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;欢迎来到“最伟大的联盟”！&lt;/h2&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/1_2.gif?t=1685701799" /&gt;&lt;br&gt;&lt;br&gt;一个控制一切事物和所有人的极权主义国家。&lt;br&gt;&lt;br&gt;压迫性的法律、全面监视、胆怯的民众。&lt;br&gt;&lt;br&gt;你是弗兰克·施瓦兹，一位想要重获生活的丈夫和父亲。你曾经在部委拥有一份舒适的办公室工作，但当有人陷害你时，一切都变了，你失去了工作。为了防止被送进监狱，你与一位高级安全官员做了交易。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/4_4.gif?t=1685701799" /&gt;&lt;br&gt;&lt;br&gt;从现在开始，你是一名政府的间谍，伪装成房东，听从老板的命令。闯入租户的公寓，搜索非法物品，并摆脱她想摆脱的所有人。&lt;br&gt;&lt;br&gt;回到部里，对同事和上级进行间谍和阴谋活动，并努力向上爬。不同的派别正在秘密地争夺部委和国家的权力。让他们相互竞争，为你带来好处。&lt;br&gt;&lt;br&gt;&lt;strong&gt;你能重新获得旧生活或创造一个更美好的生活吗？&lt;br&gt;你会为变革、真理而战，还是为保持一切现状而战？&lt;br&gt;为了得到所需的东西，你愿意牺牲谁？&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/3_05.gif?t=1685701799" /&gt;&lt;h2 class="bb_tag"&gt;特色：&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;同时做两份工作：在公寓区和部委工作。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不同的政治派别正在为权力而战 - 明智地选择支持谁。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;完成部委的任务：传达极权主义国家的思想，操纵旗帜，并为所要宣传的思想进行鼓动。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;安装监控摄像头，搜查租户的公寓和官员的办公室。 &lt;br&gt;&lt;/li&gt;&lt;li&gt;完成日常琐事：尽可能减少疑心。支付账单，修理公寓，满足租户的需求，而不是暴露自己。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1570070/extras/6_2.gif?t=1685701799" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
           <t>1571060</t>
         </is>
       </c>
-      <c r="B863" t="inlineStr">
+      <c r="B864" t="inlineStr">
         <is>
           <t>Blob Lander</t>
         </is>
       </c>
-      <c r="C863" t="inlineStr">
+      <c r="C864" t="inlineStr">
         <is>
           <t>Blob Lander</t>
         </is>
       </c>
-      <c r="D863" t="inlineStr">
+      <c r="D864" t="inlineStr">
         <is>
           <t>休闲,太空模拟,懒人游戏,2D,卡通风格</t>
         </is>
       </c>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G863" t="inlineStr">
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G864" t="inlineStr">
         <is>
           <t>2021年06月29日</t>
         </is>
       </c>
-      <c r="H863" t="inlineStr">
+      <c r="H864" t="inlineStr">
         <is>
           <t>这是一款很有趣的游戏，你需要控制飞船安全着陆到目的地，一起来挑战一下吧！&lt;br /&gt;
 &lt;br /&gt;
@@ -36864,38 +36901,38 @@
         </is>
       </c>
     </row>
-    <row r="864">
-      <c r="A864" t="inlineStr">
+    <row r="865">
+      <c r="A865" t="inlineStr">
         <is>
           <t>1575240</t>
         </is>
       </c>
-      <c r="B864" t="inlineStr">
+      <c r="B865" t="inlineStr">
         <is>
           <t>Neon Dimension</t>
         </is>
       </c>
-      <c r="C864" t="inlineStr">
+      <c r="C865" t="inlineStr">
         <is>
           <t>Neon Dimension</t>
         </is>
       </c>
-      <c r="D864" t="inlineStr">
+      <c r="D865" t="inlineStr">
         <is>
           <t>休闲,街机,魔法,彩色,物理</t>
         </is>
       </c>
-      <c r="E864" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G864" t="inlineStr">
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
         <is>
           <t>2021年03月30日</t>
         </is>
       </c>
-      <c r="H864" t="inlineStr">
+      <c r="H865" t="inlineStr">
         <is>
           <t>欢迎来到霓虹灯！&lt;br /&gt;
 这是一款具有现代设计的老式街机游戏，您可以在其中欣赏令人叹为观止的视觉效果和出色的物理效果。而且轻松的游戏性很容易学习，您只要尝试几次，便会明白这一点！&lt;br /&gt;
@@ -36904,67 +36941,25 @@
         </is>
       </c>
     </row>
-    <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>1577120</t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>The Quarry</t>
-        </is>
-      </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>采石场惊魂</t>
-        </is>
-      </c>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>选择取向,多结局,多人,电影式,快速反应事件</t>
-        </is>
-      </c>
-      <c r="E865" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F865" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>2022年06月10日</t>
-        </is>
-      </c>
-      <c r="H865" t="inlineStr">
-        <is>
-          <t>夕阳西下，夏令营迎来了最后一个夜晚，哈克特采石场营地的年轻指导员们决定通过派对的方式庆祝这一特殊时刻。没有小屁孩打扰。没有大人唠叨。无需循规蹈矩。&lt;br&gt;&lt;br&gt;但是转眼之间，局势斗转直下。&lt;br&gt;&lt;br&gt;面临嗜血成性的当地人与更加可怕邪恶的神秘存在的追击，原本的欢乐派对迅速恶化成了扑朔迷离的惊魂一夜。友善的闲聊与无伤大雅的挑逗将变为生死攸关的抉择，在难以想象的选择面前，无论是友情还是爱情都充满了不定数。&lt;br&gt;&lt;br&gt;在惊心动魄的电影式怪谈中扮演九名夏令营指导员，通过环环相扣的每一次抉择塑造只属于您的独特故事。每个人都有机会成为故事的主角，每个人都有可能在黎明之前命丧黄泉。&lt;br&gt;&lt;br&gt;您将会创造什么样的故事？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/forest_zoom.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;您的故事将决定他们的命运&lt;/h2&gt;您是否有勇气打开那扇不为人知的暗门？您是否会前去调查森林中回荡着的神秘尖叫？您会挺身而出拯救朋友，还是会绝望地逃跑自保？哪怕是看似微不足道的选择也将影响您的故事走向与人物的生死命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/max_attack.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;惊心动魄的电影式体验&lt;/h2&gt;先进的面部捕捉与电影级光影技术，外加来自一众才华横溢的好莱坞艺人的精湛演出，在让人血脉偾张的电影化惊悚故事中体验栩栩如生的哈克特采石场怪谈。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/abi_scream.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;与好友们一起见证惊魂时刻&lt;/h2&gt;将选择权交给一同在线*游玩的至多7名好友，受邀请的玩家将能够观看游戏实况并对关键决策进行投票表决，塑造只属于你们的故事！或者你们也可以选择合作模式直接参与，每一名玩家将挑选一名指导员进行操作。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/ryan_hey.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;自定义游戏体验&lt;/h2&gt;所有游戏元素皆可自由调整难度，确保所有玩家都能尽情享受这段惊魂故事。如果想要享受纯粹的视听体验，《采石场惊魂》的电影模式将带来一段原汁原味的惊悚恐怖故事。选择您想要的故事走向，然后舒适惬意地享受惊魂时刻！&lt;h2 class="bb_tag"&gt;参演角色：&lt;/h2&gt;&lt;br&gt;David Arquette 扮演 克里斯&lt;br&gt;Ariel Winter 扮演 艾比盖尔&lt;br&gt;Brenda Song 扮演 凯特琳&lt;br&gt;Evan Evagora 扮演 尼克&lt;br&gt;Halston Sage 扮演 艾玛&lt;br&gt;Justice Smith 扮演 莱恩&lt;br&gt;Miles Robbins 扮演 迪伦&lt;br&gt;Siobhan Williams 扮演 劳拉&lt;br&gt;Skyler Gisondo 扮演 麦克斯&lt;br&gt;Zach Tinker 扮演 杰克布&lt;br&gt;Ethan Suplee 扮演 波比&lt;br&gt;Grace Zabriskie 扮演 伊莉莎&lt;br&gt;Lance Henriksen 扮演 杰迪戴亚&lt;br&gt;Lin Shaye 扮演 康丝坦斯&lt;br&gt;Ted Raimi 扮演 崔维斯&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/cast_slideshow.gif?t=1675190448" /&gt;&lt;br&gt;&lt;br&gt;*在线多人模式功能将在游戏发布后于2022年7月8日当天或之前上线</t>
-        </is>
-      </c>
-    </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>1578980</t>
+          <t>1577120</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Wind Angel Ⅱ</t>
+          <t>The Quarry</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Wind Angel Ⅱ</t>
+          <t>采石场惊魂</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>休闲,射击,2D 平台,飞行,2D</t>
+          <t>选择取向,多结局,多人,电影式,快速反应事件</t>
         </is>
       </c>
       <c r="E866" t="inlineStr">
@@ -36972,36 +36967,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
       <c r="G866" t="inlineStr">
         <is>
-          <t>2021年04月15日</t>
+          <t>2022年06月10日</t>
         </is>
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>[游戏简介]&lt;br&gt;《Wind Angel Ⅱ》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在宇宙中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1578980/extras/1.jpg?t=1618470795" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1578980/extras/2.jpg?t=1618470795" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，激光，防护罩，大范围攻击武器等等。&lt;br&gt;玩家击败特定敌人后，会获得护卫战机。不同的护卫战机有着不同的攻击方式，最多可以携带两架护卫战机。可在补给站中设置。&lt;br&gt;玩家击中敌机时可获得经验，经验满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。</t>
+          <t>夕阳西下，夏令营迎来了最后一个夜晚，哈克特采石场营地的年轻指导员们决定通过派对的方式庆祝这一特殊时刻。没有小屁孩打扰。没有大人唠叨。无需循规蹈矩。&lt;br&gt;&lt;br&gt;但是转眼之间，局势斗转直下。&lt;br&gt;&lt;br&gt;面临嗜血成性的当地人与更加可怕邪恶的神秘存在的追击，原本的欢乐派对迅速恶化成了扑朔迷离的惊魂一夜。友善的闲聊与无伤大雅的挑逗将变为生死攸关的抉择，在难以想象的选择面前，无论是友情还是爱情都充满了不定数。&lt;br&gt;&lt;br&gt;在惊心动魄的电影式怪谈中扮演九名夏令营指导员，通过环环相扣的每一次抉择塑造只属于您的独特故事。每个人都有机会成为故事的主角，每个人都有可能在黎明之前命丧黄泉。&lt;br&gt;&lt;br&gt;您将会创造什么样的故事？&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/forest_zoom.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;您的故事将决定他们的命运&lt;/h2&gt;您是否有勇气打开那扇不为人知的暗门？您是否会前去调查森林中回荡着的神秘尖叫？您会挺身而出拯救朋友，还是会绝望地逃跑自保？哪怕是看似微不足道的选择也将影响您的故事走向与人物的生死命运。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/max_attack.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;惊心动魄的电影式体验&lt;/h2&gt;先进的面部捕捉与电影级光影技术，外加来自一众才华横溢的好莱坞艺人的精湛演出，在让人血脉偾张的电影化惊悚故事中体验栩栩如生的哈克特采石场怪谈。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/abi_scream.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;与好友们一起见证惊魂时刻&lt;/h2&gt;将选择权交给一同在线*游玩的至多7名好友，受邀请的玩家将能够观看游戏实况并对关键决策进行投票表决，塑造只属于你们的故事！或者你们也可以选择合作模式直接参与，每一名玩家将挑选一名指导员进行操作。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/ryan_hey.gif?t=1675190448" /&gt;&lt;h2 class="bb_tag"&gt;自定义游戏体验&lt;/h2&gt;所有游戏元素皆可自由调整难度，确保所有玩家都能尽情享受这段惊魂故事。如果想要享受纯粹的视听体验，《采石场惊魂》的电影模式将带来一段原汁原味的惊悚恐怖故事。选择您想要的故事走向，然后舒适惬意地享受惊魂时刻！&lt;h2 class="bb_tag"&gt;参演角色：&lt;/h2&gt;&lt;br&gt;David Arquette 扮演 克里斯&lt;br&gt;Ariel Winter 扮演 艾比盖尔&lt;br&gt;Brenda Song 扮演 凯特琳&lt;br&gt;Evan Evagora 扮演 尼克&lt;br&gt;Halston Sage 扮演 艾玛&lt;br&gt;Justice Smith 扮演 莱恩&lt;br&gt;Miles Robbins 扮演 迪伦&lt;br&gt;Siobhan Williams 扮演 劳拉&lt;br&gt;Skyler Gisondo 扮演 麦克斯&lt;br&gt;Zach Tinker 扮演 杰克布&lt;br&gt;Ethan Suplee 扮演 波比&lt;br&gt;Grace Zabriskie 扮演 伊莉莎&lt;br&gt;Lance Henriksen 扮演 杰迪戴亚&lt;br&gt;Lin Shaye 扮演 康丝坦斯&lt;br&gt;Ted Raimi 扮演 崔维斯&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1577120/extras/cast_slideshow.gif?t=1675190448" /&gt;&lt;br&gt;&lt;br&gt;*在线多人模式功能将在游戏发布后于2022年7月8日当天或之前上线</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>1579380</t>
+          <t>1578980</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Shadow Tactics: Blades of the Shogun - Aiko's Choice</t>
+          <t>Wind Angel Ⅱ</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>影子战术：爱子的选择</t>
+          <t>Wind Angel Ⅱ</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>即时战术,策略,动作,等角视角,冒险</t>
+          <t>休闲,射击,2D 平台,飞行,2D</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -37009,101 +37009,96 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>2021年12月07日</t>
+          <t>2021年04月15日</t>
         </is>
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Aiko.gif?t=1685525920" /&gt;&lt;h2 class="bb_tag"&gt;穿越回美丽的日本江户时代&lt;/h2&gt;&lt;br&gt;《&lt;i&gt;爱子的选择&lt;/i&gt;》是一款潜行策略游戏，设定日本的江户时代早期左右，剧情建立在《&lt;i&gt;影子战术：将军之刃》的基础之上。&lt;/i&gt;该扩展版围绕主游戏的其中一个主角——女忍者高手爱子展开。她是伪装大师，通过伪装成艺伎转移敌人的注意力。&lt;br&gt;尽管爱子确信自己已经脱离了原来的生活，但爱子曾经的老师——狡猾的间谍大师千代夫人却从阴影中再现，向她发起挑战。她与本领高强的同伴们一起踏上征程，追捕她过去的幽灵……&lt;h2 class="bb_tag"&gt;操控五名独特刺客组成的队伍&lt;/h2&gt;&lt;br&gt;按照主游戏的风格，你可以操控包括爱子在内的五名强大刺客，潜入数十个敌人间的影子之中。爱子的同伴和她一样本领高强：&lt;br&gt;隼人是一名灵活的忍者，运用刀和手里剑悄无声息地开路。强大的武士穆严则偏好更有杀伤力的对策，瞬间击败多个敌人。友希是个年少的小偷，她会布置陷阱将敌人诱向死亡之路。而睿智的卓真则是一名依靠狙击步枪的神射手，他忠实的宠物伙伴阿熊会帮他分散敌人注意力。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Its_a_Trap_kurz.gif?t=1685525920" /&gt;&lt;h2 class="bb_tag"&gt;定义你的游戏风格&lt;/h2&gt;&lt;br&gt;明智选择相应对策，渗透到隐藏在森林营地的敌人基地或热闹的江户时代城镇中。布置陷阱、下毒、转移对手的注意力——或者完全避免与敌人接触。面对前方挑战重重的任务，谨慎规划你的一举一动，发挥角色的独特技能，执行高明战术智取敌人！&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;穿越到日本江户时代初期，进入美丽的影子战术世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在主游戏《影子战术：将军之刃》的故事中，重新加入你最喜欢的角色，再次开启冒险之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本篇将围绕着女忍者高手爱子展开一个曾经不为人知的故事，在这里她必须面对牵扯到过去经历的恶毒敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三个要素齐全的主要任务设定在全新环境中，另外还有三个较短的穿插任务，让你尽享探险乐趣。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;该扩展版包括主游戏的所有功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;操控五个不同角色组成的队伍，队员各有独一无二的技能组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过“影子模式”功能使队伍同步行动，立即击倒敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择非致命的或致命的潜行攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;尝试各种各样的方法，以想要的方式除掉对手或在他们眼皮子底下溜走。&lt;br&gt;&lt;/li&gt;&lt;li&gt;根据自己的技能水平从三种难度级别中选择。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Mugen.gif?t=1685525920" /&gt;&lt;br&gt;&lt;br&gt;&lt;i&gt;免责声明：体验《爱子的选择》无需拥有《影子战术：将军之刃》。虽然本独立扩展版可单独享受，但我们建议至少先体验主游戏的前几个任务，以便了解游戏机制以及角色和剧情！&lt;/i&gt;&lt;br&gt;&lt;br&gt;经过了这些多年终于回归《影子战术：将军之刃》，对此我们感到非常高兴，希望我们能够将这种喜悦传递到这个独立扩展版中。与我们一起再次回到江户时代初期的日本吧！</t>
+          <t>[游戏简介]&lt;br&gt;《Wind Angel Ⅱ》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在宇宙中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1578980/extras/1.jpg?t=1618470795" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1578980/extras/2.jpg?t=1618470795" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，激光，防护罩，大范围攻击武器等等。&lt;br&gt;玩家击败特定敌人后，会获得护卫战机。不同的护卫战机有着不同的攻击方式，最多可以携带两架护卫战机。可在补给站中设置。&lt;br&gt;玩家击中敌机时可获得经验，经验满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>1590551</t>
+          <t>1579380</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>SCARLET NEXUS - Digital Artbook</t>
-        </is>
-      </c>
-      <c r="D868" t="inlineStr"/>
+          <t>Shadow Tactics: Blades of the Shogun - Aiko's Choice</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>影子战术：爱子的选择</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>即时战术,策略,动作,等角视角,冒险</t>
+        </is>
+      </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>2021年12月07日</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Aiko.gif?t=1685525920" /&gt;&lt;h2 class="bb_tag"&gt;穿越回美丽的日本江户时代&lt;/h2&gt;&lt;br&gt;《&lt;i&gt;爱子的选择&lt;/i&gt;》是一款潜行策略游戏，设定日本的江户时代早期左右，剧情建立在《&lt;i&gt;影子战术：将军之刃》的基础之上。&lt;/i&gt;该扩展版围绕主游戏的其中一个主角——女忍者高手爱子展开。她是伪装大师，通过伪装成艺伎转移敌人的注意力。&lt;br&gt;尽管爱子确信自己已经脱离了原来的生活，但爱子曾经的老师——狡猾的间谍大师千代夫人却从阴影中再现，向她发起挑战。她与本领高强的同伴们一起踏上征程，追捕她过去的幽灵……&lt;h2 class="bb_tag"&gt;操控五名独特刺客组成的队伍&lt;/h2&gt;&lt;br&gt;按照主游戏的风格，你可以操控包括爱子在内的五名强大刺客，潜入数十个敌人间的影子之中。爱子的同伴和她一样本领高强：&lt;br&gt;隼人是一名灵活的忍者，运用刀和手里剑悄无声息地开路。强大的武士穆严则偏好更有杀伤力的对策，瞬间击败多个敌人。友希是个年少的小偷，她会布置陷阱将敌人诱向死亡之路。而睿智的卓真则是一名依靠狙击步枪的神射手，他忠实的宠物伙伴阿熊会帮他分散敌人注意力。 &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Its_a_Trap_kurz.gif?t=1685525920" /&gt;&lt;h2 class="bb_tag"&gt;定义你的游戏风格&lt;/h2&gt;&lt;br&gt;明智选择相应对策，渗透到隐藏在森林营地的敌人基地或热闹的江户时代城镇中。布置陷阱、下毒、转移对手的注意力——或者完全避免与敌人接触。面对前方挑战重重的任务，谨慎规划你的一举一动，发挥角色的独特技能，执行高明战术智取敌人！&lt;h2 class="bb_tag"&gt;特色&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;穿越到日本江户时代初期，进入美丽的影子战术世界。&lt;br&gt;&lt;/li&gt;&lt;li&gt;在主游戏《影子战术：将军之刃》的故事中，重新加入你最喜欢的角色，再次开启冒险之旅。&lt;br&gt;&lt;/li&gt;&lt;li&gt;本篇将围绕着女忍者高手爱子展开一个曾经不为人知的故事，在这里她必须面对牵扯到过去经历的恶毒敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三个要素齐全的主要任务设定在全新环境中，另外还有三个较短的穿插任务，让你尽享探险乐趣。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;该扩展版包括主游戏的所有功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;操控五个不同角色组成的队伍，队员各有独一无二的技能组合。&lt;br&gt;&lt;/li&gt;&lt;li&gt;通过“影子模式”功能使队伍同步行动，立即击倒敌人。&lt;br&gt;&lt;/li&gt;&lt;li&gt;选择非致命的或致命的潜行攻击。&lt;br&gt;&lt;/li&gt;&lt;li&gt;尝试各种各样的方法，以想要的方式除掉对手或在他们眼皮子底下溜走。&lt;br&gt;&lt;/li&gt;&lt;li&gt;根据自己的技能水平从三种难度级别中选择。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1579380/extras/Mugen.gif?t=1685525920" /&gt;&lt;br&gt;&lt;br&gt;&lt;i&gt;免责声明：体验《爱子的选择》无需拥有《影子战术：将军之刃》。虽然本独立扩展版可单独享受，但我们建议至少先体验主游戏的前几个任务，以便了解游戏机制以及角色和剧情！&lt;/i&gt;&lt;br&gt;&lt;br&gt;经过了这些多年终于回归《影子战术：将军之刃》，对此我们感到非常高兴，希望我们能够将这种喜悦传递到这个独立扩展版中。与我们一起再次回到江户时代初期的日本吧！</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>1590910</t>
+          <t>1590551</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Forgive Me Father</t>
-        </is>
-      </c>
-      <c r="C869" t="inlineStr">
-        <is>
-          <t>Forgive Me Father</t>
-        </is>
-      </c>
-      <c r="D869" t="inlineStr">
-        <is>
-          <t>第一人称射击,动作,洛夫克拉夫特式,射击,复古</t>
-        </is>
-      </c>
+          <t>SCARLET NEXUS - Digital Artbook</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr">
         <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>2022年04月08日</t>
-        </is>
-      </c>
-      <c r="H869" t="inlineStr">
-        <is>
-          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/cPZTfZr4Mj" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/DISCORD_baner.png?t=1685958043" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/about.png?t=1685958043" /&gt;&lt;br&gt;As the only one left with full senses, you embark on a journey in search of answers and relief in this FPS game that is created in a distinctive retro horror comic book style and feels as if it came straight out of Lovecraft's books.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/broom.gif?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;Be aware of your madness level which dynamically changes during gameplay and gives you additional power. Choose your active skills depending on your play style and use them to fight against the eternal evil. &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/knife.gif?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;Explore this Lovecraft-inspired world that is full of hidden and hard to reach areas, and uncover the entire story to solve the mystery of this crazy place.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/highlights.png?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Feeling of a classic FPS from the 90s  &lt;/strong&gt;&lt;br&gt;Timelapse animations, opponents and elements of 2D in a 3D environment; first aid kits and life points, non-reloading weapons, powerups during dynamic combat with numerous opponents.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Custom combat experience &lt;/strong&gt;&lt;br&gt;With scripture in one hand and weapons powered by an unknown substance in the other, the player will face the challenge of maintaining their humanity. It is up to the player to decide how their equipment evolves, and to find ways of defeating hordes of unpredictable opponents.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Dynamic level of madness&lt;/strong&gt;&lt;br&gt;Directly influencing not only the audio-visual experience, but the gameplay itself, its effect varies depending on the current level of player’s madness.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;The gameplay is presented in a comic book style&lt;/strong&gt;&lt;br&gt;Hand-drawn graphics designed to maintain a distinctive comic book look, where any screenshot from the game could be a part of a new comic book.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Mood straight from Lovecraft's dark novels&lt;/strong&gt;&lt;br&gt;All throughout the game, the player will feel the atmosphere of dread and horror that the works of H.P. Lovecraft are renowned for. Surrounded by the occult and forces of eternal evil, experience the feelings of hopelessness, madness and confusion, and the burning need to find answers and bring back some semblance of reason and sanity to the world.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Many climatic levels and varied bestiary&lt;/strong&gt;&lt;br&gt;A diverse world entirely made by hand, full of interesting enemies ranging from possessed inhabitants to monsters straight out of your worst nightmares.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Two heroes to choose from &lt;/strong&gt;&lt;br&gt;Each with their own, unique development tree. Experience the story from the perspective of either a priest or a journalist. &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/all_the_cthulhus.gif?t=1685958043" /&gt;</t>
+          <t>DLC</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>1591860</t>
+          <t>1590910</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>审判者</t>
+          <t>Forgive Me Father</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>审判者</t>
+          <t>Forgive Me Father</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>全动态影像,选择取向,剧情丰富,电影,角色扮演</t>
+          <t>第一人称射击,动作,洛夫克拉夫特式,射击,复古</t>
         </is>
       </c>
       <c r="E870" t="inlineStr">
@@ -37113,39 +37108,39 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>2021年04月29日</t>
+          <t>2022年04月08日</t>
         </is>
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1591860/extras/22.jpg?t=1657468256" /&gt;&lt;h2 class="bb_tag"&gt;写在前面&lt;/h2&gt;&lt;strong&gt;游戏发售初期，我们收到了玩家大量的差评，在此深表歉意！除了督促开发组对游戏进行修改之外，我们便当游戏目前已获得授权并在开发高清重制全章节版本，届时拥有本游戏的玩家可以以原先全版本半价的价格体验全部6小时10章节剧情。详情请参见公告。&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1631130/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1631130/_/&lt;/a&gt;&lt;h2 class="bb_tag"&gt;关于这款游戏&lt;/h2&gt;&lt;strong&gt;《审判者》是一部由真人演绎的交互式影像产品。由曾参演过《人民的名义》中陈海的黄俊鹏先生以及出演《人民的名义》中高育良的张志坚先生等优秀演员主演。本作品将分为十个章节，游戏本体包含前五章，游戏时长约3小时，定价19元，将于4月发行；DLC将包含后五章，游戏时长约3小时，定价19元，将于5月发行。希望各位玩家喜欢！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;strong&gt;游戏便当——发现游戏之美&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;新浪微博：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;微信公众号：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;qq群：287356527&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;【故事背景】&lt;/h2&gt;&lt;br&gt;一座看似宁静的城市，在过去的几个月里，接连发生诡异的死亡案件。&lt;br&gt;&lt;br&gt;死者之间毫无关联，然而每一个触发机关的人，就是下一个命案的主角。&lt;br&gt;&lt;br&gt;九套致命机关，九种不同的审判手段，回车键敲响的一瞬间，审判已经降临。&lt;br&gt;&lt;br&gt;三张杀人预告，两个誓死追凶的刑警，一场四面楚歌的推理游戏。&lt;br&gt;&lt;br&gt;尸骨如骨牌一般层层倒下，隐藏着怎样的惊天秘密？&lt;br&gt;&lt;br&gt;九起命案的背后，究竟有着什么样的联系，凶手的真实动机到底是什么？&lt;br&gt;&lt;br&gt;「善恶之报，如影随形，三世因果，循环不失。」&lt;br&gt;&lt;br&gt;最后的审判即将来临，请你协助我们，侦破玄机，找出真相！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1591860/extras/1.jpg?t=1657468256" /&gt;&lt;/strong&gt;</t>
+          <t>&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/cPZTfZr4Mj" target="_blank" rel=" noopener"  &gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/DISCORD_baner.png?t=1685958043" /&gt;&lt;/a&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/about.png?t=1685958043" /&gt;&lt;br&gt;As the only one left with full senses, you embark on a journey in search of answers and relief in this FPS game that is created in a distinctive retro horror comic book style and feels as if it came straight out of Lovecraft's books.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/broom.gif?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;Be aware of your madness level which dynamically changes during gameplay and gives you additional power. Choose your active skills depending on your play style and use them to fight against the eternal evil. &lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/knife.gif?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;Explore this Lovecraft-inspired world that is full of hidden and hard to reach areas, and uncover the entire story to solve the mystery of this crazy place.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/highlights.png?t=1685958043" /&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;Feeling of a classic FPS from the 90s  &lt;/strong&gt;&lt;br&gt;Timelapse animations, opponents and elements of 2D in a 3D environment; first aid kits and life points, non-reloading weapons, powerups during dynamic combat with numerous opponents.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Custom combat experience &lt;/strong&gt;&lt;br&gt;With scripture in one hand and weapons powered by an unknown substance in the other, the player will face the challenge of maintaining their humanity. It is up to the player to decide how their equipment evolves, and to find ways of defeating hordes of unpredictable opponents.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Dynamic level of madness&lt;/strong&gt;&lt;br&gt;Directly influencing not only the audio-visual experience, but the gameplay itself, its effect varies depending on the current level of player’s madness.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;The gameplay is presented in a comic book style&lt;/strong&gt;&lt;br&gt;Hand-drawn graphics designed to maintain a distinctive comic book look, where any screenshot from the game could be a part of a new comic book.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Mood straight from Lovecraft's dark novels&lt;/strong&gt;&lt;br&gt;All throughout the game, the player will feel the atmosphere of dread and horror that the works of H.P. Lovecraft are renowned for. Surrounded by the occult and forces of eternal evil, experience the feelings of hopelessness, madness and confusion, and the burning need to find answers and bring back some semblance of reason and sanity to the world.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Many climatic levels and varied bestiary&lt;/strong&gt;&lt;br&gt;A diverse world entirely made by hand, full of interesting enemies ranging from possessed inhabitants to monsters straight out of your worst nightmares.&lt;br&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Two heroes to choose from &lt;/strong&gt;&lt;br&gt;Each with their own, unique development tree. Experience the story from the perspective of either a priest or a journalist. &lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1590910/extras/all_the_cthulhus.gif?t=1685958043" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>1593500</t>
+          <t>1591860</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>God of War</t>
+          <t>审判者</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>战神</t>
+          <t>审判者</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>动作,单人,剧情丰富,冒险,神话</t>
+          <t>全动态影像,选择取向,剧情丰富,电影,角色扮演</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
@@ -37155,39 +37150,39 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>2022年01月14日</t>
+          <t>2021年04月29日</t>
         </is>
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;踏入北欧国度&lt;/strong&gt;&lt;br&gt;奎托斯复仇奥林匹斯众神的往事已尘封多年，他现在以凡人的身份生活在北欧众神和怪物环伺的领土中。在这片极寒荒芜的土地上，唯有战斗方能生存……他如是教育其子。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;再握机遇 &lt;/strong&gt;&lt;br&gt;奎托斯再为人父。他与儿子阿特柔斯流落在外，身处险地。他是儿子的良师，亦是护卫，阿特柔斯也立志要获得他的尊重。尽管奎托斯一直怒火中烧，却不得不学会处理情绪，控制怒气。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;探访恐怖生物的暗黑本质世界&lt;/strong&gt;&lt;br&gt;从奥林匹斯华丽的大理石雕与石柱，到北欧前维京时代的森林、山脉与洞穴，这是一片全新的大陆，拥有独特的生物、怪物与众神。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;身临其境的狂野肉搏 &lt;/strong&gt;&lt;br&gt;本作采用过肩视角，带给玩家前所未有的临场体验。在《战神™》中，奎托斯将面对庞大威猛、凶狠狡诈的北欧生物，并与之战斗。全新主武器与新型技能与《战神》系列的精神内核一脉相承，但独特的战斗视角在系列中属首开先河。&lt;h2 class="bb_tag"&gt;PC 特色功能&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;高保真画面&lt;/strong&gt;&lt;br&gt;PC 画质大幅提升。在支持相关功能的设备上 [MU1] 您可尊享真 4K 分辨率与无锁帧率带来的巅峰表现。通过丰富的画面预设和选项进行设置，包括更高分辨率的阴影、改进的屏幕空间反射，新增的 GTAO 与 SSDO 及其他设置。&lt;br&gt;&lt;br&gt;&lt;strong&gt;支持 NVIDIA® DLSS 与 Reflex&lt;/strong&gt;&lt;br&gt;质量与性能相匹配。利用 NVIDIA 深度学习超级采样 (DLSS) 的 AI 功能提高帧率，通过特定 Nvidia GPU 呈现精美清晰的画面。NVIDIA Reflex 低延迟技术，让您可更快地做出反应，完成更加困难的连招，通过 GeForce GPU 尽享酣畅淋漓的游戏体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义操作方式&lt;/strong&gt;&lt;br&gt;随心畅玩。本游戏支持 DUALSHOCK®4 无线控制器 与 DualSense™ 无线控制器以及其他各类控制器，玩家可以完全自定义鼠标与键盘设置，微调每个动作，玩出个人特色。&lt;br&gt;&lt;br&gt;&lt;strong&gt;超宽幅画面支持&lt;/strong&gt;&lt;br&gt;前所未有的沉浸式体验。北欧之旅中，夺人心魂的峡谷风光在全景宽屏中徐徐展开。《战神™》支持 21:9 超宽屏幕，进一步增强原高清画质，带来影院级视觉体验。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1591860/extras/22.jpg?t=1657468256" /&gt;&lt;h2 class="bb_tag"&gt;写在前面&lt;/h2&gt;&lt;strong&gt;游戏发售初期，我们收到了玩家大量的差评，在此深表歉意！除了督促开发组对游戏进行修改之外，我们便当游戏目前已获得授权并在开发高清重制全章节版本，届时拥有本游戏的玩家可以以原先全版本半价的价格体验全部6小时10章节剧情。详情请参见公告。&lt;br&gt;&lt;a href="https://store.steampowered.com/app/1631130/_/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/1631130/_/&lt;/a&gt;&lt;h2 class="bb_tag"&gt;关于这款游戏&lt;/h2&gt;&lt;strong&gt;《审判者》是一部由真人演绎的交互式影像产品。由曾参演过《人民的名义》中陈海的黄俊鹏先生以及出演《人民的名义》中高育良的张志坚先生等优秀演员主演。本作品将分为十个章节，游戏本体包含前五章，游戏时长约3小时，定价19元，将于4月发行；DLC将包含后五章，游戏时长约3小时，定价19元，将于5月发行。希望各位玩家喜欢！&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;strong&gt;游戏便当——发现游戏之美&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;新浪微博：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;微信公众号：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;qq群：287356527&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;【故事背景】&lt;/h2&gt;&lt;br&gt;一座看似宁静的城市，在过去的几个月里，接连发生诡异的死亡案件。&lt;br&gt;&lt;br&gt;死者之间毫无关联，然而每一个触发机关的人，就是下一个命案的主角。&lt;br&gt;&lt;br&gt;九套致命机关，九种不同的审判手段，回车键敲响的一瞬间，审判已经降临。&lt;br&gt;&lt;br&gt;三张杀人预告，两个誓死追凶的刑警，一场四面楚歌的推理游戏。&lt;br&gt;&lt;br&gt;尸骨如骨牌一般层层倒下，隐藏着怎样的惊天秘密？&lt;br&gt;&lt;br&gt;九起命案的背后，究竟有着什么样的联系，凶手的真实动机到底是什么？&lt;br&gt;&lt;br&gt;「善恶之报，如影随形，三世因果，循环不失。」&lt;br&gt;&lt;br&gt;最后的审判即将来临，请你协助我们，侦破玄机，找出真相！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1591860/extras/1.jpg?t=1657468256" /&gt;&lt;/strong&gt;</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>1604030</t>
+          <t>1593500</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>V Rising</t>
+          <t>God of War</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>夜族崛起</t>
+          <t>战神</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>抢先体验,开放世界,生存,基地建设,吸血鬼</t>
+          <t>动作,单人,剧情丰富,冒险,神话</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -37197,39 +37192,39 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>2022年05月17日</t>
+          <t>2022年01月14日</t>
         </is>
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;一个吸血鬼的荒野生存体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;经过几个世纪的沉睡，你作为一名虚弱的吸血鬼醒来。你需要寻找血液以恢复体力，同时躲避烈日以求生存。重建你的城堡和吸血鬼帝国，将人类变成你忠诚的仆人。你可以单人本地探索和打斗，或在线结交盟友和敌人，抵挡那些灵异的士兵，在这个充满冲突的世界战斗！&lt;br&gt;&lt;br&gt;你会成为下一个吸血鬼德古拉吗？&lt;h2 class="bb_tag"&gt;一个哥特风格的开放世界&lt;/h2&gt;&lt;br&gt;探索这个充满神秘，恐怖和危险的广阔世界。穿梭在茂密的森林、开阔的乡村和黑暗的洞穴中，发现宝贵的资源，结实朋友和敌人。与吸血鬼同僚们一起环游世界，或独自狩猎，掠夺村庄、袭击土匪，并深入研究拥有超自然野兽的领域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/OpenWorld01_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;恐惧烈日 - 统治夜晚&lt;/h2&gt;&lt;br&gt;在白日躲入阴影，否则烈日会把你灼成灰烬。在夜晚漫游冒险，在黑暗中捕食猎物。作为吸血鬼，你必须策划在白天和晚上的不同应对策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/FearTheLightRuleTheNight_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;城堡的建立和崛起 &lt;/h2&gt;&lt;br&gt;收集资料和远古的技术以获得黑暗力量。利用所学的知识建立城堡，在城堡中储存战利品，并培养属于你的黑暗势力。个性化你的领域，展现你的吸血鬼风格，确保为仆人和朋友制作棺材。加固你的城堡，以确保你的宝藏免遭吸血鬼对手的攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/RaiseYourCastle_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;对战或合作 &lt;/h2&gt;&lt;br&gt;独自旅行或与好友一同探索。与其他吸血鬼并肩作战将有助于你征服瓦尔多兰的最大威胁。在血腥、权力和背叛的游戏中突袭其他玩家的城堡或扮演外交官的角色。竞争或合作 - 选择权在你手中。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/CompeteOrCooperate_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;掌控你的吸血鬼&lt;/h2&gt;&lt;br&gt;学习并掌握一系列致命武器和邪恶能力的使用。在 V Rising中，你可以使用精确的 WASD 控制和基于光标的瞄准来射击和躲避 - 无需点击移动。将武器与一系列战斗中获得的法术相结合，定制你的吸血鬼以适应你的游戏风格。掌握你的技能并释放你邪恶的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/MasterYourVampire_1.gif?t=1658807402" /&gt;</t>
+          <t>&lt;strong&gt;踏入北欧国度&lt;/strong&gt;&lt;br&gt;奎托斯复仇奥林匹斯众神的往事已尘封多年，他现在以凡人的身份生活在北欧众神和怪物环伺的领土中。在这片极寒荒芜的土地上，唯有战斗方能生存……他如是教育其子。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;再握机遇 &lt;/strong&gt;&lt;br&gt;奎托斯再为人父。他与儿子阿特柔斯流落在外，身处险地。他是儿子的良师，亦是护卫，阿特柔斯也立志要获得他的尊重。尽管奎托斯一直怒火中烧，却不得不学会处理情绪，控制怒气。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;探访恐怖生物的暗黑本质世界&lt;/strong&gt;&lt;br&gt;从奥林匹斯华丽的大理石雕与石柱，到北欧前维京时代的森林、山脉与洞穴，这是一片全新的大陆，拥有独特的生物、怪物与众神。 &lt;br&gt;&lt;br&gt;&lt;strong&gt;身临其境的狂野肉搏 &lt;/strong&gt;&lt;br&gt;本作采用过肩视角，带给玩家前所未有的临场体验。在《战神™》中，奎托斯将面对庞大威猛、凶狠狡诈的北欧生物，并与之战斗。全新主武器与新型技能与《战神》系列的精神内核一脉相承，但独特的战斗视角在系列中属首开先河。&lt;h2 class="bb_tag"&gt;PC 特色功能&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;高保真画面&lt;/strong&gt;&lt;br&gt;PC 画质大幅提升。在支持相关功能的设备上 [MU1] 您可尊享真 4K 分辨率与无锁帧率带来的巅峰表现。通过丰富的画面预设和选项进行设置，包括更高分辨率的阴影、改进的屏幕空间反射，新增的 GTAO 与 SSDO 及其他设置。&lt;br&gt;&lt;br&gt;&lt;strong&gt;支持 NVIDIA® DLSS 与 Reflex&lt;/strong&gt;&lt;br&gt;质量与性能相匹配。利用 NVIDIA 深度学习超级采样 (DLSS) 的 AI 功能提高帧率，通过特定 Nvidia GPU 呈现精美清晰的画面。NVIDIA Reflex 低延迟技术，让您可更快地做出反应，完成更加困难的连招，通过 GeForce GPU 尽享酣畅淋漓的游戏体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;自定义操作方式&lt;/strong&gt;&lt;br&gt;随心畅玩。本游戏支持 DUALSHOCK®4 无线控制器 与 DualSense™ 无线控制器以及其他各类控制器，玩家可以完全自定义鼠标与键盘设置，微调每个动作，玩出个人特色。&lt;br&gt;&lt;br&gt;&lt;strong&gt;超宽幅画面支持&lt;/strong&gt;&lt;br&gt;前所未有的沉浸式体验。北欧之旅中，夺人心魂的峡谷风光在全景宽屏中徐徐展开。《战神™》支持 21:9 超宽屏幕，进一步增强原高清画质，带来影院级视觉体验。</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>1605010</t>
+          <t>1604030</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Adorable Witch</t>
+          <t>V Rising</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Adorable Witch</t>
+          <t>夜族崛起</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>动漫色情,成人,策略,动漫,解谜</t>
+          <t>抢先体验,开放世界,生存,基地建设,吸血鬼</t>
         </is>
       </c>
       <c r="E873" t="inlineStr">
@@ -37239,112 +37234,154 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>2021年06月17日</t>
+          <t>2022年05月17日</t>
         </is>
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Adorable Witch 是一款休闲策略类小游戏，如何躲避恶魔，引导水滴的走向是这款游戏的关键。&lt;br&gt;&lt;br&gt;游戏中玩家需要通过移除场景中的大头针，引导纯净的水滴在种子上，以确保种子的生长并被主人公获得。&lt;br&gt;游戏的剧情CG会随着主人公获得花的数量而推进。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;有趣创意的抽针玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的关卡机制。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十个关卡。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;更有好看的成就与背景展示图等待您的获取。</t>
+          <t>&lt;strong&gt;一个吸血鬼的荒野生存体验&lt;/strong&gt;&lt;br&gt;&lt;br&gt;经过几个世纪的沉睡，你作为一名虚弱的吸血鬼醒来。你需要寻找血液以恢复体力，同时躲避烈日以求生存。重建你的城堡和吸血鬼帝国，将人类变成你忠诚的仆人。你可以单人本地探索和打斗，或在线结交盟友和敌人，抵挡那些灵异的士兵，在这个充满冲突的世界战斗！&lt;br&gt;&lt;br&gt;你会成为下一个吸血鬼德古拉吗？&lt;h2 class="bb_tag"&gt;一个哥特风格的开放世界&lt;/h2&gt;&lt;br&gt;探索这个充满神秘，恐怖和危险的广阔世界。穿梭在茂密的森林、开阔的乡村和黑暗的洞穴中，发现宝贵的资源，结实朋友和敌人。与吸血鬼同僚们一起环游世界，或独自狩猎，掠夺村庄、袭击土匪，并深入研究拥有超自然野兽的领域。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/OpenWorld01_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;恐惧烈日 - 统治夜晚&lt;/h2&gt;&lt;br&gt;在白日躲入阴影，否则烈日会把你灼成灰烬。在夜晚漫游冒险，在黑暗中捕食猎物。作为吸血鬼，你必须策划在白天和晚上的不同应对策略。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/FearTheLightRuleTheNight_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;城堡的建立和崛起 &lt;/h2&gt;&lt;br&gt;收集资料和远古的技术以获得黑暗力量。利用所学的知识建立城堡，在城堡中储存战利品，并培养属于你的黑暗势力。个性化你的领域，展现你的吸血鬼风格，确保为仆人和朋友制作棺材。加固你的城堡，以确保你的宝藏免遭吸血鬼对手的攻击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/RaiseYourCastle_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;对战或合作 &lt;/h2&gt;&lt;br&gt;独自旅行或与好友一同探索。与其他吸血鬼并肩作战将有助于你征服瓦尔多兰的最大威胁。在血腥、权力和背叛的游戏中突袭其他玩家的城堡或扮演外交官的角色。竞争或合作 - 选择权在你手中。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/CompeteOrCooperate_1.gif?t=1658807402" /&gt;&lt;h2 class="bb_tag"&gt;掌控你的吸血鬼&lt;/h2&gt;&lt;br&gt;学习并掌握一系列致命武器和邪恶能力的使用。在 V Rising中，你可以使用精确的 WASD 控制和基于光标的瞄准来射击和躲避 - 无需点击移动。将武器与一系列战斗中获得的法术相结合，定制你的吸血鬼以适应你的游戏风格。掌握你的技能并释放你邪恶的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1604030/extras/MasterYourVampire_1.gif?t=1658807402" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>1607130</t>
+          <t>1605010</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Lust Theory</t>
-        </is>
-      </c>
-      <c r="D874" t="inlineStr"/>
+          <t>Adorable Witch</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Adorable Witch</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>动漫色情,成人,策略,动漫,解谜</t>
+        </is>
+      </c>
       <c r="E874" t="inlineStr">
         <is>
           <t>Game</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>2021年06月17日</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>Adorable Witch 是一款休闲策略类小游戏，如何躲避恶魔，引导水滴的走向是这款游戏的关键。&lt;br&gt;&lt;br&gt;游戏中玩家需要通过移除场景中的大头针，引导纯净的水滴在种子上，以确保种子的生长并被主人公获得。&lt;br&gt;游戏的剧情CG会随着主人公获得花的数量而推进。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;有趣创意的抽针玩法。&lt;br&gt;&lt;/li&gt;&lt;li&gt;全新的关卡机制。&lt;br&gt;&lt;/li&gt;&lt;li&gt;三十个关卡。&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;更有好看的成就与背景展示图等待您的获取。</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>1608070</t>
+          <t>1607130</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>CRISIS CORE –FINAL FANTASY VII– REUNION</t>
-        </is>
-      </c>
-      <c r="C875" t="inlineStr">
-        <is>
-          <t>最终幻想7：核心危机 重聚</t>
-        </is>
-      </c>
-      <c r="D875" t="inlineStr">
-        <is>
-          <t>动作,角色扮演,冒险,日系角色扮演,动作角色扮演</t>
-        </is>
-      </c>
+          <t>Lust Theory</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr"/>
       <c r="E875" t="inlineStr">
         <is>
           <t>Game</t>
-        </is>
-      </c>
-      <c r="F875" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G875" t="inlineStr">
-        <is>
-          <t>2022年12月14日</t>
-        </is>
-      </c>
-      <c r="H875" t="inlineStr">
-        <is>
-          <t>《CRISIS CORE -FINAL FANTASY VII-》的Remastered版《CRISIS CORE -FINAL FANTASY VII- REUNION》&lt;br&gt;&lt;br&gt;本作除了将画面HD化之外，包括登场角色在内的所有3D模型也将焕然一新。支持全语音的内容和全新改编的乐曲将更加生动地描绘出波澜万丈的故事。&lt;br&gt;&lt;br&gt;《CRISIS CORE -FINAL FANTASY VII- REUNION》的主角——青年扎克斯·菲尔不仅是未来拯救世界的少年所憧憬之人，还受到传奇英雄的信赖，更被掌握星球命运的少女所深爱着。他托付给克劳德的梦想与尊严，描述这“一切”的壮大故事，如今实现超越HD复刻的进化。&lt;h2 class="bb_tag"&gt;＜Remastered版的新要素＞&lt;/h2&gt;·所有画面HD化&lt;br&gt;·翻新角色和背景等所有3D模型&lt;br&gt;·通过改良战斗系统大幅提升游戏体验的舒适度&lt;br&gt;·支持全语音&lt;br&gt;·重编一部分乐曲&lt;br&gt;·Steam版最高支援120fps&lt;br&gt;※由於建議規格設定為解析度1920x1080和60fps，因此當使用更高解析度或高fps時，則需要支援該解析度的顯示器和效能足夠的PC。&lt;br&gt;&lt;br&gt;＜CRISIS CORE -FINAL FANTASY VII- REUNION＞&lt;br&gt;在《FINAL FANTASY VII》的故事发生的七年之前。&lt;br&gt;“神罗公司”在魔晄都市“米德加”具有强大的军力和影响力。&lt;br&gt;而在神罗，有个战斗能力卓越的士兵组织“神罗战士”，2nd神罗战士扎克斯便隶属于该组织。&lt;br&gt;扎克斯的任务是与自己的前辈——1st神罗战士安吉尔和作为英雄闻名于世的萨菲罗斯一起调查“神罗战士大量失踪事件”。</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
+          <t>1608070</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>CRISIS CORE –FINAL FANTASY VII– REUNION</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>最终幻想7：核心危机 重聚</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>动作,角色扮演,冒险,日系角色扮演,动作角色扮演</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>2022年12月14日</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>《CRISIS CORE -FINAL FANTASY VII-》的Remastered版《CRISIS CORE -FINAL FANTASY VII- REUNION》&lt;br&gt;&lt;br&gt;本作除了将画面HD化之外，包括登场角色在内的所有3D模型也将焕然一新。支持全语音的内容和全新改编的乐曲将更加生动地描绘出波澜万丈的故事。&lt;br&gt;&lt;br&gt;《CRISIS CORE -FINAL FANTASY VII- REUNION》的主角——青年扎克斯·菲尔不仅是未来拯救世界的少年所憧憬之人，还受到传奇英雄的信赖，更被掌握星球命运的少女所深爱着。他托付给克劳德的梦想与尊严，描述这“一切”的壮大故事，如今实现超越HD复刻的进化。&lt;h2 class="bb_tag"&gt;＜Remastered版的新要素＞&lt;/h2&gt;·所有画面HD化&lt;br&gt;·翻新角色和背景等所有3D模型&lt;br&gt;·通过改良战斗系统大幅提升游戏体验的舒适度&lt;br&gt;·支持全语音&lt;br&gt;·重编一部分乐曲&lt;br&gt;·Steam版最高支援120fps&lt;br&gt;※由於建議規格設定為解析度1920x1080和60fps，因此當使用更高解析度或高fps時，則需要支援該解析度的顯示器和效能足夠的PC。&lt;br&gt;&lt;br&gt;＜CRISIS CORE -FINAL FANTASY VII- REUNION＞&lt;br&gt;在《FINAL FANTASY VII》的故事发生的七年之前。&lt;br&gt;“神罗公司”在魔晄都市“米德加”具有强大的军力和影响力。&lt;br&gt;而在神罗，有个战斗能力卓越的士兵组织“神罗战士”，2nd神罗战士扎克斯便隶属于该组织。&lt;br&gt;扎克斯的任务是与自己的前辈——1st神罗战士安吉尔和作为英雄闻名于世的萨菲罗斯一起调查“神罗战士大量失踪事件”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
           <t>1608460</t>
         </is>
       </c>
-      <c r="B876" t="inlineStr">
+      <c r="B877" t="inlineStr">
         <is>
           <t>青の镇物语</t>
         </is>
       </c>
-      <c r="C876" t="inlineStr">
+      <c r="C877" t="inlineStr">
         <is>
           <t>青之镇物语</t>
         </is>
       </c>
-      <c r="D876" t="inlineStr">
+      <c r="D877" t="inlineStr">
         <is>
           <t>模拟,角色扮演,冒险,休闲,农场模拟</t>
         </is>
       </c>
-      <c r="E876" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G876" t="inlineStr">
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
         <is>
           <t>2021年07月10日</t>
         </is>
       </c>
-      <c r="H876" t="inlineStr">
+      <c r="H877" t="inlineStr">
         <is>
           <t>伙伴的背叛，让你选择了不同的人生，尽管怀抱着复仇之心，但在这个错从复杂的世界里，依旧有着新的希望与抉择，&lt;br /&gt;
 到底是身负使命而活，还是放下执念，是经营好自己的医馆还是手刃仇人？一切都由你自己决定&lt;br /&gt;
@@ -37363,62 +37400,25 @@
         </is>
       </c>
     </row>
-    <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>1615100</t>
-        </is>
-      </c>
-      <c r="B877" t="inlineStr">
-        <is>
-          <t>The Last Stand Legacy Collection</t>
-        </is>
-      </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>The Last Stand Legacy Collection</t>
-        </is>
-      </c>
-      <c r="D877" t="inlineStr">
-        <is>
-          <t>动作,后末日,僵尸,生存,氛围</t>
-        </is>
-      </c>
-      <c r="E877" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G877" t="inlineStr">
-        <is>
-          <t>2021年07月15日</t>
-        </is>
-      </c>
-      <c r="H877" t="inlineStr">
-        <is>
-          <t>Featuring three classic titles with AI upscaled assets, &lt;strong&gt;The Last Stand Legacy Collection&lt;/strong&gt; includes The Last Stand, The Last Stand 2, and The Last Stand: Union City, in one comprehensive package.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;The very first game in The Last Stand franchise- play as Jack in the opening days of the zombie apocalypse.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Arm yourself with weapons and supplies in the daylight hours.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Support your party of survivors by repairing your barricade.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Defend your encampment from the onslaught of the undead when the sun goes down.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand2-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;Following the events of The Last Stand, Jack and the remaining survivors will carve a path to the coast before the evacuation leaves them behind.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand2-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Reach Union City before the military fully quarantines the mainland in 40 days.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Bait zombies towards the killing floor by placing traps each night as you fight for your life.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Survive as long as you can as you scrounge for weapons and survivors in each city.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststandunioncity-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;In the last days before evacuation, you’ll navigate &lt;strong&gt;Union City&lt;/strong&gt;, now overrun by the zombie scourge to find your partner and hopefully some safety for you both.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststandunioncity-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Traverse Union City as your customized survivor.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Become strong enough to prevail in the apocalypse by levelling up your skills to fit your playstyle.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Take fate into your own hands and explore the city on your own terms.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Fight off zombies using one of the dozens of unique weapons you'll find on the streets.&lt;/li&gt;&lt;/ul&gt;The Last Stand Legacy Collection features a beautiful visual upgrade to compliment its original gameplay, including AI-upscaled assets, fullscreen support, cloud saving, and achievements. Plus, all of the premium content from Union City is included as part of this release at no extra charge.</t>
-        </is>
-      </c>
-    </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>1631130</t>
+          <t>1615100</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>审判者 高清重制全章节版</t>
+          <t>The Last Stand Legacy Collection</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>审判者 高清重制全章节版</t>
+          <t>The Last Stand Legacy Collection</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>全动态影像,剧情丰富,独立,电影,选择取向</t>
+          <t>动作,后末日,僵尸,生存,氛围</t>
         </is>
       </c>
       <c r="E878" t="inlineStr">
@@ -37428,34 +37428,34 @@
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>2021年06月10日</t>
+          <t>2021年07月15日</t>
         </is>
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1631130/extras/22.jpg?t=1657468325" /&gt;&lt;h2 class="bb_tag"&gt;关于审判者 高清重制全章节版 &lt;/h2&gt;&lt;strong&gt;“《审判者》高清重制全章节版”是一部由真人演绎的交互式影像产品，由曾参演过《人民的名义》中陈海的黄俊鹏先生以及出演《人民的名义》中高育良的张志坚先生等优秀演员主演。游戏共包含10个章节，约5小时游戏时长。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新版本的优化内容：&lt;br&gt;-游戏的全部十章内容（包含已发布的5个章节的内容，以及仍未发布过的另外5个章节内容，总计约5个小时游戏时长）&lt;br&gt;-全部十章的每一个视频片段都转为高清且经过重新调色，更清晰色彩更加饱满&lt;br&gt;-增加了云存档等Steam玩家需要的游戏及平台功能，steam成就及steam卡牌、背景等会在稍后进行更新。（steam卡牌等需要达到一定要求v社才允许加入）&lt;br&gt;-UI重新绘制，质量和清晰度大幅提升&lt;br&gt;-删减了无用的、无逻辑的谜题，保证流畅性&lt;br&gt;-优化整个游戏的流程&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;strong&gt;游戏便当——发现游戏之美&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;新浪微博：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;微信公众号：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;qq群：287356527&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;【故事背景】&lt;/h2&gt;&lt;br&gt;一座看似宁静的城市，在过去的几个月里，接连发生诡异的死亡案件。&lt;br&gt;&lt;br&gt;死者之间毫无关联，然而每一个触发机关的人，就是下一个命案的主角。&lt;br&gt;&lt;br&gt;九套致命机关，九种不同的审判手段，回车键敲响的一瞬间，审判已经降临。&lt;br&gt;&lt;br&gt;三张杀人预告，两个誓死追凶的刑警，一场四面楚歌的推理游戏。&lt;br&gt;&lt;br&gt;尸骨如骨牌一般层层倒下，隐藏着怎样的惊天秘密？&lt;br&gt;&lt;br&gt;九起命案的背后，究竟有着什么样的联系，凶手的真实动机到底是什么？&lt;br&gt;&lt;br&gt;「善恶之报，如影随形，三世因果，循环不失。」&lt;br&gt;&lt;br&gt;最后的审判即将来临，请你协助我们，侦破玄机，找出真相！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1631130/extras/1.jpg?t=1657468325" /&gt;</t>
+          <t>Featuring three classic titles with AI upscaled assets, &lt;strong&gt;The Last Stand Legacy Collection&lt;/strong&gt; includes The Last Stand, The Last Stand 2, and The Last Stand: Union City, in one comprehensive package.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;The very first game in The Last Stand franchise- play as Jack in the opening days of the zombie apocalypse.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Arm yourself with weapons and supplies in the daylight hours.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Support your party of survivors by repairing your barricade.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Defend your encampment from the onslaught of the undead when the sun goes down.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand2-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;Following the events of The Last Stand, Jack and the remaining survivors will carve a path to the coast before the evacuation leaves them behind.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststand2-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Reach Union City before the military fully quarantines the mainland in 40 days.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Bait zombies towards the killing floor by placing traps each night as you fight for your life.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Survive as long as you can as you scrounge for weapons and survivors in each city.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststandunioncity-header-animated.gif?t=1626451967" /&gt;&lt;br&gt;In the last days before evacuation, you’ll navigate &lt;strong&gt;Union City&lt;/strong&gt;, now overrun by the zombie scourge to find your partner and hopefully some safety for you both.&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1615100/extras/thelaststandunioncity-gameplay-animated.gif?t=1626451967" /&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Traverse Union City as your customized survivor.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Become strong enough to prevail in the apocalypse by levelling up your skills to fit your playstyle.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Take fate into your own hands and explore the city on your own terms.&lt;br&gt;&lt;/li&gt;&lt;li&gt;Fight off zombies using one of the dozens of unique weapons you'll find on the streets.&lt;/li&gt;&lt;/ul&gt;The Last Stand Legacy Collection features a beautiful visual upgrade to compliment its original gameplay, including AI-upscaled assets, fullscreen support, cloud saving, and achievements. Plus, all of the premium content from Union City is included as part of this release at no extra charge.</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>1632140</t>
+          <t>1631130</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>girl agent</t>
+          <t>审判者 高清重制全章节版</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>少女探员</t>
+          <t>审判者 高清重制全章节版</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>俯视射击,女性主角,类 Rogue,第三人称射击,冒险</t>
+          <t>全动态影像,剧情丰富,独立,电影,选择取向</t>
         </is>
       </c>
       <c r="E879" t="inlineStr">
@@ -37465,34 +37465,34 @@
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>2022年03月29日</t>
+          <t>2021年06月10日</t>
         </is>
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;游戏内容&lt;/h2&gt;&lt;br&gt;玩家将和少女探员一起前往X地区，调查机器人发动暴力的真相。&lt;br&gt;游戏采用轻度rogue。玩家失败后需要重新开始游戏。玩家战胜敌人可以获得能量，通过在补给商店中兑换补给品，从而提升自己的战斗力。以应对更强大的敌人。&lt;br&gt;在每节关卡中，玩家需要肃清所有敌人才能进入下一节关卡。&lt;br&gt;游戏中包涵数十种不同的枪械与可投掷道具。游戏中敌人组合与排布采用计算机生成与预定义结合。使得每次战斗都需要根据当前的敌人的组合选择不同的打法。&lt;br&gt;游戏中可以解锁前期的三名探员。每名探员具有不同的能力与专长。通过与探员一同作战，可以提高探员初始属性，强化探员的战斗力。&lt;h2 class="bb_tag"&gt;游戏特点&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏采用俯视角射击类型&lt;br&gt;&lt;/li&gt;&lt;li&gt;随机补给商店。让每局挑战事半功倍&lt;br&gt;&lt;/li&gt;&lt;li&gt;玩家可以自由组合搭配枪械、投掷道具与技能完虐敌人&lt;br&gt;&lt;/li&gt;&lt;li&gt;具有挑战的boss战&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;事件背景&lt;/h2&gt;X ROBOT 地区发生机器人暴乱事件，少女探员前往解救被困人员，调查暴乱幕后真凶&lt;h2 class="bb_tag"&gt;少女探员团的成立&lt;/h2&gt;2020年，在一场世界范围的特种兵战斗选拔赛中，来自不同地区数名少女脱颖而出。她们的综合实力突出，被世界网友推荐成立了《少女探员》，向世界各地区中存在的谜团与困局发起挑战。</t>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1631130/extras/22.jpg?t=1657468325" /&gt;&lt;h2 class="bb_tag"&gt;关于审判者 高清重制全章节版 &lt;/h2&gt;&lt;strong&gt;“《审判者》高清重制全章节版”是一部由真人演绎的交互式影像产品，由曾参演过《人民的名义》中陈海的黄俊鹏先生以及出演《人民的名义》中高育良的张志坚先生等优秀演员主演。游戏共包含10个章节，约5小时游戏时长。&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;新版本的优化内容：&lt;br&gt;-游戏的全部十章内容（包含已发布的5个章节的内容，以及仍未发布过的另外5个章节内容，总计约5个小时游戏时长）&lt;br&gt;-全部十章的每一个视频片段都转为高清且经过重新调色，更清晰色彩更加饱满&lt;br&gt;-增加了云存档等Steam玩家需要的游戏及平台功能，steam成就及steam卡牌、背景等会在稍后进行更新。（steam卡牌等需要达到一定要求v社才允许加入）&lt;br&gt;-UI重新绘制，质量和清晰度大幅提升&lt;br&gt;-删减了无用的、无逻辑的谜题，保证流畅性&lt;br&gt;-优化整个游戏的流程&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;strong&gt;游戏便当——发现游戏之美&lt;/strong&gt;&lt;br&gt;&lt;strong&gt;新浪微博：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;微信公众号：&lt;/strong&gt;游戏便当&lt;br&gt;&lt;strong&gt;qq群：287356527&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;【故事背景】&lt;/h2&gt;&lt;br&gt;一座看似宁静的城市，在过去的几个月里，接连发生诡异的死亡案件。&lt;br&gt;&lt;br&gt;死者之间毫无关联，然而每一个触发机关的人，就是下一个命案的主角。&lt;br&gt;&lt;br&gt;九套致命机关，九种不同的审判手段，回车键敲响的一瞬间，审判已经降临。&lt;br&gt;&lt;br&gt;三张杀人预告，两个誓死追凶的刑警，一场四面楚歌的推理游戏。&lt;br&gt;&lt;br&gt;尸骨如骨牌一般层层倒下，隐藏着怎样的惊天秘密？&lt;br&gt;&lt;br&gt;九起命案的背后，究竟有着什么样的联系，凶手的真实动机到底是什么？&lt;br&gt;&lt;br&gt;「善恶之报，如影随形，三世因果，循环不失。」&lt;br&gt;&lt;br&gt;最后的审判即将来临，请你协助我们，侦破玄机，找出真相！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1631130/extras/1.jpg?t=1657468325" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>1641450</t>
+          <t>1632140</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Listen to the Wind</t>
+          <t>girl agent</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>听风者也</t>
+          <t>少女探员</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>动作,武术,多结局,选择取向,2D</t>
+          <t>俯视射击,女性主角,类 Rogue,第三人称射击,冒险</t>
         </is>
       </c>
       <c r="E880" t="inlineStr">
@@ -37500,41 +37500,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F880" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>2021年09月23日</t>
+          <t>2022年03月29日</t>
         </is>
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>明朝嘉靖年间，吏治败坏，边事废弛，东南沿海饱受倭寇侵扰。一日，修隐山中多年的主角受托协助官军抗倭。然而在救人退敌的途中，却发现倭寇的入侵并非表面那般简单。是成功破局揭穿祸国奸佞，亦或是功成身退重返山林，决定权在你的手中。随着剧情的展开，朝廷官军、海盗徐海、松浦党等多方势力也牵涉其中。究竟故事会向着哪一个方向发展？更多的秘密等待你前往揭开！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/开场.gif?t=1679288774" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/反击制敌573_sc.png?t=1679288774" /&gt;&lt;br&gt;游戏中玩家会遭遇到各种势力——既有穷凶极恶的僧兵，也有装备精良的武士，甚至是师出同门的海盗头目。而作为武林中人，胜负往往在毫厘之间。穷追猛打并非取胜之道，仔细观察对手的一招一式，通过精准操作化险为夷，待对手露出破绽之时，即可以行云流水延绵不绝之势主动出击，最终轻松制敌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/拼刀.gif?t=1679288774" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/歧路抉择573_sc.png?t=1679288774" /&gt;&lt;br&gt;根据玩家在游戏过程中的抉择，你将进入到不同的剧情分支，同时剧情的表现也将发生重大变化。主角与主角的小徒，都将卷入到这场纷争之中。分支总数多达数十种，想要完整了解游戏中角色以及剧情的来龙去脉，你可以通过这些分支来一窥端倪。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/弹反.gif?t=1679288774" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/游戏特点573_sc.png?t=1679288774" /&gt;&lt;br&gt;● 与众不同的“弹反类”动作游戏，获取极致的“打铁”体验。&lt;br&gt;● 多种结局走向，让您体验到丰富的剧情发展。&lt;br&gt;● 杂糅了写意画、水彩画、油画技法等多种表现手法的国风美术。&lt;br&gt;● 采用了国风漫画式分镜剧情过场。&lt;br&gt;● 抗倭将领、中日海盗、朝廷等诸多势力中的历史人物都将现身。&lt;br&gt;● 物产丰富的各类餐食，在战斗之余领略中式餐食的魅力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/大明.gif?t=1679288774" /&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;游戏内容&lt;/h2&gt;&lt;br&gt;玩家将和少女探员一起前往X地区，调查机器人发动暴力的真相。&lt;br&gt;游戏采用轻度rogue。玩家失败后需要重新开始游戏。玩家战胜敌人可以获得能量，通过在补给商店中兑换补给品，从而提升自己的战斗力。以应对更强大的敌人。&lt;br&gt;在每节关卡中，玩家需要肃清所有敌人才能进入下一节关卡。&lt;br&gt;游戏中包涵数十种不同的枪械与可投掷道具。游戏中敌人组合与排布采用计算机生成与预定义结合。使得每次战斗都需要根据当前的敌人的组合选择不同的打法。&lt;br&gt;游戏中可以解锁前期的三名探员。每名探员具有不同的能力与专长。通过与探员一同作战，可以提高探员初始属性，强化探员的战斗力。&lt;h2 class="bb_tag"&gt;游戏特点&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;游戏采用俯视角射击类型&lt;br&gt;&lt;/li&gt;&lt;li&gt;随机补给商店。让每局挑战事半功倍&lt;br&gt;&lt;/li&gt;&lt;li&gt;玩家可以自由组合搭配枪械、投掷道具与技能完虐敌人&lt;br&gt;&lt;/li&gt;&lt;li&gt;具有挑战的boss战&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;事件背景&lt;/h2&gt;X ROBOT 地区发生机器人暴乱事件，少女探员前往解救被困人员，调查暴乱幕后真凶&lt;h2 class="bb_tag"&gt;少女探员团的成立&lt;/h2&gt;2020年，在一场世界范围的特种兵战斗选拔赛中，来自不同地区数名少女脱颖而出。她们的综合实力突出，被世界网友推荐成立了《少女探员》，向世界各地区中存在的谜团与困局发起挑战。</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>1644960</t>
+          <t>1641450</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>NBA 2K22</t>
+          <t>Listen to the Wind</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>NBA 2K22</t>
+          <t>听风者也</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>体育,篮球,模拟,拟真,多人</t>
+          <t>动作,武术,多结局,选择取向,2D</t>
         </is>
       </c>
       <c r="E881" t="inlineStr">
@@ -37544,39 +37539,39 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>2021年09月10日</t>
+          <t>2021年09月23日</t>
         </is>
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;属于篮球的世界&lt;/h2&gt;《NBA 2K22》将整个篮球世界放到了你手中。开始“快速比赛”，在宛如真实的NBA和WNBA环境中与现实球队和球员展开交手。用现役球星和昔日传奇在“梦幻球队”中构建你专属的梦之队。在“辉煌生涯”中开始你个人的职业生涯，体验从草根到NBA的旅程。还能在“传奇经理”和“终极联盟”中过把高层瘾，展示你的管理水准。《NBA 2K22》：随心所欲。&lt;h2 class="bb_tag"&gt;更上一层楼&lt;/h2&gt;焕然一新的进攻战术，外加全面升级的防御体系，塑造出更富竞争性和沉浸感的《NBA 2K22》。将基于技能的运球、投篮、扣篮和空接动作收入囊中，并在球场的另一端用全新且凶悍的盖帽和争抢针锋相对。&lt;h2 class="bb_tag"&gt;全员登船&lt;/h2&gt;在2K22的全新街区中体验大海遨游之趣。特别针对PC打造。创建完美的自创球员、升级获得奖励，用球技和外表展现自我。&lt;h2 class="bb_tag"&gt;你的梦之队&lt;/h2&gt;在终极NBA梦幻模式《NBA 2K22》梦幻球队中收集、打造并竞争。用横跨所有时代的NBA球星和传奇打造你的专属梦幻阵容，探寻梦幻球队游戏体验的全新进化——新增内容将随每一季不断推出。</t>
+          <t>明朝嘉靖年间，吏治败坏，边事废弛，东南沿海饱受倭寇侵扰。一日，修隐山中多年的主角受托协助官军抗倭。然而在救人退敌的途中，却发现倭寇的入侵并非表面那般简单。是成功破局揭穿祸国奸佞，亦或是功成身退重返山林，决定权在你的手中。随着剧情的展开，朝廷官军、海盗徐海、松浦党等多方势力也牵涉其中。究竟故事会向着哪一个方向发展？更多的秘密等待你前往揭开！&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/开场.gif?t=1679288774" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/反击制敌573_sc.png?t=1679288774" /&gt;&lt;br&gt;游戏中玩家会遭遇到各种势力——既有穷凶极恶的僧兵，也有装备精良的武士，甚至是师出同门的海盗头目。而作为武林中人，胜负往往在毫厘之间。穷追猛打并非取胜之道，仔细观察对手的一招一式，通过精准操作化险为夷，待对手露出破绽之时，即可以行云流水延绵不绝之势主动出击，最终轻松制敌。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/拼刀.gif?t=1679288774" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/歧路抉择573_sc.png?t=1679288774" /&gt;&lt;br&gt;根据玩家在游戏过程中的抉择，你将进入到不同的剧情分支，同时剧情的表现也将发生重大变化。主角与主角的小徒，都将卷入到这场纷争之中。分支总数多达数十种，想要完整了解游戏中角色以及剧情的来龙去脉，你可以通过这些分支来一窥端倪。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/弹反.gif?t=1679288774" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/游戏特点573_sc.png?t=1679288774" /&gt;&lt;br&gt;● 与众不同的“弹反类”动作游戏，获取极致的“打铁”体验。&lt;br&gt;● 多种结局走向，让您体验到丰富的剧情发展。&lt;br&gt;● 杂糅了写意画、水彩画、油画技法等多种表现手法的国风美术。&lt;br&gt;● 采用了国风漫画式分镜剧情过场。&lt;br&gt;● 抗倭将领、中日海盗、朝廷等诸多势力中的历史人物都将现身。&lt;br&gt;● 物产丰富的各类餐食，在战斗之余领略中式餐食的魅力。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1641450/extras/大明.gif?t=1679288774" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>1658310</t>
+          <t>1644960</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Wolf of Stock Street</t>
+          <t>NBA 2K22</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Wolf of Stock Street</t>
+          <t>NBA 2K22</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>Casual,Indie,Strategy</t>
+          <t>体育,篮球,模拟,拟真,多人</t>
         </is>
       </c>
       <c r="E882" t="inlineStr">
@@ -37584,36 +37579,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>2021年10月28日</t>
+          <t>2021年09月10日</t>
         </is>
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2vxk5d2qJx" rel=" noopener" target="_blank"&gt;&lt;/a&gt;&lt;br/&gt;&lt;br/&gt;"To live a decadent life filled with money and women... That's my creed!"&lt;br/&gt;&lt;br/&gt;You are Choball, a swashbuckling futures trader looking to get rich from your high-risk maneuvers and precise market timing. As your net worth increases, you'll begin to find opportunities to seduce beautiful women from your life, or even from your fantasies...&lt;br/&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;An Adult Game for Adults&lt;/h2&gt;What do adults do? They trade stocks, collect dividends, buy futures, cover positions, etc. Don't worry, it’s not hard. Just grab your dick and double-click to get started! Are you adulting yet?&lt;h2 class="bb_tag"&gt;Strategic Trading&lt;/h2&gt;Day trading is all about trends and timing. Nobody knows if a stock is going to go up, down, sideways, or in circles. You'll need to choose the right time to enter and pull out of the market. &lt;br/&gt;&lt;h2 class="bb_tag"&gt;Financial Abilities&lt;/h2&gt;Improve your luck investment skills by unlocking and upgrading various abilities. Gather members for your pump-and-dump investment group and reap the rewards. Become a big player yourself and manipulate the market to your advantage. Day trading doesn't have to be a gamble with these useful skills.&lt;h2 class="bb_tag"&gt;Breaking News&lt;/h2&gt;The stock markets are buffeted this way and that by all sorts of breaking news. Some may make you rich overnight, while others may force you to sell at a loss.&lt;h2 class="bb_tag"&gt;Immersive Characters&lt;/h2&gt;Get to know the girls before you seduce them! Each character comes with a full course of their own introductions, foreplay, and of course, detailed CGs and... all the other irresistibly important content.&lt;br/&gt;&lt;h2 class="bb_tag"&gt;Fully Voiced H-Scenes&lt;/h2&gt;Don't just read her lines, listen to her! The girls' beautiful voices should get a reaction from you, even if you don't understand it!&lt;br/&gt;&lt;h2 class="bb_tag"&gt;One-Handed Operations&lt;/h2&gt;Play with only your mouse. This should be a setup you're familiar with.&lt;/body&gt;&lt;/html&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;属于篮球的世界&lt;/h2&gt;《NBA 2K22》将整个篮球世界放到了你手中。开始“快速比赛”，在宛如真实的NBA和WNBA环境中与现实球队和球员展开交手。用现役球星和昔日传奇在“梦幻球队”中构建你专属的梦之队。在“辉煌生涯”中开始你个人的职业生涯，体验从草根到NBA的旅程。还能在“传奇经理”和“终极联盟”中过把高层瘾，展示你的管理水准。《NBA 2K22》：随心所欲。&lt;h2 class="bb_tag"&gt;更上一层楼&lt;/h2&gt;焕然一新的进攻战术，外加全面升级的防御体系，塑造出更富竞争性和沉浸感的《NBA 2K22》。将基于技能的运球、投篮、扣篮和空接动作收入囊中，并在球场的另一端用全新且凶悍的盖帽和争抢针锋相对。&lt;h2 class="bb_tag"&gt;全员登船&lt;/h2&gt;在2K22的全新街区中体验大海遨游之趣。特别针对PC打造。创建完美的自创球员、升级获得奖励，用球技和外表展现自我。&lt;h2 class="bb_tag"&gt;你的梦之队&lt;/h2&gt;在终极NBA梦幻模式《NBA 2K22》梦幻球队中收集、打造并竞争。用横跨所有时代的NBA球星和传奇打造你的专属梦幻阵容，探寻梦幻球队游戏体验的全新进化——新增内容将随每一季不断推出。</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>1665520</t>
+          <t>1658310</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Fire and Dungeon</t>
+          <t>Wolf of Stock Street</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Fire and Dungeon</t>
+          <t>Wolf of Stock Street</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>探索,电脑角色扮演,角色扮演,不可思议迷宫,懒人游戏</t>
+          <t>Casual,Indie,Strategy</t>
         </is>
       </c>
       <c r="E883" t="inlineStr">
@@ -37623,34 +37623,34 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>2021年06月25日</t>
+          <t>2021年10月28日</t>
         </is>
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>&lt;strong&gt; &lt;i&gt; Fire and Dungeon &lt;/i&gt; &lt;/strong&gt; - turn-based dungeon exploration game with RPG elements.&lt;br&gt;The fire must burn. Burn in the wild, not underground. Born at the bottom of the dungeon, the fire elemental is looking for an exit to the surface. You must go through a dark dungeon, looking for keys to advance further, fight monsters and avoid traps.&lt;br&gt;Don't let the fire in your heart go out and lead young Etna out of these dark labyrinths.&lt;h2 class="bb_tag"&gt; Features of the game: &lt;/h2&gt;-Generating locations.&lt;br&gt;-Dangerous monsters.&lt;br&gt;-Classic JRPG system.&lt;br&gt;-Unrepeatable atmosphere.&lt;br&gt;&lt;br&gt;&lt;i&gt; Become a guide to a new bright world. &lt;/i&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1665520/extras/аруеоре.png?t=1624611803" /&gt;</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;a href="https://steamcommunity.com/linkfilter/?url=https://discord.gg/2vxk5d2qJx" rel=" noopener" target="_blank"&gt;&lt;/a&gt;&lt;br/&gt;&lt;br/&gt;"To live a decadent life filled with money and women... That's my creed!"&lt;br/&gt;&lt;br/&gt;You are Choball, a swashbuckling futures trader looking to get rich from your high-risk maneuvers and precise market timing. As your net worth increases, you'll begin to find opportunities to seduce beautiful women from your life, or even from your fantasies...&lt;br/&gt;&lt;br/&gt;&lt;h2 class="bb_tag"&gt;An Adult Game for Adults&lt;/h2&gt;What do adults do? They trade stocks, collect dividends, buy futures, cover positions, etc. Don't worry, it’s not hard. Just grab your dick and double-click to get started! Are you adulting yet?&lt;h2 class="bb_tag"&gt;Strategic Trading&lt;/h2&gt;Day trading is all about trends and timing. Nobody knows if a stock is going to go up, down, sideways, or in circles. You'll need to choose the right time to enter and pull out of the market. &lt;br/&gt;&lt;h2 class="bb_tag"&gt;Financial Abilities&lt;/h2&gt;Improve your luck investment skills by unlocking and upgrading various abilities. Gather members for your pump-and-dump investment group and reap the rewards. Become a big player yourself and manipulate the market to your advantage. Day trading doesn't have to be a gamble with these useful skills.&lt;h2 class="bb_tag"&gt;Breaking News&lt;/h2&gt;The stock markets are buffeted this way and that by all sorts of breaking news. Some may make you rich overnight, while others may force you to sell at a loss.&lt;h2 class="bb_tag"&gt;Immersive Characters&lt;/h2&gt;Get to know the girls before you seduce them! Each character comes with a full course of their own introductions, foreplay, and of course, detailed CGs and... all the other irresistibly important content.&lt;br/&gt;&lt;h2 class="bb_tag"&gt;Fully Voiced H-Scenes&lt;/h2&gt;Don't just read her lines, listen to her! The girls' beautiful voices should get a reaction from you, even if you don't understand it!&lt;br/&gt;&lt;h2 class="bb_tag"&gt;One-Handed Operations&lt;/h2&gt;Play with only your mouse. This should be a setup you're familiar with.&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>1669980</t>
+          <t>1665520</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Volcano Princess</t>
+          <t>Fire and Dungeon</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>火山的女儿</t>
+          <t>Fire and Dungeon</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>生活模拟,多结局,模拟,动漫,角色扮演</t>
+          <t>探索,电脑角色扮演,角色扮演,不可思议迷宫,懒人游戏</t>
         </is>
       </c>
       <c r="E884" t="inlineStr">
@@ -37658,72 +37658,109 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F884" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>2023年04月21日</t>
+          <t>2021年06月25日</t>
         </is>
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1687768034" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1687768034" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1687768034" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1687768034" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1687768034" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1687768034" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
+          <t>&lt;strong&gt; &lt;i&gt; Fire and Dungeon &lt;/i&gt; &lt;/strong&gt; - turn-based dungeon exploration game with RPG elements.&lt;br&gt;The fire must burn. Burn in the wild, not underground. Born at the bottom of the dungeon, the fire elemental is looking for an exit to the surface. You must go through a dark dungeon, looking for keys to advance further, fight monsters and avoid traps.&lt;br&gt;Don't let the fire in your heart go out and lead young Etna out of these dark labyrinths.&lt;h2 class="bb_tag"&gt; Features of the game: &lt;/h2&gt;-Generating locations.&lt;br&gt;-Dangerous monsters.&lt;br&gt;-Classic JRPG system.&lt;br&gt;-Unrepeatable atmosphere.&lt;br&gt;&lt;br&gt;&lt;i&gt; Become a guide to a new bright world. &lt;/i&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1665520/extras/аруеоре.png?t=1624611803" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>1684146</t>
+          <t>1669980</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>DYNASTY WARRIORS 9 Empires - Scenario/Gems/Ancient Officers Set</t>
-        </is>
-      </c>
-      <c r="D885" t="inlineStr"/>
+          <t>Volcano Princess</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>火山的女儿</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>生活模拟,多结局,模拟,动漫,角色扮演</t>
+        </is>
+      </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>2023年04月21日</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>&lt;strong&gt;欢迎来到「火山的女儿」！&lt;/strong&gt;&lt;br&gt;《火山的女儿》是一款多结局美少女模拟养成游戏，在游戏中，玩家将在剑与魔法、炼金术盛行的火山国抚育女儿不断成长，而你和女儿所做出的决定甚至可能会影响到整个火山国的未来。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn1.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF1.gif?t=1687768034" /&gt;&lt;br&gt;经典中世纪架空背景，在剑与魔法的世界里，将女儿培养成才。你所面对的不仅是女儿成长过程中遇到的各种问题，更要时刻准备应对魔族的挑战。魔族首领“鸮姬”卷土重来之际，不为人知的暗流也在涌动，各种谜团等你揭晓。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn2.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿展示01.jpg?t=1687768034" /&gt;&lt;br&gt;人生道路上的每一次抉择都会改变成长的方向，女儿的每一次决定也势必会导向不一样的结局。游戏将提供给玩家超过50个可选结局，情感结局与职业结局完全分离，其中感情结局数量有12个以上，可攻略男女角色均为5人以上。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn3.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/女儿GIF2.gif?t=1687768034" /&gt;&lt;br&gt;游戏中准备了多条养成路线，以及数十种养成方式和小游戏，种植、烹饪、钓鱼、骰子游戏、决斗、剧院、舞会、赛马、暗巷等等，玩家可以根据自己的喜好来对女儿进行培养。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn4.png?t=1687768034" /&gt;&lt;br&gt;成为王国骑士，探索危险的迷宫，采用经典回合制战斗，与你的伙伴一起击败阻挡在面前的所有敌人。面对魔族的进逼，唯有击败枭姬才可以拯救整个火山国。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn5.png?t=1687768034" /&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/4_NPC.jpg?t=1687768034" /&gt;&lt;br&gt;火山国居住着各色各样的居民，他们会陪伴着女儿一同成长，在成长的过程中，女儿会与这些居民进行交流，从而产生不一样的感情与羁绊。随着时间流逝，点滴的情感终将汇聚到一起，形成令人难以忘怀的回忆。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1669980/extras/newcn6.png?t=1687768034" /&gt;&lt;br&gt;特邀日本知名声优中原麻衣（《寒蝉鸣泣之时》龙宫礼奈、《CLANNAD》古河渚）为日文版女儿配音，相信会给你带来不一样的体验。&lt;br&gt;&lt;br&gt;&lt;strong&gt;关于养蛋人工作室&lt;/strong&gt;&lt;br&gt;大家好！感谢大家一直以来对《火山的女儿》的支持与厚爱，养蛋人工作室是由2名来自北京的女生组成的超超超超小型工作室~作为工作室开发的第一款游戏，《火山的女儿》如同“女儿”一般，我们对她倾注了极大的热情和精力。历经三年时间，我们见证了她从呱呱坠地，到牙牙学语，从蹒跚学步，再到如今终于要和所有玩家见面了，希望大家都会喜欢她。</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
+          <t>1684146</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>DYNASTY WARRIORS 9 Empires - Scenario/Gems/Ancient Officers Set</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
           <t>1684147</t>
         </is>
       </c>
-      <c r="B886" t="inlineStr">
+      <c r="B887" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Season Pass</t>
         </is>
       </c>
-      <c r="C886" t="inlineStr">
+      <c r="C887" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 季票</t>
         </is>
       </c>
-      <c r="D886" t="inlineStr">
+      <c r="D887" t="inlineStr">
         <is>
           <t>动作,模拟,策略</t>
         </is>
       </c>
-      <c r="E886" t="inlineStr">
+      <c r="E887" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G886" t="inlineStr">
+      <c r="G887" t="inlineStr">
         <is>
           <t>2021年12月23日</t>
         </is>
       </c>
-      <c r="H886" t="inlineStr">
+      <c r="H887" t="inlineStr">
         <is>
           <t>※另有包含本商品的组合商品，请勿重复购买。&lt;br /&gt;
 ※季票中所含的下载包亦将单独贩售，请勿重复购买。&lt;br /&gt;
@@ -37749,38 +37786,38 @@
         </is>
       </c>
     </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
+    <row r="888">
+      <c r="A888" t="inlineStr">
         <is>
           <t>1684148</t>
         </is>
       </c>
-      <c r="B887" t="inlineStr">
+      <c r="B888" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Azure Dragon Armor Set</t>
         </is>
       </c>
-      <c r="C887" t="inlineStr">
+      <c r="C888" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“青龙甲套装”</t>
         </is>
       </c>
-      <c r="D887" t="inlineStr">
+      <c r="D888" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E887" t="inlineStr">
+      <c r="E888" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G887" t="inlineStr">
+      <c r="G888" t="inlineStr">
         <is>
           <t>2022年01月06日</t>
         </is>
       </c>
-      <c r="H887" t="inlineStr">
+      <c r="H888" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“青龙甲套装&amp;quot;。&lt;br /&gt;
@@ -37793,38 +37830,38 @@
         </is>
       </c>
     </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
+    <row r="889">
+      <c r="A889" t="inlineStr">
         <is>
           <t>1684149</t>
         </is>
       </c>
-      <c r="B888" t="inlineStr">
+      <c r="B889" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom White Tiger Armor Set</t>
         </is>
       </c>
-      <c r="C888" t="inlineStr">
+      <c r="C889" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“白虎甲套装”</t>
         </is>
       </c>
-      <c r="D888" t="inlineStr">
+      <c r="D889" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E888" t="inlineStr">
+      <c r="E889" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G888" t="inlineStr">
+      <c r="G889" t="inlineStr">
         <is>
           <t>2022年01月06日</t>
         </is>
       </c>
-      <c r="H888" t="inlineStr">
+      <c r="H889" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“白虎甲套装&amp;quot;。&lt;br /&gt;
@@ -37837,38 +37874,38 @@
         </is>
       </c>
     </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
+    <row r="890">
+      <c r="A890" t="inlineStr">
         <is>
           <t>1684150</t>
         </is>
       </c>
-      <c r="B889" t="inlineStr">
+      <c r="B890" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Vermilion Bird Armor Set</t>
         </is>
       </c>
-      <c r="C889" t="inlineStr">
+      <c r="C890" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“朱雀甲套装”</t>
         </is>
       </c>
-      <c r="D889" t="inlineStr">
+      <c r="D890" t="inlineStr">
         <is>
           <t>动作,模拟,策略</t>
         </is>
       </c>
-      <c r="E889" t="inlineStr">
+      <c r="E890" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G889" t="inlineStr">
+      <c r="G890" t="inlineStr">
         <is>
           <t>2022年01月06日</t>
         </is>
       </c>
-      <c r="H889" t="inlineStr">
+      <c r="H890" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“朱雀甲套装&amp;quot;。&lt;br /&gt;
@@ -37881,38 +37918,38 @@
         </is>
       </c>
     </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
+    <row r="891">
+      <c r="A891" t="inlineStr">
         <is>
           <t>1684151</t>
         </is>
       </c>
-      <c r="B890" t="inlineStr">
+      <c r="B891" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Black Tortoise Armor Set</t>
         </is>
       </c>
-      <c r="C890" t="inlineStr">
+      <c r="C891" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“玄武甲套装”</t>
         </is>
       </c>
-      <c r="D890" t="inlineStr">
+      <c r="D891" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E890" t="inlineStr">
+      <c r="E891" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G890" t="inlineStr">
+      <c r="G891" t="inlineStr">
         <is>
           <t>2022年01月06日</t>
         </is>
       </c>
-      <c r="H890" t="inlineStr">
+      <c r="H891" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“玄武甲套装&amp;quot;。&lt;br /&gt;
@@ -37925,38 +37962,38 @@
         </is>
       </c>
     </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
+    <row r="892">
+      <c r="A892" t="inlineStr">
         <is>
           <t>1684152</t>
         </is>
       </c>
-      <c r="B891" t="inlineStr">
+      <c r="B892" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Far Eastern Palace</t>
         </is>
       </c>
-      <c r="C891" t="inlineStr">
+      <c r="C892" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 和风大殿</t>
         </is>
       </c>
-      <c r="D891" t="inlineStr">
+      <c r="D892" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E891" t="inlineStr">
+      <c r="E892" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G891" t="inlineStr">
+      <c r="G892" t="inlineStr">
         <is>
           <t>2022年01月13日</t>
         </is>
       </c>
-      <c r="H891" t="inlineStr">
+      <c r="H892" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加追加宫城“和风大殿”。&lt;br /&gt;
@@ -37968,38 +38005,38 @@
         </is>
       </c>
     </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
+    <row r="893">
+      <c r="A893" t="inlineStr">
         <is>
           <t>1684153</t>
         </is>
       </c>
-      <c r="B892" t="inlineStr">
+      <c r="B893" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Panda Palace</t>
         </is>
       </c>
-      <c r="C892" t="inlineStr">
+      <c r="C893" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 熊猫竹林殿</t>
         </is>
       </c>
-      <c r="D892" t="inlineStr">
+      <c r="D893" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E892" t="inlineStr">
+      <c r="E893" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G892" t="inlineStr">
+      <c r="G893" t="inlineStr">
         <is>
           <t>2022年01月13日</t>
         </is>
       </c>
-      <c r="H892" t="inlineStr">
+      <c r="H893" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加追加宫城“熊猫竹林殿”。&lt;br /&gt;
@@ -38011,38 +38048,38 @@
         </is>
       </c>
     </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
+    <row r="894">
+      <c r="A894" t="inlineStr">
         <is>
           <t>1684154</t>
         </is>
       </c>
-      <c r="B893" t="inlineStr">
+      <c r="B894" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - School Gymnasium</t>
         </is>
       </c>
-      <c r="C893" t="inlineStr">
+      <c r="C894" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 学园体育馆</t>
         </is>
       </c>
-      <c r="D893" t="inlineStr">
+      <c r="D894" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E893" t="inlineStr">
+      <c r="E894" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G893" t="inlineStr">
+      <c r="G894" t="inlineStr">
         <is>
           <t>2022年01月13日</t>
         </is>
       </c>
-      <c r="H893" t="inlineStr">
+      <c r="H894" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加追加宫城“学园体育馆”。&lt;br /&gt;
@@ -38054,38 +38091,38 @@
         </is>
       </c>
     </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
+    <row r="895">
+      <c r="A895" t="inlineStr">
         <is>
           <t>1684155</t>
         </is>
       </c>
-      <c r="B894" t="inlineStr">
+      <c r="B895" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Male Custom Ogre God Set &amp; Female Custom Fu Hao Set</t>
         </is>
       </c>
-      <c r="C894" t="inlineStr">
+      <c r="C895" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男性用自建“鬼神套装”＆女性用自建“妇好套装”</t>
         </is>
       </c>
-      <c r="D894" t="inlineStr">
+      <c r="D895" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E894" t="inlineStr">
+      <c r="E895" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G894" t="inlineStr">
+      <c r="G895" t="inlineStr">
         <is>
           <t>2022年01月20日</t>
         </is>
       </c>
-      <c r="H894" t="inlineStr">
+      <c r="H895" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加以下自建部件套装：&lt;br /&gt;
@@ -38101,38 +38138,38 @@
         </is>
       </c>
     </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
+    <row r="896">
+      <c r="A896" t="inlineStr">
         <is>
           <t>1684156</t>
         </is>
       </c>
-      <c r="B895" t="inlineStr">
+      <c r="B896" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Male Custom Regal Set &amp; Female Custom Empress Dowager Set</t>
         </is>
       </c>
-      <c r="C895" t="inlineStr">
+      <c r="C896" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男性用自建“华卿云客套装”＆女性用自建“丽太后套装”</t>
         </is>
       </c>
-      <c r="D895" t="inlineStr">
+      <c r="D896" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E895" t="inlineStr">
+      <c r="E896" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G895" t="inlineStr">
+      <c r="G896" t="inlineStr">
         <is>
           <t>2022年01月20日</t>
         </is>
       </c>
-      <c r="H895" t="inlineStr">
+      <c r="H896" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加以下自建部件套装：&lt;br /&gt;
@@ -38148,38 +38185,38 @@
         </is>
       </c>
     </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
+    <row r="897">
+      <c r="A897" t="inlineStr">
         <is>
           <t>1684157</t>
         </is>
       </c>
-      <c r="B896" t="inlineStr">
+      <c r="B897" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Cunning Concealment Set</t>
         </is>
       </c>
-      <c r="C896" t="inlineStr">
+      <c r="C897" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“透破浸透套装”</t>
         </is>
       </c>
-      <c r="D896" t="inlineStr">
+      <c r="D897" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E896" t="inlineStr">
+      <c r="E897" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G896" t="inlineStr">
+      <c r="G897" t="inlineStr">
         <is>
           <t>2022年01月20日</t>
         </is>
       </c>
-      <c r="H896" t="inlineStr">
+      <c r="H897" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“透破浸透套装&amp;quot;。&lt;br /&gt;
@@ -38192,38 +38229,38 @@
         </is>
       </c>
     </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
+    <row r="898">
+      <c r="A898" t="inlineStr">
         <is>
           <t>1684158</t>
         </is>
       </c>
-      <c r="B897" t="inlineStr">
+      <c r="B898" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Fox Costume Set</t>
         </is>
       </c>
-      <c r="C897" t="inlineStr">
+      <c r="C898" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“狐狸仿装套装”</t>
         </is>
       </c>
-      <c r="D897" t="inlineStr">
+      <c r="D898" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E897" t="inlineStr">
+      <c r="E898" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G897" t="inlineStr">
+      <c r="G898" t="inlineStr">
         <is>
           <t>2022年01月27日</t>
         </is>
       </c>
-      <c r="H897" t="inlineStr">
+      <c r="H898" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“狐狸仿装套装&amp;quot;。&lt;br /&gt;
@@ -38236,38 +38273,38 @@
         </is>
       </c>
     </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
+    <row r="899">
+      <c r="A899" t="inlineStr">
         <is>
           <t>1684159</t>
         </is>
       </c>
-      <c r="B898" t="inlineStr">
+      <c r="B899" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Panda Costume Set</t>
         </is>
       </c>
-      <c r="C898" t="inlineStr">
+      <c r="C899" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“熊猫变装套装”</t>
         </is>
       </c>
-      <c r="D898" t="inlineStr">
+      <c r="D899" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E898" t="inlineStr">
+      <c r="E899" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G898" t="inlineStr">
+      <c r="G899" t="inlineStr">
         <is>
           <t>2022年01月27日</t>
         </is>
       </c>
-      <c r="H898" t="inlineStr">
+      <c r="H899" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“熊猫变装套装&amp;quot;。&lt;br /&gt;
@@ -38280,38 +38317,38 @@
         </is>
       </c>
     </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
+    <row r="900">
+      <c r="A900" t="inlineStr">
         <is>
           <t>1684160</t>
         </is>
       </c>
-      <c r="B899" t="inlineStr">
+      <c r="B900" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Angelic Armor Set</t>
         </is>
       </c>
-      <c r="C899" t="inlineStr">
+      <c r="C900" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“天使铠甲套装”</t>
         </is>
       </c>
-      <c r="D899" t="inlineStr">
+      <c r="D900" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E899" t="inlineStr">
+      <c r="E900" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G899" t="inlineStr">
+      <c r="G900" t="inlineStr">
         <is>
           <t>2022年01月27日</t>
         </is>
       </c>
-      <c r="H899" t="inlineStr">
+      <c r="H900" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“天使铠甲套装&amp;quot;。&lt;br /&gt;
@@ -38324,38 +38361,38 @@
         </is>
       </c>
     </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
+    <row r="901">
+      <c r="A901" t="inlineStr">
         <is>
           <t>1684161</t>
         </is>
       </c>
-      <c r="B900" t="inlineStr">
+      <c r="B901" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Demonic Armor Set</t>
         </is>
       </c>
-      <c r="C900" t="inlineStr">
+      <c r="C901" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“恶魔铠甲套装”</t>
         </is>
       </c>
-      <c r="D900" t="inlineStr">
+      <c r="D901" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E900" t="inlineStr">
+      <c r="E901" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G900" t="inlineStr">
+      <c r="G901" t="inlineStr">
         <is>
           <t>2022年01月27日</t>
         </is>
       </c>
-      <c r="H900" t="inlineStr">
+      <c r="H901" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“恶魔铠甲套装&amp;quot;。&lt;br /&gt;
@@ -38368,38 +38405,38 @@
         </is>
       </c>
     </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
+    <row r="902">
+      <c r="A902" t="inlineStr">
         <is>
           <t>1684162</t>
         </is>
       </c>
-      <c r="B901" t="inlineStr">
+      <c r="B902" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Dream Fortress</t>
         </is>
       </c>
-      <c r="C901" t="inlineStr">
+      <c r="C902" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 幻想城堡</t>
         </is>
       </c>
-      <c r="D901" t="inlineStr">
+      <c r="D902" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E901" t="inlineStr">
+      <c r="E902" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G901" t="inlineStr">
+      <c r="G902" t="inlineStr">
         <is>
           <t>2022年02月03日</t>
         </is>
       </c>
-      <c r="H901" t="inlineStr">
+      <c r="H902" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加追加宫城“幻想城堡”。&lt;br /&gt;
@@ -38411,38 +38448,38 @@
         </is>
       </c>
     </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
+    <row r="903">
+      <c r="A903" t="inlineStr">
         <is>
           <t>1684163</t>
         </is>
       </c>
-      <c r="B902" t="inlineStr">
+      <c r="B903" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Idol Stage</t>
         </is>
       </c>
-      <c r="C902" t="inlineStr">
+      <c r="C903" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 偶像舞台</t>
         </is>
       </c>
-      <c r="D902" t="inlineStr">
+      <c r="D903" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E902" t="inlineStr">
+      <c r="E903" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G902" t="inlineStr">
+      <c r="G903" t="inlineStr">
         <is>
           <t>2022年02月03日</t>
         </is>
       </c>
-      <c r="H902" t="inlineStr">
+      <c r="H903" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加追加宫城“偶像舞台”。&lt;br /&gt;
@@ -38454,38 +38491,38 @@
         </is>
       </c>
     </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
+    <row r="904">
+      <c r="A904" t="inlineStr">
         <is>
           <t>1684164</t>
         </is>
       </c>
-      <c r="B903" t="inlineStr">
+      <c r="B904" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Male Custom Heretic Set &amp; Female Custom Sage Set</t>
         </is>
       </c>
-      <c r="C903" t="inlineStr">
+      <c r="C904" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男性用自建“左道套装”＆女性用自建“导师套装”</t>
         </is>
       </c>
-      <c r="D903" t="inlineStr">
+      <c r="D904" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E903" t="inlineStr">
+      <c r="E904" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G903" t="inlineStr">
+      <c r="G904" t="inlineStr">
         <is>
           <t>2022年02月10日</t>
         </is>
       </c>
-      <c r="H903" t="inlineStr">
+      <c r="H904" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 追加以下自建部件套装：&lt;br /&gt;
@@ -38501,38 +38538,38 @@
         </is>
       </c>
     </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
+    <row r="905">
+      <c r="A905" t="inlineStr">
         <is>
           <t>1684165</t>
         </is>
       </c>
-      <c r="B904" t="inlineStr">
+      <c r="B905" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Steel Set</t>
         </is>
       </c>
-      <c r="C904" t="inlineStr">
+      <c r="C905" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“雀光套装”</t>
         </is>
       </c>
-      <c r="D904" t="inlineStr">
+      <c r="D905" t="inlineStr">
         <is>
           <t>策略,动作,模拟</t>
         </is>
       </c>
-      <c r="E904" t="inlineStr">
+      <c r="E905" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G904" t="inlineStr">
+      <c r="G905" t="inlineStr">
         <is>
           <t>2022年02月10日</t>
         </is>
       </c>
-      <c r="H904" t="inlineStr">
+      <c r="H905" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“雀光套装&amp;quot;。&lt;br /&gt;
@@ -38545,38 +38582,38 @@
         </is>
       </c>
     </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
+    <row r="906">
+      <c r="A906" t="inlineStr">
         <is>
           <t>1684166</t>
         </is>
       </c>
-      <c r="B905" t="inlineStr">
+      <c r="B906" t="inlineStr">
         <is>
           <t>DYNASTY WARRIORS 9 Empires - Unisex Custom Dragoon Set</t>
         </is>
       </c>
-      <c r="C905" t="inlineStr">
+      <c r="C906" t="inlineStr">
         <is>
           <t>真・三国无双８ 帝国 - 男女用自建“龙骑兵套装”</t>
         </is>
       </c>
-      <c r="D905" t="inlineStr">
+      <c r="D906" t="inlineStr">
         <is>
           <t>动作,模拟,策略</t>
         </is>
       </c>
-      <c r="E905" t="inlineStr">
+      <c r="E906" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G905" t="inlineStr">
+      <c r="G906" t="inlineStr">
         <is>
           <t>2022年02月10日</t>
         </is>
       </c>
-      <c r="H905" t="inlineStr">
+      <c r="H906" t="inlineStr">
         <is>
           <t>■内容&lt;br /&gt;
 男女性用自建部件中追加“龙骑兵套装&amp;quot;。&lt;br /&gt;
@@ -38589,38 +38626,38 @@
         </is>
       </c>
     </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
+    <row r="907">
+      <c r="A907" t="inlineStr">
         <is>
           <t>1685030</t>
         </is>
       </c>
-      <c r="B906" t="inlineStr">
+      <c r="B907" t="inlineStr">
         <is>
           <t>Pop This Pop-It</t>
         </is>
       </c>
-      <c r="C906" t="inlineStr">
+      <c r="C907" t="inlineStr">
         <is>
           <t>Pop This Pop-It</t>
         </is>
       </c>
-      <c r="D906" t="inlineStr">
+      <c r="D907" t="inlineStr">
         <is>
           <t>动作,点击游戏,节奏,独立,2D</t>
         </is>
       </c>
-      <c r="E906" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G906" t="inlineStr">
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G907" t="inlineStr">
         <is>
           <t>2021年08月07日</t>
         </is>
       </c>
-      <c r="H906" t="inlineStr">
+      <c r="H907" t="inlineStr">
         <is>
           <t>Fight off the waves of Pop-it, pop bubbles in time and accumulate bonuses while the music plays!&lt;br /&gt;
 &lt;br /&gt;
@@ -38633,62 +38670,25 @@
         </is>
       </c>
     </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>1685880</t>
-        </is>
-      </c>
-      <c r="B907" t="inlineStr">
-        <is>
-          <t>Neko Puzzle</t>
-        </is>
-      </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>Neko Puzzle</t>
-        </is>
-      </c>
-      <c r="D907" t="inlineStr">
-        <is>
-          <t>Indie</t>
-        </is>
-      </c>
-      <c r="E907" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G907" t="inlineStr">
-        <is>
-          <t>2021年07月26日</t>
-        </is>
-      </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;Neko Puzzle is a puzzle game, the ultimate goal of which is to swap the blocks to collect the image.&lt;br/&gt;But remember, the purpose of this game is to let you relax and enjoy the process.&lt;br/&gt;To do this, we added a minimalistic interface and relaxing music.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Features:&lt;br/&gt;- Beautiful CG art.&lt;br/&gt;- Interesting Puzzle puzzles.&lt;br/&gt;- Nice music.&lt;/body&gt;&lt;/html&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>1702330</t>
+          <t>1685880</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Rune Factory 5</t>
+          <t>Neko Puzzle</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>符文工厂5</t>
+          <t>Neko Puzzle</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>角色扮演,农场模拟,冒险,爱情,模拟</t>
+          <t>Indie</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
@@ -38696,54 +38696,91 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F908" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>2022年07月14日</t>
+          <t>2021年07月26日</t>
         </is>
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;◆在幻想世界中享受冒险和生活的RPG&lt;/h2&gt;一边过着与镇上的居民们相互交流、谈情说爱、开田种地、钓鱼采集的日子，一边手持武器、使用魔法，展开宏大的冒险。是一款充满游玩要素的幻想RPG。&lt;br&gt;第一次玩的人也能很快沉浸到游戏中，就算没玩过系列作品，也值得尝试。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702330/extras/RF5_Store_Combat.gif?t=1683330626" /&gt;&lt;h2 class="bb_tag"&gt;◆成为警卫组织Seed的一员进行冒险！&lt;/h2&gt;丧失记忆的主角来到了充满大自然气息的小镇里格巴斯，成为保护小镇的警卫组织Seed的一员，与同伴们一起展开宏大的冒险。&lt;br&gt;维持人类与大自然平衡的力量“符文”，里格巴斯发生了多起与符文相关的奇异事件。和平的小镇中潜藏的黑暗阴谋到底是！？&lt;h2 class="bb_tag"&gt;◆与同伴一起战斗！&lt;/h2&gt;最多可以带3名关系良好的小镇居民或者成为同伴的魔物一起进行冒险。&lt;br&gt;使用与小镇居民配合的“协力技”或全新动作“Seed圆环”等方法，挑战强大的敌人吧！&lt;h2 class="bb_tag"&gt;◆与小镇居民快乐的每天，进而恋爱·结婚！&lt;/h2&gt;在里格巴斯镇的田地里种植蔬菜和水果，在河边悠闲地钓鱼，在与小镇居民的交流中享受生活吧！&lt;br&gt;发现中意的人不仅可以恋爱、约会、结婚，还会诞生可爱的孩子。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702330/extras/RF5_Store_Farm.gif?t=1683330626" /&gt;</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;Neko Puzzle is a puzzle game, the ultimate goal of which is to swap the blocks to collect the image.&lt;br/&gt;But remember, the purpose of this game is to let you relax and enjoy the process.&lt;br/&gt;To do this, we added a minimalistic interface and relaxing music.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Features:&lt;br/&gt;- Beautiful CG art.&lt;br/&gt;- Interesting Puzzle puzzles.&lt;br/&gt;- Nice music.&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
+          <t>1702330</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Rune Factory 5</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>符文工厂5</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>角色扮演,农场模拟,冒险,爱情,模拟</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>2022年07月14日</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>&lt;h2 class="bb_tag"&gt;◆在幻想世界中享受冒险和生活的RPG&lt;/h2&gt;一边过着与镇上的居民们相互交流、谈情说爱、开田种地、钓鱼采集的日子，一边手持武器、使用魔法，展开宏大的冒险。是一款充满游玩要素的幻想RPG。&lt;br&gt;第一次玩的人也能很快沉浸到游戏中，就算没玩过系列作品，也值得尝试。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702330/extras/RF5_Store_Combat.gif?t=1683330626" /&gt;&lt;h2 class="bb_tag"&gt;◆成为警卫组织Seed的一员进行冒险！&lt;/h2&gt;丧失记忆的主角来到了充满大自然气息的小镇里格巴斯，成为保护小镇的警卫组织Seed的一员，与同伴们一起展开宏大的冒险。&lt;br&gt;维持人类与大自然平衡的力量“符文”，里格巴斯发生了多起与符文相关的奇异事件。和平的小镇中潜藏的黑暗阴谋到底是！？&lt;h2 class="bb_tag"&gt;◆与同伴一起战斗！&lt;/h2&gt;最多可以带3名关系良好的小镇居民或者成为同伴的魔物一起进行冒险。&lt;br&gt;使用与小镇居民配合的“协力技”或全新动作“Seed圆环”等方法，挑战强大的敌人吧！&lt;h2 class="bb_tag"&gt;◆与小镇居民快乐的每天，进而恋爱·结婚！&lt;/h2&gt;在里格巴斯镇的田地里种植蔬菜和水果，在河边悠闲地钓鱼，在与小镇居民的交流中享受生活吧！&lt;br&gt;发现中意的人不仅可以恋爱、约会、结婚，还会诞生可爱的孩子。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1702330/extras/RF5_Store_Farm.gif?t=1683330626" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
           <t>1707550</t>
         </is>
       </c>
-      <c r="B909" t="inlineStr">
+      <c r="B910" t="inlineStr">
         <is>
           <t>Granny 3</t>
         </is>
       </c>
-      <c r="C909" t="inlineStr">
+      <c r="C910" t="inlineStr">
         <is>
           <t>Granny 3</t>
         </is>
       </c>
-      <c r="D909" t="inlineStr">
+      <c r="D910" t="inlineStr">
         <is>
           <t>冒险,第一人称,动作,解谜,喜剧</t>
         </is>
       </c>
-      <c r="E909" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G909" t="inlineStr">
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G910" t="inlineStr">
         <is>
           <t>2021年08月22日</t>
         </is>
       </c>
-      <c r="H909" t="inlineStr">
+      <c r="H910" t="inlineStr">
         <is>
           <t>Welcome to Granny 3.&lt;br /&gt;
 &lt;br /&gt;
@@ -38774,79 +38811,25 @@
         </is>
       </c>
     </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>1715130</t>
-        </is>
-      </c>
-      <c r="B910" t="inlineStr">
-        <is>
-          <t>Crysis Remastered</t>
-        </is>
-      </c>
-      <c r="C910" t="inlineStr">
-        <is>
-          <t>孤岛危机重制版</t>
-        </is>
-      </c>
-      <c r="D910" t="inlineStr">
-        <is>
-          <t>动作,射击,第一人称射击,科幻,沙盒</t>
-        </is>
-      </c>
-      <c r="E910" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F910" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="G910" t="inlineStr">
-        <is>
-          <t>2021年09月17日</t>
-        </is>
-      </c>
-      <c r="H910" t="inlineStr">
-        <is>
-          <t>来自Crytek的经典第一人称射击游戏回来了：内容丰富的玩法，沙盒世界，你起初喜欢上的惊心动魄的史诗战斗——还有为新一代硬件优化的重置画面。&lt;br /&gt;
-&lt;br /&gt;
-一个简单的救援任务变成了新战争的战场，外星侵略者在Lingshan岛链上蜂拥而至。装备着强大的纳米服，玩家可以隐形跟踪敌人的巡逻队，或者增强力量摧毁车辆。纳米服的速度、强度、护甲和隐身能力为每一种战斗提供创意解决方案；巨大的模块化武器库提供了对游戏风格前所未有的掌控。在巨大的沙盒世界不断变化的环境中，调整战术和装备来支配你的敌人。&lt;br /&gt;
-&lt;br /&gt;
-武装：  你的纳米服的速度、强度、护甲和隐身能力为每一种战斗提供创意解决方案。 &lt;br /&gt;
-&lt;br /&gt;
-适应：在不断变化的环境中，从冰冻森林到外星环境，调整你的战术来统治战场。&lt;br /&gt;
-&lt;br /&gt;
-定制：  巨大的模块化武器库，从实验性到外星武器，提供了对游戏风格前所未有的把控。 &lt;br /&gt;
-&lt;br /&gt;
-征服：  逼真的敌人AI需要战略和灵活的游戏风格，因为新的挑战——包括零重力战场——要求玩家积极主动采取攻势。&lt;br /&gt;
-&lt;br /&gt;
-探索：在孤岛危机的开放世界中选择你自己的道路，摧毁障碍，驾驶车辆，利用环境本身来对付你的敌人。</t>
-        </is>
-      </c>
-    </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>1717410</t>
+          <t>1715130</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Prince of Qin</t>
+          <t>Crysis Remastered</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>秦殇（英文版）</t>
+          <t>孤岛危机重制版</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>探索,角色扮演,战术角色扮演,动作,动作角色扮演</t>
+          <t>动作,射击,第一人称射击,科幻,沙盒</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
@@ -38854,36 +38837,53 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
       <c r="G911" t="inlineStr">
         <is>
-          <t>2021年10月27日</t>
+          <t>2021年09月17日</t>
         </is>
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Prince of Qin is an action RPG that blends fighting and strategic elements in a voyage through the ancient Qin Dynasty. Meet over 70 NPCs based on real historical characters in over 100 different settings including the Great Wall of China and the Terracotta Warriors Tomb. Use a variety of weapons, equipment and abilities to fight for your cause and search for the treasure that will bring you closer to the Emperor's throne.</t>
+          <t>来自Crytek的经典第一人称射击游戏回来了：内容丰富的玩法，沙盒世界，你起初喜欢上的惊心动魄的史诗战斗——还有为新一代硬件优化的重置画面。&lt;br /&gt;
+&lt;br /&gt;
+一个简单的救援任务变成了新战争的战场，外星侵略者在Lingshan岛链上蜂拥而至。装备着强大的纳米服，玩家可以隐形跟踪敌人的巡逻队，或者增强力量摧毁车辆。纳米服的速度、强度、护甲和隐身能力为每一种战斗提供创意解决方案；巨大的模块化武器库提供了对游戏风格前所未有的掌控。在巨大的沙盒世界不断变化的环境中，调整战术和装备来支配你的敌人。&lt;br /&gt;
+&lt;br /&gt;
+武装：  你的纳米服的速度、强度、护甲和隐身能力为每一种战斗提供创意解决方案。 &lt;br /&gt;
+&lt;br /&gt;
+适应：在不断变化的环境中，从冰冻森林到外星环境，调整你的战术来统治战场。&lt;br /&gt;
+&lt;br /&gt;
+定制：  巨大的模块化武器库，从实验性到外星武器，提供了对游戏风格前所未有的把控。 &lt;br /&gt;
+&lt;br /&gt;
+征服：  逼真的敌人AI需要战略和灵活的游戏风格，因为新的挑战——包括零重力战场——要求玩家积极主动采取攻势。&lt;br /&gt;
+&lt;br /&gt;
+探索：在孤岛危机的开放世界中选择你自己的道路，摧毁障碍，驾驶车辆，利用环境本身来对付你的敌人。</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>1732190</t>
+          <t>1717410</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>FATAL FRAME / PROJECT ZERO: Maiden of Black Water</t>
+          <t>Prince of Qin</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>零 ～濡鸦之巫女～</t>
+          <t>秦殇（英文版）</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>女性主角,成人,心理恐怖,悬疑,单人</t>
+          <t>探索,角色扮演,战术角色扮演,动作,动作角色扮演</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
@@ -38891,41 +38891,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F912" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
       <c r="G912" t="inlineStr">
         <is>
-          <t>2021年10月28日</t>
+          <t>2021年10月27日</t>
         </is>
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>为纪念手持能够封印怨灵的器械 -- “射影机”、步入谜团的和风恐怖冒险游戏“零系列”之20周年，《零 ～濡鸦之巫女～》于Steam隆重登场。&lt;br&gt;&lt;br&gt;“故事”&lt;br&gt;曾经被敬奉为灵场的“日上山”。&lt;br&gt;在那座山上，流传着把“水”奉为神体的特殊信仰与风俗，还传说曾发生过不少凄惨事件和神秘现象。&lt;br&gt;本故事是以有着“迎接死亡的降临”之称的“日上山”为舞台，由不来方夕莉、放生莲、雏咲深羽3人组成的怪异幻想谭。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/10.png?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“游戏介绍”&lt;br&gt;玩家手持能封印怨灵的器械 -- “射影机”，深入围绕“日上山”的奇异习俗与事件谜团之中。&lt;br&gt;故事以“任务”划分，通过在各任务中操作不同的主人公来推进故事的发展。&lt;br&gt;&lt;br&gt;运用手中的射影机进行拍摄，以此封印并击退袭来的怨灵。&lt;br&gt;此外，射影机能够拍到“看不见的物体”，也能够获得寻找失物的线索。&lt;br&gt;&lt;br&gt;利用射影机各种各样的能力进行调查，来解开长眠于日上山的谜团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/13.jpg?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“对比原版的新要素”&lt;br&gt;・提高画面分辨率&lt;br&gt;・新服装、饰品&lt;br&gt;・配置角色与怨灵，将喜爱的画面拍摄为照片的“拍照模式”&lt;br&gt;・“怨灵列表”的扩展&lt;br&gt;・追加新操作模式&lt;br&gt;等等&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/15.jpg?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;※包含游戏正篇的组合商品《零 ～濡鸦之巫女～ 数位豪华版》也在贩售中，请在购买时留意。</t>
+          <t>Prince of Qin is an action RPG that blends fighting and strategic elements in a voyage through the ancient Qin Dynasty. Meet over 70 NPCs based on real historical characters in over 100 different settings including the Great Wall of China and the Terracotta Warriors Tomb. Use a variety of weapons, equipment and abilities to fight for your cause and search for the treasure that will bring you closer to the Emperor's throne.</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>1733310</t>
+          <t>1732190</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>One Fateful Night</t>
+          <t>FATAL FRAME / PROJECT ZERO: Maiden of Black Water</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>One Fateful Night</t>
+          <t>零 ～濡鸦之巫女～</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>动作,冒险,动作冒险,解谜,探索</t>
+          <t>女性主角,成人,心理恐怖,悬疑,单人</t>
         </is>
       </c>
       <c r="E913" t="inlineStr">
@@ -38933,40 +38928,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>2021年09月20日</t>
+          <t>2021年10月28日</t>
         </is>
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>One Fateful Night is a first person horror game where the player is meant to explore the area and uncover the story of this mysterious research facility. Use things you find to try and survive and discover the multiple endings that await you.&lt;br /&gt;
-&lt;br /&gt;
-One Fateful Night follows the story of Steven who has broken into a research facility that has shown up seemingly overnight but while investigating he finds that he may have gotten into more trouble than he can handle. While trapped inside, attempt to find answers and learn what has really been going on inside the facility. Most importantly, use anything you can find to survive and escape with your life.&lt;br /&gt;
-&lt;br /&gt;
-There are a few distinct endings to the game and it will take exploration to find each and every one.</t>
+          <t>为纪念手持能够封印怨灵的器械 -- “射影机”、步入谜团的和风恐怖冒险游戏“零系列”之20周年，《零 ～濡鸦之巫女～》于Steam隆重登场。&lt;br&gt;&lt;br&gt;“故事”&lt;br&gt;曾经被敬奉为灵场的“日上山”。&lt;br&gt;在那座山上，流传着把“水”奉为神体的特殊信仰与风俗，还传说曾发生过不少凄惨事件和神秘现象。&lt;br&gt;本故事是以有着“迎接死亡的降临”之称的“日上山”为舞台，由不来方夕莉、放生莲、雏咲深羽3人组成的怪异幻想谭。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/10.png?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“游戏介绍”&lt;br&gt;玩家手持能封印怨灵的器械 -- “射影机”，深入围绕“日上山”的奇异习俗与事件谜团之中。&lt;br&gt;故事以“任务”划分，通过在各任务中操作不同的主人公来推进故事的发展。&lt;br&gt;&lt;br&gt;运用手中的射影机进行拍摄，以此封印并击退袭来的怨灵。&lt;br&gt;此外，射影机能够拍到“看不见的物体”，也能够获得寻找失物的线索。&lt;br&gt;&lt;br&gt;利用射影机各种各样的能力进行调查，来解开长眠于日上山的谜团。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/13.jpg?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;“对比原版的新要素”&lt;br&gt;・提高画面分辨率&lt;br&gt;・新服装、饰品&lt;br&gt;・配置角色与怨灵，将喜爱的画面拍摄为照片的“拍照模式”&lt;br&gt;・“怨灵列表”的扩展&lt;br&gt;・追加新操作模式&lt;br&gt;等等&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1732190/extras/15.jpg?t=1683694594" /&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;※包含游戏正篇的组合商品《零 ～濡鸦之巫女～ 数位豪华版》也在贩售中，请在购买时留意。</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>1735950</t>
+          <t>1733310</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>纸嫁衣</t>
+          <t>One Fateful Night</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>纸嫁衣</t>
+          <t>One Fateful Night</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>解谜,2D,剧情,悬疑,推理</t>
+          <t>动作,冒险,动作冒险,解谜,探索</t>
         </is>
       </c>
       <c r="E914" t="inlineStr">
@@ -38974,41 +38970,40 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F914" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
       <c r="G914" t="inlineStr">
         <is>
-          <t>2021年12月03日</t>
+          <t>2021年09月20日</t>
         </is>
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>《纸嫁衣》是一款中式恐怖悬疑剧情解谜游戏。游戏中包含较多的中国传统民俗文化，如果您喜欢了解中国传统文化，欢迎体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/child.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;开发背景&lt;br&gt;中国传统民俗中，有大量脑洞大开的灵异故事。纸人拦路、阴兵借道、邪异庙祠、厉鬼打墙……但此类题材的游戏却很少见。在看过《聊斋志异》、《太平广记》、《山村老尸》等小说、电影后只有自己做恶梦实在太浪费了，所以喜欢分享的我们做了这部纯正中式恐怖悬疑解谜游戏。&lt;br&gt;&lt;br&gt;游戏剧情&lt;br&gt;婚礼之日，拜堂之时，新郎转身看向新娘，发现她原本身穿的红色嫁衣变成了白色的纸嫁衣，随后莫名消失。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/hongbai-girl.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;正当我惊魂未定四处寻找新娘时，发现连餐桌上的菜肴、装饰也都变成纸做成的，这到底是怎么回事？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/fanzhuo.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;在寻找真相的过程中不断遇到诡异之事，破解重重机关，解开一个个精心设计的谜题。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/puzzle.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;随着原来越多的谜题被解开，你也慢慢了解到关于新娘家村子的黑暗风俗，以及一段尘封已久的恩怨……</t>
+          <t>One Fateful Night is a first person horror game where the player is meant to explore the area and uncover the story of this mysterious research facility. Use things you find to try and survive and discover the multiple endings that await you.&lt;br /&gt;
+&lt;br /&gt;
+One Fateful Night follows the story of Steven who has broken into a research facility that has shown up seemingly overnight but while investigating he finds that he may have gotten into more trouble than he can handle. While trapped inside, attempt to find answers and learn what has really been going on inside the facility. Most importantly, use anything you can find to survive and escape with your life.&lt;br /&gt;
+&lt;br /&gt;
+There are a few distinct endings to the game and it will take exploration to find each and every one.</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>1757760</t>
+          <t>1735950</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>My Stepsis is a Futanari</t>
+          <t>纸嫁衣</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>My Stepsis is a Futanari</t>
+          <t>纸嫁衣</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>解谜,2D,剧情,悬疑,推理</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -39016,49 +39011,91 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
       <c r="G915" t="inlineStr">
         <is>
-          <t>2021年10月28日</t>
+          <t>2021年12月03日</t>
         </is>
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Futa on Female, Male on Female&lt;br&gt;&lt;br&gt;Your stepsis hates your guts! Even the weekend can be a drag with her around, and this one in particular will only be worse since your father and stepmom are out of town.&lt;br&gt;&lt;br&gt;Also, it seems like her girlfriend is staying over, so getting some much needed rest will be a challenge. How will you ever cope?&lt;br&gt;&lt;br&gt;Read through some pretty raunchy(erotic) dialogue, accompanied by spicy nude depictions.&lt;h2 class="bb_tag"&gt;Gameplay&lt;/h2&gt;Kinetic Visual Novel&lt;br&gt;&lt;br&gt;H-Scenes&lt;br&gt;~3K words&lt;br&gt;&lt;br&gt;Immerse yourself in the story by typing in your own name, then proceeding to read through a raunchy story from the first-person perspective.&lt;br&gt;Read through an encounter ranging from platonic to downright sexual and experimental, in a naughty kind of way...</t>
+          <t>《纸嫁衣》是一款中式恐怖悬疑剧情解谜游戏。游戏中包含较多的中国传统民俗文化，如果您喜欢了解中国传统文化，欢迎体验。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/child.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;开发背景&lt;br&gt;中国传统民俗中，有大量脑洞大开的灵异故事。纸人拦路、阴兵借道、邪异庙祠、厉鬼打墙……但此类题材的游戏却很少见。在看过《聊斋志异》、《太平广记》、《山村老尸》等小说、电影后只有自己做恶梦实在太浪费了，所以喜欢分享的我们做了这部纯正中式恐怖悬疑解谜游戏。&lt;br&gt;&lt;br&gt;游戏剧情&lt;br&gt;婚礼之日，拜堂之时，新郎转身看向新娘，发现她原本身穿的红色嫁衣变成了白色的纸嫁衣，随后莫名消失。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/hongbai-girl.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;正当我惊魂未定四处寻找新娘时，发现连餐桌上的菜肴、装饰也都变成纸做成的，这到底是怎么回事？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/fanzhuo.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;在寻找真相的过程中不断遇到诡异之事，破解重重机关，解开一个个精心设计的谜题。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1735950/extras/puzzle.gif?t=1638497728" /&gt;&lt;br&gt;&lt;br&gt;随着原来越多的谜题被解开，你也慢慢了解到关于新娘家村子的黑暗风俗，以及一段尘封已久的恩怨……</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
+          <t>1757760</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>My Stepsis is a Futanari</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>My Stepsis is a Futanari</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G916" t="inlineStr">
+        <is>
+          <t>2021年10月28日</t>
+        </is>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>Futa on Female, Male on Female&lt;br&gt;&lt;br&gt;Your stepsis hates your guts! Even the weekend can be a drag with her around, and this one in particular will only be worse since your father and stepmom are out of town.&lt;br&gt;&lt;br&gt;Also, it seems like her girlfriend is staying over, so getting some much needed rest will be a challenge. How will you ever cope?&lt;br&gt;&lt;br&gt;Read through some pretty raunchy(erotic) dialogue, accompanied by spicy nude depictions.&lt;h2 class="bb_tag"&gt;Gameplay&lt;/h2&gt;Kinetic Visual Novel&lt;br&gt;&lt;br&gt;H-Scenes&lt;br&gt;~3K words&lt;br&gt;&lt;br&gt;Immerse yourself in the story by typing in your own name, then proceeding to read through a raunchy story from the first-person perspective.&lt;br&gt;Read through an encounter ranging from platonic to downright sexual and experimental, in a naughty kind of way...</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
           <t>1761130</t>
         </is>
       </c>
-      <c r="B916" t="inlineStr">
+      <c r="B917" t="inlineStr">
         <is>
           <t>Lake Road</t>
         </is>
       </c>
-      <c r="C916" t="inlineStr">
+      <c r="C917" t="inlineStr">
         <is>
           <t>Lake Road</t>
         </is>
       </c>
-      <c r="D916" t="inlineStr">
+      <c r="D917" t="inlineStr">
         <is>
           <t>休闲,3D 平台,3D,奇幻,物理</t>
         </is>
       </c>
-      <c r="E916" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G916" t="inlineStr">
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G917" t="inlineStr">
         <is>
           <t>2021年10月05日</t>
         </is>
       </c>
-      <c r="H916" t="inlineStr">
+      <c r="H917" t="inlineStr">
         <is>
           <t>Lake Road is a simple addicting hyper-casual game that anyone can play.&lt;br /&gt;
 How to play:&lt;br /&gt;
@@ -39072,111 +39109,74 @@
         </is>
       </c>
     </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>1764630</t>
-        </is>
-      </c>
-      <c r="B917" t="inlineStr">
-        <is>
-          <t>斩妖行 Eastern Exorcist - 设定集 Digital Artbook</t>
-        </is>
-      </c>
-      <c r="C917" t="inlineStr">
-        <is>
-          <t>斩妖行 - 电子美术集</t>
-        </is>
-      </c>
-      <c r="D917" t="inlineStr">
-        <is>
-          <t>动作,冒险,角色扮演</t>
-        </is>
-      </c>
-      <c r="E917" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="G917" t="inlineStr">
-        <is>
-          <t>2021年10月01日</t>
-        </is>
-      </c>
-      <c r="H917" t="inlineStr">
-        <is>
-          <t>《斩妖行》电子美术集，包含141页全彩美术画集，涵盖人物角色设定，场景美术以及游戏中的过场CG画面。&lt;br /&gt;
-&lt;br /&gt;
-打开方式：在Steam客户端游戏库中，右键选择游戏【斩妖行】- 【属性】-【DLC】- 勾选安装，美术集PDF会下载至游戏的本地文件，进入游戏本地文件夹，选择ArtBook结尾的PDF文件，浏览斩妖行的电子艺术集锦~</t>
-        </is>
-      </c>
-    </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>1787090</t>
+          <t>1764630</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>MyDockFinder</t>
+          <t>斩妖行 Eastern Exorcist - 设定集 Digital Artbook</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>MyDockFinder</t>
+          <t>斩妖行 - 电子美术集</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>实用工具,软件,独立</t>
+          <t>动作,冒险,角色扮演</t>
         </is>
       </c>
       <c r="E918" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F918" t="inlineStr">
-        <is>
-          <t>7.9</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>2021年11月26日</t>
+          <t>2021年10月01日</t>
         </is>
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;MyDockFinder&lt;/h2&gt;&lt;br&gt;MyDockFinder是一款系统快速启动和控制查看系统功能的软件。可以拖拽添加自己喜好的程序或文件，拖拽直接使用程序打开文件。基于WinUI使用GPU渲染，流畅的动画效果，贝塞尔曲线圆角模糊而且可以调节模糊强度。管理系统所有窗口的最小化动画。&lt;br&gt;&lt;br&gt;定期持续更新，可能会有崩溃现象，请在下面留言反馈问题，后续更新将会带来创意工坊、更多成就、更换皮肤功能等众多功能，敬请期待！&lt;br&gt;一个人开发进度较慢，每次更新需要两到三周甚至一个月时间。&lt;br&gt;如果有严重问题的可以直接发邮件给我，我可以远程帮助解决问题，目前解决了30多个没有失败的。&lt;h2 class="bb_tag"&gt;主要功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全局实时动态模糊效果可以调节模糊强度&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;支持4K高分辨率和多显示器环境&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可以同步修改系统亮色和暗色模式&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Steam云备份配置文件（手动备份，steam成就）&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;MyDock&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;dock栏图标可以快速启动应用程序&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可手动修改图标&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;窗口最小化动画&lt;/strong&gt;（三种效果可选）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;启动台快速启动程序面板&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;特定程序消息提醒功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;快速查看活打开文件夹内所有文件&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;查看当前城市天气详情&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;窗口预览管理应用程序窗口&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;显示应用程序下载、播放媒体进度条&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;图标套用统一遮罩使其更加协调&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多种隐藏显示模式&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每个应用程序可设置独立的隐藏模式&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;MyFinder&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可以快捷关机、重启、注销电脑&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;CPU、内存、磁盘、网速、温度监控（需要手动开启，steam成就）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;管理WiFi网络连接&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;系统托盘图标显示管理操作&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;蓝牙连接配对&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;调节显示器亮度，包括台式机显示器&lt;strong&gt;（台式机显示器调节亮度可能会损坏你的显示器，HDMI接口可能会失效，DP接口可以完美调节亮度）&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;快速调节音量，切换音频输出设备，可以分别修改每个程序的音量大小&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;所有功能按钮鼠标右键可显示对应系统功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;媒体控制功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;音量变化提示&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;沉浸式显示更好的融合窗口背景&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>《斩妖行》电子美术集，包含141页全彩美术画集，涵盖人物角色设定，场景美术以及游戏中的过场CG画面。&lt;br /&gt;
+&lt;br /&gt;
+打开方式：在Steam客户端游戏库中，右键选择游戏【斩妖行】- 【属性】-【DLC】- 勾选安装，美术集PDF会下载至游戏的本地文件，进入游戏本地文件夹，选择ArtBook结尾的PDF文件，浏览斩妖行的电子艺术集锦~</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>1790230</t>
+          <t>1787090</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - Editor Extensions</t>
+          <t>MyDockFinder</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Wallpaper Engine - 编辑器扩展</t>
+          <t>MyDockFinder</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
+          <t>实用工具,软件,独立</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>7.9</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -39186,84 +39186,121 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;MyDockFinder&lt;/h2&gt;&lt;br&gt;MyDockFinder是一款系统快速启动和控制查看系统功能的软件。可以拖拽添加自己喜好的程序或文件，拖拽直接使用程序打开文件。基于WinUI使用GPU渲染，流畅的动画效果，贝塞尔曲线圆角模糊而且可以调节模糊强度。管理系统所有窗口的最小化动画。&lt;br&gt;&lt;br&gt;定期持续更新，可能会有崩溃现象，请在下面留言反馈问题，后续更新将会带来创意工坊、更多成就、更换皮肤功能等众多功能，敬请期待！&lt;br&gt;一个人开发进度较慢，每次更新需要两到三周甚至一个月时间。&lt;br&gt;如果有严重问题的可以直接发邮件给我，我可以远程帮助解决问题，目前解决了30多个没有失败的。&lt;h2 class="bb_tag"&gt;主要功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;全局实时动态模糊效果可以调节模糊强度&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;支持4K高分辨率和多显示器环境&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可以同步修改系统亮色和暗色模式&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Steam云备份配置文件（手动备份，steam成就）&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;MyDock&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;dock栏图标可以快速启动应用程序&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可手动修改图标&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;窗口最小化动画&lt;/strong&gt;（三种效果可选）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;启动台快速启动程序面板&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;特定程序消息提醒功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;快速查看活打开文件夹内所有文件&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;查看当前城市天气详情&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;窗口预览管理应用程序窗口&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;显示应用程序下载、播放媒体进度条&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;图标套用统一遮罩使其更加协调&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;多种隐藏显示模式&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;每个应用程序可设置独立的隐藏模式&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;MyFinder&lt;/strong&gt;&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;可以快捷关机、重启、注销电脑&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;CPU、内存、磁盘、网速、温度监控（需要手动开启，steam成就）&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;管理WiFi网络连接&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;系统托盘图标显示管理操作&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;蓝牙连接配对&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;调节显示器亮度，包括台式机显示器&lt;strong&gt;（台式机显示器调节亮度可能会损坏你的显示器，HDMI接口可能会失效，DP接口可以完美调节亮度）&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;快速调节音量，切换音频输出设备，可以分别修改每个程序的音量大小&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;所有功能按钮鼠标右键可显示对应系统功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;媒体控制功能&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;音量变化提示&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;沉浸式显示更好的融合窗口背景&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>1794680</t>
+          <t>1790230</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Vampire Survivors</t>
+          <t>Wallpaper Engine - Editor Extensions</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>吸血鬼：幸存者</t>
+          <t>Wallpaper Engine - 编辑器扩展</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>动作类 Rogue,弹幕射击,像素图形,轻度 Rogue,2D</t>
+          <t>休闲,独立,照片编辑,实用工具,动画制作和建模</t>
         </is>
       </c>
       <c r="E920" t="inlineStr">
         <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F920" t="inlineStr">
-        <is>
-          <t>9.7</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>2022年10月21日</t>
+          <t>2021年11月26日</t>
         </is>
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>来猎杀暗夜的魔物吧！杀出重围，迎来胜利的黎明！&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; &lt;/li&gt;&lt;/ul&gt;Vampire Survivors是一款结合了哥特式恐怖和肉鸽元素的休闲游戏，通过一次次的选择让角色越变越强，身处怪物的重重包围也无所畏惧。&lt;br&gt;&lt;br&gt;&lt;br&gt;Vampire Survivors是一款时间生存游戏，结合了肉鸽元素，玩法简单。&lt;br&gt;地狱空荡荡，恶魔在此间。谁都逃不过，哪儿都藏不住。你唯一能做的就是奋力作战，尽可能地多活久一点，直到最终面对必然的死亡。从每一轮的战斗中收集金币，购买强化，帮助下一位幸存者。&lt;br&gt;&lt;br&gt;&lt;i&gt;超自然题材热门独游，带你体验弹幕游戏的快乐！&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;支持鼠标、键盘、控制器和触控屏。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;入门小技巧&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;不用急着收集宝石或物品，它们不会消失的。&lt;br&gt;&lt;/li&gt;&lt;li&gt;开局时要拿到两个或三个武器，但在升级时要重点关注其中某一个。&lt;br&gt;&lt;/li&gt;&lt;li&gt;护甲和运气是早期值得投入金钱的强化属性。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你可以时常重置强化，反正是免费的。另外，去试试不一样的升级路线吧。&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>免费的Wallpaper Engine编辑器扩展 DLC 为该编辑器添加了高级功能。 此附加组件需要大量磁盘空间，我们只建议为想要在编辑器中使用这些高级功能来创建新墙纸的用户安装编辑器扩展。 所有订阅者都可以使用通过此附加组件创建的壁纸，而无需安装编辑器扩展。&lt;br&gt;&lt;br&gt;&lt;strong&gt;如果您不确定您是否要使用它，请不要安装此扩展。 如果您尝试使用任何需要它的功能，Wallpaper Engine 编辑器将推荐此扩展程序。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;包含的功能&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;使用机器学习从单个图像生成深度图。&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
+          <t>1794680</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Vampire Survivors</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>吸血鬼：幸存者</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>动作类 Rogue,弹幕射击,像素图形,轻度 Rogue,2D</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>2022年10月21日</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>来猎杀暗夜的魔物吧！杀出重围，迎来胜利的黎明！&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; &lt;/li&gt;&lt;/ul&gt;Vampire Survivors是一款结合了哥特式恐怖和肉鸽元素的休闲游戏，通过一次次的选择让角色越变越强，身处怪物的重重包围也无所畏惧。&lt;br&gt;&lt;br&gt;&lt;br&gt;Vampire Survivors是一款时间生存游戏，结合了肉鸽元素，玩法简单。&lt;br&gt;地狱空荡荡，恶魔在此间。谁都逃不过，哪儿都藏不住。你唯一能做的就是奋力作战，尽可能地多活久一点，直到最终面对必然的死亡。从每一轮的战斗中收集金币，购买强化，帮助下一位幸存者。&lt;br&gt;&lt;br&gt;&lt;i&gt;超自然题材热门独游，带你体验弹幕游戏的快乐！&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;支持鼠标、键盘、控制器和触控屏。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;入门小技巧&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;不用急着收集宝石或物品，它们不会消失的。&lt;br&gt;&lt;/li&gt;&lt;li&gt;开局时要拿到两个或三个武器，但在升级时要重点关注其中某一个。&lt;br&gt;&lt;/li&gt;&lt;li&gt;护甲和运气是早期值得投入金钱的强化属性。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你可以时常重置强化，反正是免费的。另外，去试试不一样的升级路线吧。&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
           <t>1798310</t>
         </is>
       </c>
-      <c r="B921" t="inlineStr">
+      <c r="B922" t="inlineStr">
         <is>
           <t>Imitating Zombies</t>
         </is>
       </c>
-      <c r="C921" t="inlineStr">
+      <c r="C922" t="inlineStr">
         <is>
           <t>Imitating Zombies</t>
         </is>
       </c>
-      <c r="D921" t="inlineStr">
+      <c r="D922" t="inlineStr">
         <is>
           <t>2D 平台,街机,动作冒险,2D,独立</t>
         </is>
       </c>
-      <c r="E921" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G921" t="inlineStr">
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G922" t="inlineStr">
         <is>
           <t>2021年11月15日</t>
         </is>
       </c>
-      <c r="H921" t="inlineStr">
+      <c r="H922" t="inlineStr">
         <is>
           <t>The very last zombie on earth, trying to survive by eating the brains of people. It's not as easy as it looks, moving around and avoiding all the obstacles is still a hassle. Air attacks will not give you rest, and most importantly, take care of your head.&lt;br /&gt;
 &lt;br /&gt;
@@ -39277,38 +39314,38 @@
         </is>
       </c>
     </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
+    <row r="923">
+      <c r="A923" t="inlineStr">
         <is>
           <t>1802870</t>
         </is>
       </c>
-      <c r="B922" t="inlineStr">
+      <c r="B923" t="inlineStr">
         <is>
           <t>Secret Pie</t>
         </is>
       </c>
-      <c r="C922" t="inlineStr">
+      <c r="C923" t="inlineStr">
         <is>
           <t>Secret Pie</t>
         </is>
       </c>
-      <c r="D922" t="inlineStr">
+      <c r="D923" t="inlineStr">
         <is>
           <t>Adventure,Casual,Indie,Simulation</t>
         </is>
       </c>
-      <c r="E922" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G922" t="inlineStr">
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G923" t="inlineStr">
         <is>
           <t>2021年11月19日</t>
         </is>
       </c>
-      <c r="H922" t="inlineStr">
+      <c r="H923" t="inlineStr">
         <is>
           <t>◆ Story&lt;br /&gt;
 Secret story between the mansion manager and three women&lt;br /&gt;
@@ -39340,62 +39377,25 @@
         </is>
       </c>
     </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>1821570</t>
-        </is>
-      </c>
-      <c r="B923" t="inlineStr">
-        <is>
-          <t>🕌魔塔与6️⃣勇者  (Six Braves)</t>
-        </is>
-      </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>🕌魔塔与6️⃣勇者  (Six Braves)</t>
-        </is>
-      </c>
-      <c r="D923" t="inlineStr">
-        <is>
-          <t>角色扮演,策略,日系角色扮演,策略角色扮演,2D 平台</t>
-        </is>
-      </c>
-      <c r="E923" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G923" t="inlineStr">
-        <is>
-          <t>2022年09月13日</t>
-        </is>
-      </c>
-      <c r="H923" t="inlineStr">
-        <is>
-          <t>《魔塔与6勇者》是一款追加了技能装备等元素的魔塔（固定数值策略RPG）游戏，玩家将要扮演不同的勇者前往魔塔，打败魔王来&amp;quot;拯救&amp;quot;他们的世界&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1821570/extras/人物.gif?t=1678360727" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;· 免费游玩勇者·剑士！挑战高难度成功之后，还能获得奖励，免费解锁[付费DLC]游玩其他角色！&lt;br&gt;· 6 个不同的角色，在魔塔之中学习多种多样的技能&lt;br&gt;· 53层精心设计的魔塔，以及根据不同角色而变化的魔塔构造以及不同的人物剧情，随着游戏展开来揭开魔塔的本质&lt;br&gt;· 使用不同角色探索隐藏着神秘气息的魔塔，使用各具特色的武器与装备，创造自己的通关方式。&lt;br&gt;· 精心平衡的3种基础难度+100种额外难度挑战，可以同时让休闲玩家与硬核玩家享受此游戏的策略。&lt;br&gt;· 每名角色拥有2小时以上的单次通关时间，开启你的策略盛宴。&lt;br&gt;· 攻略魔塔之后，挑战极难模式，或许你就是排行榜种下一个万众瞩目的世界第一。&lt;br&gt;· 对经典魔塔怪物的重新绘制，超过60种敌人，掌握好敌人的技能，打败领主以及最后的魔王，打造属于自己的冒险之旅！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1821570/extras/敌人.gif?t=1678360727" /&gt;&lt;h2 class="bb_tag"&gt;如此有趣的免费游戏，千万别错过。&lt;/h2&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>1823380</t>
+          <t>1821570</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Amnesia</t>
+          <t>🕌魔塔与6️⃣勇者  (Six Braves)</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>AMNESIA</t>
+          <t>🕌魔塔与6️⃣勇者  (Six Braves)</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Adventure,Indie,Early Access</t>
+          <t>角色扮演,策略,日系角色扮演,策略角色扮演,2D 平台</t>
         </is>
       </c>
       <c r="E924" t="inlineStr">
@@ -39405,34 +39405,34 @@
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>2022年01月15日</t>
+          <t>2022年09月13日</t>
         </is>
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;The game is set in our day and age. You play as our young amnesiac hero, who woke up from a year-long coma into an unknown world. He remembers nothing and recognizes no-one from his former life. What happened to him? That’s for you to find out.&lt;br/&gt;&lt;br/&gt;The game is populated by a variety of characters, each with their own distinct personality, background and secrets. &lt;br/&gt;Special attention and care is put into the quality of the images and animations.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 2500 images&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 200 animations&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 20 characters&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Free Roam&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Many locations to explore in detail&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Time Cycle&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Relationship system.&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;A variety of fetishes&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Task log&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Phone&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Achievements&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Secrets and easter eggs&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;WHAT’S COMING:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;This is how I want the game to look. It is a Free Roam title, with each character having their own schedule and story. The main storyline develops along with the protagonist's relationship to the main characters: Alexandra, Kate and Elena. The basic outline of these relations is a system of 6 levels, with each increasing level allowing for new interactions in Free Roam.&lt;br/&gt;&lt;br/&gt;As the main plot develops, the player character will encounter secondary characters (girls). I’ve already written about 10 of these secondary girls, but the idea is to bring this number up into the dozens, with each girl having their own plot and relationship levels (from 0 to 5): each level will bring up hotter and hotter encounters.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;EARLY ACCESS:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;“Early access” means that you can start playing right now, but you’ll find that some of the game’s features are still to be fully developed. For example, I’m planning to introduce various mini-games which will help in upgrading the player character and advancing the plot. The game features voice acting, but it’s still a ways to go from the level of professionalism that I’d like for each of the animations. I would also like to introduce skills for the main character which will weigh-in on his interactions and make branched scenes according to each player’s particular dialogue choices. Finally, I want to take the post-processing of images and animations to the next level. For this, I will probably need to get a powerful workstation, in order to produce higher resolution images and 60fps animations: all for the sake of perfection!&lt;br/&gt;&lt;br/&gt;I also plan to fully develop the plot beats and interactions of supporting characters, but only after the main storyline is finished.&lt;/body&gt;&lt;/html&gt;</t>
+          <t>《魔塔与6勇者》是一款追加了技能装备等元素的魔塔（固定数值策略RPG）游戏，玩家将要扮演不同的勇者前往魔塔，打败魔王来&amp;quot;拯救&amp;quot;他们的世界&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1821570/extras/人物.gif?t=1678360727" /&gt;&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;· 免费游玩勇者·剑士！挑战高难度成功之后，还能获得奖励，免费解锁[付费DLC]游玩其他角色！&lt;br&gt;· 6 个不同的角色，在魔塔之中学习多种多样的技能&lt;br&gt;· 53层精心设计的魔塔，以及根据不同角色而变化的魔塔构造以及不同的人物剧情，随着游戏展开来揭开魔塔的本质&lt;br&gt;· 使用不同角色探索隐藏着神秘气息的魔塔，使用各具特色的武器与装备，创造自己的通关方式。&lt;br&gt;· 精心平衡的3种基础难度+100种额外难度挑战，可以同时让休闲玩家与硬核玩家享受此游戏的策略。&lt;br&gt;· 每名角色拥有2小时以上的单次通关时间，开启你的策略盛宴。&lt;br&gt;· 攻略魔塔之后，挑战极难模式，或许你就是排行榜种下一个万众瞩目的世界第一。&lt;br&gt;· 对经典魔塔怪物的重新绘制，超过60种敌人，掌握好敌人的技能，打败领主以及最后的魔王，打造属于自己的冒险之旅！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1821570/extras/敌人.gif?t=1678360727" /&gt;&lt;h2 class="bb_tag"&gt;如此有趣的免费游戏，千万别错过。&lt;/h2&gt;</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>1828570</t>
+          <t>1823380</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Final Exit</t>
+          <t>Amnesia</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Final Exit</t>
+          <t>AMNESIA</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>模拟,休闲,桌上游戏,2D 平台,2D</t>
+          <t>Adventure,Indie,Early Access</t>
         </is>
       </c>
       <c r="E925" t="inlineStr">
@@ -39442,50 +39442,34 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>2021年12月18日</t>
+          <t>2022年01月15日</t>
         </is>
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>The ultimate goal of the game is to reach the final exit. You have 5 jumps per level. The game can only move forward and not backward, of course, unless you bounce off the wall. Can you reach the last exit?&lt;br /&gt;
-&lt;br /&gt;
-Game features&lt;br /&gt;
-&lt;br /&gt;
-More than 90 game levels&lt;br /&gt;
-&lt;br /&gt;
-Changing console&lt;br /&gt;
-&lt;br /&gt;
-Annoying interesting physics&lt;br /&gt;
-&lt;br /&gt;
-Simple retro graphic design&lt;br /&gt;
-&lt;br /&gt;
-More content can be unlocked through customs clearance&lt;br /&gt;
-&lt;br /&gt;
-Game Review&lt;br /&gt;
-&lt;br /&gt;
-This is a very difficult game. This game can make people crazy, but it can also make you love it. We need to constantly try and understand the physical world in order to get through every level. Of course, each level may take us a long time, and the more difficult it becomes, but every time we reach the final exit, everything is worth it. In addition, players need to pay attention that we only have five jumping opportunities in each level. We must make rational use of them. Moreover, the small ball can only move forward and not backward, but we can achieve the purpose of backward by colliding with the wall. Everything needs to be explored by the players themselves.</t>
+          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;The game is set in our day and age. You play as our young amnesiac hero, who woke up from a year-long coma into an unknown world. He remembers nothing and recognizes no-one from his former life. What happened to him? That’s for you to find out.&lt;br/&gt;&lt;br/&gt;The game is populated by a variety of characters, each with their own distinct personality, background and secrets. &lt;br/&gt;Special attention and care is put into the quality of the images and animations.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 2500 images&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 200 animations&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;More than 20 characters&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Free Roam&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Many locations to explore in detail&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Time Cycle&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Relationship system.&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;A variety of fetishes&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Task log&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Phone&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Achievements&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Secrets and easter eggs&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;WHAT’S COMING:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;This is how I want the game to look. It is a Free Roam title, with each character having their own schedule and story. The main storyline develops along with the protagonist's relationship to the main characters: Alexandra, Kate and Elena. The basic outline of these relations is a system of 6 levels, with each increasing level allowing for new interactions in Free Roam.&lt;br/&gt;&lt;br/&gt;As the main plot develops, the player character will encounter secondary characters (girls). I’ve already written about 10 of these secondary girls, but the idea is to bring this number up into the dozens, with each girl having their own plot and relationship levels (from 0 to 5): each level will bring up hotter and hotter encounters.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;&lt;h2 class="bb_tag"&gt;EARLY ACCESS:&lt;/h2&gt;&lt;/strong&gt;&lt;br/&gt;“Early access” means that you can start playing right now, but you’ll find that some of the game’s features are still to be fully developed. For example, I’m planning to introduce various mini-games which will help in upgrading the player character and advancing the plot. The game features voice acting, but it’s still a ways to go from the level of professionalism that I’d like for each of the animations. I would also like to introduce skills for the main character which will weigh-in on his interactions and make branched scenes according to each player’s particular dialogue choices. Finally, I want to take the post-processing of images and animations to the next level. For this, I will probably need to get a powerful workstation, in order to produce higher resolution images and 60fps animations: all for the sake of perfection!&lt;br/&gt;&lt;br/&gt;I also plan to fully develop the plot beats and interactions of supporting characters, but only after the main storyline is finished.&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>1832640</t>
+          <t>1828570</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Mirror 2: Project X</t>
+          <t>Final Exit</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>魔镜2: Project X</t>
+          <t>Final Exit</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>3D,三消,动漫,女性主角,剧情</t>
+          <t>模拟,休闲,桌上游戏,2D 平台,2D</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
@@ -39493,41 +39477,52 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F926" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>2022年01月21日</t>
+          <t>2021年12月18日</t>
         </is>
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;i&gt;--故事模式&amp;amp;挑战模式--&lt;/i&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;这是一款基于UE4引擎打造的卡通渲染风格剧情×三消游戏。在游戏中，你将跟随着角色们前往一个个平行宇宙，你所做出的每个选择都将影响游戏的结局。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;角色介绍&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Ivy.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;艾薇·特里特&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;由人类富家大小姐变为的吸血鬼，在庄园中独自一人寂寞地度过了六十年的时光。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Rebecca.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;丽蓓卡·芬格莱特&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;血族公主，纯种吸血鬼，喜欢捉弄他人的命运论者。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Young_Rita.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;实习生丽塔&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;联邦研究保护局C级人员，年轻一代著名的天才。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Lynn.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;琳&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;出生在极北之地的龙族少女，受母亲霜龙族长之命作为使者常居在人类王宫内。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Iona.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;伊欧娜&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;曾经的女公爵，联合王国现任女王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Caiyun.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;彩云&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;跨越时间长河的存在，永远停留在年轻岁月的小僵尸。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Qianxi.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;窦倩兮&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;出身大户人家的千金小姐。自幼在书香门第的环境中长大，却偏爱研究天工机械的大家闺秀。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Lani.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;菈妮&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;原始部落居民，末世中的流浪者&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Leah.gif?t=1673932541" /&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;莉娅&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;联邦研究保护局1级收容物，来源未知，目的未知，年龄未知。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Rita.gif?t=1673932541" /&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;丽塔&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;女博士，联邦研究保护局高级干部，超自然生物研究所的技术负责人。&lt;h2 class="bb_tag"&gt;游戏玩法&lt;/h2&gt;随着剧情的推进你需要在很多节点做出选择，不同的选择将会进入不同的故事线。剧情要如何推进，选择完全在你手中。&lt;br&gt;&lt;br&gt;在剧情中还会有益智小游戏需要玩家完成解密，把三个颜色相同的物品连成一条直线即可消除。在一定回合限制内，达到指定的目标即可通关解锁新剧情分支。&lt;h2 class="bb_tag"&gt;游戏特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;宏大的世界观，让你沉浸其中不能自拔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;如现实存在一般的，真实的角色构建，让你有动力深入探索每个角色的故事。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的任何选择都将决定游戏剧情的走向。存在还是毁灭，选择只在你手中。&lt;br&gt;&lt;/li&gt;&lt;li&gt;继承前作爽快轻松的益智三消模式，全新3D画面，特效升级。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;i&gt;--家园模式--&lt;/i&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;&lt;br&gt;终于可以休息一下了，你带着的美少女们，开始了一段奇妙而美好的度假时光。&lt;br&gt;阳光、海水、沙滩，你可以与他们一起，尽情享受多黛海岛的美丽风光；&lt;br&gt;泳池、浴室、床，你也可以为他们，拍摄各种性感的照片；&lt;br&gt;美丽的海岛上，处处都值得探索，快跟美少女们一起，尽情享受假日的温馨和浪漫吧！&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;精致唯美的全3D二次元角色和场景&lt;br&gt;&lt;/li&gt;&lt;li&gt;多个mirror美少女角色期待与你邂逅&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种不同的服装造型和饰品随心搭配&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种不同的交互场景等你发掘&lt;br&gt;&lt;/li&gt;&lt;li&gt;多个控制节点，DIY你想要的各种姿势。&lt;br&gt;&lt;/li&gt;&lt;li&gt;开放&lt;u&gt;&lt;strong&gt;Steam创意工坊&lt;/strong&gt;&lt;/u&gt;，大家一起自由创造吧&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;我们的星辰大海：&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;更丰富的mirror角色及饰品，尽情装扮他们吧&lt;br&gt;&lt;/li&gt;&lt;li&gt;更开阔的场景，更丰富的互动地点及互动内容，尽享多黛海岛带来的快乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;更简单便捷的姿势编辑，支持自定义导入角色及动画，让你随时随地DIY&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持&lt;u&gt;&lt;strong&gt;VR设备&lt;/strong&gt;&lt;/u&gt;接入，让你身临其境，与美少女们一同狂欢&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>The ultimate goal of the game is to reach the final exit. You have 5 jumps per level. The game can only move forward and not backward, of course, unless you bounce off the wall. Can you reach the last exit?&lt;br /&gt;
+&lt;br /&gt;
+Game features&lt;br /&gt;
+&lt;br /&gt;
+More than 90 game levels&lt;br /&gt;
+&lt;br /&gt;
+Changing console&lt;br /&gt;
+&lt;br /&gt;
+Annoying interesting physics&lt;br /&gt;
+&lt;br /&gt;
+Simple retro graphic design&lt;br /&gt;
+&lt;br /&gt;
+More content can be unlocked through customs clearance&lt;br /&gt;
+&lt;br /&gt;
+Game Review&lt;br /&gt;
+&lt;br /&gt;
+This is a very difficult game. This game can make people crazy, but it can also make you love it. We need to constantly try and understand the physical world in order to get through every level. Of course, each level may take us a long time, and the more difficult it becomes, but every time we reach the final exit, everything is worth it. In addition, players need to pay attention that we only have five jumping opportunities in each level. We must make rational use of them. Moreover, the small ball can only move forward and not backward, but we can achieve the purpose of backward by colliding with the wall. Everything needs to be explored by the players themselves.</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>1846920</t>
+          <t>1832640</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Lust Academy</t>
+          <t>Mirror 2: Project X</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Lust Academy - Season 1</t>
+          <t>魔镜2: Project X</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>Adventure,Casual,Indie</t>
+          <t>3D,三消,动漫,女性主角,剧情</t>
         </is>
       </c>
       <c r="E927" t="inlineStr">
@@ -39535,54 +39530,96 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>2022年04月12日</t>
+          <t>2022年01月21日</t>
         </is>
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;&lt;br/&gt;Our project is called "&lt;strong&gt;Lust Academy&lt;/strong&gt;" and it's no secret that we were heavily inspired by the Harry Potter books and The Magicians TV series.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Lust Academy&lt;/strong&gt; - is a story-driven 3d visual novel where you play as a young 18-years guy who has just found that he is a wizard!&lt;br/&gt;&lt;br/&gt;Currently, we have two game modes: &lt;strong&gt;Sandbox &lt;/strong&gt;and &lt;strong&gt;Visual Novel&lt;/strong&gt;&lt;br/&gt;&lt;br/&gt;In &lt;strong&gt;Sandbox&lt;/strong&gt;, we've focused on freedom of choice and free roam. However, we don't like the grind, and our game has no mandatory grinding elements.&lt;br/&gt;&lt;br/&gt;In &lt;strong&gt;Visual Novel&lt;/strong&gt;, free roam and freedom of choice is limited because it's heavily focused on comfortable gameplay and delivering the story.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;You play as an 18y.o guy who has missed an opportunity to go to college with a sports scholarship due to injury. &lt;br/&gt;However, a new, unbelievable opportunity knocks on your door the day you receive the letter from &lt;strong&gt;Cordale Academy&lt;/strong&gt; of Magic and Wizardry.&lt;br/&gt;&lt;br/&gt;Visit the oldest magic academy in New World, meet charming girls, true friends, and formidable enemies! Explore the magical world, solve mysteries and get from novice to an Almighty legendary wizard! &lt;br/&gt;&lt;br/&gt;All of this, and more in &lt;strong&gt;Lust Academy&lt;/strong&gt;.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Take a trip to &lt;strong&gt;Cordale&lt;/strong&gt; - the oldest academy of magic and wizardry in the New World. This journey brings a lot of possibilities:&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Explore&lt;strong&gt; 25&lt;/strong&gt; various locations with free roam&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Meet more than &lt;strong&gt;25&lt;/strong&gt; potentially &lt;strong&gt;romanceable characters&lt;/strong&gt; and find all the adult encounters&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Enjoy more than &lt;strong&gt;250&lt;/strong&gt; smooth and beautiful &lt;strong&gt;60fps animations&lt;/strong&gt;&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Check out more than HQ&lt;strong&gt; 5500 renders&lt;/strong&gt;&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Marvel at our custom-made comfortable user interface. &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Don't forget to check out &lt;strong&gt;5&lt;/strong&gt; different mini-games&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;This game is an adult visual novel with included &lt;strong&gt;18+&lt;/strong&gt; content. Here's the list of what you may find in &lt;strong&gt;Lust Academy&lt;/strong&gt;:&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Masturbation &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Handjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Blowjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Boobjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Vaginal sex&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Anal sex&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Sex with Magical creatures &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Pantyhose &lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;Please note that the following features are entirely optional, and you won't encounter them accidentally:&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LGBTQ+ content&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Futa\Trans content&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Lust Academy&lt;/strong&gt; is a Visual Novel game, which means the core gameplay is focused on point-n-clicking and enjoying the story.&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Your main goal is to explore the locations, interact with characters and complete their storylines to further your relationship.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;You can focus on whichever character you like and whom you want to ignore.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;The main quest revolves around getting from an average guy to a legendary mage through studying and solving problems.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;The game includes several mini-games that you can skip at any moment. None of them are mandatory and, we hope, that they can be pretty fun.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;All the interactable objects and characters are highlighted when you hover your mouse over them.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;If you need help with any of the storylines, use the Character Info tab on the interface.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;If you don't like wandering through locations, you can use the Calendar tab on the interface to fast-travel to any available character.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;You can get to know more about characters and check out extra renders in Lustagram app on the Phone tab.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Every female character (and some male too) in the game is (or eventually will be) a love interest. Follow their questline to get to know them better.&lt;/li&gt;&lt;/ul&gt;&lt;/body&gt;&lt;/html&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;i&gt;--故事模式&amp;amp;挑战模式--&lt;/i&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;这是一款基于UE4引擎打造的卡通渲染风格剧情×三消游戏。在游戏中，你将跟随着角色们前往一个个平行宇宙，你所做出的每个选择都将影响游戏的结局。&lt;/strong&gt;&lt;h2 class="bb_tag"&gt;角色介绍&lt;/h2&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Ivy.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;艾薇·特里特&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;由人类富家大小姐变为的吸血鬼，在庄园中独自一人寂寞地度过了六十年的时光。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Rebecca.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;丽蓓卡·芬格莱特&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;血族公主，纯种吸血鬼，喜欢捉弄他人的命运论者。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Young_Rita.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;实习生丽塔&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;联邦研究保护局C级人员，年轻一代著名的天才。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Lynn.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;琳&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;出生在极北之地的龙族少女，受母亲霜龙族长之命作为使者常居在人类王宫内。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Iona.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;伊欧娜&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;曾经的女公爵，联合王国现任女王。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Caiyun.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;彩云&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;跨越时间长河的存在，永远停留在年轻岁月的小僵尸。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Qianxi.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;窦倩兮&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;出身大户人家的千金小姐。自幼在书香门第的环境中长大，却偏爱研究天工机械的大家闺秀。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Lani.gif?t=1673932541" /&gt;&lt;br&gt;&lt;i&gt;&lt;strong&gt;菈妮&lt;/strong&gt;&lt;/i&gt;&lt;br&gt;原始部落居民，末世中的流浪者&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Leah.gif?t=1673932541" /&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;莉娅&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;联邦研究保护局1级收容物，来源未知，目的未知，年龄未知。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1832640/extras/Rita.gif?t=1673932541" /&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;丽塔&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;女博士，联邦研究保护局高级干部，超自然生物研究所的技术负责人。&lt;h2 class="bb_tag"&gt;游戏玩法&lt;/h2&gt;随着剧情的推进你需要在很多节点做出选择，不同的选择将会进入不同的故事线。剧情要如何推进，选择完全在你手中。&lt;br&gt;&lt;br&gt;在剧情中还会有益智小游戏需要玩家完成解密，把三个颜色相同的物品连成一条直线即可消除。在一定回合限制内，达到指定的目标即可通关解锁新剧情分支。&lt;h2 class="bb_tag"&gt;游戏特点&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;宏大的世界观，让你沉浸其中不能自拔。&lt;br&gt;&lt;/li&gt;&lt;li&gt;如现实存在一般的，真实的角色构建，让你有动力深入探索每个角色的故事。&lt;br&gt;&lt;/li&gt;&lt;li&gt;你的任何选择都将决定游戏剧情的走向。存在还是毁灭，选择只在你手中。&lt;br&gt;&lt;/li&gt;&lt;li&gt;继承前作爽快轻松的益智三消模式，全新3D画面，特效升级。&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;&lt;i&gt;--家园模式--&lt;/i&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 class="bb_tag"&gt;游戏介绍&lt;/h2&gt;&lt;br&gt;终于可以休息一下了，你带着的美少女们，开始了一段奇妙而美好的度假时光。&lt;br&gt;阳光、海水、沙滩，你可以与他们一起，尽情享受多黛海岛的美丽风光；&lt;br&gt;泳池、浴室、床，你也可以为他们，拍摄各种性感的照片；&lt;br&gt;美丽的海岛上，处处都值得探索，快跟美少女们一起，尽情享受假日的温馨和浪漫吧！&lt;h2 class="bb_tag"&gt;游戏特色&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;精致唯美的全3D二次元角色和场景&lt;br&gt;&lt;/li&gt;&lt;li&gt;多个mirror美少女角色期待与你邂逅&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种不同的服装造型和饰品随心搭配&lt;br&gt;&lt;/li&gt;&lt;li&gt;多种不同的交互场景等你发掘&lt;br&gt;&lt;/li&gt;&lt;li&gt;多个控制节点，DIY你想要的各种姿势。&lt;br&gt;&lt;/li&gt;&lt;li&gt;开放&lt;u&gt;&lt;strong&gt;Steam创意工坊&lt;/strong&gt;&lt;/u&gt;，大家一起自由创造吧&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;&lt;br&gt;我们的星辰大海：&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;更丰富的mirror角色及饰品，尽情装扮他们吧&lt;br&gt;&lt;/li&gt;&lt;li&gt;更开阔的场景，更丰富的互动地点及互动内容，尽享多黛海岛带来的快乐&lt;br&gt;&lt;/li&gt;&lt;li&gt;更简单便捷的姿势编辑，支持自定义导入角色及动画，让你随时随地DIY&lt;br&gt;&lt;/li&gt;&lt;li&gt;支持&lt;u&gt;&lt;strong&gt;VR设备&lt;/strong&gt;&lt;/u&gt;接入，让你身临其境，与美少女们一同狂欢&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
+          <t>1846920</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Lust Academy</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Lust Academy - Season 1</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Adventure,Casual,Indie</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>2022年04月12日</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>&lt;html&gt;&lt;body&gt;&lt;br/&gt;&lt;br/&gt;Our project is called "&lt;strong&gt;Lust Academy&lt;/strong&gt;" and it's no secret that we were heavily inspired by the Harry Potter books and The Magicians TV series.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Lust Academy&lt;/strong&gt; - is a story-driven 3d visual novel where you play as a young 18-years guy who has just found that he is a wizard!&lt;br/&gt;&lt;br/&gt;Currently, we have two game modes: &lt;strong&gt;Sandbox &lt;/strong&gt;and &lt;strong&gt;Visual Novel&lt;/strong&gt;&lt;br/&gt;&lt;br/&gt;In &lt;strong&gt;Sandbox&lt;/strong&gt;, we've focused on freedom of choice and free roam. However, we don't like the grind, and our game has no mandatory grinding elements.&lt;br/&gt;&lt;br/&gt;In &lt;strong&gt;Visual Novel&lt;/strong&gt;, free roam and freedom of choice is limited because it's heavily focused on comfortable gameplay and delivering the story.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;You play as an 18y.o guy who has missed an opportunity to go to college with a sports scholarship due to injury. &lt;br/&gt;However, a new, unbelievable opportunity knocks on your door the day you receive the letter from &lt;strong&gt;Cordale Academy&lt;/strong&gt; of Magic and Wizardry.&lt;br/&gt;&lt;br/&gt;Visit the oldest magic academy in New World, meet charming girls, true friends, and formidable enemies! Explore the magical world, solve mysteries and get from novice to an Almighty legendary wizard! &lt;br/&gt;&lt;br/&gt;All of this, and more in &lt;strong&gt;Lust Academy&lt;/strong&gt;.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;Take a trip to &lt;strong&gt;Cordale&lt;/strong&gt; - the oldest academy of magic and wizardry in the New World. This journey brings a lot of possibilities:&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Explore&lt;strong&gt; 25&lt;/strong&gt; various locations with free roam&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Meet more than &lt;strong&gt;25&lt;/strong&gt; potentially &lt;strong&gt;romanceable characters&lt;/strong&gt; and find all the adult encounters&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Enjoy more than &lt;strong&gt;250&lt;/strong&gt; smooth and beautiful &lt;strong&gt;60fps animations&lt;/strong&gt;&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Check out more than HQ&lt;strong&gt; 5500 renders&lt;/strong&gt;&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Marvel at our custom-made comfortable user interface. &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Don't forget to check out &lt;strong&gt;5&lt;/strong&gt; different mini-games&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;This game is an adult visual novel with included &lt;strong&gt;18+&lt;/strong&gt; content. Here's the list of what you may find in &lt;strong&gt;Lust Academy&lt;/strong&gt;:&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Masturbation &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Handjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Blowjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Boobjob &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Vaginal sex&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Anal sex&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Sex with Magical creatures &lt;br/&gt;&lt;/li&gt;&lt;li&gt;Pantyhose &lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;Please note that the following features are entirely optional, and you won't encounter them accidentally:&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;LGBTQ+ content&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Futa\Trans content&lt;/li&gt;&lt;/ul&gt;&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Lust Academy&lt;/strong&gt; is a Visual Novel game, which means the core gameplay is focused on point-n-clicking and enjoying the story.&lt;br/&gt;&lt;br/&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Your main goal is to explore the locations, interact with characters and complete their storylines to further your relationship.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;You can focus on whichever character you like and whom you want to ignore.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;The main quest revolves around getting from an average guy to a legendary mage through studying and solving problems.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;The game includes several mini-games that you can skip at any moment. None of them are mandatory and, we hope, that they can be pretty fun.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;All the interactable objects and characters are highlighted when you hover your mouse over them.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;If you need help with any of the storylines, use the Character Info tab on the interface.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;If you don't like wandering through locations, you can use the Calendar tab on the interface to fast-travel to any available character.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;You can get to know more about characters and check out extra renders in Lustagram app on the Phone tab.&lt;br/&gt;&lt;/li&gt;&lt;li&gt;Every female character (and some male too) in the game is (or eventually will be) a love interest. Follow their questline to get to know them better.&lt;/li&gt;&lt;/ul&gt;&lt;/body&gt;&lt;/html&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
           <t>1850570</t>
         </is>
       </c>
-      <c r="B928" t="inlineStr">
+      <c r="B929" t="inlineStr">
         <is>
           <t>DEATH STRANDING DIRECTOR'S CUT</t>
         </is>
       </c>
-      <c r="C928" t="inlineStr">
+      <c r="C929" t="inlineStr">
         <is>
           <t>死亡搁浅：导演剪辑版</t>
         </is>
       </c>
-      <c r="D928" t="inlineStr">
+      <c r="D929" t="inlineStr">
         <is>
           <t>剧情丰富,开放世界,步行模拟,冒险,氛围</t>
         </is>
       </c>
-      <c r="E928" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F928" t="inlineStr">
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
         <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="G928" t="inlineStr">
+      <c r="G929" t="inlineStr">
         <is>
           <t>2022年03月30日</t>
         </is>
       </c>
-      <c r="H928" t="inlineStr">
+      <c r="H929" t="inlineStr">
         <is>
           <t>知名游戏制作人小岛秀夫为大家带来了一种颠覆传统的体验，现在这种体验在此导演剪辑版的最终版本中加以扩展。 &lt;br /&gt;
  &lt;br /&gt;
@@ -39605,80 +39642,80 @@
         </is>
       </c>
     </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>1868140</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>DAVE THE DIVER</t>
-        </is>
-      </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>潜水员戴夫</t>
-        </is>
-      </c>
-      <c r="D929" t="inlineStr">
-        <is>
-          <t>休闲,像素图形,冒险,模拟,角色扮演</t>
-        </is>
-      </c>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>9.7</t>
-        </is>
-      </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>2023年06月28日</t>
-        </is>
-      </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
-        </is>
-      </c>
-    </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
+          <t>1868140</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>DAVE THE DIVER</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>潜水员戴夫</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>休闲,像素图形,冒险,模拟,角色扮演</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>9.7</t>
+        </is>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>2023年06月28日</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_1.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・探索神秘的蓝洞!&lt;/strong&gt;&lt;/h2&gt;美丽的海底中充满了无数鱼种和巨大生物，&lt;br&gt;对何时何地出现的海洋生物，是不是好奇呢？&lt;br&gt;避开威胁生物的袭击，获得新鲜的食材。&lt;br&gt;梦幻般的海洋生态和神秘的古代遗物。海里充满了谜团。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_2.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・只在夜间营业的寿司店&lt;/strong&gt;&lt;/h2&gt;用亲自抓来的新鲜食材做出特别的寿司并销售吧！&lt;br&gt;如果口碑传开，可能会有特别的客人突然来访。&lt;br&gt;经营寿司店筹集资金，可以探索更深的地方！&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1868140/extras/DAVE_THE_DIVER_GIF_3.gif?t=1689185556" /&gt;&lt;h2 class="bb_tag"&gt;&lt;strong&gt;・在深海中存在的危险&lt;/strong&gt;&lt;/h2&gt;当心！异常现象导致的巨大蓝洞里有未知生命体等着您的到来。&lt;br&gt;随时充分强化您的装备。对抗巨大生物，对保护自己会有很大帮助的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
           <t>1870570</t>
         </is>
       </c>
-      <c r="B930" t="inlineStr">
+      <c r="B931" t="inlineStr">
         <is>
           <t>Hyper Road Carnage</t>
         </is>
       </c>
-      <c r="C930" t="inlineStr">
+      <c r="C931" t="inlineStr">
         <is>
           <t>Hyper Road Carnage</t>
         </is>
       </c>
-      <c r="D930" t="inlineStr">
+      <c r="D931" t="inlineStr">
         <is>
           <t>动作,休闲,快速反应事件,竞速,像素图形</t>
         </is>
       </c>
-      <c r="E930" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G930" t="inlineStr">
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
         <is>
           <t>2022年02月01日</t>
         </is>
       </c>
-      <c r="H930" t="inlineStr">
+      <c r="H931" t="inlineStr">
         <is>
           <t>Hyper Road Carnage is a single player action racing game. You pick&amp;amp;upgrade weapons, avoid cars, trucks and traps. Drive as long as you can to get the top score.&lt;br /&gt;
 &lt;br /&gt;
@@ -39690,38 +39727,38 @@
         </is>
       </c>
     </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
+    <row r="932">
+      <c r="A932" t="inlineStr">
         <is>
           <t>1872130</t>
         </is>
       </c>
-      <c r="B931" t="inlineStr">
+      <c r="B932" t="inlineStr">
         <is>
           <t>Cat and fish</t>
         </is>
       </c>
-      <c r="C931" t="inlineStr">
+      <c r="C932" t="inlineStr">
         <is>
           <t>Cat and fish</t>
         </is>
       </c>
-      <c r="D931" t="inlineStr">
+      <c r="D932" t="inlineStr">
         <is>
           <t>休闲,街机,单人,孩童,逻辑</t>
         </is>
       </c>
-      <c r="E931" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G931" t="inlineStr">
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
         <is>
           <t>2022年01月28日</t>
         </is>
       </c>
-      <c r="H931" t="inlineStr">
+      <c r="H932" t="inlineStr">
         <is>
           <t>You are a brave cat who got lost in the forest in search of food. You have to collect all the food, while getting out of the forest alive.&lt;br /&gt;
 Be careful, because the forest is full of various traps and obstacles!&lt;br /&gt;
@@ -39736,124 +39773,124 @@
         </is>
       </c>
     </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>1880860</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr">
-        <is>
-          <t>Hot wife Tara</t>
-        </is>
-      </c>
-      <c r="C932" t="inlineStr">
-        <is>
-          <t>Hot wife Tara</t>
-        </is>
-      </c>
-      <c r="D932" t="inlineStr">
-        <is>
-          <t>Adventure,Indie,Simulation</t>
-        </is>
-      </c>
-      <c r="E932" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>2022年04月21日</t>
-        </is>
-      </c>
-      <c r="H932" t="inlineStr">
-        <is>
-          <t>&lt;i&gt;After many years of being faithful to one another in marriage, Harry's wife Tara decided for her birthday to undertake the darkest and yet most fantasized scenario every married man envisions; a threesome. For months, she talked about and planned and even had a candidate, her friend Ruby. She does not know that the two are married, and that's how she wants him to act; he walks in, pretends not to know Tara, and attempts to win her and her friend over with his charm and sexual bravado. But even the most well-made plans can have snags, for if Harry fails, there are plenty of others in the bar that night who may be up to the task.&lt;/i&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;&lt;br&gt;Hot Wife Tara is a choose your own adventure story that puts you in the shoes of Harry, a married man who, along with his wife, Tara, want to embark on a sexual journey together. With multiple branching paths and eight unique endings, can you help Harry ensure that his wife has the best birthday of her life?&lt;h2 class="bb_tag"&gt;FEATURES:&lt;/h2&gt;&lt;br&gt;- stunning 4k resolution [3840 x 2160px]&lt;br&gt;- sensual and smooth 40 frames animations for sex scenes&lt;br&gt;- 250 static images and 30 sex animations&lt;br&gt;- erotic plot with over 30.000 words&lt;br&gt;- non-linear gameplay with 6 endings to achieve&lt;br&gt;- for trophy hunters: sex scenes and endings gallery&lt;br&gt;- 100% UNCENSORED!</t>
-        </is>
-      </c>
-    </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>1889980</t>
+          <t>1880860</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+          <t>Hot wife Tara</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+          <t>Hot wife Tara</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>策略,冒险,角色扮演,独立</t>
+          <t>Adventure,Indie,Simulation</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>2022年03月03日</t>
+          <t>2022年04月21日</t>
         </is>
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-  * 游玩大约长达7到8小时的新故事，作为对主线剧情的补充。从主线战役导入你的角色和所有同伴，或是建立一个新角色，来了解令魔法的守护者困扰的原因。&lt;br /&gt;
-&lt;br /&gt;
-  * 你的角色将以高等级开始冒险，包括普通等级和神话阶层。运用你掌握的所有神话能力，与威胁诸位面和平的新神话敌人交战！&lt;br /&gt;
-&lt;br /&gt;
-  * 造访机械版御衡者“恒则兵”的诞生之地与家园：轴心城，探索这个位面的每个角落，在危机四伏的地城找到通路。&lt;br /&gt;
-&lt;br /&gt;
-  * 将你的功绩带到主线战役中去！在你完成本DLC后，主线战役中的角色将在第五次圣战正式开始之前获得新的力量。&lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-新的对手等待着你，准备考验你的正义之怒。但要记住，并非一切都与初见印象相符。有些朋友会背叛你，而昔日敌人也有可能伸出援手。</t>
+          <t>&lt;i&gt;After many years of being faithful to one another in marriage, Harry's wife Tara decided for her birthday to undertake the darkest and yet most fantasized scenario every married man envisions; a threesome. For months, she talked about and planned and even had a candidate, her friend Ruby. She does not know that the two are married, and that's how she wants him to act; he walks in, pretends not to know Tara, and attempts to win her and her friend over with his charm and sexual bravado. But even the most well-made plans can have snags, for if Harry fails, there are plenty of others in the bar that night who may be up to the task.&lt;/i&gt;&lt;h2 class="bb_tag"&gt;GAMEPLAY&lt;/h2&gt;&lt;br&gt;Hot Wife Tara is a choose your own adventure story that puts you in the shoes of Harry, a married man who, along with his wife, Tara, want to embark on a sexual journey together. With multiple branching paths and eight unique endings, can you help Harry ensure that his wife has the best birthday of her life?&lt;h2 class="bb_tag"&gt;FEATURES:&lt;/h2&gt;&lt;br&gt;- stunning 4k resolution [3840 x 2160px]&lt;br&gt;- sensual and smooth 40 frames animations for sex scenes&lt;br&gt;- 250 static images and 30 sex animations&lt;br&gt;- erotic plot with over 30.000 words&lt;br&gt;- non-linear gameplay with 6 endings to achieve&lt;br&gt;- for trophy hunters: sex scenes and endings gallery&lt;br&gt;- 100% UNCENSORED!</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
+          <t>1889980</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - Inevitable Excess</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>策略,冒险,角色扮演,独立</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>2022年03月03日</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>《无解的超量》这部DLC将带玩家在即将取得对世界之伤的大胜之前，进入新的冒险设定当中。新的故事需要英雄用上所有高等级能力和神话之力，与近乎无可匹敌的对手交锋。 玩家将响应瓦尔码络斯的号召，这位来自另一个实存位面的强大存在决心阻止多元宇宙迫在眉睫的危机。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+  * 游玩大约长达7到8小时的新故事，作为对主线剧情的补充。从主线战役导入你的角色和所有同伴，或是建立一个新角色，来了解令魔法的守护者困扰的原因。&lt;br /&gt;
+&lt;br /&gt;
+  * 你的角色将以高等级开始冒险，包括普通等级和神话阶层。运用你掌握的所有神话能力，与威胁诸位面和平的新神话敌人交战！&lt;br /&gt;
+&lt;br /&gt;
+  * 造访机械版御衡者“恒则兵”的诞生之地与家园：轴心城，探索这个位面的每个角落，在危机四伏的地城找到通路。&lt;br /&gt;
+&lt;br /&gt;
+  * 将你的功绩带到主线战役中去！在你完成本DLC后，主线战役中的角色将在第五次圣战正式开始之前获得新的力量。&lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+新的对手等待着你，准备考验你的正义之怒。但要记住，并非一切都与初见印象相符。有些朋友会背叛你，而昔日敌人也有可能伸出援手。</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
           <t>1889981</t>
         </is>
       </c>
-      <c r="B934" t="inlineStr">
+      <c r="B935" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="C934" t="inlineStr">
+      <c r="C935" t="inlineStr">
         <is>
           <t>Pathfinder: Wrath of the Righteous - Through the Ashes</t>
         </is>
       </c>
-      <c r="D934" t="inlineStr">
+      <c r="D935" t="inlineStr">
         <is>
           <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
-      <c r="E934" t="inlineStr">
+      <c r="E935" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G934" t="inlineStr">
+      <c r="G935" t="inlineStr">
         <is>
           <t>2022年04月21日</t>
         </is>
       </c>
-      <c r="H934" t="inlineStr">
+      <c r="H935" t="inlineStr">
         <is>
           <t>当你指引着骑士指挥官走向神话般的荣耀时，坎娜布利燃烧的街道上，普通人则在尽最大努力挣扎求生。站在普通市民的角度看待战争，并证明要展现英雄气节，你并不需要成为一位神话中的勇士。带领一小群市民逃脱囚禁，前往安全的避难所。你将拯救谁？将牺牲谁？主线战役的英雄们又错过了世界之伤的哪些骇人的秘密？&lt;br /&gt;
 &lt;br /&gt;
@@ -39868,62 +39905,25 @@
         </is>
       </c>
     </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>1891570</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>Sokonashi No Me</t>
-        </is>
-      </c>
-      <c r="C935" t="inlineStr">
-        <is>
-          <t>Sokonashi No Me</t>
-        </is>
-      </c>
-      <c r="D935" t="inlineStr">
-        <is>
-          <t>休闲,独立,冒险,角色扮演,2D</t>
-        </is>
-      </c>
-      <c r="E935" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>2022年02月19日</t>
-        </is>
-      </c>
-      <c r="H935" t="inlineStr">
-        <is>
-          <t>&lt;h2 class="bb_tag"&gt;General&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;Sokonashi No Me&lt;/strong&gt; is an &lt;strong&gt;addicting game&lt;/strong&gt; in which you have to solve puzzles with &lt;strong&gt;Lovely Girls&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Incredible Atmosphere&lt;/strong&gt;, &lt;strong&gt;Great Music&lt;/strong&gt;,&lt;strong&gt; lots of levels with girls art in HD quality.&lt;/strong&gt;&lt;br&gt;The game is great for relaxing after a hard day.&lt;h2 class="bb_tag"&gt;Features&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Several difficulty levels.&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Relaxing gameplay&lt;/strong&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;5 HD quality art with beautiful girls&lt;/strong&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Pleasant atmosphere.&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;Game Modes:&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;EASY&lt;/strong&gt; - 4x4&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;MEDIUM&lt;/strong&gt; - 4x6&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;ADVANCED&lt;/strong&gt; - 6x10&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;HARD&lt;/strong&gt; - 8x14&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;EPIC&lt;/strong&gt;- 10x16&lt;/li&gt;&lt;/ul&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>1907570</t>
+          <t>1891570</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Hot Milf 4</t>
+          <t>Sokonashi No Me</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Hot Milf 4</t>
+          <t>Sokonashi No Me</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>Casual,Indie</t>
+          <t>休闲,独立,冒险,角色扮演,2D</t>
         </is>
       </c>
       <c r="E936" t="inlineStr">
@@ -39933,34 +39933,34 @@
       </c>
       <c r="G936" t="inlineStr">
         <is>
-          <t>2022年03月05日</t>
+          <t>2022年02月19日</t>
         </is>
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Hentai is not just 2D girls, this is a whole art. And in this art units understand. The game &amp;quot;Hot Milf 4&amp;quot; is a hentai puzzle in which you need to move the elements vertically or horizontally to get the finished image. The game has hot levels, as well as a gallery, after completing a level, you can review your victories here. Hentai girls, this is a whole era of art.&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; The game includes 10 different girls;&lt;br&gt;&lt;/li&gt;&lt;li&gt; Realized complex mechanics of games 15;&lt;br&gt;&lt;/li&gt;&lt;li&gt; Very hot milfs;&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>&lt;h2 class="bb_tag"&gt;General&lt;/h2&gt;&lt;br&gt;&lt;strong&gt;Sokonashi No Me&lt;/strong&gt; is an &lt;strong&gt;addicting game&lt;/strong&gt; in which you have to solve puzzles with &lt;strong&gt;Lovely Girls&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;Incredible Atmosphere&lt;/strong&gt;, &lt;strong&gt;Great Music&lt;/strong&gt;,&lt;strong&gt; lots of levels with girls art in HD quality.&lt;/strong&gt;&lt;br&gt;The game is great for relaxing after a hard day.&lt;h2 class="bb_tag"&gt;Features&lt;/h2&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;Several difficulty levels.&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Relaxing gameplay&lt;/strong&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;5 HD quality art with beautiful girls&lt;/strong&gt;&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Pleasant atmosphere.&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2 class="bb_tag"&gt;Game Modes:&lt;/h2&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;EASY&lt;/strong&gt; - 4x4&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;MEDIUM&lt;/strong&gt; - 4x6&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;ADVANCED&lt;/strong&gt; - 6x10&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;HARD&lt;/strong&gt; - 8x14&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;EPIC&lt;/strong&gt;- 10x16&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>1939560</t>
+          <t>1907570</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>镇邪 Zhenxie</t>
+          <t>Hot Milf 4</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>镇邪</t>
+          <t>Hot Milf 4</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>冒险,角色扮演,悬疑,解谜,单人</t>
+          <t>Casual,Indie</t>
         </is>
       </c>
       <c r="E937" t="inlineStr">
@@ -39968,41 +39968,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F937" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>2022年11月04日</t>
+          <t>2022年03月05日</t>
         </is>
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>《镇邪》是一款单机国风道士题材游戏。根据大量的民间故事改编。在游戏中，玩家将扮演道门弟子前往神秘村庄调查身世之谜，不想却无意中卷入一场巨大的阴谋。除了体验丰富的游戏主线剧情之外，玩家还可以体验到摸金寻宝，驱邪镇灵，开坛做法，画符炼尸等多种传统的国风元素。游戏引用了先进的ASMR立体环绕音频技术以及全人物中文配音以便达到沉浸式的视听盛宴。&lt;br&gt;&lt;br&gt;神秘村庄隐藏惊天阴谋，离奇真相横跨前世今生。空前绝后的人鬼较量，灵异邪祟的无尽纠缠。二十载宿命，难抵一生夙愿。一切尽在《镇邪》。&lt;h2 class="bb_tag"&gt;开坛画符，布阵炼尸&lt;/h2&gt;在这个游戏中你扮演一名道士，不仅可以开坛画符，替人驱邪看病，还可以招鬼为你所用，或者抓鬼超度，更可以养尸炼尸，让你过足道士的瘾。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF9.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF1.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF6.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;下墓摸金，画符炼器&lt;/h2&gt;在这地下有不为人知的秘密和陷阱，更有着珍贵无比的宝物。面对墓穴中的僵尸和厉鬼，你必须准备充足后再下墓，下墓前为自己画好足够的符纸保命。极具特色的盗墓题材，设计精妙的烧脑机关，让热爱解密动脑游戏的你有超乎寻常的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF8.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF2.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;水鬼上岸，公鸡引魂&lt;/h2&gt;精彩的游戏剧情引人入胜，根据大量的民间故事改编，招魂，水鬼上岸，公鸡引魂，配冥婚......让你在了解民间恐怖故事的同时，也能感受到不一样的感官视觉体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF3.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF7.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;特殊机遇，吉凶随缘&lt;/h2&gt;野外充满了机遇，你可能遇见厉鬼假扮的村民向你求助，趁你不备时候给你狠狠的捅上一刀。也可能遇见真正受伤的村民，在你救助之后给与你特殊的物品。同时野外的义庄、乱葬岗、破庙、祖坟等，不同的地方都有各自不同的事件，让你在野外探索时也充满刺激。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF4.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF5.gif?t=1673422339" /&gt;</t>
+          <t>Hentai is not just 2D girls, this is a whole art. And in this art units understand. The game &amp;quot;Hot Milf 4&amp;quot; is a hentai puzzle in which you need to move the elements vertically or horizontally to get the finished image. The game has hot levels, as well as a gallery, after completing a level, you can review your victories here. Hentai girls, this is a whole era of art.&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; The game includes 10 different girls;&lt;br&gt;&lt;/li&gt;&lt;li&gt; Realized complex mechanics of games 15;&lt;br&gt;&lt;/li&gt;&lt;li&gt; Very hot milfs;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>1940340</t>
+          <t>1939560</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Darkest Dungeon® II</t>
+          <t>镇邪 Zhenxie</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>暗黑地牢2</t>
+          <t>镇邪</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>回合制战术,黑暗奇幻,轻度 Rogue,迷宫探索,洛夫克拉夫特式</t>
+          <t>冒险,角色扮演,悬疑,解谜,单人</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
@@ -40017,34 +40012,34 @@
       </c>
       <c r="G938" t="inlineStr">
         <is>
-          <t>2023年05月08日</t>
+          <t>2022年11月04日</t>
         </is>
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>《暗黑地牢2》是一场有去无回的类Rogue公路旅行。组建一支队伍，武装你的驿站马车，然后驱车横穿日益腐朽的大地，在末日浩劫中追寻最后一线希望。但是务必当心：最大的威胁，或许正是你的心魔……&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;鼓起勇气，驱车直入这土崩瓦解的乱世。&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;四名英雄，一辆马车，便是这世界坠入万劫不复前的最后屏障。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-1-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;历久弥新的回合制战斗&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》中一鸣惊人、奠定系列基础的战斗系统回归，但从数值到规则的一切都得到了改进和优化。全新的标记系统会让你的决策更有意义，同时也让玩法更有深度。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-2-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;令人难忘的英雄&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;发掘并亲历每名英雄的悲情故事。通过技能、道途、物品和更多选择来解锁他们完整的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Story-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;类Rogue冒险，每轮都有新的故事&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;每场征程的持续时间为30分钟至数个小时。即使出师未捷身先死，你也会获得资源奖励，为你后续的旅程提供助力。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;希望祭坛&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;得益于庞大的升级与奖励系统，每场征程都会有新的策略可供尝试。选择对于你来说最重要的东西，构建独特的策略向山峰发起冲击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Altar-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;和睦系统&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;随着每次旅程的进展，英雄们或是会彼此建立纽带，或是会相互结下梁子；前者能带来雪中送炭的战斗配合，而后者则往往将团队引向灭亡。管理英雄们的压力和互动，才能让他们团结一致，携手赴死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/inseparable_600w.jpg?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;噩梦般的环境&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;从烈火滔天的陌城到疫病肆虐的腐宴，通往山峰的漫漫前路将会对你的决策能力和忍耐力发起挑战。&lt;br&gt;&lt;br&gt;探索五个迥然不同的地区，每个地区都有其独特的生物和挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-2-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;片刻安宁&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;酒馆可以供历尽艰险、心神不宁的英雄们歇息，在那里你可以用一系列奇珍杂物缓解他们的压力，并尝试让他们变得更加和睦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Inn-1-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;直面你的失败&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;跋山涉水前往山峰，直面你的五个弱点的可怖具象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/Mountain-DRIVING_600w.png?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;标志性的美术风格更上一层楼&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;为《暗黑地牢》系列奠基的美术得到了全方位的提升，倾情演绎3D美术，动画及视觉效果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;听觉盛宴&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》的音频团队再度回归。尽享由 Wayne June 配音的全新剧情叙事，来自 Stuart Chatwood 的绕梁不散的原声音轨，以及来自 Power Up Audio 那粉身碎骨般的音效。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/jester_600w.png?t=1684783639" /&gt;&lt;h2 class="bb_tag"&gt;游玩系列源起之作！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/262060/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/262060/&lt;/a&gt;</t>
+          <t>《镇邪》是一款单机国风道士题材游戏。根据大量的民间故事改编。在游戏中，玩家将扮演道门弟子前往神秘村庄调查身世之谜，不想却无意中卷入一场巨大的阴谋。除了体验丰富的游戏主线剧情之外，玩家还可以体验到摸金寻宝，驱邪镇灵，开坛做法，画符炼尸等多种传统的国风元素。游戏引用了先进的ASMR立体环绕音频技术以及全人物中文配音以便达到沉浸式的视听盛宴。&lt;br&gt;&lt;br&gt;神秘村庄隐藏惊天阴谋，离奇真相横跨前世今生。空前绝后的人鬼较量，灵异邪祟的无尽纠缠。二十载宿命，难抵一生夙愿。一切尽在《镇邪》。&lt;h2 class="bb_tag"&gt;开坛画符，布阵炼尸&lt;/h2&gt;在这个游戏中你扮演一名道士，不仅可以开坛画符，替人驱邪看病，还可以招鬼为你所用，或者抓鬼超度，更可以养尸炼尸，让你过足道士的瘾。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF9.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF1.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF6.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;下墓摸金，画符炼器&lt;/h2&gt;在这地下有不为人知的秘密和陷阱，更有着珍贵无比的宝物。面对墓穴中的僵尸和厉鬼，你必须准备充足后再下墓，下墓前为自己画好足够的符纸保命。极具特色的盗墓题材，设计精妙的烧脑机关，让热爱解密动脑游戏的你有超乎寻常的游戏体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF8.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF2.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;水鬼上岸，公鸡引魂&lt;/h2&gt;精彩的游戏剧情引人入胜，根据大量的民间故事改编，招魂，水鬼上岸，公鸡引魂，配冥婚......让你在了解民间恐怖故事的同时，也能感受到不一样的感官视觉体验。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF3.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF7.gif?t=1673422339" /&gt;&lt;h2 class="bb_tag"&gt;特殊机遇，吉凶随缘&lt;/h2&gt;野外充满了机遇，你可能遇见厉鬼假扮的村民向你求助，趁你不备时候给你狠狠的捅上一刀。也可能遇见真正受伤的村民，在你救助之后给与你特殊的物品。同时野外的义庄、乱葬岗、破庙、祖坟等，不同的地方都有各自不同的事件，让你在野外探索时也充满刺激。&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF4.gif?t=1673422339" /&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1939560/extras/GIF5.gif?t=1673422339" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>1941850</t>
+          <t>1940340</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Goddess Of War Essa</t>
+          <t>Darkest Dungeon® II</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Goddess Of War Essa</t>
+          <t>暗黑地牢2</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>休闲,冒险,射击,俯视射击,弹幕射击</t>
+          <t>回合制战术,黑暗奇幻,轻度 Rogue,迷宫探索,洛夫克拉夫特式</t>
         </is>
       </c>
       <c r="E939" t="inlineStr">
@@ -40052,36 +40047,41 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>2022年04月15日</t>
+          <t>2023年05月08日</t>
         </is>
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>[游戏简介]&lt;br&gt;《Goddess Of War Essa》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在空中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1941850/extras/1.jpg?t=1650413831" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1941850/extras/2.jpg?t=1650413831" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，激光，防护罩，大范围攻击武器等等。&lt;br&gt;玩家可开启最多4个悬浮炮，每个悬浮炮都可以装备不同的炮弹。击败特定敌人后，会获得悬浮炮的炮弹。&lt;br&gt;击落关键敌机后会掉落护卫战机，装备后可以提高火力。&lt;br&gt;玩家击中敌机时可获得经验，经验满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。</t>
+          <t>《暗黑地牢2》是一场有去无回的类Rogue公路旅行。组建一支队伍，武装你的驿站马车，然后驱车横穿日益腐朽的大地，在末日浩劫中追寻最后一线希望。但是务必当心：最大的威胁，或许正是你的心魔……&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;鼓起勇气，驱车直入这土崩瓦解的乱世。&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;四名英雄，一辆马车，便是这世界坠入万劫不复前的最后屏障。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-1-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;历久弥新的回合制战斗&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》中一鸣惊人、奠定系列基础的战斗系统回归，但从数值到规则的一切都得到了改进和优化。全新的标记系统会让你的决策更有意义，同时也让玩法更有深度。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-2-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;令人难忘的英雄&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;发掘并亲历每名英雄的悲情故事。通过技能、道途、物品和更多选择来解锁他们完整的力量。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Story-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;类Rogue冒险，每轮都有新的故事&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;每场征程的持续时间为30分钟至数个小时。即使出师未捷身先死，你也会获得资源奖励，为你后续的旅程提供助力。&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;希望祭坛&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;得益于庞大的升级与奖励系统，每场征程都会有新的策略可供尝试。选择对于你来说最重要的东西，构建独特的策略向山峰发起冲击。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Altar-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;和睦系统&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;随着每次旅程的进展，英雄们或是会彼此建立纽带，或是会相互结下梁子；前者能带来雪中送炭的战斗配合，而后者则往往将团队引向灭亡。管理英雄们的压力和互动，才能让他们团结一致，携手赴死。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/inseparable_600w.jpg?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;噩梦般的环境&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;从烈火滔天的陌城到疫病肆虐的腐宴，通往山峰的漫漫前路将会对你的决策能力和忍耐力发起挑战。&lt;br&gt;&lt;br&gt;探索五个迥然不同的地区，每个地区都有其独特的生物和挑战。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Driving-2-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;片刻安宁&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;酒馆可以供历尽艰险、心神不宁的英雄们歇息，在那里你可以用一系列奇珍杂物缓解他们的压力，并尝试让他们变得更加和睦。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Inn-1-630x200.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;直面你的失败&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;跋山涉水前往山峰，直面你的五个弱点的可怖具象。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/Mountain-DRIVING_600w.png?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;标志性的美术风格更上一层楼&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;为《暗黑地牢》系列奠基的美术得到了全方位的提升，倾情演绎3D美术，动画及视觉效果。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/DD2-Combat-1-630x300.gif?t=1684783639" /&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;i&gt;听觉盛宴&lt;/i&gt;&lt;/strong&gt;&lt;br&gt;《暗黑地牢》的音频团队再度回归。尽享由 Wayne June 配音的全新剧情叙事，来自 Stuart Chatwood 的绕梁不散的原声音轨，以及来自 Power Up Audio 那粉身碎骨般的音效。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1940340/extras/jester_600w.png?t=1684783639" /&gt;&lt;h2 class="bb_tag"&gt;游玩系列源起之作！&lt;/h2&gt;&lt;a href="https://store.steampowered.com/app/262060/" target="_blank" rel=""  id="dynamiclink_1" &gt;https://store.steampowered.com/app/262060/&lt;/a&gt;</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>1963120</t>
+          <t>1941850</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Elemental Angel Ⅲ</t>
+          <t>Goddess Of War Essa</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Elemental Angel Ⅲ</t>
+          <t>Goddess Of War Essa</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>休闲,冒险,射击,2D 平台,俯视射击</t>
+          <t>休闲,冒险,射击,俯视射击,弹幕射击</t>
         </is>
       </c>
       <c r="E940" t="inlineStr">
@@ -40091,34 +40091,34 @@
       </c>
       <c r="G940" t="inlineStr">
         <is>
-          <t>2022年06月17日</t>
+          <t>2022年04月15日</t>
         </is>
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>[游戏简介]&lt;br&gt;《Elemental Angel Ⅲ》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在宇宙中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963120/extras/1.jpg?t=1655449295" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963120/extras/2.jpg?t=1655449295" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，加农炮，防护罩，大范围攻击武器等等。&lt;br&gt;玩家可开启最多4个悬浮炮，每个悬浮炮都可以装备不同的炮弹。击败特定敌人后，会获得悬浮炮的炮弹。&lt;br&gt;玩家击中敌机时可获得能量，能量满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。&lt;br&gt;玩家击败特定敌人后，会获得护卫战机。不同的护卫战机有着不同的攻击方式，最多可以携带两架护卫战机。可在补给站中设置。&lt;br&gt;玩家可升级元素科技，开启元素炮及元素技能。当元素能量满时，便可释放元素技能。多种元素能量满时可释放不同的元素技能以及组合元素技能。</t>
+          <t>[游戏简介]&lt;br&gt;《Goddess Of War Essa》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在空中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1941850/extras/1.jpg?t=1650413831" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1941850/extras/2.jpg?t=1650413831" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，激光，防护罩，大范围攻击武器等等。&lt;br&gt;玩家可开启最多4个悬浮炮，每个悬浮炮都可以装备不同的炮弹。击败特定敌人后，会获得悬浮炮的炮弹。&lt;br&gt;击落关键敌机后会掉落护卫战机，装备后可以提高火力。&lt;br&gt;玩家击中敌机时可获得经验，经验满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>2003260</t>
+          <t>1963120</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Shake Ground</t>
+          <t>Elemental Angel Ⅲ</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Shake Ground</t>
+          <t>Elemental Angel Ⅲ</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>俯视射击,休闲,射击,街机,2D</t>
+          <t>休闲,冒险,射击,2D 平台,俯视射击</t>
         </is>
       </c>
       <c r="E941" t="inlineStr">
@@ -40128,47 +40128,84 @@
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>2022年06月01日</t>
+          <t>2022年06月17日</t>
         </is>
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>&amp;quot;Shake Ground&amp;quot; is a classic top-down arena shooter. The player takes on the role of a fearless tanker and the main goal is to defeat all enemies and survive in the battle. Don't let enemy tanks wipe you out - one hit and you're dead, but you can get help in the form of power-ups for your combat vehicle, including: increased rate of fire, increased movement speed, additional armor, mines and a special type of projectile - &amp;quot;ricochet&amp;quot;! But don't sleep, your enemies can also take advantage of these gifts of fate.&lt;br&gt;&lt;br&gt;Control the tank with the keys - WASD&lt;br&gt;Rotate the tower with the mouse&lt;br&gt;Shoot regular projectiles - LMB&lt;br&gt;Place mines with - SCM&lt;br&gt;Use the projectile &amp;quot;ricochet&amp;quot; - RMB&lt;br&gt;&lt;br&gt;&lt;strong&gt;Game Features:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; nice old-school visuals&lt;br&gt;&lt;/li&gt;&lt;li&gt; responsive controls&lt;br&gt;&lt;/li&gt;&lt;li&gt; 18 levels&lt;br&gt;&lt;/li&gt;&lt;li&gt; Steam Achievements support&lt;br&gt;&lt;/li&gt;&lt;li&gt; 4 types of enemy tanks with different weapons&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>[游戏简介]&lt;br&gt;《Elemental Angel Ⅲ》是一款纵向卷轴飞行射击类游戏。玩家控制主角战机在宇宙中与敌人战斗。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963120/extras/1.jpg?t=1655449295" /&gt;&lt;br&gt;[游戏控制]&lt;br&gt;玩家可通过键盘、键盘+鼠标或手柄进行游戏的控制。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/1963120/extras/2.jpg?t=1655449295" /&gt;&lt;br&gt;[游戏特色]&lt;br&gt;玩家击毁敌机可以获得钻石，钻石可以在补给站中升级主角的战机。可升级的种类有子弹的数量，子弹的威力，加农炮，防护罩，大范围攻击武器等等。&lt;br&gt;玩家可开启最多4个悬浮炮，每个悬浮炮都可以装备不同的炮弹。击败特定敌人后，会获得悬浮炮的炮弹。&lt;br&gt;玩家击中敌机时可获得能量，能量满后战机的主炮与副炮会升级。等级达到最大后，主角战机会进入热血状态。&lt;br&gt;玩家击败特定敌人后，会获得护卫战机。不同的护卫战机有着不同的攻击方式，最多可以携带两架护卫战机。可在补给站中设置。&lt;br&gt;玩家可升级元素科技，开启元素炮及元素技能。当元素能量满时，便可释放元素技能。多种元素能量满时可释放不同的元素技能以及组合元素技能。</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
+          <t>2003260</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Shake Ground</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Shake Ground</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>俯视射击,休闲,射击,街机,2D</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>2022年06月01日</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>&amp;quot;Shake Ground&amp;quot; is a classic top-down arena shooter. The player takes on the role of a fearless tanker and the main goal is to defeat all enemies and survive in the battle. Don't let enemy tanks wipe you out - one hit and you're dead, but you can get help in the form of power-ups for your combat vehicle, including: increased rate of fire, increased movement speed, additional armor, mines and a special type of projectile - &amp;quot;ricochet&amp;quot;! But don't sleep, your enemies can also take advantage of these gifts of fate.&lt;br&gt;&lt;br&gt;Control the tank with the keys - WASD&lt;br&gt;Rotate the tower with the mouse&lt;br&gt;Shoot regular projectiles - LMB&lt;br&gt;Place mines with - SCM&lt;br&gt;Use the projectile &amp;quot;ricochet&amp;quot; - RMB&lt;br&gt;&lt;br&gt;&lt;strong&gt;Game Features:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; nice old-school visuals&lt;br&gt;&lt;/li&gt;&lt;li&gt; responsive controls&lt;br&gt;&lt;/li&gt;&lt;li&gt; 18 levels&lt;br&gt;&lt;/li&gt;&lt;li&gt; Steam Achievements support&lt;br&gt;&lt;/li&gt;&lt;li&gt; 4 types of enemy tanks with different weapons&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
           <t>2004200</t>
         </is>
       </c>
-      <c r="B942" t="inlineStr">
+      <c r="B943" t="inlineStr">
         <is>
           <t>Pickup One</t>
         </is>
       </c>
-      <c r="C942" t="inlineStr">
+      <c r="C943" t="inlineStr">
         <is>
           <t>头号皮卡</t>
         </is>
       </c>
-      <c r="D942" t="inlineStr">
+      <c r="D943" t="inlineStr">
         <is>
           <t>休闲,街机,3D,跑酷,单人</t>
         </is>
       </c>
-      <c r="E942" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="G942" t="inlineStr">
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G943" t="inlineStr">
         <is>
           <t>2022年06月03日</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
+      <c r="H943" t="inlineStr">
         <is>
           <t>Game goals:&lt;br /&gt;
 This is an parkour pickup game. The pace of the game is very tight. The goal of the game is to score as many points as possible.&lt;br /&gt;
@@ -40180,43 +40217,43 @@
         </is>
       </c>
     </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
+    <row r="944">
+      <c r="A944" t="inlineStr">
         <is>
           <t>2050650</t>
         </is>
       </c>
-      <c r="B943" t="inlineStr">
+      <c r="B944" t="inlineStr">
         <is>
           <t>Resident Evil 4</t>
         </is>
       </c>
-      <c r="C943" t="inlineStr">
+      <c r="C944" t="inlineStr">
         <is>
           <t>生化危机4 重制版</t>
         </is>
       </c>
-      <c r="D943" t="inlineStr">
+      <c r="D944" t="inlineStr">
         <is>
           <t>动作,生存恐怖,第三人称射击,僵尸,生存</t>
         </is>
       </c>
-      <c r="E943" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F943" t="inlineStr">
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F944" t="inlineStr">
         <is>
           <t>9.9</t>
         </is>
       </c>
-      <c r="G943" t="inlineStr">
+      <c r="G944" t="inlineStr">
         <is>
           <t>2023年03月24日</t>
         </is>
       </c>
-      <c r="H943" t="inlineStr">
+      <c r="H944" t="inlineStr">
         <is>
           <t>成功逃脱并战胜死亡的快感。&lt;br/&gt;
 &lt;br/&gt;
@@ -40229,109 +40266,72 @@
         </is>
       </c>
     </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>2064590</t>
-        </is>
-      </c>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
-        </is>
-      </c>
-      <c r="C944" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
-        </is>
-      </c>
-      <c r="D944" t="inlineStr">
-        <is>
-          <t>策略,冒险,角色扮演,独立</t>
-        </is>
-      </c>
-      <c r="E944" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>2022年08月30日</t>
-        </is>
-      </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
-&lt;br /&gt;
-•	以独立的类rogue模式，或以主线战役的一部分，探索满载财宝与危机的广袤群岛。&lt;br /&gt;
-&lt;br /&gt;
-•	尝试不同的角色构建和队伍组合，运用丰富多变的开拓者角色扮演系统获取优势，包括神话道途。&lt;br /&gt;
-&lt;br /&gt;
-•	死亡不过是一次挫折！即便队伍团灭，它取得的进度依然能在后续的游玩过程中为你起到帮助。&lt;br /&gt;
-&lt;br /&gt;
-•	装备上新的魔法物品，将新的魔法药水和卷轴放进腰包，去挑战曾经和未曾交手过的敌人。&lt;br /&gt;
-&lt;br /&gt;
-•	发掘这艘载你启航的船只的秘密，以及你正在寻找的终极财宝的真相。</t>
-        </is>
-      </c>
-    </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>2076250</t>
+          <t>2064590</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Sunday Gold: Prologue</t>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>黄金魁犬：序章</t>
+          <t>Pathfinder: Wrath of the Righteous – The Treasure of the Midnight Isles</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>免费开玩,冒险,动作,角色扮演,指向点击</t>
+          <t>策略,冒险,角色扮演,独立</t>
         </is>
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>2022年08月10日</t>
+          <t>2022年08月30日</t>
         </is>
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>&lt;strong&gt;黄金魁犬：序章&lt;/strong&gt;&lt;br&gt;&lt;br&gt;进入黄金魁犬的开篇章节。 在序章中，你将扮演霉穿地心的硬汉弗兰克·巴伯，与一群怪人为伍并开始你的下一份工作：揭露霍根工业的黑暗秘密。&amp;quot;&lt;br&gt;&lt;br&gt;体验一个独特的混合逃生密室风格的谜题、回合制战斗和RPG机制，并将其与黑暗、电影化的故事情节联系在一起。&lt;br&gt; &lt;br&gt;深入了解近未来伦敦的暗无天日的底层生活&lt;br&gt;&lt;br&gt;曾经熙熙攘攘、充满生机的伦敦，如今却是一片阴暗凄凉的状态。 失业率和无家可归者处于历史最高水平。道德底线被拉伸到极限，腐败的亿万富翁肯尼·霍根（Kenny Hogan）则不安好心。&lt;br&gt;&lt;br&gt;由弗兰克、莎莉和加文组成的底层社会渣滓小团伙，将击碎肯尼-霍根的计划，迫使他屈服。但这并不简单，他们将不得不面对一路上的层层障碍……&lt;br&gt; &lt;br&gt;沉浸在一个黑暗的反乌托邦故事中&lt;br&gt; &lt;br&gt;通过完全配音角色讲述的故事情节，让自己沉浸在一个狡猾而生动的世界中。体验令人惊叹的手绘环境、2D电影和漫画的灵感序列，以及故事悬念将持续钓你的胃口，让你欲罢不能。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Story_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;令人抓狂的谜题&lt;br&gt;&lt;br&gt;探索每个房间，解决集观察、推理和库存为一体的难题组合，以推进任务发展。猎取线索，入侵终端，攻破一扇门（或两扇），在每个 &amp;quot;英雄 &amp;quot;特有的迷你游戏挑战中测试你的智慧高度。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Minigame_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;受漫画启发的摩登回合制战斗&lt;br&gt;&lt;br&gt;在时尚和电影般的RPG风格战斗中与你的对手对峙。每个团队成员都拥有自己独特的技能以及他们自己的优势和劣势。从战略上计划你的动作，掌握制胜的连击，把你的敌人踢到一边嗷嗷叫去。 &lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Combat_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;保持镇定，手心出汗了就擦擦&lt;br&gt;&lt;br&gt;挑战你的除了敌人还有你自身的压力！令人不安和压力的情况会削弱你的角色的镇定，导致他们冲动行事。使用消耗品和领导能力来维持团队的镇定。失去理智，功亏一篑！&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Compsoure_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;点击式游戏的现代转折点&lt;br&gt;&lt;br&gt;《黄金魁犬》采用了传统的点击游戏元素，并将其与激烈的RPG战斗和跌宕起伏的故事情节相结合。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Explore_Trim.gif?t=1665718921" /&gt;</t>
+          <t>散布在黑暗深渊大洋中的群岛埋藏着无数奇珍异宝，同时也蛰伏着难以言表的恐怖。登上阴森的被诅咒之船，冒险深入未知海域，航向你的财富……或是死亡。&lt;br /&gt;
+&lt;br /&gt;
+•	以独立的类rogue模式，或以主线战役的一部分，探索满载财宝与危机的广袤群岛。&lt;br /&gt;
+&lt;br /&gt;
+•	尝试不同的角色构建和队伍组合，运用丰富多变的开拓者角色扮演系统获取优势，包括神话道途。&lt;br /&gt;
+&lt;br /&gt;
+•	死亡不过是一次挫折！即便队伍团灭，它取得的进度依然能在后续的游玩过程中为你起到帮助。&lt;br /&gt;
+&lt;br /&gt;
+•	装备上新的魔法物品，将新的魔法药水和卷轴放进腰包，去挑战曾经和未曾交手过的敌人。&lt;br /&gt;
+&lt;br /&gt;
+•	发掘这艘载你启航的船只的秘密，以及你正在寻找的终极财宝的真相。</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>2095300</t>
+          <t>2076250</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Breakout 13</t>
+          <t>Sunday Gold: Prologue</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>飞越13号房</t>
+          <t>黄金魁犬：序章</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>探索,自选历险体验,沉浸式模拟,互动小说,全动态影像</t>
+          <t>免费开玩,冒险,动作,角色扮演,指向点击</t>
         </is>
       </c>
       <c r="E946" t="inlineStr">
@@ -40339,41 +40339,36 @@
           <t>Game</t>
         </is>
       </c>
-      <c r="F946" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>2023年01月09日</t>
+          <t>2022年08月10日</t>
         </is>
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>&lt;i&gt;  不被引导的青春肆意生长，一个通电的仪器，他们成为所有人眼中的病人。&lt;br&gt;  不被理解的热血没有回应，一扇冰冷的大门，他们成为黑色海洋中的孤岛。&lt;/br&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/logo.gif?t=1678682243"/&gt;&lt;br&gt;这是一个属于一代游戏玩家独有的故事：一场游戏与偏见的战争。游戏中玩家扮演一名驰骋游戏世界的「叛逆少年」，被送进行为矫正中心，在一次次抉择中，了解这个地方的生存法则；在蛰伏调查中，发现背后层层的秘密；和同伴一起，克服重重困难，并最终决定所有人的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/play_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/play.gif?t=1678682243"/&gt;&lt;br&gt;玩家将体验多重互动玩法，包括&lt;strong&gt;剧情选择、QTE、拟真交互、线索收集、推理合成、实时监听、多视角监控、密室解谜、电击玩法&lt;/strong&gt;等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/act_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/act.gif?t=1678682243"/&gt;&lt;br&gt;本作改编自橙光。背景发生在21世纪初，在这个以「感恩」为名的地方，「你」接受了杨校长一系列的「改造」计划——禁闭、体罚、殴打、精神折磨，以及13号房的特色电击治疗。&lt;br&gt;&lt;br&gt;&lt;strong&gt;逃脱&lt;/strong&gt;，如果你能做出精妙的动作；&lt;strong&gt;调查&lt;/strong&gt;，如果你能找到隐藏的真相；&lt;br&gt;&lt;strong&gt;布局&lt;/strong&gt;，如果你能获得伙伴的信任；&lt;strong&gt;回家&lt;/strong&gt;，如果你能坚定自己的选择。&lt;br&gt;&lt;br&gt;面对这一切的考验，你不仅掌握着自己命运的走向，更影响着身边同伴和这所矫正中心最终的结局。&lt;br&gt; &lt;br&gt;&lt;i&gt;  “如果只是离开这里，这恐惧将伴随我一生，我必须要证明他是错的，我们才能真正的，回家。”&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/line_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/line.gif?t=1678682243"/&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;多重分支走向&lt;/strong&gt;-  数百种分支走向，八大主结局，更有层层处处隐藏剧情。在一系列的艰难抉择中，塑造属于你的「英雄之旅」。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;电影级视听呈现&lt;/strong&gt;-  沉浸式感受角色真实情感情境，让你逐步体会「改造」计划，揭开矫正中心背后的真相。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;亦敌亦友的同伴&lt;/strong&gt;-  敌友难分的同伴，步步为营的人物关系。不同角色的关系发展，或将解锁高燃团队集结。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;你的特殊治疗&lt;/strong&gt;-  在杨校长的13号房中，说出你想说、该说和没机会说的话，感受光与电的「烧脑」体验。&lt;/li&gt;&lt;/ul&gt; &lt;br&gt;&lt;i&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;/i&gt;&lt;br&gt;我们是ALT Lab，一家专注于互动叙事的单机游戏团队。我们相信故事永远能给人带来力量，也想通过更丰富的媒介去打出有我们这代人烙印的故事。&lt;br&gt;&lt;br&gt;&lt;i&gt;&lt;h2 class="bb_tag"&gt;写在最后&lt;/h2&gt;&lt;/i&gt;&lt;br&gt;如果有一个故事能代表我们这一代游戏玩家一路走来堵在心中的愤懑，那应该会是我们要讲的这个。现实世界很多时候比故事更魔幻。我们前期进行了大量对网瘾学校和书院等各方的调研和访谈，现实之匪夷所思让我们大受震撼。我们发现这其中有许多来自于不良机构的恶意，来自于父母和社会的误解，也来自于年少我们的不善表达。我们希望通过我们游戏的呈现促成更多的相互理解。&lt;br&gt;&lt;br&gt;两年多的研发，历经波折，我们在疫情期间辗转多地完成了拍摄，也经过了多轮产品打磨。我们深知这个题材的特殊性，在过程中不敢放松自己，力求能做到不负初心的呈现。这是我们的荣幸能让这个项目面世。愿所有的父母子女，都能被理解以待，温柔以待。						&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
+          <t>&lt;strong&gt;黄金魁犬：序章&lt;/strong&gt;&lt;br&gt;&lt;br&gt;进入黄金魁犬的开篇章节。 在序章中，你将扮演霉穿地心的硬汉弗兰克·巴伯，与一群怪人为伍并开始你的下一份工作：揭露霍根工业的黑暗秘密。&amp;quot;&lt;br&gt;&lt;br&gt;体验一个独特的混合逃生密室风格的谜题、回合制战斗和RPG机制，并将其与黑暗、电影化的故事情节联系在一起。&lt;br&gt; &lt;br&gt;深入了解近未来伦敦的暗无天日的底层生活&lt;br&gt;&lt;br&gt;曾经熙熙攘攘、充满生机的伦敦，如今却是一片阴暗凄凉的状态。 失业率和无家可归者处于历史最高水平。道德底线被拉伸到极限，腐败的亿万富翁肯尼·霍根（Kenny Hogan）则不安好心。&lt;br&gt;&lt;br&gt;由弗兰克、莎莉和加文组成的底层社会渣滓小团伙，将击碎肯尼-霍根的计划，迫使他屈服。但这并不简单，他们将不得不面对一路上的层层障碍……&lt;br&gt; &lt;br&gt;沉浸在一个黑暗的反乌托邦故事中&lt;br&gt; &lt;br&gt;通过完全配音角色讲述的故事情节，让自己沉浸在一个狡猾而生动的世界中。体验令人惊叹的手绘环境、2D电影和漫画的灵感序列，以及故事悬念将持续钓你的胃口，让你欲罢不能。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Story_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;令人抓狂的谜题&lt;br&gt;&lt;br&gt;探索每个房间，解决集观察、推理和库存为一体的难题组合，以推进任务发展。猎取线索，入侵终端，攻破一扇门（或两扇），在每个 &amp;quot;英雄 &amp;quot;特有的迷你游戏挑战中测试你的智慧高度。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Minigame_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;受漫画启发的摩登回合制战斗&lt;br&gt;&lt;br&gt;在时尚和电影般的RPG风格战斗中与你的对手对峙。每个团队成员都拥有自己独特的技能以及他们自己的优势和劣势。从战略上计划你的动作，掌握制胜的连击，把你的敌人踢到一边嗷嗷叫去。 &lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Combat_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;保持镇定，手心出汗了就擦擦&lt;br&gt;&lt;br&gt;挑战你的除了敌人还有你自身的压力！令人不安和压力的情况会削弱你的角色的镇定，导致他们冲动行事。使用消耗品和领导能力来维持团队的镇定。失去理智，功亏一篑！&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Compsoure_Trim.gif?t=1665718921" /&gt;&lt;br&gt; &lt;br&gt;点击式游戏的现代转折点&lt;br&gt;&lt;br&gt;《黄金魁犬》采用了传统的点击游戏元素，并将其与激烈的RPG战斗和跌宕起伏的故事情节相结合。&lt;br&gt; &lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2076250/extras/Explore_Trim.gif?t=1665718921" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>2096600</t>
+          <t>2095300</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>Crysis 2 Remastered</t>
+          <t>Breakout 13</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>孤岛危机2：重制版</t>
+          <t>飞越13号房</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>动作,沙盒,射击,第一人称射击,英雄射击</t>
+          <t>探索,自选历险体验,沉浸式模拟,互动小说,全动态影像</t>
         </is>
       </c>
       <c r="E947" t="inlineStr">
@@ -40388,37 +40383,34 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>2022年11月17日</t>
+          <t>2023年01月09日</t>
         </is>
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Crysis 2 Remastered重现了经典第一人称射击游戏《孤岛危机2》的传奇单人战役，并且针对今天的硬件进行了优化。 &lt;br /&gt;
-&lt;br /&gt;
-&lt;br /&gt;
-在开创性的《孤岛危机》之后，外星人回到了一个气候灾难肆虐的世界。当入侵者把纽约夷为平地，并开始了一场可能导致全人类灭亡的进攻时，只有你掌握着能够领导反击的科技。在扮演一名装备了升级版纳米服2.0的超级战士时，你必须使用其颠覆性的隐身、装甲和力量能力来适应战场。实时调整你的纳米服和武器，解锁强大的新能力，为人类的生存而战。</t>
+          <t>&lt;i&gt;  不被引导的青春肆意生长，一个通电的仪器，他们成为所有人眼中的病人。&lt;br&gt;  不被理解的热血没有回应，一扇冰冷的大门，他们成为黑色海洋中的孤岛。&lt;/br&gt;&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/logo.gif?t=1678682243"/&gt;&lt;br&gt;这是一个属于一代游戏玩家独有的故事：一场游戏与偏见的战争。游戏中玩家扮演一名驰骋游戏世界的「叛逆少年」，被送进行为矫正中心，在一次次抉择中，了解这个地方的生存法则；在蛰伏调查中，发现背后层层的秘密；和同伴一起，克服重重困难，并最终决定所有人的命运。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/play_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/play.gif?t=1678682243"/&gt;&lt;br&gt;玩家将体验多重互动玩法，包括&lt;strong&gt;剧情选择、QTE、拟真交互、线索收集、推理合成、实时监听、多视角监控、密室解谜、电击玩法&lt;/strong&gt;等。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/act_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/act.gif?t=1678682243"/&gt;&lt;br&gt;本作改编自橙光。背景发生在21世纪初，在这个以「感恩」为名的地方，「你」接受了杨校长一系列的「改造」计划——禁闭、体罚、殴打、精神折磨，以及13号房的特色电击治疗。&lt;br&gt;&lt;br&gt;&lt;strong&gt;逃脱&lt;/strong&gt;，如果你能做出精妙的动作；&lt;strong&gt;调查&lt;/strong&gt;，如果你能找到隐藏的真相；&lt;br&gt;&lt;strong&gt;布局&lt;/strong&gt;，如果你能获得伙伴的信任；&lt;strong&gt;回家&lt;/strong&gt;，如果你能坚定自己的选择。&lt;br&gt;&lt;br&gt;面对这一切的考验，你不仅掌握着自己命运的走向，更影响着身边同伴和这所矫正中心最终的结局。&lt;br&gt; &lt;br&gt;&lt;i&gt;  “如果只是离开这里，这恐惧将伴随我一生，我必须要证明他是错的，我们才能真正的，回家。”&lt;/i&gt;&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/line_title.png?t=1678682243"/&gt;&lt;br&gt;&lt;img src="https://cdn.cloudflare.steamstatic.com/steam/apps/2095300/extras/line.gif?t=1678682243"/&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;多重分支走向&lt;/strong&gt;-  数百种分支走向，八大主结局，更有层层处处隐藏剧情。在一系列的艰难抉择中，塑造属于你的「英雄之旅」。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;电影级视听呈现&lt;/strong&gt;-  沉浸式感受角色真实情感情境，让你逐步体会「改造」计划，揭开矫正中心背后的真相。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;亦敌亦友的同伴&lt;/strong&gt;-  敌友难分的同伴，步步为营的人物关系。不同角色的关系发展，或将解锁高燃团队集结。&lt;/li&gt;&lt;/ul&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;&lt;strong&gt;你的特殊治疗&lt;/strong&gt;-  在杨校长的13号房中，说出你想说、该说和没机会说的话，感受光与电的「烧脑」体验。&lt;/li&gt;&lt;/ul&gt; &lt;br&gt;&lt;i&gt;&lt;h2 class="bb_tag"&gt;关于我们&lt;/h2&gt;&lt;/i&gt;&lt;br&gt;我们是ALT Lab，一家专注于互动叙事的单机游戏团队。我们相信故事永远能给人带来力量，也想通过更丰富的媒介去打出有我们这代人烙印的故事。&lt;br&gt;&lt;br&gt;&lt;i&gt;&lt;h2 class="bb_tag"&gt;写在最后&lt;/h2&gt;&lt;/i&gt;&lt;br&gt;如果有一个故事能代表我们这一代游戏玩家一路走来堵在心中的愤懑，那应该会是我们要讲的这个。现实世界很多时候比故事更魔幻。我们前期进行了大量对网瘾学校和书院等各方的调研和访谈，现实之匪夷所思让我们大受震撼。我们发现这其中有许多来自于不良机构的恶意，来自于父母和社会的误解，也来自于年少我们的不善表达。我们希望通过我们游戏的呈现促成更多的相互理解。&lt;br&gt;&lt;br&gt;两年多的研发，历经波折，我们在疫情期间辗转多地完成了拍摄，也经过了多轮产品打磨。我们深知这个题材的特殊性，在过程中不敢放松自己，力求能做到不负初心的呈现。这是我们的荣幸能让这个项目面世。愿所有的父母子女，都能被理解以待，温柔以待。						&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>2096610</t>
+          <t>2096600</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Crysis 3 Remastered</t>
+          <t>Crysis 2 Remastered</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>孤岛危机3：重制版</t>
+          <t>孤岛危机2：重制版</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>动作,第一人称射击,射击,外星人,英雄射击</t>
+          <t>动作,沙盒,射击,第一人称射击,英雄射击</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -40428,7 +40420,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -40438,31 +40430,32 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Crysis 3 Remastered重现了著名第一人称射击游戏《孤岛危机3》的单人战役，并且针对今天的硬件进行了优化。&lt;br /&gt;
-&lt;br /&gt;
-在Crysis 3 Remastered中，世界的命运再次掌握在你的手里。扮演超级战士先知重返战斗，挥舞能够发射带电箭、爆炸箭和碳素箭的强大的自动装填捕食者之弓，迎战威胁着你努力实现的和平的新老敌人。搜索阿尔法塞弗的行动仍在继续，但同时你也必须揭开C.E.L.L.公司背后的秘密，它把纽约变成了一座被巨大的纳米穹顶所笼罩的庞大都市雨林。当穿着传奇的纳米服在七个风格各异的地区作战时，你必须选择你的路径，评估、适应然后发起攻击。使用纳米服的超级科技，靠狂暴的力量杀死敌人，或者通过隐身来达成目标，成为人类沉默的救世主。不择手段，拯救世界。</t>
+          <t>Crysis 2 Remastered重现了经典第一人称射击游戏《孤岛危机2》的传奇单人战役，并且针对今天的硬件进行了优化。 &lt;br /&gt;
+&lt;br /&gt;
+&lt;br /&gt;
+在开创性的《孤岛危机》之后，外星人回到了一个气候灾难肆虐的世界。当入侵者把纽约夷为平地，并开始了一场可能导致全人类灭亡的进攻时，只有你掌握着能够领导反击的科技。在扮演一名装备了升级版纳米服2.0的超级战士时，你必须使用其颠覆性的隐身、装甲和力量能力来适应战场。实时调整你的纳米服和武器，解锁强大的新能力，为人类的生存而战。</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>2187270</t>
+          <t>2096610</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Automatic war</t>
+          <t>Crysis 3 Remastered</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Automatic war</t>
+          <t>孤岛危机3：重制版</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>策略,战争游戏,休闲,自走棋,玩家对战环境</t>
+          <t>动作,第一人称射击,射击,外星人,英雄射击</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
@@ -40470,123 +40463,167 @@
           <t>Game</t>
         </is>
       </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
       <c r="G949" t="inlineStr">
         <is>
-          <t>2022年11月02日</t>
+          <t>2022年11月17日</t>
         </is>
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>&amp;quot;Automatic war&amp;quot; is a cool auto battler. You are not in control of the battle process itself, but you can influence the outcome of the battle before the battle begins.&lt;br&gt;&lt;br&gt;Choose wisely who will fight. Some units are ranged, some fight at close range, some only slow down the enemy and deal no damage.&lt;br&gt;&lt;br&gt;Don't forget about the position of your fighters! If the exploder breaks into your army, then the outcome of the battle will not be on your side. Tactical thinking and the will to win will decide the outcome of your battle!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Main features:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; Dynamic gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt; Nice pixel-art visuals&lt;br&gt;&lt;/li&gt;&lt;li&gt; Many dangerous enemies&lt;br&gt;&lt;/li&gt;&lt;li&gt; Interesting gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt; 50 levels!&lt;br&gt;&lt;/li&gt;&lt;li&gt; Steam Achievements support&lt;/li&gt;&lt;/ul&gt;</t>
+          <t>Crysis 3 Remastered重现了著名第一人称射击游戏《孤岛危机3》的单人战役，并且针对今天的硬件进行了优化。&lt;br /&gt;
+&lt;br /&gt;
+在Crysis 3 Remastered中，世界的命运再次掌握在你的手里。扮演超级战士先知重返战斗，挥舞能够发射带电箭、爆炸箭和碳素箭的强大的自动装填捕食者之弓，迎战威胁着你努力实现的和平的新老敌人。搜索阿尔法塞弗的行动仍在继续，但同时你也必须揭开C.E.L.L.公司背后的秘密，它把纽约变成了一座被巨大的纳米穹顶所笼罩的庞大都市雨林。当穿着传奇的纳米服在七个风格各异的地区作战时，你必须选择你的路径，评估、适应然后发起攻击。使用纳米服的超级科技，靠狂暴的力量杀死敌人，或者通过隐身来达成目标，成为人类沉默的救世主。不择手段，拯救世界。</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>2223240</t>
+          <t>2187270</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Sword and Fairy 7 - Dreamlike World Expansion</t>
+          <t>Automatic war</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>仙剑奇侠传七 - 人间如梦扩展包</t>
+          <t>Automatic war</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>角色扮演,动作,冒险</t>
+          <t>策略,战争游戏,休闲,自走棋,玩家对战环境</t>
         </is>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>DLC</t>
+          <t>Game</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>2023年02月14日</t>
+          <t>2022年11月02日</t>
         </is>
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>《仙剑奇侠传七》是由软星科技（北京）有限公司开发的动作角色扮演类游戏。 《人间如梦》作为《仙剑奇侠传七》首部DLC，对本篇故事进行了拓展延续，并引入全新的玩法系统与关卡设计，期待广大玩家在品味新故事的同时也能收获更加独特有趣的游玩体验。&lt;h2 class="bb_tag"&gt;新故事&lt;/h2&gt;为延续希望之火，月清疏与子秋踏上了未知的征途，重重险阻正在前方静候着他们的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/1.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新系统&lt;/h2&gt;月清疏将通过修行参悟获得全新的五灵技能，并灵活运用这些技能攻坚克难，努力实现自己的目标。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/2.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新角色&lt;/h2&gt;伶俐可爱的子秋现在可以由玩家控制来进行游戏啦，他又会带来哪些精彩有趣的表现呢？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/3.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新关卡&lt;/h2&gt;深入扑朔迷离的幻境世界，协助主角们寻找隐匿其中的蛛丝马迹，拨开迷雾，探求真相。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/4.gif?t=1676004116" /&gt;</t>
+          <t>&amp;quot;Automatic war&amp;quot; is a cool auto battler. You are not in control of the battle process itself, but you can influence the outcome of the battle before the battle begins.&lt;br&gt;&lt;br&gt;Choose wisely who will fight. Some units are ranged, some fight at close range, some only slow down the enemy and deal no damage.&lt;br&gt;&lt;br&gt;Don't forget about the position of your fighters! If the exploder breaks into your army, then the outcome of the battle will not be on your side. Tactical thinking and the will to win will decide the outcome of your battle!&lt;br&gt;&lt;br&gt;&lt;strong&gt;Main features:&lt;/strong&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt; Dynamic gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt; Nice pixel-art visuals&lt;br&gt;&lt;/li&gt;&lt;li&gt; Many dangerous enemies&lt;br&gt;&lt;/li&gt;&lt;li&gt; Interesting gameplay&lt;br&gt;&lt;/li&gt;&lt;li&gt; 50 levels!&lt;br&gt;&lt;/li&gt;&lt;li&gt; Steam Achievements support&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>2238200</t>
+          <t>2223240</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Roll Ball</t>
+          <t>Sword and Fairy 7 - Dreamlike World Expansion</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Roll Ball</t>
+          <t>仙剑奇侠传七 - 人间如梦扩展包</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>休闲,平台游戏,3D 平台,3D,放松</t>
+          <t>角色扮演,动作,冒险</t>
         </is>
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>Game</t>
+          <t>DLC</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>2022年12月16日</t>
+          <t>2023年02月14日</t>
         </is>
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>'Roll Ball' is a casual game. The operation of the game is simple, suitable for playing for a while in leisure time.&lt;br&gt;In the game, the ball will keep moving forward, and obstacles will appear in front of it. The ball must avoid these obstacles to get points.&lt;br&gt;[Game Operation]&lt;br&gt;Long press the left mouse button to move, used to control the ball movement.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2238200/extras/p1.jpg?t=1671181650" /&gt;&lt;br&gt;[Game Mode]&lt;br&gt;The game has 2 modes, endless mode and level mode.&lt;br&gt;[Game features]&lt;br&gt;The game will end when the ball encounters an obstacle, and the game will become more and more difficult over time.&lt;br&gt;Ruby can be obtained in the game. Ruby can buy balls of different styles and scenes of different styles in the store.&lt;br&gt;If the level mode is used, the game will become more and more difficult with the increase of the number of levels. It requires certain skills to pass the level.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2238200/extras/p2.jpg?t=1671181650" /&gt;</t>
+          <t>《仙剑奇侠传七》是由软星科技（北京）有限公司开发的动作角色扮演类游戏。 《人间如梦》作为《仙剑奇侠传七》首部DLC，对本篇故事进行了拓展延续，并引入全新的玩法系统与关卡设计，期待广大玩家在品味新故事的同时也能收获更加独特有趣的游玩体验。&lt;h2 class="bb_tag"&gt;新故事&lt;/h2&gt;为延续希望之火，月清疏与子秋踏上了未知的征途，重重险阻正在前方静候着他们的挑战。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/1.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新系统&lt;/h2&gt;月清疏将通过修行参悟获得全新的五灵技能，并灵活运用这些技能攻坚克难，努力实现自己的目标。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/2.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新角色&lt;/h2&gt;伶俐可爱的子秋现在可以由玩家控制来进行游戏啦，他又会带来哪些精彩有趣的表现呢？&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/3.gif?t=1676004116" /&gt;&lt;h2 class="bb_tag"&gt;新关卡&lt;/h2&gt;深入扑朔迷离的幻境世界，协助主角们寻找隐匿其中的蛛丝马迹，拨开迷雾，探求真相。&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2223240/extras/4.gif?t=1676004116" /&gt;</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
+          <t>2238200</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Roll Ball</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Roll Ball</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>休闲,平台游戏,3D 平台,3D,放松</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>2022年12月16日</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>'Roll Ball' is a casual game. The operation of the game is simple, suitable for playing for a while in leisure time.&lt;br&gt;In the game, the ball will keep moving forward, and obstacles will appear in front of it. The ball must avoid these obstacles to get points.&lt;br&gt;[Game Operation]&lt;br&gt;Long press the left mouse button to move, used to control the ball movement.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2238200/extras/p1.jpg?t=1671181650" /&gt;&lt;br&gt;[Game Mode]&lt;br&gt;The game has 2 modes, endless mode and level mode.&lt;br&gt;[Game features]&lt;br&gt;The game will end when the ball encounters an obstacle, and the game will become more and more difficult over time.&lt;br&gt;Ruby can be obtained in the game. Ruby can buy balls of different styles and scenes of different styles in the store.&lt;br&gt;If the level mode is used, the game will become more and more difficult with the increase of the number of levels. It requires certain skills to pass the level.&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2238200/extras/p2.jpg?t=1671181650" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
           <t>2240110</t>
         </is>
       </c>
-      <c r="B952" t="inlineStr">
+      <c r="B953" t="inlineStr">
         <is>
           <t>Mount &amp; Blade II: Bannerlord - Digital Companion</t>
         </is>
       </c>
-      <c r="C952" t="inlineStr">
+      <c r="C953" t="inlineStr">
         <is>
           <t>Mount &amp; Blade II: Bannerlord Digital Companion</t>
         </is>
       </c>
-      <c r="D952" t="inlineStr">
+      <c r="D953" t="inlineStr">
         <is>
           <t>策略,动作,角色扮演,独立,模拟</t>
         </is>
       </c>
-      <c r="E952" t="inlineStr">
+      <c r="E953" t="inlineStr">
         <is>
           <t>DLC</t>
         </is>
       </c>
-      <c r="G952" t="inlineStr">
+      <c r="G953" t="inlineStr">
         <is>
           <t>2022年12月17日</t>
         </is>
       </c>
-      <c r="H952" t="inlineStr">
+      <c r="H953" t="inlineStr">
         <is>
           <t>以前所未有的方式体验卡拉迪亚的征战生活，尽在《骑马与砍杀2：霸主》数字伙伴。数字伙伴包括：&lt;br /&gt;
 &lt;br /&gt;
@@ -40597,82 +40634,82 @@
         </is>
       </c>
     </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>2266770</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
-        </is>
-      </c>
-      <c r="C953" t="inlineStr">
-        <is>
-          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
-        </is>
-      </c>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>角色扮演,冒险,独立,策略</t>
-        </is>
-      </c>
-      <c r="E953" t="inlineStr">
-        <is>
-          <t>DLC</t>
-        </is>
-      </c>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>2023年03月07日</t>
-        </is>
-      </c>
-      <c r="H953" t="inlineStr">
-        <is>
-          <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
+          <t>2266770</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Pathfinder: Wrath of the Righteous - The Last Sarkorians</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>角色扮演,冒险,独立,策略</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>DLC</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>2023年03月07日</t>
+        </is>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>邂逅乌布里格·欧列克，四分五裂的萨阔力仅存的后裔之一。他身怀变形成强大狮鹫的绝技，能够成为您队伍中势不可挡的斗士、一位值得信赖的朋友——甚至可能不仅于此。&lt;br&gt;&lt;br&gt;&lt;ul class="bb_ul"&gt;&lt;li&gt;附带6个变体的新可选职业。成为一名化形师，使用动物拟态和形态，以野兽的怒火消灭您的敌人！&lt;br&gt;&lt;/li&gt;&lt;li&gt;队伍迎来新成员：一位从家园的灭顶之灾中神秘生还的萨阔力部族酋长。&lt;br&gt;&lt;/li&gt;&lt;li&gt;一个此前无法到访的全新地区，您将与新的盟友一起展开探索，与新的敌人交手，并揭示一些古老的秘密。&lt;br&gt;&lt;/li&gt;&lt;li&gt;9个全新法术将协助您与新敌人和老对手的战斗。&lt;br&gt;&lt;/li&gt;&lt;li&gt;不论男女角色，均可选择与乌布里格发展恋爱剧情。&lt;br&gt;&lt;/li&gt;&lt;li&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
           <t>2381590</t>
         </is>
       </c>
-      <c r="B954" t="inlineStr">
+      <c r="B955" t="inlineStr">
         <is>
           <t>Only Up!</t>
         </is>
       </c>
-      <c r="C954" t="inlineStr">
+      <c r="C955" t="inlineStr">
         <is>
           <t>Only Up!</t>
         </is>
       </c>
-      <c r="D954" t="inlineStr">
+      <c r="D955" t="inlineStr">
         <is>
           <t>3D 平台,跑酷,困难,休闲,子弹时间</t>
         </is>
       </c>
-      <c r="E954" t="inlineStr">
-        <is>
-          <t>Game</t>
-        </is>
-      </c>
-      <c r="F954" t="inlineStr">
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr">
         <is>
           <t>6.4</t>
         </is>
       </c>
-      <c r="G954" t="inlineStr">
+      <c r="G955" t="inlineStr">
         <is>
           <t>2023年05月24日</t>
         </is>
       </c>
-      <c r="H954" t="inlineStr">
-        <is>
-          <t>你是一位来自贫民窟的青少年杰基，他想要摆脱贫困，踏上了解世界和自己的旅程。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/1.gif?t=1688987288" /&gt;&lt;br&gt;&lt;br&gt;这个世界肯定已经疯了，虽然从来没有正常过，但也许现在就是你的机会。 危机是采取行动和果断步骤的时候……只是它很可怕，因为每一步都可能让你倒退很多。&lt;br&gt;&lt;br&gt;有时很难选择正确的道路，但不要害怕，你可以随时重复，我们从错误中学习。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/2.gif?t=1688987288" /&gt;&lt;br&gt;&lt;br&gt;杰基必须明白，为了到达一个新的地方，你必须首先跳跃并离开地面，不知道未来会发生什么......&lt;br&gt;武士没有目标，只有一条路，坚忍、耐心和狡猾将帮助你到达顶峰，但你永远不知道那里等待着什么......&lt;br&gt;&lt;br&gt;向前？ “只有UP！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/4.gif?t=1688987288" /&gt;&lt;br&gt;&lt;br&gt;“Only UP！” 灵感来自童话故事“杰克和豆茎”，类似于平台游戏。 你必须经历与杰克相同的神话之路，才能取得比攀登顶峰更多的成就。&lt;br&gt;&lt;br&gt;游戏的特色之一是能够放慢时间并改变角色的速度，以便在迈出重要的一步或跳跃时尽可能集中注意力。 该游戏还包含数百个复活节彩蛋和各种参考资料。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/5.gif?t=1688987288" /&gt;&lt;br&gt;&lt;br&gt;请注意，游戏中没有进度保存 - 事实是，每个后续级别都会提高游戏中的赌注，爬得越高，跌倒就越痛苦......但凡没有跌倒的人就没有上升&lt;br&gt;这让比赛变得更加紧张和紧张，但这就是重点——要登顶，你需要跨过恐惧和烦躁，冷静下来，慢慢但坚定地朝着目标——登顶！ 毕竟，最重要的不是目标，而是路径。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/6.gif?t=1688987288" /&gt;&lt;br&gt;&lt;br&gt;... 完成游戏的平均时间 40 - 120 分钟，甚至无穷大（！！！记录不到 23 分钟！！！） 如果你喜欢快节奏的射击游戏，或者你是那种容易放弃的人，想一想购买游戏前两次。 但通过一定的方法，游戏可以给你一种自由感和空间感。&lt;br&gt;&lt;br&gt;……万步之行，从第一步开始……</t>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>你是一位来自贫民窟的青少年杰基，他想要摆脱贫困，踏上了解世界和自己的旅程。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/1.gif?t=1689443414" /&gt;&lt;br&gt;&lt;br&gt;这个世界肯定已经疯了，虽然从来没有正常过，但也许现在就是你的机会。 危机是采取行动和果断步骤的时候……只是它很可怕，因为每一步都可能让你倒退很多。&lt;br&gt;&lt;br&gt;有时很难选择正确的道路，但不要害怕，你可以随时重复，我们从错误中学习。&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/2.gif?t=1689443414" /&gt;&lt;br&gt;&lt;br&gt;杰基必须明白，为了到达一个新的地方，你必须首先跳跃并离开地面，不知道未来会发生什么......&lt;br&gt;武士没有目标，只有一条路，坚忍、耐心和狡猾将帮助你到达顶峰，但你永远不知道那里等待着什么......&lt;br&gt;&lt;br&gt;向前？ “只有UP！&lt;br&gt;&lt;br&gt;&lt;img src="https://cdn.akamai.steamstatic.com/steam/apps/2381590/extras/4.gif?t=1689443414" /&gt;&lt;br&gt;&lt;br&gt;“Only UP！” 灵感来自童话故事“杰克和豆茎”，类似于平台游戏。 你必须经历与杰克相同的神话之路，才能取得比攀登顶峰更多的成就。&lt;br&gt;&lt;br&gt;游戏的特色之一是能够放慢时间并改变角色的速度，以便在迈出重要的一步或跳跃时尽可能集中注意力。 该游戏还包含数百个复活节彩蛋和各种参考资料。&lt;br&gt;&lt;br&gt;请注意，游戏中没有进度保存 - 事实是，每个后续级别都会提高游戏中的赌注，爬得越高，跌倒就越痛苦......但凡没有跌倒的人就没有上升&lt;br&gt;这让比赛变得更加紧张和紧张，但这就是重点——要登顶，你需要跨过恐惧和烦躁，冷静下来，慢慢但坚定地朝着目标——登顶！ 毕竟，最重要的不是目标，而是路径。&lt;br&gt;&lt;br&gt;... 完成游戏的平均时间 40 - 120 分钟，甚至无穷大（！！！记录不到 23 分钟！！！） 如果你喜欢快节奏的射击游戏，或者你是那种容易放弃的人，想一想购买游戏前两次。 但通过一定的方法，游戏可以给你一种自由感和空间感。&lt;br&gt;&lt;br&gt;……万步之行，从第一步开始……</t>
         </is>
       </c>
     </row>
